--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,10 +454,16 @@
     <t>['47']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['4', '78']</t>
+  </si>
+  <si>
     <t>['66']</t>
   </si>
   <si>
-    <t>['88']</t>
+    <t>['21', '56', '64']</t>
   </si>
   <si>
     <t>['9', '18', '83']</t>
@@ -598,12 +604,12 @@
     <t>['10', '31']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['44']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -611,6 +617,15 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['6', '28']</t>
+  </si>
+  <si>
+    <t>['74', '83']</t>
+  </si>
+  <si>
+    <t>['12', '78']</t>
   </si>
 </sst>
 </file>
@@ -972,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK95"/>
+  <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,7 +1422,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1497,7 +1512,7 @@
         <v>1.8</v>
       </c>
       <c r="AT3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1688,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1789,7 +1804,7 @@
         <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2171,7 +2186,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2362,7 +2377,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2449,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
         <v>1.2</v>
@@ -2831,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AT10">
         <v>0.2</v>
@@ -2935,7 +2950,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3025,7 +3040,7 @@
         <v>1.8</v>
       </c>
       <c r="AT11">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3213,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT12">
         <v>2.6</v>
@@ -3407,7 +3422,7 @@
         <v>2.4</v>
       </c>
       <c r="AT13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3508,7 +3523,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3595,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT14">
         <v>0.6</v>
@@ -3699,7 +3714,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3977,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4081,7 +4096,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4463,7 +4478,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4553,7 +4568,7 @@
         <v>0.17</v>
       </c>
       <c r="AT19">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4654,7 +4669,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4744,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="AT20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU20">
         <v>1.34</v>
@@ -4845,7 +4860,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5036,7 +5051,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5126,7 +5141,7 @@
         <v>1.2</v>
       </c>
       <c r="AT22">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -5505,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT24">
         <v>1.2</v>
@@ -5800,7 +5815,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -5887,7 +5902,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT26">
         <v>1.4</v>
@@ -6078,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AT27">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU27">
         <v>1.83</v>
@@ -6182,7 +6197,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6272,7 +6287,7 @@
         <v>0.17</v>
       </c>
       <c r="AT28">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU28">
         <v>1.63</v>
@@ -6373,7 +6388,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6463,7 +6478,7 @@
         <v>0.2</v>
       </c>
       <c r="AT29">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU29">
         <v>1.52</v>
@@ -6564,7 +6579,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6651,7 +6666,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT30">
         <v>2.6</v>
@@ -6755,7 +6770,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7137,7 +7152,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7227,7 +7242,7 @@
         <v>1.67</v>
       </c>
       <c r="AT33">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU33">
         <v>0.93</v>
@@ -7328,7 +7343,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7606,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT35">
         <v>2</v>
@@ -7710,7 +7725,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7901,7 +7916,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8182,7 +8197,7 @@
         <v>3</v>
       </c>
       <c r="AT38">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU38">
         <v>2.68</v>
@@ -8283,7 +8298,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8665,7 +8680,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8752,7 +8767,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AT41">
         <v>1.83</v>
@@ -8943,7 +8958,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
         <v>1.2</v>
@@ -9047,7 +9062,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9325,10 +9340,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT44">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU44">
         <v>1.84</v>
@@ -9516,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT45">
         <v>0.2</v>
@@ -9620,7 +9635,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9710,7 +9725,7 @@
         <v>1.2</v>
       </c>
       <c r="AT46">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -9898,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT47">
         <v>0.6</v>
@@ -10002,7 +10017,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10283,7 +10298,7 @@
         <v>2.4</v>
       </c>
       <c r="AT49">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>2.74</v>
@@ -10575,7 +10590,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10766,7 +10781,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -10957,7 +10972,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11148,7 +11163,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11238,7 +11253,7 @@
         <v>1.8</v>
       </c>
       <c r="AT54">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU54">
         <v>0.92</v>
@@ -11339,7 +11354,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>16</v>
@@ -11429,7 +11444,7 @@
         <v>0.8</v>
       </c>
       <c r="AT55">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU55">
         <v>1.66</v>
@@ -11617,7 +11632,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT56">
         <v>1.5</v>
@@ -11721,7 +11736,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11912,7 +11927,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11999,10 +12014,10 @@
         <v>0.67</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AT58">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU58">
         <v>1.46</v>
@@ -12103,7 +12118,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12294,7 +12309,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12381,7 +12396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT60">
         <v>1.17</v>
@@ -12485,7 +12500,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12763,10 +12778,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT62">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU62">
         <v>0.99</v>
@@ -13148,7 +13163,7 @@
         <v>2</v>
       </c>
       <c r="AT64">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU64">
         <v>2.15</v>
@@ -13249,7 +13264,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13440,7 +13455,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13530,7 +13545,7 @@
         <v>2.4</v>
       </c>
       <c r="AT66">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU66">
         <v>2.03</v>
@@ -13721,7 +13736,7 @@
         <v>0.8</v>
       </c>
       <c r="AT67">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU67">
         <v>1.91</v>
@@ -13822,7 +13837,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13912,7 +13927,7 @@
         <v>1.2</v>
       </c>
       <c r="AT68">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU68">
         <v>1.8</v>
@@ -14100,7 +14115,7 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT69">
         <v>2.6</v>
@@ -14395,7 +14410,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14777,7 +14792,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -14968,7 +14983,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15055,10 +15070,10 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AT74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU74">
         <v>1.65</v>
@@ -15159,7 +15174,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15350,7 +15365,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15440,7 +15455,7 @@
         <v>3</v>
       </c>
       <c r="AT76">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>2.96</v>
@@ -15541,7 +15556,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15628,7 +15643,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
         <v>1.83</v>
@@ -15732,7 +15747,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q78">
         <v>14</v>
@@ -15923,7 +15938,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16010,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT79">
         <v>0.67</v>
@@ -16114,7 +16129,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16201,10 +16216,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT80">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16496,7 +16511,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16586,7 +16601,7 @@
         <v>1.67</v>
       </c>
       <c r="AT82">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU82">
         <v>1.08</v>
@@ -16687,7 +16702,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16878,7 +16893,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17069,7 +17084,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17159,7 +17174,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU85">
         <v>1.02</v>
@@ -17260,7 +17275,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17409,7 +17424,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2808731</v>
+        <v>2808725</v>
       </c>
       <c r="C87" t="s">
         <v>63</v>
@@ -17424,52 +17439,52 @@
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <v>1</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O87" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>5</v>
       </c>
       <c r="R87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U87">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V87">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="W87">
         <v>1.44</v>
@@ -17478,121 +17493,121 @@
         <v>2.63</v>
       </c>
       <c r="Y87">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z87">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB87">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC87">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="AD87">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AE87">
-        <v>2.65</v>
+        <v>3.55</v>
       </c>
       <c r="AF87">
         <v>1.04</v>
       </c>
       <c r="AG87">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AH87">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AI87">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="AJ87">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AK87">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="AL87">
+        <v>1.95</v>
+      </c>
+      <c r="AM87">
         <v>1.8</v>
       </c>
-      <c r="AM87">
+      <c r="AN87">
+        <v>1.25</v>
+      </c>
+      <c r="AO87">
+        <v>1.32</v>
+      </c>
+      <c r="AP87">
+        <v>1.77</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>0</v>
+      </c>
+      <c r="AS87">
+        <v>0.8</v>
+      </c>
+      <c r="AT87">
+        <v>0.6</v>
+      </c>
+      <c r="AU87">
         <v>1.95</v>
       </c>
-      <c r="AN87">
-        <v>1.44</v>
-      </c>
-      <c r="AO87">
-        <v>1.33</v>
-      </c>
-      <c r="AP87">
-        <v>1.46</v>
-      </c>
-      <c r="AQ87">
-        <v>0</v>
-      </c>
-      <c r="AR87">
-        <v>1.25</v>
-      </c>
-      <c r="AS87">
-        <v>0.2</v>
-      </c>
-      <c r="AT87">
-        <v>1.2</v>
-      </c>
-      <c r="AU87">
-        <v>1.74</v>
-      </c>
       <c r="AV87">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AW87">
-        <v>2.76</v>
+        <v>3.03</v>
       </c>
       <c r="AX87">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AY87">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ87">
-        <v>2.29</v>
+        <v>2.92</v>
       </c>
       <c r="BA87">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BB87">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="BC87">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="BD87">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BE87">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="BF87">
         <v>4</v>
       </c>
       <c r="BG87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH87">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BJ87">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BK87">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:63">
@@ -17600,7 +17615,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2808725</v>
+        <v>2808731</v>
       </c>
       <c r="C88" t="s">
         <v>63</v>
@@ -17615,52 +17630,52 @@
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
         <v>1</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="P88" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q88">
         <v>5</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V88">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W88">
         <v>1.44</v>
@@ -17669,121 +17684,121 @@
         <v>2.63</v>
       </c>
       <c r="Y88">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z88">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB88">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC88">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="AD88">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE88">
-        <v>3.55</v>
+        <v>2.65</v>
       </c>
       <c r="AF88">
         <v>1.04</v>
       </c>
       <c r="AG88">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AH88">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AI88">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="AJ88">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AK88">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="AL88">
+        <v>1.8</v>
+      </c>
+      <c r="AM88">
         <v>1.95</v>
       </c>
-      <c r="AM88">
-        <v>1.8</v>
-      </c>
       <c r="AN88">
+        <v>1.44</v>
+      </c>
+      <c r="AO88">
+        <v>1.33</v>
+      </c>
+      <c r="AP88">
+        <v>1.46</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
         <v>1.25</v>
       </c>
-      <c r="AO88">
-        <v>1.32</v>
-      </c>
-      <c r="AP88">
-        <v>1.77</v>
-      </c>
-      <c r="AQ88">
-        <v>1</v>
-      </c>
-      <c r="AR88">
-        <v>0</v>
-      </c>
       <c r="AS88">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AT88">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AU88">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="AV88">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AW88">
-        <v>3.03</v>
+        <v>2.76</v>
       </c>
       <c r="AX88">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AY88">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="AZ88">
-        <v>2.92</v>
+        <v>2.29</v>
       </c>
       <c r="BA88">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="BB88">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="BC88">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="BD88">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="BE88">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="BF88">
         <v>4</v>
       </c>
       <c r="BG88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH88">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BI88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ88">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BK88">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:63">
@@ -17833,7 +17848,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18024,7 +18039,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18111,7 +18126,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT90">
         <v>1.2</v>
@@ -18305,7 +18320,7 @@
         <v>1.8</v>
       </c>
       <c r="AT91">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU91">
         <v>1.13</v>
@@ -18406,7 +18421,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18597,7 +18612,7 @@
         <v>143</v>
       </c>
       <c r="P93" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19121,6 +19136,1152 @@
       </c>
       <c r="BK95">
         <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2808738</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44864.52083333334</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>146</v>
+      </c>
+      <c r="P96" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q96">
+        <v>10</v>
+      </c>
+      <c r="R96">
+        <v>7</v>
+      </c>
+      <c r="S96">
+        <v>17</v>
+      </c>
+      <c r="T96">
+        <v>3.1</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
+        <v>3.75</v>
+      </c>
+      <c r="W96">
+        <v>1.5</v>
+      </c>
+      <c r="X96">
+        <v>2.5</v>
+      </c>
+      <c r="Y96">
+        <v>3.4</v>
+      </c>
+      <c r="Z96">
+        <v>1.3</v>
+      </c>
+      <c r="AA96">
+        <v>10</v>
+      </c>
+      <c r="AB96">
+        <v>1.06</v>
+      </c>
+      <c r="AC96">
+        <v>2.06</v>
+      </c>
+      <c r="AD96">
+        <v>3.2</v>
+      </c>
+      <c r="AE96">
+        <v>3.4</v>
+      </c>
+      <c r="AF96">
+        <v>1.08</v>
+      </c>
+      <c r="AG96">
+        <v>8.5</v>
+      </c>
+      <c r="AH96">
+        <v>1.42</v>
+      </c>
+      <c r="AI96">
+        <v>2.85</v>
+      </c>
+      <c r="AJ96">
+        <v>2.11</v>
+      </c>
+      <c r="AK96">
+        <v>1.65</v>
+      </c>
+      <c r="AL96">
+        <v>1.95</v>
+      </c>
+      <c r="AM96">
+        <v>1.8</v>
+      </c>
+      <c r="AN96">
+        <v>1.36</v>
+      </c>
+      <c r="AO96">
+        <v>1.3</v>
+      </c>
+      <c r="AP96">
+        <v>1.6</v>
+      </c>
+      <c r="AQ96">
+        <v>1.8</v>
+      </c>
+      <c r="AR96">
+        <v>2</v>
+      </c>
+      <c r="AS96">
+        <v>1.67</v>
+      </c>
+      <c r="AT96">
+        <v>1.83</v>
+      </c>
+      <c r="AU96">
+        <v>1.53</v>
+      </c>
+      <c r="AV96">
+        <v>1.41</v>
+      </c>
+      <c r="AW96">
+        <v>2.94</v>
+      </c>
+      <c r="AX96">
+        <v>1.76</v>
+      </c>
+      <c r="AY96">
+        <v>7.9</v>
+      </c>
+      <c r="AZ96">
+        <v>2.59</v>
+      </c>
+      <c r="BA96">
+        <v>1.18</v>
+      </c>
+      <c r="BB96">
+        <v>1.33</v>
+      </c>
+      <c r="BC96">
+        <v>1.64</v>
+      </c>
+      <c r="BD96">
+        <v>2.07</v>
+      </c>
+      <c r="BE96">
+        <v>2.73</v>
+      </c>
+      <c r="BF96">
+        <v>10</v>
+      </c>
+      <c r="BG96">
+        <v>6</v>
+      </c>
+      <c r="BH96">
+        <v>14</v>
+      </c>
+      <c r="BI96">
+        <v>5</v>
+      </c>
+      <c r="BJ96">
+        <v>24</v>
+      </c>
+      <c r="BK96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:63">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>2808744</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44864.52083333334</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>147</v>
+      </c>
+      <c r="P97" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q97">
+        <v>6</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>7</v>
+      </c>
+      <c r="T97">
+        <v>3.1</v>
+      </c>
+      <c r="U97">
+        <v>2.05</v>
+      </c>
+      <c r="V97">
+        <v>3.6</v>
+      </c>
+      <c r="W97">
+        <v>1.44</v>
+      </c>
+      <c r="X97">
+        <v>2.63</v>
+      </c>
+      <c r="Y97">
+        <v>3.25</v>
+      </c>
+      <c r="Z97">
+        <v>1.33</v>
+      </c>
+      <c r="AA97">
+        <v>9</v>
+      </c>
+      <c r="AB97">
+        <v>1.07</v>
+      </c>
+      <c r="AC97">
+        <v>2.32</v>
+      </c>
+      <c r="AD97">
+        <v>3.2</v>
+      </c>
+      <c r="AE97">
+        <v>2.84</v>
+      </c>
+      <c r="AF97">
+        <v>1.07</v>
+      </c>
+      <c r="AG97">
+        <v>8</v>
+      </c>
+      <c r="AH97">
+        <v>1.33</v>
+      </c>
+      <c r="AI97">
+        <v>3.2</v>
+      </c>
+      <c r="AJ97">
+        <v>2.09</v>
+      </c>
+      <c r="AK97">
+        <v>1.66</v>
+      </c>
+      <c r="AL97">
+        <v>1.91</v>
+      </c>
+      <c r="AM97">
+        <v>1.91</v>
+      </c>
+      <c r="AN97">
+        <v>1.33</v>
+      </c>
+      <c r="AO97">
+        <v>1.37</v>
+      </c>
+      <c r="AP97">
+        <v>1.52</v>
+      </c>
+      <c r="AQ97">
+        <v>2</v>
+      </c>
+      <c r="AR97">
+        <v>1.4</v>
+      </c>
+      <c r="AS97">
+        <v>1.83</v>
+      </c>
+      <c r="AT97">
+        <v>1.33</v>
+      </c>
+      <c r="AU97">
+        <v>1.43</v>
+      </c>
+      <c r="AV97">
+        <v>1.56</v>
+      </c>
+      <c r="AW97">
+        <v>2.99</v>
+      </c>
+      <c r="AX97">
+        <v>1.74</v>
+      </c>
+      <c r="AY97">
+        <v>8</v>
+      </c>
+      <c r="AZ97">
+        <v>2.63</v>
+      </c>
+      <c r="BA97">
+        <v>1.18</v>
+      </c>
+      <c r="BB97">
+        <v>1.33</v>
+      </c>
+      <c r="BC97">
+        <v>1.62</v>
+      </c>
+      <c r="BD97">
+        <v>2.04</v>
+      </c>
+      <c r="BE97">
+        <v>2.69</v>
+      </c>
+      <c r="BF97">
+        <v>6</v>
+      </c>
+      <c r="BG97">
+        <v>5</v>
+      </c>
+      <c r="BH97">
+        <v>8</v>
+      </c>
+      <c r="BI97">
+        <v>2</v>
+      </c>
+      <c r="BJ97">
+        <v>14</v>
+      </c>
+      <c r="BK97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:63">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2808742</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44864.625</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s">
+        <v>66</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>148</v>
+      </c>
+      <c r="P98" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q98">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>4</v>
+      </c>
+      <c r="S98">
+        <v>7</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>4.5</v>
+      </c>
+      <c r="W98">
+        <v>1.5</v>
+      </c>
+      <c r="X98">
+        <v>2.5</v>
+      </c>
+      <c r="Y98">
+        <v>3.4</v>
+      </c>
+      <c r="Z98">
+        <v>1.3</v>
+      </c>
+      <c r="AA98">
+        <v>10</v>
+      </c>
+      <c r="AB98">
+        <v>1.06</v>
+      </c>
+      <c r="AC98">
+        <v>2.09</v>
+      </c>
+      <c r="AD98">
+        <v>3.1</v>
+      </c>
+      <c r="AE98">
+        <v>3.4</v>
+      </c>
+      <c r="AF98">
+        <v>1.08</v>
+      </c>
+      <c r="AG98">
+        <v>8</v>
+      </c>
+      <c r="AH98">
+        <v>1.44</v>
+      </c>
+      <c r="AI98">
+        <v>2.8</v>
+      </c>
+      <c r="AJ98">
+        <v>2.19</v>
+      </c>
+      <c r="AK98">
+        <v>1.6</v>
+      </c>
+      <c r="AL98">
+        <v>2</v>
+      </c>
+      <c r="AM98">
+        <v>1.75</v>
+      </c>
+      <c r="AN98">
+        <v>1.25</v>
+      </c>
+      <c r="AO98">
+        <v>1.28</v>
+      </c>
+      <c r="AP98">
+        <v>1.8</v>
+      </c>
+      <c r="AQ98">
+        <v>1.4</v>
+      </c>
+      <c r="AR98">
+        <v>0.6</v>
+      </c>
+      <c r="AS98">
+        <v>1.67</v>
+      </c>
+      <c r="AT98">
+        <v>0.5</v>
+      </c>
+      <c r="AU98">
+        <v>1.28</v>
+      </c>
+      <c r="AV98">
+        <v>1.22</v>
+      </c>
+      <c r="AW98">
+        <v>2.5</v>
+      </c>
+      <c r="AX98">
+        <v>1.62</v>
+      </c>
+      <c r="AY98">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ98">
+        <v>2.92</v>
+      </c>
+      <c r="BA98">
+        <v>1.21</v>
+      </c>
+      <c r="BB98">
+        <v>1.29</v>
+      </c>
+      <c r="BC98">
+        <v>1.56</v>
+      </c>
+      <c r="BD98">
+        <v>1.95</v>
+      </c>
+      <c r="BE98">
+        <v>2.53</v>
+      </c>
+      <c r="BF98">
+        <v>3</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>10</v>
+      </c>
+      <c r="BI98">
+        <v>11</v>
+      </c>
+      <c r="BJ98">
+        <v>13</v>
+      </c>
+      <c r="BK98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:63">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2808741</v>
+      </c>
+      <c r="C99" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44864.72916666666</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>84</v>
+      </c>
+      <c r="P99" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q99">
+        <v>5</v>
+      </c>
+      <c r="R99">
+        <v>8</v>
+      </c>
+      <c r="S99">
+        <v>13</v>
+      </c>
+      <c r="T99">
+        <v>4.75</v>
+      </c>
+      <c r="U99">
+        <v>2.3</v>
+      </c>
+      <c r="V99">
+        <v>2.3</v>
+      </c>
+      <c r="W99">
+        <v>1.33</v>
+      </c>
+      <c r="X99">
+        <v>3.25</v>
+      </c>
+      <c r="Y99">
+        <v>2.63</v>
+      </c>
+      <c r="Z99">
+        <v>1.44</v>
+      </c>
+      <c r="AA99">
+        <v>6.5</v>
+      </c>
+      <c r="AB99">
+        <v>1.11</v>
+      </c>
+      <c r="AC99">
+        <v>4.15</v>
+      </c>
+      <c r="AD99">
+        <v>3.6</v>
+      </c>
+      <c r="AE99">
+        <v>1.72</v>
+      </c>
+      <c r="AF99">
+        <v>1.03</v>
+      </c>
+      <c r="AG99">
+        <v>11</v>
+      </c>
+      <c r="AH99">
+        <v>1.22</v>
+      </c>
+      <c r="AI99">
+        <v>4</v>
+      </c>
+      <c r="AJ99">
+        <v>1.86</v>
+      </c>
+      <c r="AK99">
+        <v>2</v>
+      </c>
+      <c r="AL99">
+        <v>1.75</v>
+      </c>
+      <c r="AM99">
+        <v>2</v>
+      </c>
+      <c r="AN99">
+        <v>2.1</v>
+      </c>
+      <c r="AO99">
+        <v>1.3</v>
+      </c>
+      <c r="AP99">
+        <v>1.13</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
+        <v>2.4</v>
+      </c>
+      <c r="AS99">
+        <v>0.71</v>
+      </c>
+      <c r="AT99">
+        <v>2.5</v>
+      </c>
+      <c r="AU99">
+        <v>1.68</v>
+      </c>
+      <c r="AV99">
+        <v>2.04</v>
+      </c>
+      <c r="AW99">
+        <v>3.72</v>
+      </c>
+      <c r="AX99">
+        <v>2.44</v>
+      </c>
+      <c r="AY99">
+        <v>7.7</v>
+      </c>
+      <c r="AZ99">
+        <v>1.85</v>
+      </c>
+      <c r="BA99">
+        <v>1.18</v>
+      </c>
+      <c r="BB99">
+        <v>1.38</v>
+      </c>
+      <c r="BC99">
+        <v>1.7</v>
+      </c>
+      <c r="BD99">
+        <v>2.13</v>
+      </c>
+      <c r="BE99">
+        <v>2.79</v>
+      </c>
+      <c r="BF99">
+        <v>2</v>
+      </c>
+      <c r="BG99">
+        <v>6</v>
+      </c>
+      <c r="BH99">
+        <v>7</v>
+      </c>
+      <c r="BI99">
+        <v>9</v>
+      </c>
+      <c r="BJ99">
+        <v>9</v>
+      </c>
+      <c r="BK99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:63">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>2808739</v>
+      </c>
+      <c r="C100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44865.71875</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100" t="s">
+        <v>149</v>
+      </c>
+      <c r="P100" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>7</v>
+      </c>
+      <c r="S100">
+        <v>8</v>
+      </c>
+      <c r="T100">
+        <v>2.75</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>4.75</v>
+      </c>
+      <c r="W100">
+        <v>1.5</v>
+      </c>
+      <c r="X100">
+        <v>2.5</v>
+      </c>
+      <c r="Y100">
+        <v>3.5</v>
+      </c>
+      <c r="Z100">
+        <v>1.29</v>
+      </c>
+      <c r="AA100">
+        <v>11</v>
+      </c>
+      <c r="AB100">
+        <v>1.05</v>
+      </c>
+      <c r="AC100">
+        <v>2.18</v>
+      </c>
+      <c r="AD100">
+        <v>3.05</v>
+      </c>
+      <c r="AE100">
+        <v>3.4</v>
+      </c>
+      <c r="AF100">
+        <v>1.08</v>
+      </c>
+      <c r="AG100">
+        <v>8</v>
+      </c>
+      <c r="AH100">
+        <v>1.44</v>
+      </c>
+      <c r="AI100">
+        <v>2.8</v>
+      </c>
+      <c r="AJ100">
+        <v>2.38</v>
+      </c>
+      <c r="AK100">
+        <v>1.55</v>
+      </c>
+      <c r="AL100">
+        <v>2.1</v>
+      </c>
+      <c r="AM100">
+        <v>1.67</v>
+      </c>
+      <c r="AN100">
+        <v>1.25</v>
+      </c>
+      <c r="AO100">
+        <v>1.33</v>
+      </c>
+      <c r="AP100">
+        <v>1.73</v>
+      </c>
+      <c r="AQ100">
+        <v>2</v>
+      </c>
+      <c r="AR100">
+        <v>0.2</v>
+      </c>
+      <c r="AS100">
+        <v>2.17</v>
+      </c>
+      <c r="AT100">
+        <v>0.17</v>
+      </c>
+      <c r="AU100">
+        <v>1.56</v>
+      </c>
+      <c r="AV100">
+        <v>1.43</v>
+      </c>
+      <c r="AW100">
+        <v>2.99</v>
+      </c>
+      <c r="AX100">
+        <v>1.62</v>
+      </c>
+      <c r="AY100">
+        <v>8.1</v>
+      </c>
+      <c r="AZ100">
+        <v>2.86</v>
+      </c>
+      <c r="BA100">
+        <v>1.29</v>
+      </c>
+      <c r="BB100">
+        <v>1.52</v>
+      </c>
+      <c r="BC100">
+        <v>1.87</v>
+      </c>
+      <c r="BD100">
+        <v>2.4</v>
+      </c>
+      <c r="BE100">
+        <v>3.2</v>
+      </c>
+      <c r="BF100">
+        <v>7</v>
+      </c>
+      <c r="BG100">
+        <v>5</v>
+      </c>
+      <c r="BH100">
+        <v>6</v>
+      </c>
+      <c r="BI100">
+        <v>6</v>
+      </c>
+      <c r="BJ100">
+        <v>13</v>
+      </c>
+      <c r="BK100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:63">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2808753</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="2">
+        <v>44869.71875</v>
+      </c>
+      <c r="F101">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>73</v>
+      </c>
+      <c r="H101" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>115</v>
+      </c>
+      <c r="P101" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>3</v>
+      </c>
+      <c r="S101">
+        <v>6</v>
+      </c>
+      <c r="T101">
+        <v>2.65</v>
+      </c>
+      <c r="U101">
+        <v>2.05</v>
+      </c>
+      <c r="V101">
+        <v>3.8</v>
+      </c>
+      <c r="W101">
+        <v>1.41</v>
+      </c>
+      <c r="X101">
+        <v>2.65</v>
+      </c>
+      <c r="Y101">
+        <v>2.9</v>
+      </c>
+      <c r="Z101">
+        <v>1.35</v>
+      </c>
+      <c r="AA101">
+        <v>7.75</v>
+      </c>
+      <c r="AB101">
+        <v>1.07</v>
+      </c>
+      <c r="AC101">
+        <v>2</v>
+      </c>
+      <c r="AD101">
+        <v>3.35</v>
+      </c>
+      <c r="AE101">
+        <v>3.45</v>
+      </c>
+      <c r="AF101">
+        <v>1.05</v>
+      </c>
+      <c r="AG101">
+        <v>10</v>
+      </c>
+      <c r="AH101">
+        <v>1.33</v>
+      </c>
+      <c r="AI101">
+        <v>3.25</v>
+      </c>
+      <c r="AJ101">
+        <v>1.95</v>
+      </c>
+      <c r="AK101">
+        <v>1.75</v>
+      </c>
+      <c r="AL101">
+        <v>1.82</v>
+      </c>
+      <c r="AM101">
+        <v>1.87</v>
+      </c>
+      <c r="AN101">
+        <v>1.3</v>
+      </c>
+      <c r="AO101">
+        <v>1.29</v>
+      </c>
+      <c r="AP101">
+        <v>1.72</v>
+      </c>
+      <c r="AQ101">
+        <v>0.83</v>
+      </c>
+      <c r="AR101">
+        <v>1.2</v>
+      </c>
+      <c r="AS101">
+        <v>0.71</v>
+      </c>
+      <c r="AT101">
+        <v>1.5</v>
+      </c>
+      <c r="AU101">
+        <v>1.57</v>
+      </c>
+      <c r="AV101">
+        <v>1.38</v>
+      </c>
+      <c r="AW101">
+        <v>2.95</v>
+      </c>
+      <c r="AX101">
+        <v>1.51</v>
+      </c>
+      <c r="AY101">
+        <v>8.5</v>
+      </c>
+      <c r="AZ101">
+        <v>3.07</v>
+      </c>
+      <c r="BA101">
+        <v>1.18</v>
+      </c>
+      <c r="BB101">
+        <v>1.32</v>
+      </c>
+      <c r="BC101">
+        <v>1.61</v>
+      </c>
+      <c r="BD101">
+        <v>2.02</v>
+      </c>
+      <c r="BE101">
+        <v>2.66</v>
+      </c>
+      <c r="BF101">
+        <v>7</v>
+      </c>
+      <c r="BG101">
+        <v>7</v>
+      </c>
+      <c r="BH101">
+        <v>13</v>
+      </c>
+      <c r="BI101">
+        <v>13</v>
+      </c>
+      <c r="BJ101">
+        <v>20</v>
+      </c>
+      <c r="BK101">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,33 @@
     <t>['21', '56', '64']</t>
   </si>
   <si>
+    <t>['4', '31', '39', '55']</t>
+  </si>
+  <si>
+    <t>['34', '40', '55']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['9', '36', '53']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['23', '43', '70']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -491,9 +518,6 @@
   </si>
   <si>
     <t>['61', '76']</t>
-  </si>
-  <si>
-    <t>['40']</t>
   </si>
   <si>
     <t>['46']</t>
@@ -545,9 +569,6 @@
   </si>
   <si>
     <t>['11', '25', '69']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['53']</t>
@@ -626,6 +647,33 @@
   </si>
   <si>
     <t>['12', '78']</t>
+  </si>
+  <si>
+    <t>['25', '30', '40', '67', '89']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['41', '64', '83', '90+2']</t>
+  </si>
+  <si>
+    <t>['48', '53']</t>
+  </si>
+  <si>
+    <t>['65', '83']</t>
+  </si>
+  <si>
+    <t>['82', '90+1']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['42', '45+3']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="AT2">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1509,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1700,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT4">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1891,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT5">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2082,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2186,7 +2234,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2273,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2377,7 +2425,7 @@
         <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2464,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2655,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT9">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2849,7 +2897,7 @@
         <v>0.71</v>
       </c>
       <c r="AT10">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2950,7 +2998,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3037,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3228,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT12">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3419,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3523,7 +3571,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3610,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT14">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3714,7 +3762,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3801,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT15">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3992,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT16">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4096,7 +4144,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4183,10 +4231,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4374,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT18">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4478,7 +4526,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4565,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT19">
         <v>1.5</v>
@@ -4669,7 +4717,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4756,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU20">
         <v>1.34</v>
@@ -4860,7 +4908,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4947,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT21">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU21">
         <v>1</v>
@@ -5051,7 +5099,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5138,10 +5186,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -5329,10 +5377,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT23">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU23">
         <v>2.3</v>
@@ -5520,10 +5568,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT24">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>0.85</v>
@@ -5711,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT25">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU25">
         <v>1.99</v>
@@ -5815,7 +5863,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -5902,10 +5950,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT26">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>2.15</v>
@@ -6096,7 +6144,7 @@
         <v>0.71</v>
       </c>
       <c r="AT27">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU27">
         <v>1.83</v>
@@ -6197,7 +6245,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6284,10 +6332,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT28">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU28">
         <v>1.63</v>
@@ -6388,7 +6436,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6475,7 +6523,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT29">
         <v>1.5</v>
@@ -6579,7 +6627,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6666,10 +6714,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT30">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -6770,7 +6818,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -6857,10 +6905,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU31">
         <v>2.67</v>
@@ -7048,10 +7096,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7152,7 +7200,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7239,10 +7287,10 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT33">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU33">
         <v>0.93</v>
@@ -7343,7 +7391,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7430,10 +7478,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT34">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU34">
         <v>0.91</v>
@@ -7621,10 +7669,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
+        <v>2.29</v>
+      </c>
+      <c r="AT35">
         <v>2.17</v>
-      </c>
-      <c r="AT35">
-        <v>2</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -7725,7 +7773,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -7812,10 +7860,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT36">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU36">
         <v>0.71</v>
@@ -7916,7 +7964,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8006,7 +8054,7 @@
         <v>3</v>
       </c>
       <c r="AT37">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU37">
         <v>2.43</v>
@@ -8197,7 +8245,7 @@
         <v>3</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU38">
         <v>2.68</v>
@@ -8298,7 +8346,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8385,10 +8433,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT39">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU39">
         <v>1.2</v>
@@ -8576,10 +8624,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT40">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU40">
         <v>2.32</v>
@@ -8680,7 +8728,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8770,7 +8818,7 @@
         <v>0.71</v>
       </c>
       <c r="AT41">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU41">
         <v>1.81</v>
@@ -8958,10 +9006,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU42">
         <v>0.97</v>
@@ -9062,7 +9110,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9149,10 +9197,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT43">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9340,10 +9388,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU44">
         <v>1.84</v>
@@ -9531,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT45">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU45">
         <v>1.23</v>
@@ -9635,7 +9683,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9722,10 +9770,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT46">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -9913,10 +9961,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT47">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU47">
         <v>1.62</v>
@@ -10017,7 +10065,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10104,10 +10152,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT48">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10295,7 +10343,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT49">
         <v>1.5</v>
@@ -10486,10 +10534,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU50">
         <v>1.9</v>
@@ -10590,7 +10638,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10677,10 +10725,10 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -10781,7 +10829,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -10868,10 +10916,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT52">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.09</v>
@@ -10972,7 +11020,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11059,10 +11107,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT53">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU53">
         <v>1.74</v>
@@ -11163,7 +11211,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11250,10 +11298,10 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT54">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU54">
         <v>0.92</v>
@@ -11354,7 +11402,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="Q55">
         <v>16</v>
@@ -11441,10 +11489,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT55">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU55">
         <v>1.66</v>
@@ -11632,10 +11680,10 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU56">
         <v>1.62</v>
@@ -11736,7 +11784,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11823,10 +11871,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT57">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -11927,7 +11975,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -12017,7 +12065,7 @@
         <v>0.71</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU58">
         <v>1.46</v>
@@ -12118,7 +12166,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12205,10 +12253,10 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT59">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU59">
         <v>1.06</v>
@@ -12309,7 +12357,7 @@
         <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12396,10 +12444,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT60">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU60">
         <v>1.33</v>
@@ -12500,7 +12548,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12587,10 +12635,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT61">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU61">
         <v>0.97</v>
@@ -12778,10 +12826,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT62">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU62">
         <v>0.99</v>
@@ -12972,7 +13020,7 @@
         <v>3</v>
       </c>
       <c r="AT63">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU63">
         <v>2.89</v>
@@ -13160,10 +13208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT64">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU64">
         <v>2.15</v>
@@ -13264,7 +13312,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13351,10 +13399,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT65">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU65">
         <v>2.47</v>
@@ -13455,7 +13503,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13542,10 +13590,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT66">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU66">
         <v>2.03</v>
@@ -13733,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT67">
         <v>1.5</v>
@@ -13837,7 +13885,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13924,10 +13972,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT68">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU68">
         <v>1.8</v>
@@ -14115,10 +14163,10 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT69">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU69">
         <v>1.52</v>
@@ -14306,10 +14354,10 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU70">
         <v>1.23</v>
@@ -14410,7 +14458,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14497,10 +14545,10 @@
         <v>1.33</v>
       </c>
       <c r="AS71">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT71">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU71">
         <v>1.69</v>
@@ -14688,10 +14736,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT72">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU72">
         <v>1.32</v>
@@ -14792,7 +14840,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -14879,10 +14927,10 @@
         <v>2.33</v>
       </c>
       <c r="AS73">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT73">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU73">
         <v>1.71</v>
@@ -14983,7 +15031,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15073,7 +15121,7 @@
         <v>0.71</v>
       </c>
       <c r="AT74">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU74">
         <v>1.65</v>
@@ -15174,7 +15222,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15261,10 +15309,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT75">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU75">
         <v>1.23</v>
@@ -15365,7 +15413,7 @@
         <v>134</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>8</v>
@@ -15455,7 +15503,7 @@
         <v>3</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU76">
         <v>2.96</v>
@@ -15556,7 +15604,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -15643,10 +15691,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT77">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU77">
         <v>1.66</v>
@@ -15747,7 +15795,7 @@
         <v>84</v>
       </c>
       <c r="P78" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q78">
         <v>14</v>
@@ -15834,10 +15882,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT78">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU78">
         <v>1.5</v>
@@ -15938,7 +15986,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16025,10 +16073,10 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU79">
         <v>1.23</v>
@@ -16129,7 +16177,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16216,10 +16264,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16407,10 +16455,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU81">
         <v>2.3</v>
@@ -16511,7 +16559,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16598,10 +16646,10 @@
         <v>0.25</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT82">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU82">
         <v>1.08</v>
@@ -16702,7 +16750,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16789,10 +16837,10 @@
         <v>2.5</v>
       </c>
       <c r="AS83">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT83">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -16893,7 +16941,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -16980,10 +17028,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU84">
         <v>1.27</v>
@@ -17084,7 +17132,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17171,10 +17219,10 @@
         <v>2.25</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT85">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU85">
         <v>1.02</v>
@@ -17275,7 +17323,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17362,10 +17410,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU86">
         <v>2.37</v>
@@ -17466,7 +17514,7 @@
         <v>84</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17553,10 +17601,10 @@
         <v>0</v>
       </c>
       <c r="AS87">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT87">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU87">
         <v>1.95</v>
@@ -17657,7 +17705,7 @@
         <v>139</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17744,10 +17792,10 @@
         <v>1.25</v>
       </c>
       <c r="AS88">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT88">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU88">
         <v>1.74</v>
@@ -17848,7 +17896,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -17935,10 +17983,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU89">
         <v>1.68</v>
@@ -18039,7 +18087,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18126,10 +18174,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT90">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.35</v>
@@ -18317,7 +18365,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT91">
         <v>1.5</v>
@@ -18421,7 +18469,7 @@
         <v>84</v>
       </c>
       <c r="P92" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="Q92">
         <v>6</v>
@@ -18508,10 +18556,10 @@
         <v>0.2</v>
       </c>
       <c r="AS92">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU92">
         <v>1.72</v>
@@ -18612,7 +18660,7 @@
         <v>143</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18699,10 +18747,10 @@
         <v>2</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT93">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU93">
         <v>1.28</v>
@@ -18893,7 +18941,7 @@
         <v>3</v>
       </c>
       <c r="AT94">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU94">
         <v>3.07</v>
@@ -19081,10 +19129,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT95">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU95">
         <v>1.16</v>
@@ -19272,10 +19320,10 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT96">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU96">
         <v>1.53</v>
@@ -19376,7 +19424,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19463,10 +19511,10 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT97">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -19654,10 +19702,10 @@
         <v>0.6</v>
       </c>
       <c r="AS98">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT98">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU98">
         <v>1.28</v>
@@ -19758,7 +19806,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19848,7 +19896,7 @@
         <v>0.71</v>
       </c>
       <c r="AT99">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -19949,7 +19997,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20036,10 +20084,10 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT100">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AU100">
         <v>1.56</v>
@@ -20140,16 +20188,16 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R101">
         <v>3</v>
       </c>
       <c r="S101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T101">
         <v>2.65</v>
@@ -20282,6 +20330,3253 @@
       </c>
       <c r="BK101">
         <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:63">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>2808754</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="2">
+        <v>44870.52083333334</v>
+      </c>
+      <c r="F102">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>78</v>
+      </c>
+      <c r="H102" t="s">
+        <v>81</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" t="s">
+        <v>84</v>
+      </c>
+      <c r="P102" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q102">
+        <v>11</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>13</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>1.98</v>
+      </c>
+      <c r="V102">
+        <v>4.5</v>
+      </c>
+      <c r="W102">
+        <v>1.46</v>
+      </c>
+      <c r="X102">
+        <v>2.5</v>
+      </c>
+      <c r="Y102">
+        <v>3</v>
+      </c>
+      <c r="Z102">
+        <v>1.33</v>
+      </c>
+      <c r="AA102">
+        <v>8.25</v>
+      </c>
+      <c r="AB102">
+        <v>1.06</v>
+      </c>
+      <c r="AC102">
+        <v>2.06</v>
+      </c>
+      <c r="AD102">
+        <v>3.2</v>
+      </c>
+      <c r="AE102">
+        <v>3.3</v>
+      </c>
+      <c r="AF102">
+        <v>1.07</v>
+      </c>
+      <c r="AG102">
+        <v>8.5</v>
+      </c>
+      <c r="AH102">
+        <v>1.4</v>
+      </c>
+      <c r="AI102">
+        <v>2.95</v>
+      </c>
+      <c r="AJ102">
+        <v>1.95</v>
+      </c>
+      <c r="AK102">
+        <v>1.75</v>
+      </c>
+      <c r="AL102">
+        <v>1.93</v>
+      </c>
+      <c r="AM102">
+        <v>1.75</v>
+      </c>
+      <c r="AN102">
+        <v>1.22</v>
+      </c>
+      <c r="AO102">
+        <v>1.31</v>
+      </c>
+      <c r="AP102">
+        <v>1.85</v>
+      </c>
+      <c r="AQ102">
+        <v>0.8</v>
+      </c>
+      <c r="AR102">
+        <v>1.2</v>
+      </c>
+      <c r="AS102">
+        <v>0.67</v>
+      </c>
+      <c r="AT102">
+        <v>1.5</v>
+      </c>
+      <c r="AU102">
+        <v>1.89</v>
+      </c>
+      <c r="AV102">
+        <v>1.16</v>
+      </c>
+      <c r="AW102">
+        <v>3.05</v>
+      </c>
+      <c r="AX102">
+        <v>1.69</v>
+      </c>
+      <c r="AY102">
+        <v>8.5</v>
+      </c>
+      <c r="AZ102">
+        <v>2.53</v>
+      </c>
+      <c r="BA102">
+        <v>1.18</v>
+      </c>
+      <c r="BB102">
+        <v>1.34</v>
+      </c>
+      <c r="BC102">
+        <v>1.61</v>
+      </c>
+      <c r="BD102">
+        <v>2.02</v>
+      </c>
+      <c r="BE102">
+        <v>2.7</v>
+      </c>
+      <c r="BF102">
+        <v>9</v>
+      </c>
+      <c r="BG102">
+        <v>3</v>
+      </c>
+      <c r="BH102">
+        <v>21</v>
+      </c>
+      <c r="BI102">
+        <v>4</v>
+      </c>
+      <c r="BJ102">
+        <v>30</v>
+      </c>
+      <c r="BK102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:63">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2808748</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" s="2">
+        <v>44870.625</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>68</v>
+      </c>
+      <c r="H103" t="s">
+        <v>82</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <v>4</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>4</v>
+      </c>
+      <c r="O103" t="s">
+        <v>150</v>
+      </c>
+      <c r="P103" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q103">
+        <v>4</v>
+      </c>
+      <c r="R103">
+        <v>6</v>
+      </c>
+      <c r="S103">
+        <v>10</v>
+      </c>
+      <c r="T103">
+        <v>1.43</v>
+      </c>
+      <c r="U103">
+        <v>3</v>
+      </c>
+      <c r="V103">
+        <v>13</v>
+      </c>
+      <c r="W103">
+        <v>1.24</v>
+      </c>
+      <c r="X103">
+        <v>3.7</v>
+      </c>
+      <c r="Y103">
+        <v>2</v>
+      </c>
+      <c r="Z103">
+        <v>1.7</v>
+      </c>
+      <c r="AA103">
+        <v>4.2</v>
+      </c>
+      <c r="AB103">
+        <v>1.19</v>
+      </c>
+      <c r="AC103">
+        <v>1.12</v>
+      </c>
+      <c r="AD103">
+        <v>8.5</v>
+      </c>
+      <c r="AE103">
+        <v>21</v>
+      </c>
+      <c r="AF103">
+        <v>1.02</v>
+      </c>
+      <c r="AG103">
+        <v>13</v>
+      </c>
+      <c r="AH103">
+        <v>1.11</v>
+      </c>
+      <c r="AI103">
+        <v>6.5</v>
+      </c>
+      <c r="AJ103">
+        <v>1.44</v>
+      </c>
+      <c r="AK103">
+        <v>2.75</v>
+      </c>
+      <c r="AL103">
+        <v>2.5</v>
+      </c>
+      <c r="AM103">
+        <v>1.46</v>
+      </c>
+      <c r="AN103">
+        <v>1.01</v>
+      </c>
+      <c r="AO103">
+        <v>1.06</v>
+      </c>
+      <c r="AP103">
+        <v>6.75</v>
+      </c>
+      <c r="AQ103">
+        <v>2.4</v>
+      </c>
+      <c r="AR103">
+        <v>0.2</v>
+      </c>
+      <c r="AS103">
+        <v>2.5</v>
+      </c>
+      <c r="AT103">
+        <v>0.17</v>
+      </c>
+      <c r="AU103">
+        <v>1.94</v>
+      </c>
+      <c r="AV103">
+        <v>1.11</v>
+      </c>
+      <c r="AW103">
+        <v>3.05</v>
+      </c>
+      <c r="AX103">
+        <v>1.08</v>
+      </c>
+      <c r="AY103">
+        <v>15</v>
+      </c>
+      <c r="AZ103">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BA103">
+        <v>1.17</v>
+      </c>
+      <c r="BB103">
+        <v>1.29</v>
+      </c>
+      <c r="BC103">
+        <v>1.5</v>
+      </c>
+      <c r="BD103">
+        <v>1.95</v>
+      </c>
+      <c r="BE103">
+        <v>2.43</v>
+      </c>
+      <c r="BF103">
+        <v>10</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>11</v>
+      </c>
+      <c r="BI103">
+        <v>11</v>
+      </c>
+      <c r="BJ103">
+        <v>21</v>
+      </c>
+      <c r="BK103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2808749</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44870.72916666666</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s">
+        <v>79</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>151</v>
+      </c>
+      <c r="P104" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q104">
+        <v>11</v>
+      </c>
+      <c r="R104">
+        <v>3</v>
+      </c>
+      <c r="S104">
+        <v>14</v>
+      </c>
+      <c r="T104">
+        <v>1.8</v>
+      </c>
+      <c r="U104">
+        <v>2.37</v>
+      </c>
+      <c r="V104">
+        <v>7</v>
+      </c>
+      <c r="W104">
+        <v>1.33</v>
+      </c>
+      <c r="X104">
+        <v>3</v>
+      </c>
+      <c r="Y104">
+        <v>2.5</v>
+      </c>
+      <c r="Z104">
+        <v>1.46</v>
+      </c>
+      <c r="AA104">
+        <v>6</v>
+      </c>
+      <c r="AB104">
+        <v>1.11</v>
+      </c>
+      <c r="AC104">
+        <v>1.42</v>
+      </c>
+      <c r="AD104">
+        <v>4.64</v>
+      </c>
+      <c r="AE104">
+        <v>7.2</v>
+      </c>
+      <c r="AF104">
+        <v>1.03</v>
+      </c>
+      <c r="AG104">
+        <v>13</v>
+      </c>
+      <c r="AH104">
+        <v>1.22</v>
+      </c>
+      <c r="AI104">
+        <v>4</v>
+      </c>
+      <c r="AJ104">
+        <v>1.73</v>
+      </c>
+      <c r="AK104">
+        <v>2.11</v>
+      </c>
+      <c r="AL104">
+        <v>2.1</v>
+      </c>
+      <c r="AM104">
+        <v>1.63</v>
+      </c>
+      <c r="AN104">
+        <v>1.07</v>
+      </c>
+      <c r="AO104">
+        <v>1.16</v>
+      </c>
+      <c r="AP104">
+        <v>3.2</v>
+      </c>
+      <c r="AQ104">
+        <v>2.4</v>
+      </c>
+      <c r="AR104">
+        <v>1.4</v>
+      </c>
+      <c r="AS104">
+        <v>2.5</v>
+      </c>
+      <c r="AT104">
+        <v>1.17</v>
+      </c>
+      <c r="AU104">
+        <v>2.44</v>
+      </c>
+      <c r="AV104">
+        <v>1.52</v>
+      </c>
+      <c r="AW104">
+        <v>3.96</v>
+      </c>
+      <c r="AX104">
+        <v>1.23</v>
+      </c>
+      <c r="AY104">
+        <v>10</v>
+      </c>
+      <c r="AZ104">
+        <v>5.15</v>
+      </c>
+      <c r="BA104">
+        <v>1.29</v>
+      </c>
+      <c r="BB104">
+        <v>1.53</v>
+      </c>
+      <c r="BC104">
+        <v>1.98</v>
+      </c>
+      <c r="BD104">
+        <v>2.55</v>
+      </c>
+      <c r="BE104">
+        <v>3.5</v>
+      </c>
+      <c r="BF104">
+        <v>8</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>11</v>
+      </c>
+      <c r="BI104">
+        <v>4</v>
+      </c>
+      <c r="BJ104">
+        <v>19</v>
+      </c>
+      <c r="BK104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2808750</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44871.52083333334</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>66</v>
+      </c>
+      <c r="H105" t="s">
+        <v>77</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>108</v>
+      </c>
+      <c r="P105" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q105">
+        <v>4</v>
+      </c>
+      <c r="R105">
+        <v>4</v>
+      </c>
+      <c r="S105">
+        <v>8</v>
+      </c>
+      <c r="T105">
+        <v>3.2</v>
+      </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105">
+        <v>3.75</v>
+      </c>
+      <c r="W105">
+        <v>1.5</v>
+      </c>
+      <c r="X105">
+        <v>2.5</v>
+      </c>
+      <c r="Y105">
+        <v>3.4</v>
+      </c>
+      <c r="Z105">
+        <v>1.3</v>
+      </c>
+      <c r="AA105">
+        <v>10</v>
+      </c>
+      <c r="AB105">
+        <v>1.06</v>
+      </c>
+      <c r="AC105">
+        <v>2.44</v>
+      </c>
+      <c r="AD105">
+        <v>3.1</v>
+      </c>
+      <c r="AE105">
+        <v>2.88</v>
+      </c>
+      <c r="AF105">
+        <v>1.08</v>
+      </c>
+      <c r="AG105">
+        <v>8</v>
+      </c>
+      <c r="AH105">
+        <v>1.42</v>
+      </c>
+      <c r="AI105">
+        <v>2.8</v>
+      </c>
+      <c r="AJ105">
+        <v>2.3</v>
+      </c>
+      <c r="AK105">
+        <v>1.62</v>
+      </c>
+      <c r="AL105">
+        <v>1.95</v>
+      </c>
+      <c r="AM105">
+        <v>1.8</v>
+      </c>
+      <c r="AN105">
+        <v>1.35</v>
+      </c>
+      <c r="AO105">
+        <v>1.34</v>
+      </c>
+      <c r="AP105">
+        <v>1.57</v>
+      </c>
+      <c r="AQ105">
+        <v>1.8</v>
+      </c>
+      <c r="AR105">
+        <v>1.2</v>
+      </c>
+      <c r="AS105">
+        <v>2</v>
+      </c>
+      <c r="AT105">
+        <v>1</v>
+      </c>
+      <c r="AU105">
+        <v>1.25</v>
+      </c>
+      <c r="AV105">
+        <v>1.17</v>
+      </c>
+      <c r="AW105">
+        <v>2.42</v>
+      </c>
+      <c r="AX105">
+        <v>1.81</v>
+      </c>
+      <c r="AY105">
+        <v>7.5</v>
+      </c>
+      <c r="AZ105">
+        <v>2.43</v>
+      </c>
+      <c r="BA105">
+        <v>1.22</v>
+      </c>
+      <c r="BB105">
+        <v>1.42</v>
+      </c>
+      <c r="BC105">
+        <v>1.74</v>
+      </c>
+      <c r="BD105">
+        <v>2.23</v>
+      </c>
+      <c r="BE105">
+        <v>3</v>
+      </c>
+      <c r="BF105">
+        <v>4</v>
+      </c>
+      <c r="BG105">
+        <v>3</v>
+      </c>
+      <c r="BH105">
+        <v>5</v>
+      </c>
+      <c r="BI105">
+        <v>11</v>
+      </c>
+      <c r="BJ105">
+        <v>9</v>
+      </c>
+      <c r="BK105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2808747</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44871.625</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s">
+        <v>74</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106" t="s">
+        <v>84</v>
+      </c>
+      <c r="P106" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q106">
+        <v>7</v>
+      </c>
+      <c r="R106">
+        <v>6</v>
+      </c>
+      <c r="S106">
+        <v>13</v>
+      </c>
+      <c r="T106">
+        <v>3.4</v>
+      </c>
+      <c r="U106">
+        <v>2.05</v>
+      </c>
+      <c r="V106">
+        <v>3.4</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>2.63</v>
+      </c>
+      <c r="Y106">
+        <v>3.4</v>
+      </c>
+      <c r="Z106">
+        <v>1.3</v>
+      </c>
+      <c r="AA106">
+        <v>10</v>
+      </c>
+      <c r="AB106">
+        <v>1.06</v>
+      </c>
+      <c r="AC106">
+        <v>2.76</v>
+      </c>
+      <c r="AD106">
+        <v>3.15</v>
+      </c>
+      <c r="AE106">
+        <v>2.51</v>
+      </c>
+      <c r="AF106">
+        <v>1.07</v>
+      </c>
+      <c r="AG106">
+        <v>9</v>
+      </c>
+      <c r="AH106">
+        <v>1.4</v>
+      </c>
+      <c r="AI106">
+        <v>2.95</v>
+      </c>
+      <c r="AJ106">
+        <v>2.25</v>
+      </c>
+      <c r="AK106">
+        <v>1.65</v>
+      </c>
+      <c r="AL106">
+        <v>1.91</v>
+      </c>
+      <c r="AM106">
+        <v>1.91</v>
+      </c>
+      <c r="AN106">
+        <v>1.47</v>
+      </c>
+      <c r="AO106">
+        <v>1.33</v>
+      </c>
+      <c r="AP106">
+        <v>1.43</v>
+      </c>
+      <c r="AQ106">
+        <v>0.2</v>
+      </c>
+      <c r="AR106">
+        <v>0.17</v>
+      </c>
+      <c r="AS106">
+        <v>0.33</v>
+      </c>
+      <c r="AT106">
+        <v>0.29</v>
+      </c>
+      <c r="AU106">
+        <v>1.72</v>
+      </c>
+      <c r="AV106">
+        <v>1.4</v>
+      </c>
+      <c r="AW106">
+        <v>3.12</v>
+      </c>
+      <c r="AX106">
+        <v>1.69</v>
+      </c>
+      <c r="AY106">
+        <v>8</v>
+      </c>
+      <c r="AZ106">
+        <v>2.54</v>
+      </c>
+      <c r="BA106">
+        <v>1.25</v>
+      </c>
+      <c r="BB106">
+        <v>1.47</v>
+      </c>
+      <c r="BC106">
+        <v>1.8</v>
+      </c>
+      <c r="BD106">
+        <v>2.38</v>
+      </c>
+      <c r="BE106">
+        <v>3.25</v>
+      </c>
+      <c r="BF106">
+        <v>6</v>
+      </c>
+      <c r="BG106">
+        <v>3</v>
+      </c>
+      <c r="BH106">
+        <v>15</v>
+      </c>
+      <c r="BI106">
+        <v>10</v>
+      </c>
+      <c r="BJ106">
+        <v>21</v>
+      </c>
+      <c r="BK106">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2808755</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44871.625</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>70</v>
+      </c>
+      <c r="H107" t="s">
+        <v>75</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>84</v>
+      </c>
+      <c r="P107" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q107">
+        <v>7</v>
+      </c>
+      <c r="R107">
+        <v>1</v>
+      </c>
+      <c r="S107">
+        <v>8</v>
+      </c>
+      <c r="T107">
+        <v>1.91</v>
+      </c>
+      <c r="U107">
+        <v>2.4</v>
+      </c>
+      <c r="V107">
+        <v>6.5</v>
+      </c>
+      <c r="W107">
+        <v>1.33</v>
+      </c>
+      <c r="X107">
+        <v>3.25</v>
+      </c>
+      <c r="Y107">
+        <v>2.5</v>
+      </c>
+      <c r="Z107">
+        <v>1.5</v>
+      </c>
+      <c r="AA107">
+        <v>6.5</v>
+      </c>
+      <c r="AB107">
+        <v>1.11</v>
+      </c>
+      <c r="AC107">
+        <v>1.42</v>
+      </c>
+      <c r="AD107">
+        <v>4.55</v>
+      </c>
+      <c r="AE107">
+        <v>6.4</v>
+      </c>
+      <c r="AF107">
+        <v>1.03</v>
+      </c>
+      <c r="AG107">
+        <v>13</v>
+      </c>
+      <c r="AH107">
+        <v>1.22</v>
+      </c>
+      <c r="AI107">
+        <v>4.2</v>
+      </c>
+      <c r="AJ107">
+        <v>1.73</v>
+      </c>
+      <c r="AK107">
+        <v>2.1</v>
+      </c>
+      <c r="AL107">
+        <v>1.95</v>
+      </c>
+      <c r="AM107">
+        <v>1.8</v>
+      </c>
+      <c r="AN107">
+        <v>1.06</v>
+      </c>
+      <c r="AO107">
+        <v>1.14</v>
+      </c>
+      <c r="AP107">
+        <v>2.71</v>
+      </c>
+      <c r="AQ107">
+        <v>2</v>
+      </c>
+      <c r="AR107">
+        <v>2</v>
+      </c>
+      <c r="AS107">
+        <v>1.67</v>
+      </c>
+      <c r="AT107">
+        <v>2.17</v>
+      </c>
+      <c r="AU107">
+        <v>2.45</v>
+      </c>
+      <c r="AV107">
+        <v>1.16</v>
+      </c>
+      <c r="AW107">
+        <v>3.61</v>
+      </c>
+      <c r="AX107">
+        <v>1.31</v>
+      </c>
+      <c r="AY107">
+        <v>10</v>
+      </c>
+      <c r="AZ107">
+        <v>4.1</v>
+      </c>
+      <c r="BA107">
+        <v>1.2</v>
+      </c>
+      <c r="BB107">
+        <v>1.38</v>
+      </c>
+      <c r="BC107">
+        <v>1.67</v>
+      </c>
+      <c r="BD107">
+        <v>2.12</v>
+      </c>
+      <c r="BE107">
+        <v>2.85</v>
+      </c>
+      <c r="BF107">
+        <v>7</v>
+      </c>
+      <c r="BG107">
+        <v>4</v>
+      </c>
+      <c r="BH107">
+        <v>19</v>
+      </c>
+      <c r="BI107">
+        <v>9</v>
+      </c>
+      <c r="BJ107">
+        <v>26</v>
+      </c>
+      <c r="BK107">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2808751</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44871.72916666666</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>67</v>
+      </c>
+      <c r="H108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+      <c r="N108">
+        <v>6</v>
+      </c>
+      <c r="O108" t="s">
+        <v>152</v>
+      </c>
+      <c r="P108" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>11</v>
+      </c>
+      <c r="S108">
+        <v>12</v>
+      </c>
+      <c r="T108">
+        <v>8</v>
+      </c>
+      <c r="U108">
+        <v>2.6</v>
+      </c>
+      <c r="V108">
+        <v>1.73</v>
+      </c>
+      <c r="W108">
+        <v>1.29</v>
+      </c>
+      <c r="X108">
+        <v>3.5</v>
+      </c>
+      <c r="Y108">
+        <v>2.25</v>
+      </c>
+      <c r="Z108">
+        <v>1.57</v>
+      </c>
+      <c r="AA108">
+        <v>5.5</v>
+      </c>
+      <c r="AB108">
+        <v>1.14</v>
+      </c>
+      <c r="AC108">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD108">
+        <v>5.4</v>
+      </c>
+      <c r="AE108">
+        <v>1.28</v>
+      </c>
+      <c r="AF108">
+        <v>1.02</v>
+      </c>
+      <c r="AG108">
+        <v>17</v>
+      </c>
+      <c r="AH108">
+        <v>1.18</v>
+      </c>
+      <c r="AI108">
+        <v>4.75</v>
+      </c>
+      <c r="AJ108">
+        <v>1.55</v>
+      </c>
+      <c r="AK108">
+        <v>2.29</v>
+      </c>
+      <c r="AL108">
+        <v>1.95</v>
+      </c>
+      <c r="AM108">
+        <v>1.8</v>
+      </c>
+      <c r="AN108">
+        <v>3.4</v>
+      </c>
+      <c r="AO108">
+        <v>1.15</v>
+      </c>
+      <c r="AP108">
+        <v>1.07</v>
+      </c>
+      <c r="AQ108">
+        <v>1</v>
+      </c>
+      <c r="AR108">
+        <v>2.6</v>
+      </c>
+      <c r="AS108">
+        <v>0.83</v>
+      </c>
+      <c r="AT108">
+        <v>2.67</v>
+      </c>
+      <c r="AU108">
+        <v>1</v>
+      </c>
+      <c r="AV108">
+        <v>1.63</v>
+      </c>
+      <c r="AW108">
+        <v>2.63</v>
+      </c>
+      <c r="AX108">
+        <v>5.15</v>
+      </c>
+      <c r="AY108">
+        <v>11</v>
+      </c>
+      <c r="AZ108">
+        <v>1.21</v>
+      </c>
+      <c r="BA108">
+        <v>1.18</v>
+      </c>
+      <c r="BB108">
+        <v>1.3</v>
+      </c>
+      <c r="BC108">
+        <v>1.55</v>
+      </c>
+      <c r="BD108">
+        <v>2</v>
+      </c>
+      <c r="BE108">
+        <v>2.5</v>
+      </c>
+      <c r="BF108">
+        <v>3</v>
+      </c>
+      <c r="BG108">
+        <v>10</v>
+      </c>
+      <c r="BH108">
+        <v>5</v>
+      </c>
+      <c r="BI108">
+        <v>12</v>
+      </c>
+      <c r="BJ108">
+        <v>8</v>
+      </c>
+      <c r="BK108">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2808752</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44872.71875</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" t="s">
+        <v>69</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109" t="s">
+        <v>84</v>
+      </c>
+      <c r="P109" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q109">
+        <v>4</v>
+      </c>
+      <c r="R109">
+        <v>6</v>
+      </c>
+      <c r="S109">
+        <v>10</v>
+      </c>
+      <c r="T109">
+        <v>3.1</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
+        <v>4</v>
+      </c>
+      <c r="W109">
+        <v>1.5</v>
+      </c>
+      <c r="X109">
+        <v>2.5</v>
+      </c>
+      <c r="Y109">
+        <v>3.5</v>
+      </c>
+      <c r="Z109">
+        <v>1.29</v>
+      </c>
+      <c r="AA109">
+        <v>11</v>
+      </c>
+      <c r="AB109">
+        <v>1.05</v>
+      </c>
+      <c r="AC109">
+        <v>2.42</v>
+      </c>
+      <c r="AD109">
+        <v>3.15</v>
+      </c>
+      <c r="AE109">
+        <v>2.78</v>
+      </c>
+      <c r="AF109">
+        <v>1.09</v>
+      </c>
+      <c r="AG109">
+        <v>8</v>
+      </c>
+      <c r="AH109">
+        <v>1.45</v>
+      </c>
+      <c r="AI109">
+        <v>2.8</v>
+      </c>
+      <c r="AJ109">
+        <v>2.08</v>
+      </c>
+      <c r="AK109">
+        <v>1.64</v>
+      </c>
+      <c r="AL109">
+        <v>2</v>
+      </c>
+      <c r="AM109">
+        <v>1.75</v>
+      </c>
+      <c r="AN109">
+        <v>1.35</v>
+      </c>
+      <c r="AO109">
+        <v>1.34</v>
+      </c>
+      <c r="AP109">
+        <v>1.58</v>
+      </c>
+      <c r="AQ109">
+        <v>1.2</v>
+      </c>
+      <c r="AR109">
+        <v>0.6</v>
+      </c>
+      <c r="AS109">
+        <v>1.17</v>
+      </c>
+      <c r="AT109">
+        <v>0.67</v>
+      </c>
+      <c r="AU109">
+        <v>1.86</v>
+      </c>
+      <c r="AV109">
+        <v>1.16</v>
+      </c>
+      <c r="AW109">
+        <v>3.02</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>7.2</v>
+      </c>
+      <c r="AZ109">
+        <v>2.17</v>
+      </c>
+      <c r="BA109">
+        <v>1.3</v>
+      </c>
+      <c r="BB109">
+        <v>1.54</v>
+      </c>
+      <c r="BC109">
+        <v>1.9</v>
+      </c>
+      <c r="BD109">
+        <v>2.45</v>
+      </c>
+      <c r="BE109">
+        <v>3.3</v>
+      </c>
+      <c r="BF109">
+        <v>5</v>
+      </c>
+      <c r="BG109">
+        <v>4</v>
+      </c>
+      <c r="BH109">
+        <v>9</v>
+      </c>
+      <c r="BI109">
+        <v>16</v>
+      </c>
+      <c r="BJ109">
+        <v>14</v>
+      </c>
+      <c r="BK109">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2808764</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>81</v>
+      </c>
+      <c r="H110" t="s">
+        <v>66</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>84</v>
+      </c>
+      <c r="P110" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q110">
+        <v>10</v>
+      </c>
+      <c r="R110">
+        <v>4</v>
+      </c>
+      <c r="S110">
+        <v>14</v>
+      </c>
+      <c r="T110">
+        <v>2.88</v>
+      </c>
+      <c r="U110">
+        <v>2.05</v>
+      </c>
+      <c r="V110">
+        <v>4</v>
+      </c>
+      <c r="W110">
+        <v>1.5</v>
+      </c>
+      <c r="X110">
+        <v>2.5</v>
+      </c>
+      <c r="Y110">
+        <v>3.4</v>
+      </c>
+      <c r="Z110">
+        <v>1.3</v>
+      </c>
+      <c r="AA110">
+        <v>10</v>
+      </c>
+      <c r="AB110">
+        <v>1.06</v>
+      </c>
+      <c r="AC110">
+        <v>2.3</v>
+      </c>
+      <c r="AD110">
+        <v>3.1</v>
+      </c>
+      <c r="AE110">
+        <v>3.2</v>
+      </c>
+      <c r="AF110">
+        <v>1.08</v>
+      </c>
+      <c r="AG110">
+        <v>8.5</v>
+      </c>
+      <c r="AH110">
+        <v>1.42</v>
+      </c>
+      <c r="AI110">
+        <v>2.85</v>
+      </c>
+      <c r="AJ110">
+        <v>2.4</v>
+      </c>
+      <c r="AK110">
+        <v>1.57</v>
+      </c>
+      <c r="AL110">
+        <v>1.95</v>
+      </c>
+      <c r="AM110">
+        <v>1.8</v>
+      </c>
+      <c r="AN110">
+        <v>1.3</v>
+      </c>
+      <c r="AO110">
+        <v>1.34</v>
+      </c>
+      <c r="AP110">
+        <v>1.65</v>
+      </c>
+      <c r="AQ110">
+        <v>1.67</v>
+      </c>
+      <c r="AR110">
+        <v>0.5</v>
+      </c>
+      <c r="AS110">
+        <v>1.43</v>
+      </c>
+      <c r="AT110">
+        <v>0.86</v>
+      </c>
+      <c r="AU110">
+        <v>1.17</v>
+      </c>
+      <c r="AV110">
+        <v>1.19</v>
+      </c>
+      <c r="AW110">
+        <v>2.36</v>
+      </c>
+      <c r="AX110">
+        <v>1.68</v>
+      </c>
+      <c r="AY110">
+        <v>8</v>
+      </c>
+      <c r="AZ110">
+        <v>2.78</v>
+      </c>
+      <c r="BA110">
+        <v>1.2</v>
+      </c>
+      <c r="BB110">
+        <v>1.4</v>
+      </c>
+      <c r="BC110">
+        <v>1.74</v>
+      </c>
+      <c r="BD110">
+        <v>2.19</v>
+      </c>
+      <c r="BE110">
+        <v>2.88</v>
+      </c>
+      <c r="BF110">
+        <v>2</v>
+      </c>
+      <c r="BG110">
+        <v>6</v>
+      </c>
+      <c r="BH110">
+        <v>9</v>
+      </c>
+      <c r="BI110">
+        <v>5</v>
+      </c>
+      <c r="BJ110">
+        <v>11</v>
+      </c>
+      <c r="BK110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2808762</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44877.72916666666</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>4</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111" t="s">
+        <v>152</v>
+      </c>
+      <c r="P111" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q111">
+        <v>5</v>
+      </c>
+      <c r="R111">
+        <v>4</v>
+      </c>
+      <c r="S111">
+        <v>9</v>
+      </c>
+      <c r="T111">
+        <v>7.5</v>
+      </c>
+      <c r="U111">
+        <v>2.5</v>
+      </c>
+      <c r="V111">
+        <v>1.83</v>
+      </c>
+      <c r="W111">
+        <v>1.33</v>
+      </c>
+      <c r="X111">
+        <v>3.25</v>
+      </c>
+      <c r="Y111">
+        <v>2.5</v>
+      </c>
+      <c r="Z111">
+        <v>1.5</v>
+      </c>
+      <c r="AA111">
+        <v>6</v>
+      </c>
+      <c r="AB111">
+        <v>1.13</v>
+      </c>
+      <c r="AC111">
+        <v>9</v>
+      </c>
+      <c r="AD111">
+        <v>5.25</v>
+      </c>
+      <c r="AE111">
+        <v>1.3</v>
+      </c>
+      <c r="AF111">
+        <v>1.03</v>
+      </c>
+      <c r="AG111">
+        <v>13</v>
+      </c>
+      <c r="AH111">
+        <v>1.22</v>
+      </c>
+      <c r="AI111">
+        <v>4.2</v>
+      </c>
+      <c r="AJ111">
+        <v>1.62</v>
+      </c>
+      <c r="AK111">
+        <v>2.3</v>
+      </c>
+      <c r="AL111">
+        <v>2</v>
+      </c>
+      <c r="AM111">
+        <v>1.75</v>
+      </c>
+      <c r="AN111">
+        <v>3.1</v>
+      </c>
+      <c r="AO111">
+        <v>1.17</v>
+      </c>
+      <c r="AP111">
+        <v>1.07</v>
+      </c>
+      <c r="AQ111">
+        <v>1.83</v>
+      </c>
+      <c r="AR111">
+        <v>1.83</v>
+      </c>
+      <c r="AS111">
+        <v>1.57</v>
+      </c>
+      <c r="AT111">
+        <v>2</v>
+      </c>
+      <c r="AU111">
+        <v>1.47</v>
+      </c>
+      <c r="AV111">
+        <v>2.08</v>
+      </c>
+      <c r="AW111">
+        <v>3.55</v>
+      </c>
+      <c r="AX111">
+        <v>6.9</v>
+      </c>
+      <c r="AY111">
+        <v>11.5</v>
+      </c>
+      <c r="AZ111">
+        <v>1.18</v>
+      </c>
+      <c r="BA111">
+        <v>1.2</v>
+      </c>
+      <c r="BB111">
+        <v>1.42</v>
+      </c>
+      <c r="BC111">
+        <v>1.76</v>
+      </c>
+      <c r="BD111">
+        <v>2.22</v>
+      </c>
+      <c r="BE111">
+        <v>2.93</v>
+      </c>
+      <c r="BF111">
+        <v>2</v>
+      </c>
+      <c r="BG111">
+        <v>8</v>
+      </c>
+      <c r="BH111">
+        <v>5</v>
+      </c>
+      <c r="BI111">
+        <v>14</v>
+      </c>
+      <c r="BJ111">
+        <v>7</v>
+      </c>
+      <c r="BK111">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2808759</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44878.52083333334</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>82</v>
+      </c>
+      <c r="H112" t="s">
+        <v>78</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>84</v>
+      </c>
+      <c r="P112" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q112">
+        <v>9</v>
+      </c>
+      <c r="R112">
+        <v>7</v>
+      </c>
+      <c r="S112">
+        <v>16</v>
+      </c>
+      <c r="T112">
+        <v>3.65</v>
+      </c>
+      <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
+        <v>3.05</v>
+      </c>
+      <c r="W112">
+        <v>1.46</v>
+      </c>
+      <c r="X112">
+        <v>2.64</v>
+      </c>
+      <c r="Y112">
+        <v>3.14</v>
+      </c>
+      <c r="Z112">
+        <v>1.34</v>
+      </c>
+      <c r="AA112">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB112">
+        <v>1.06</v>
+      </c>
+      <c r="AC112">
+        <v>2.8</v>
+      </c>
+      <c r="AD112">
+        <v>3.28</v>
+      </c>
+      <c r="AE112">
+        <v>2.51</v>
+      </c>
+      <c r="AF112">
+        <v>1.07</v>
+      </c>
+      <c r="AG112">
+        <v>7.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.36</v>
+      </c>
+      <c r="AI112">
+        <v>3</v>
+      </c>
+      <c r="AJ112">
+        <v>2.08</v>
+      </c>
+      <c r="AK112">
+        <v>1.64</v>
+      </c>
+      <c r="AL112">
+        <v>1.85</v>
+      </c>
+      <c r="AM112">
+        <v>1.85</v>
+      </c>
+      <c r="AN112">
+        <v>1.52</v>
+      </c>
+      <c r="AO112">
+        <v>1.33</v>
+      </c>
+      <c r="AP112">
+        <v>1.37</v>
+      </c>
+      <c r="AQ112">
+        <v>0.17</v>
+      </c>
+      <c r="AR112">
+        <v>1.33</v>
+      </c>
+      <c r="AS112">
+        <v>0.14</v>
+      </c>
+      <c r="AT112">
+        <v>1.57</v>
+      </c>
+      <c r="AU112">
+        <v>1.64</v>
+      </c>
+      <c r="AV112">
+        <v>1.48</v>
+      </c>
+      <c r="AW112">
+        <v>3.12</v>
+      </c>
+      <c r="AX112">
+        <v>1.89</v>
+      </c>
+      <c r="AY112">
+        <v>8</v>
+      </c>
+      <c r="AZ112">
+        <v>2.35</v>
+      </c>
+      <c r="BA112">
+        <v>1.19</v>
+      </c>
+      <c r="BB112">
+        <v>1.3</v>
+      </c>
+      <c r="BC112">
+        <v>1.58</v>
+      </c>
+      <c r="BD112">
+        <v>1.98</v>
+      </c>
+      <c r="BE112">
+        <v>2.56</v>
+      </c>
+      <c r="BF112">
+        <v>6</v>
+      </c>
+      <c r="BG112">
+        <v>10</v>
+      </c>
+      <c r="BH112">
+        <v>10</v>
+      </c>
+      <c r="BI112">
+        <v>11</v>
+      </c>
+      <c r="BJ112">
+        <v>16</v>
+      </c>
+      <c r="BK112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2808756</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44878.52083333334</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>153</v>
+      </c>
+      <c r="P113" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>6</v>
+      </c>
+      <c r="S113">
+        <v>7</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>2.05</v>
+      </c>
+      <c r="V113">
+        <v>5.25</v>
+      </c>
+      <c r="W113">
+        <v>1.44</v>
+      </c>
+      <c r="X113">
+        <v>2.62</v>
+      </c>
+      <c r="Y113">
+        <v>3</v>
+      </c>
+      <c r="Z113">
+        <v>1.36</v>
+      </c>
+      <c r="AA113">
+        <v>7</v>
+      </c>
+      <c r="AB113">
+        <v>1.08</v>
+      </c>
+      <c r="AC113">
+        <v>1.54</v>
+      </c>
+      <c r="AD113">
+        <v>4.04</v>
+      </c>
+      <c r="AE113">
+        <v>6.2</v>
+      </c>
+      <c r="AF113">
+        <v>1.07</v>
+      </c>
+      <c r="AG113">
+        <v>7.5</v>
+      </c>
+      <c r="AH113">
+        <v>1.36</v>
+      </c>
+      <c r="AI113">
+        <v>3</v>
+      </c>
+      <c r="AJ113">
+        <v>1.96</v>
+      </c>
+      <c r="AK113">
+        <v>1.72</v>
+      </c>
+      <c r="AL113">
+        <v>2.05</v>
+      </c>
+      <c r="AM113">
+        <v>1.7</v>
+      </c>
+      <c r="AN113">
+        <v>1.14</v>
+      </c>
+      <c r="AO113">
+        <v>1.29</v>
+      </c>
+      <c r="AP113">
+        <v>2.1</v>
+      </c>
+      <c r="AQ113">
+        <v>2.17</v>
+      </c>
+      <c r="AR113">
+        <v>0.67</v>
+      </c>
+      <c r="AS113">
+        <v>2.29</v>
+      </c>
+      <c r="AT113">
+        <v>0.57</v>
+      </c>
+      <c r="AU113">
+        <v>1.56</v>
+      </c>
+      <c r="AV113">
+        <v>1.35</v>
+      </c>
+      <c r="AW113">
+        <v>2.91</v>
+      </c>
+      <c r="AX113">
+        <v>1.56</v>
+      </c>
+      <c r="AY113">
+        <v>8.4</v>
+      </c>
+      <c r="AZ113">
+        <v>3.13</v>
+      </c>
+      <c r="BA113">
+        <v>1.19</v>
+      </c>
+      <c r="BB113">
+        <v>1.39</v>
+      </c>
+      <c r="BC113">
+        <v>1.72</v>
+      </c>
+      <c r="BD113">
+        <v>2.15</v>
+      </c>
+      <c r="BE113">
+        <v>2.84</v>
+      </c>
+      <c r="BF113">
+        <v>5</v>
+      </c>
+      <c r="BG113">
+        <v>5</v>
+      </c>
+      <c r="BH113">
+        <v>8</v>
+      </c>
+      <c r="BI113">
+        <v>2</v>
+      </c>
+      <c r="BJ113">
+        <v>13</v>
+      </c>
+      <c r="BK113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2808757</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44878.625</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>71</v>
+      </c>
+      <c r="H114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>154</v>
+      </c>
+      <c r="P114" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q114">
+        <v>2</v>
+      </c>
+      <c r="R114">
+        <v>8</v>
+      </c>
+      <c r="S114">
+        <v>10</v>
+      </c>
+      <c r="T114">
+        <v>4.75</v>
+      </c>
+      <c r="U114">
+        <v>2.3</v>
+      </c>
+      <c r="V114">
+        <v>2.2</v>
+      </c>
+      <c r="W114">
+        <v>1.36</v>
+      </c>
+      <c r="X114">
+        <v>3</v>
+      </c>
+      <c r="Y114">
+        <v>2.62</v>
+      </c>
+      <c r="Z114">
+        <v>1.44</v>
+      </c>
+      <c r="AA114">
+        <v>6</v>
+      </c>
+      <c r="AB114">
+        <v>1.11</v>
+      </c>
+      <c r="AC114">
+        <v>4.24</v>
+      </c>
+      <c r="AD114">
+        <v>3.8</v>
+      </c>
+      <c r="AE114">
+        <v>1.79</v>
+      </c>
+      <c r="AF114">
+        <v>1.05</v>
+      </c>
+      <c r="AG114">
+        <v>9</v>
+      </c>
+      <c r="AH114">
+        <v>1.25</v>
+      </c>
+      <c r="AI114">
+        <v>3.75</v>
+      </c>
+      <c r="AJ114">
+        <v>1.81</v>
+      </c>
+      <c r="AK114">
+        <v>1.94</v>
+      </c>
+      <c r="AL114">
+        <v>1.73</v>
+      </c>
+      <c r="AM114">
+        <v>2</v>
+      </c>
+      <c r="AN114">
+        <v>2.2</v>
+      </c>
+      <c r="AO114">
+        <v>1.25</v>
+      </c>
+      <c r="AP114">
+        <v>1.18</v>
+      </c>
+      <c r="AQ114">
+        <v>1.67</v>
+      </c>
+      <c r="AR114">
+        <v>2.5</v>
+      </c>
+      <c r="AS114">
+        <v>1.43</v>
+      </c>
+      <c r="AT114">
+        <v>2.57</v>
+      </c>
+      <c r="AU114">
+        <v>1.69</v>
+      </c>
+      <c r="AV114">
+        <v>2</v>
+      </c>
+      <c r="AW114">
+        <v>3.69</v>
+      </c>
+      <c r="AX114">
+        <v>3.48</v>
+      </c>
+      <c r="AY114">
+        <v>8.5</v>
+      </c>
+      <c r="AZ114">
+        <v>1.48</v>
+      </c>
+      <c r="BA114">
+        <v>1.18</v>
+      </c>
+      <c r="BB114">
+        <v>1.38</v>
+      </c>
+      <c r="BC114">
+        <v>1.7</v>
+      </c>
+      <c r="BD114">
+        <v>2.13</v>
+      </c>
+      <c r="BE114">
+        <v>2.79</v>
+      </c>
+      <c r="BF114">
+        <v>4</v>
+      </c>
+      <c r="BG114">
+        <v>10</v>
+      </c>
+      <c r="BH114">
+        <v>5</v>
+      </c>
+      <c r="BI114">
+        <v>8</v>
+      </c>
+      <c r="BJ114">
+        <v>9</v>
+      </c>
+      <c r="BK114">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2808758</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44878.625</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>75</v>
+      </c>
+      <c r="H115" t="s">
+        <v>72</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>155</v>
+      </c>
+      <c r="P115" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>2.65</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>4</v>
+      </c>
+      <c r="W115">
+        <v>1.44</v>
+      </c>
+      <c r="X115">
+        <v>2.62</v>
+      </c>
+      <c r="Y115">
+        <v>3</v>
+      </c>
+      <c r="Z115">
+        <v>1.36</v>
+      </c>
+      <c r="AA115">
+        <v>7.5</v>
+      </c>
+      <c r="AB115">
+        <v>1.07</v>
+      </c>
+      <c r="AC115">
+        <v>2.19</v>
+      </c>
+      <c r="AD115">
+        <v>3.36</v>
+      </c>
+      <c r="AE115">
+        <v>3.28</v>
+      </c>
+      <c r="AF115">
+        <v>1.07</v>
+      </c>
+      <c r="AG115">
+        <v>7.5</v>
+      </c>
+      <c r="AH115">
+        <v>1.36</v>
+      </c>
+      <c r="AI115">
+        <v>3</v>
+      </c>
+      <c r="AJ115">
+        <v>1.95</v>
+      </c>
+      <c r="AK115">
+        <v>1.75</v>
+      </c>
+      <c r="AL115">
+        <v>1.85</v>
+      </c>
+      <c r="AM115">
+        <v>1.85</v>
+      </c>
+      <c r="AN115">
+        <v>1.28</v>
+      </c>
+      <c r="AO115">
+        <v>1.31</v>
+      </c>
+      <c r="AP115">
+        <v>1.72</v>
+      </c>
+      <c r="AQ115">
+        <v>1.67</v>
+      </c>
+      <c r="AR115">
+        <v>1.5</v>
+      </c>
+      <c r="AS115">
+        <v>1.43</v>
+      </c>
+      <c r="AT115">
+        <v>1.71</v>
+      </c>
+      <c r="AU115">
+        <v>1.28</v>
+      </c>
+      <c r="AV115">
+        <v>1.3</v>
+      </c>
+      <c r="AW115">
+        <v>2.58</v>
+      </c>
+      <c r="AX115">
+        <v>1.54</v>
+      </c>
+      <c r="AY115">
+        <v>8.4</v>
+      </c>
+      <c r="AZ115">
+        <v>3.2</v>
+      </c>
+      <c r="BA115">
+        <v>1.21</v>
+      </c>
+      <c r="BB115">
+        <v>1.3</v>
+      </c>
+      <c r="BC115">
+        <v>1.55</v>
+      </c>
+      <c r="BD115">
+        <v>1.92</v>
+      </c>
+      <c r="BE115">
+        <v>2.5</v>
+      </c>
+      <c r="BF115">
+        <v>7</v>
+      </c>
+      <c r="BG115">
+        <v>5</v>
+      </c>
+      <c r="BH115">
+        <v>6</v>
+      </c>
+      <c r="BI115">
+        <v>8</v>
+      </c>
+      <c r="BJ115">
+        <v>13</v>
+      </c>
+      <c r="BK115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2808761</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44878.625</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>65</v>
+      </c>
+      <c r="H116" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>156</v>
+      </c>
+      <c r="P116" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q116">
+        <v>6</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>6</v>
+      </c>
+      <c r="T116">
+        <v>1.45</v>
+      </c>
+      <c r="U116">
+        <v>3.3</v>
+      </c>
+      <c r="V116">
+        <v>12</v>
+      </c>
+      <c r="W116">
+        <v>1.19</v>
+      </c>
+      <c r="X116">
+        <v>4.25</v>
+      </c>
+      <c r="Y116">
+        <v>1.99</v>
+      </c>
+      <c r="Z116">
+        <v>1.74</v>
+      </c>
+      <c r="AA116">
+        <v>4.15</v>
+      </c>
+      <c r="AB116">
+        <v>1.2</v>
+      </c>
+      <c r="AC116">
+        <v>1.22</v>
+      </c>
+      <c r="AD116">
+        <v>6.4</v>
+      </c>
+      <c r="AE116">
+        <v>12.5</v>
+      </c>
+      <c r="AF116">
+        <v>1.02</v>
+      </c>
+      <c r="AG116">
+        <v>21</v>
+      </c>
+      <c r="AH116">
+        <v>1.1</v>
+      </c>
+      <c r="AI116">
+        <v>6.5</v>
+      </c>
+      <c r="AJ116">
+        <v>1.55</v>
+      </c>
+      <c r="AK116">
+        <v>2.3</v>
+      </c>
+      <c r="AL116">
+        <v>2.2</v>
+      </c>
+      <c r="AM116">
+        <v>1.62</v>
+      </c>
+      <c r="AN116">
+        <v>1.02</v>
+      </c>
+      <c r="AO116">
+        <v>1.06</v>
+      </c>
+      <c r="AP116">
+        <v>5.8</v>
+      </c>
+      <c r="AQ116">
+        <v>3</v>
+      </c>
+      <c r="AR116">
+        <v>0.8</v>
+      </c>
+      <c r="AS116">
+        <v>3</v>
+      </c>
+      <c r="AT116">
+        <v>0.67</v>
+      </c>
+      <c r="AU116">
+        <v>3.02</v>
+      </c>
+      <c r="AV116">
+        <v>1.43</v>
+      </c>
+      <c r="AW116">
+        <v>4.45</v>
+      </c>
+      <c r="AX116">
+        <v>1.05</v>
+      </c>
+      <c r="AY116">
+        <v>16</v>
+      </c>
+      <c r="AZ116">
+        <v>14</v>
+      </c>
+      <c r="BA116">
+        <v>1.17</v>
+      </c>
+      <c r="BB116">
+        <v>1.3</v>
+      </c>
+      <c r="BC116">
+        <v>1.57</v>
+      </c>
+      <c r="BD116">
+        <v>1.98</v>
+      </c>
+      <c r="BE116">
+        <v>2.56</v>
+      </c>
+      <c r="BF116">
+        <v>6</v>
+      </c>
+      <c r="BG116">
+        <v>3</v>
+      </c>
+      <c r="BH116">
+        <v>9</v>
+      </c>
+      <c r="BI116">
+        <v>1</v>
+      </c>
+      <c r="BJ116">
+        <v>15</v>
+      </c>
+      <c r="BK116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2808760</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44878.72916666666</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>157</v>
+      </c>
+      <c r="P117" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q117">
+        <v>3</v>
+      </c>
+      <c r="R117">
+        <v>5</v>
+      </c>
+      <c r="S117">
+        <v>8</v>
+      </c>
+      <c r="T117">
+        <v>5</v>
+      </c>
+      <c r="U117">
+        <v>2.3</v>
+      </c>
+      <c r="V117">
+        <v>2.25</v>
+      </c>
+      <c r="W117">
+        <v>1.36</v>
+      </c>
+      <c r="X117">
+        <v>3</v>
+      </c>
+      <c r="Y117">
+        <v>2.62</v>
+      </c>
+      <c r="Z117">
+        <v>1.44</v>
+      </c>
+      <c r="AA117">
+        <v>6</v>
+      </c>
+      <c r="AB117">
+        <v>1.11</v>
+      </c>
+      <c r="AC117">
+        <v>4.7</v>
+      </c>
+      <c r="AD117">
+        <v>3.9</v>
+      </c>
+      <c r="AE117">
+        <v>1.7</v>
+      </c>
+      <c r="AF117">
+        <v>1.05</v>
+      </c>
+      <c r="AG117">
+        <v>9</v>
+      </c>
+      <c r="AH117">
+        <v>1.29</v>
+      </c>
+      <c r="AI117">
+        <v>3.5</v>
+      </c>
+      <c r="AJ117">
+        <v>1.79</v>
+      </c>
+      <c r="AK117">
+        <v>1.91</v>
+      </c>
+      <c r="AL117">
+        <v>1.8</v>
+      </c>
+      <c r="AM117">
+        <v>1.91</v>
+      </c>
+      <c r="AN117">
+        <v>2.25</v>
+      </c>
+      <c r="AO117">
+        <v>1.2</v>
+      </c>
+      <c r="AP117">
+        <v>1.16</v>
+      </c>
+      <c r="AQ117">
+        <v>1.8</v>
+      </c>
+      <c r="AR117">
+        <v>1.17</v>
+      </c>
+      <c r="AS117">
+        <v>1.5</v>
+      </c>
+      <c r="AT117">
+        <v>1.43</v>
+      </c>
+      <c r="AU117">
+        <v>1.26</v>
+      </c>
+      <c r="AV117">
+        <v>1.66</v>
+      </c>
+      <c r="AW117">
+        <v>2.92</v>
+      </c>
+      <c r="AX117">
+        <v>4.08</v>
+      </c>
+      <c r="AY117">
+        <v>8.6</v>
+      </c>
+      <c r="AZ117">
+        <v>1.39</v>
+      </c>
+      <c r="BA117">
+        <v>1.27</v>
+      </c>
+      <c r="BB117">
+        <v>1.52</v>
+      </c>
+      <c r="BC117">
+        <v>1.93</v>
+      </c>
+      <c r="BD117">
+        <v>2.5</v>
+      </c>
+      <c r="BE117">
+        <v>3.42</v>
+      </c>
+      <c r="BF117">
+        <v>3</v>
+      </c>
+      <c r="BG117">
+        <v>11</v>
+      </c>
+      <c r="BH117">
+        <v>10</v>
+      </c>
+      <c r="BI117">
+        <v>12</v>
+      </c>
+      <c r="BJ117">
+        <v>13</v>
+      </c>
+      <c r="BK117">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2808763</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44879.71875</v>
+      </c>
+      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>69</v>
+      </c>
+      <c r="H118" t="s">
+        <v>67</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>158</v>
+      </c>
+      <c r="P118" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q118">
+        <v>6</v>
+      </c>
+      <c r="R118">
+        <v>7</v>
+      </c>
+      <c r="S118">
+        <v>13</v>
+      </c>
+      <c r="T118">
+        <v>3</v>
+      </c>
+      <c r="U118">
+        <v>2.05</v>
+      </c>
+      <c r="V118">
+        <v>4</v>
+      </c>
+      <c r="W118">
+        <v>1.5</v>
+      </c>
+      <c r="X118">
+        <v>2.5</v>
+      </c>
+      <c r="Y118">
+        <v>3.4</v>
+      </c>
+      <c r="Z118">
+        <v>1.3</v>
+      </c>
+      <c r="AA118">
+        <v>10</v>
+      </c>
+      <c r="AB118">
+        <v>1.06</v>
+      </c>
+      <c r="AC118">
+        <v>2.3</v>
+      </c>
+      <c r="AD118">
+        <v>3.2</v>
+      </c>
+      <c r="AE118">
+        <v>3.3</v>
+      </c>
+      <c r="AF118">
+        <v>1.08</v>
+      </c>
+      <c r="AG118">
+        <v>7</v>
+      </c>
+      <c r="AH118">
+        <v>1.4</v>
+      </c>
+      <c r="AI118">
+        <v>2.75</v>
+      </c>
+      <c r="AJ118">
+        <v>2.25</v>
+      </c>
+      <c r="AK118">
+        <v>1.6</v>
+      </c>
+      <c r="AL118">
+        <v>1.95</v>
+      </c>
+      <c r="AM118">
+        <v>1.8</v>
+      </c>
+      <c r="AN118">
+        <v>1.33</v>
+      </c>
+      <c r="AO118">
+        <v>1.36</v>
+      </c>
+      <c r="AP118">
+        <v>1.59</v>
+      </c>
+      <c r="AQ118">
+        <v>1</v>
+      </c>
+      <c r="AR118">
+        <v>1.83</v>
+      </c>
+      <c r="AS118">
+        <v>1.29</v>
+      </c>
+      <c r="AT118">
+        <v>1.57</v>
+      </c>
+      <c r="AU118">
+        <v>1.28</v>
+      </c>
+      <c r="AV118">
+        <v>1.41</v>
+      </c>
+      <c r="AW118">
+        <v>2.69</v>
+      </c>
+      <c r="AX118">
+        <v>1.62</v>
+      </c>
+      <c r="AY118">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ118">
+        <v>2.93</v>
+      </c>
+      <c r="BA118">
+        <v>1.22</v>
+      </c>
+      <c r="BB118">
+        <v>1.42</v>
+      </c>
+      <c r="BC118">
+        <v>1.74</v>
+      </c>
+      <c r="BD118">
+        <v>2.23</v>
+      </c>
+      <c r="BE118">
+        <v>3</v>
+      </c>
+      <c r="BF118">
+        <v>9</v>
+      </c>
+      <c r="BG118">
+        <v>2</v>
+      </c>
+      <c r="BH118">
+        <v>4</v>
+      </c>
+      <c r="BI118">
+        <v>15</v>
+      </c>
+      <c r="BJ118">
+        <v>13</v>
+      </c>
+      <c r="BK118">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT3" t="n">
         <v>1.57</v>
@@ -1512,7 +1512,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU25" t="n">
         <v>1.99</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT34" t="n">
         <v>2</v>
@@ -9226,7 +9226,7 @@
         <v>1.29</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU43" t="n">
         <v>1.24</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT54" t="n">
         <v>2.57</v>
@@ -11924,7 +11924,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>2808702</v>
+        <v>2808699</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -11944,71 +11944,71 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Paços de Ferreira</t>
+          <t>Rio Ave FC</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['7']</t>
+          <t>['80', '90+6']</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>['45+4', '71']</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T57" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="U57" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="W57" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X57" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y57" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA57" t="n">
         <v>8.25</v>
@@ -12017,109 +12017,109 @@
         <v>1.06</v>
       </c>
       <c r="AC57" t="n">
-        <v>2.04</v>
+        <v>2.19</v>
       </c>
       <c r="AD57" t="n">
         <v>3.25</v>
       </c>
       <c r="AE57" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="AF57" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AI57" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AJ57" t="n">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="AK57" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AL57" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AM57" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AN57" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AO57" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.33</v>
       </c>
       <c r="AR57" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="AU57" t="n">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="AV57" t="n">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="AW57" t="n">
-        <v>2.35</v>
+        <v>2.78</v>
       </c>
       <c r="AX57" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AY57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ57" t="n">
-        <v>2.44</v>
+        <v>2.91</v>
       </c>
       <c r="BA57" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BB57" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="BC57" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="BD57" t="n">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="BE57" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="BF57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI57" t="n">
         <v>3</v>
       </c>
-      <c r="BH57" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI57" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ57" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BK57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -12127,7 +12127,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>2808699</v>
+        <v>2808702</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -12147,71 +12147,71 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rio Ave FC</t>
+          <t>Paços de Ferreira</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['80', '90+6']</t>
+          <t>['7']</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>['45+4', '71']</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T58" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V58" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="W58" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X58" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AA58" t="n">
         <v>8.25</v>
@@ -12220,109 +12220,109 @@
         <v>1.06</v>
       </c>
       <c r="AC58" t="n">
-        <v>2.19</v>
+        <v>2.04</v>
       </c>
       <c r="AD58" t="n">
         <v>3.25</v>
       </c>
       <c r="AE58" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="AF58" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH58" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AI58" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AJ58" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AK58" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AL58" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AM58" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AN58" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AO58" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.33</v>
       </c>
       <c r="AR58" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.86</v>
+        <v>0.17</v>
       </c>
       <c r="AU58" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AV58" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="AW58" t="n">
-        <v>2.78</v>
+        <v>2.35</v>
       </c>
       <c r="AX58" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AY58" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ58" t="n">
-        <v>2.91</v>
+        <v>2.44</v>
       </c>
       <c r="BA58" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BB58" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="BC58" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="BD58" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="BE58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG58" t="n">
         <v>3</v>
       </c>
-      <c r="BF58" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG58" t="n">
+      <c r="BH58" t="n">
         <v>6</v>
       </c>
-      <c r="BH58" t="n">
-        <v>13</v>
-      </c>
       <c r="BI58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ58" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BK58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -13286,7 +13286,7 @@
         <v>3</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU63" t="n">
         <v>2.89</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT70" t="n">
         <v>0.67</v>
@@ -15781,7 +15781,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>2808721</v>
+        <v>2808717</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -15801,182 +15801,182 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rio Ave FC</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['22', '52']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
         <v>6</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>['13', '19', '45+1', '62']</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>['6', '86']</t>
-        </is>
-      </c>
-      <c r="Q76" t="n">
-        <v>8</v>
-      </c>
-      <c r="R76" t="n">
-        <v>3</v>
-      </c>
-      <c r="S76" t="n">
+      <c r="T76" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH76" t="n">
         <v>11</v>
       </c>
-      <c r="T76" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U76" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V76" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W76" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X76" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>15</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH76" t="n">
-        <v>17</v>
-      </c>
       <c r="BI76" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BJ76" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="BK76" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -15984,7 +15984,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>2808717</v>
+        <v>2808721</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -16004,182 +16004,182 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Rio Ave FC</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13', '19', '45+1', '62']</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>['22', '52']</t>
+          <t>['6', '86']</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>11</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V77" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI77" t="n">
         <v>5</v>
       </c>
-      <c r="S77" t="n">
-        <v>6</v>
-      </c>
-      <c r="T77" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="U77" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V77" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W77" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X77" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
+      <c r="BJ77" t="n">
+        <v>32</v>
+      </c>
+      <c r="BK77" t="n">
         <v>9</v>
-      </c>
-      <c r="BH77" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI77" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ77" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -16534,7 +16534,7 @@
         <v>1.57</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU79" t="n">
         <v>1.23</v>
@@ -18014,7 +18014,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>2808725</v>
+        <v>2808731</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -18034,59 +18034,59 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>FC Vizela</t>
+          <t>CS Marítimo</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>FC Arouca</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="Q87" t="n">
         <v>5</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S87" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T87" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U87" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V87" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W87" t="n">
         <v>1.44</v>
@@ -18095,121 +18095,121 @@
         <v>2.63</v>
       </c>
       <c r="Y87" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB87" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC87" t="n">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="AD87" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE87" t="n">
-        <v>3.55</v>
+        <v>2.65</v>
       </c>
       <c r="AF87" t="n">
         <v>1.04</v>
       </c>
       <c r="AG87" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AH87" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AI87" t="n">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="AJ87" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AK87" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="AL87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM87" t="n">
         <v>1.95</v>
       </c>
-      <c r="AM87" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AN87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR87" t="n">
         <v>1.25</v>
       </c>
-      <c r="AO87" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP87" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AQ87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR87" t="n">
-        <v>0</v>
-      </c>
       <c r="AS87" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="AV87" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AW87" t="n">
-        <v>3.03</v>
+        <v>2.76</v>
       </c>
       <c r="AX87" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="AY87" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="AZ87" t="n">
-        <v>2.92</v>
+        <v>2.29</v>
       </c>
       <c r="BA87" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="BB87" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="BC87" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="BD87" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="BE87" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="BF87" t="n">
         <v>4</v>
       </c>
       <c r="BG87" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH87" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BI87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ87" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BK87" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
@@ -18217,7 +18217,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>2808731</v>
+        <v>2808725</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -18237,59 +18237,59 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>CS Marítimo</t>
+          <t>FC Vizela</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>FC Arouca</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q88" t="n">
         <v>5</v>
       </c>
       <c r="R88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S88" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T88" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U88" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V88" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="W88" t="n">
         <v>1.44</v>
@@ -18298,121 +18298,121 @@
         <v>2.63</v>
       </c>
       <c r="Y88" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB88" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC88" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="AD88" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AE88" t="n">
-        <v>2.65</v>
+        <v>3.55</v>
       </c>
       <c r="AF88" t="n">
         <v>1.04</v>
       </c>
       <c r="AG88" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AH88" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AI88" t="n">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="AJ88" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AK88" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="AL88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM88" t="n">
         <v>1.8</v>
       </c>
-      <c r="AM88" t="n">
+      <c r="AN88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU88" t="n">
         <v>1.95</v>
       </c>
-      <c r="AN88" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>1.74</v>
-      </c>
       <c r="AV88" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="AW88" t="n">
-        <v>2.76</v>
+        <v>3.03</v>
       </c>
       <c r="AX88" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="AY88" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ88" t="n">
-        <v>2.29</v>
+        <v>2.92</v>
       </c>
       <c r="BA88" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BB88" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="BC88" t="n">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="BD88" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="BE88" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="BF88" t="n">
         <v>4</v>
       </c>
       <c r="BG88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH88" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BI88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BJ88" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BK88" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT91" t="n">
         <v>1.5</v>
@@ -19173,7 +19173,7 @@
         <v>0.14</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -23436,7 +23436,7 @@
         <v>2.29</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU113" t="n">
         <v>1.56</v>
@@ -23495,7 +23495,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>2808757</v>
+        <v>2808761</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -23515,182 +23515,182 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['9', '36', '53']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>6</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>6</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U114" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>12</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X114" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AQ114" t="n">
         <v>3</v>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>['40']</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>['65', '83']</t>
-        </is>
-      </c>
-      <c r="Q114" t="n">
-        <v>2</v>
-      </c>
-      <c r="R114" t="n">
-        <v>8</v>
-      </c>
-      <c r="S114" t="n">
-        <v>10</v>
-      </c>
-      <c r="T114" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="U114" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V114" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W114" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X114" t="n">
+      <c r="AR114" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS114" t="n">
         <v>3</v>
       </c>
-      <c r="Y114" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA114" t="n">
+      <c r="AT114" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BF114" t="n">
         <v>6</v>
       </c>
-      <c r="AB114" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG114" t="n">
+      <c r="BG114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH114" t="n">
         <v>9</v>
       </c>
-      <c r="AH114" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM114" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN114" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AO114" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP114" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AQ114" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR114" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AS114" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AT114" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU114" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AV114" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW114" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AX114" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AY114" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ114" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BA114" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB114" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC114" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BD114" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="BE114" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="BF114" t="n">
+      <c r="BI114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK114" t="n">
         <v>4</v>
-      </c>
-      <c r="BG114" t="n">
-        <v>10</v>
-      </c>
-      <c r="BH114" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI114" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ114" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK114" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -23698,7 +23698,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>2808761</v>
+        <v>2808757</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -23718,182 +23718,182 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="n">
         <v>3</v>
       </c>
-      <c r="L115" t="n">
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['65', '83']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>2</v>
+      </c>
+      <c r="R115" t="n">
+        <v>8</v>
+      </c>
+      <c r="S115" t="n">
+        <v>10</v>
+      </c>
+      <c r="T115" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X115" t="n">
         <v>3</v>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="n">
+      <c r="Y115" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF115" t="n">
         <v>4</v>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>['9', '36', '53']</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>['17']</t>
-        </is>
-      </c>
-      <c r="Q115" t="n">
-        <v>6</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0</v>
-      </c>
-      <c r="S115" t="n">
-        <v>6</v>
-      </c>
-      <c r="T115" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U115" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V115" t="n">
-        <v>12</v>
-      </c>
-      <c r="W115" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X115" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="Y115" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM115" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AO115" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AP115" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AQ115" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR115" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS115" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT115" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU115" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AV115" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AW115" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX115" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AY115" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ115" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA115" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BB115" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BC115" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BD115" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BE115" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BF115" t="n">
-        <v>6</v>
-      </c>
       <c r="BG115" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BH115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ115" t="n">
         <v>9</v>
       </c>
-      <c r="BI115" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ115" t="n">
-        <v>15</v>
-      </c>
       <c r="BK115" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -24503,6 +24503,209 @@
       </c>
       <c r="BK118" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2808768</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44918.71875</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>5</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>10</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V119" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT5" t="n">
         <v>0.63</v>
@@ -1715,7 +1715,7 @@
         <v>1.29</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>1.29</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU21" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT23" t="n">
         <v>1.43</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT26" t="n">
         <v>1.17</v>
@@ -7602,7 +7602,7 @@
         <v>2.29</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -9023,7 +9023,7 @@
         <v>1.43</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU42" t="n">
         <v>0.97</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT44" t="n">
         <v>0.29</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT50" t="n">
         <v>1.71</v>
@@ -10850,7 +10850,7 @@
         <v>0.14</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT56" t="n">
         <v>1.71</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT66" t="n">
         <v>2.57</v>
@@ -14910,7 +14910,7 @@
         <v>0.14</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU71" t="n">
         <v>1.69</v>
@@ -15316,7 +15316,7 @@
         <v>0.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU73" t="n">
         <v>1.71</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT76" t="n">
         <v>2</v>
@@ -17343,7 +17343,7 @@
         <v>2.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT83" t="n">
         <v>2.67</v>
@@ -17955,7 +17955,7 @@
         <v>2.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU86" t="n">
         <v>2.37</v>
@@ -18158,7 +18158,7 @@
         <v>0.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT96" t="n">
         <v>1.57</v>
@@ -21203,7 +21203,7 @@
         <v>0.67</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21403,7 +21403,7 @@
         <v>0.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT103" t="n">
         <v>0.17</v>
@@ -22218,7 +22218,7 @@
         <v>1.67</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU107" t="n">
         <v>2.45</v>
@@ -23839,7 +23839,7 @@
         <v>2.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT115" t="n">
         <v>2.57</v>
@@ -24705,6 +24705,412 @@
         <v>19</v>
       </c>
       <c r="BK119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2808769</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44923.66666666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="n">
+        <v>3</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['31', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R120" t="n">
+        <v>11</v>
+      </c>
+      <c r="S120" t="n">
+        <v>12</v>
+      </c>
+      <c r="T120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2808773</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44923.76041666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>14</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>3</v>
+      </c>
+      <c r="L121" t="n">
+        <v>5</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>6</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['1', '18', '34', '50', '70']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>3</v>
+      </c>
+      <c r="S121" t="n">
+        <v>8</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3</v>
+      </c>
+      <c r="V121" t="n">
+        <v>13</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X121" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK121" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>0.17</v>
@@ -3339,7 +3339,7 @@
         <v>1.57</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>0.29</v>
@@ -6993,7 +6993,7 @@
         <v>1.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
         <v>2</v>
@@ -10038,7 +10038,7 @@
         <v>2.29</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU47" t="n">
         <v>1.62</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT57" t="n">
         <v>0.86</v>
@@ -14707,7 +14707,7 @@
         <v>1.86</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT74" t="n">
         <v>1.57</v>
@@ -18361,7 +18361,7 @@
         <v>0.67</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU88" t="n">
         <v>1.95</v>
@@ -20591,7 +20591,7 @@
         <v>2.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT99" t="n">
         <v>2.57</v>
@@ -20997,7 +20997,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
         <v>1.5</v>
@@ -22624,7 +22624,7 @@
         <v>1.17</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -25112,6 +25112,209 @@
       </c>
       <c r="BK121" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2808772</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44924.58333333334</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>4</v>
+      </c>
+      <c r="R122" t="n">
+        <v>9</v>
+      </c>
+      <c r="S122" t="n">
+        <v>13</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V122" t="n">
+        <v>4</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT13" t="n">
         <v>0.86</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT31" t="n">
         <v>1.71</v>
@@ -8008,7 +8008,7 @@
         <v>3</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -9632,7 +9632,7 @@
         <v>1.57</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -12271,7 +12271,7 @@
         <v>1.29</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU58" t="n">
         <v>1.23</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT65" t="n">
         <v>0.67</v>
@@ -17549,7 +17549,7 @@
         <v>1.5</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT86" t="n">
         <v>2.29</v>
@@ -21406,7 +21406,7 @@
         <v>2.57</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU103" t="n">
         <v>1.94</v>
@@ -21606,7 +21606,7 @@
         <v>1.4</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT104" t="n">
         <v>1.17</v>
@@ -23089,7 +23089,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>2808759</v>
+        <v>2808756</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -23109,12 +23109,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Paços de Ferreira</t>
+          <t>Vitória Guimarães</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>FC Vizela</t>
+          <t>CS Marítimo</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -23127,68 +23127,68 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>['48', '53']</t>
-        </is>
-      </c>
       <c r="Q112" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R112" t="n">
+        <v>6</v>
+      </c>
+      <c r="S112" t="n">
         <v>7</v>
       </c>
-      <c r="S112" t="n">
-        <v>16</v>
-      </c>
       <c r="T112" t="n">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
       <c r="U112" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V112" t="n">
-        <v>3.05</v>
+        <v>5.25</v>
       </c>
       <c r="W112" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X112" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Y112" t="n">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="Z112" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AA112" t="n">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AB112" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AC112" t="n">
-        <v>2.8</v>
+        <v>1.54</v>
       </c>
       <c r="AD112" t="n">
-        <v>3.28</v>
+        <v>4.04</v>
       </c>
       <c r="AE112" t="n">
-        <v>2.51</v>
+        <v>6.2</v>
       </c>
       <c r="AF112" t="n">
         <v>1.07</v>
@@ -23203,88 +23203,88 @@
         <v>3</v>
       </c>
       <c r="AJ112" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="AK112" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="AL112" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AM112" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AN112" t="n">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="AO112" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.17</v>
+        <v>2.17</v>
       </c>
       <c r="AR112" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.14</v>
+        <v>2.29</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU112" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AV112" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AW112" t="n">
-        <v>3.12</v>
+        <v>2.91</v>
       </c>
       <c r="AX112" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AY112" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AZ112" t="n">
-        <v>2.35</v>
+        <v>3.13</v>
       </c>
       <c r="BA112" t="n">
         <v>1.19</v>
       </c>
       <c r="BB112" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="BC112" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="BD112" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="BE112" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="BF112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG112" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BH112" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BI112" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BJ112" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BK112" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
@@ -23292,7 +23292,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>2808756</v>
+        <v>2808759</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -23312,12 +23312,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Vitória Guimarães</t>
+          <t>Paços de Ferreira</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>CS Marítimo</t>
+          <t>FC Vizela</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -23330,68 +23330,68 @@
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['70']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48', '53']</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S113" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="T113" t="n">
-        <v>2.25</v>
+        <v>3.65</v>
       </c>
       <c r="U113" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V113" t="n">
-        <v>5.25</v>
+        <v>3.05</v>
       </c>
       <c r="W113" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="X113" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Y113" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="Z113" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AA113" t="n">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB113" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC113" t="n">
-        <v>1.54</v>
+        <v>2.8</v>
       </c>
       <c r="AD113" t="n">
-        <v>4.04</v>
+        <v>3.28</v>
       </c>
       <c r="AE113" t="n">
-        <v>6.2</v>
+        <v>2.51</v>
       </c>
       <c r="AF113" t="n">
         <v>1.07</v>
@@ -23406,88 +23406,88 @@
         <v>3</v>
       </c>
       <c r="AJ113" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="AK113" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="AL113" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AM113" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AN113" t="n">
-        <v>1.14</v>
+        <v>1.52</v>
       </c>
       <c r="AO113" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2.17</v>
+        <v>0.17</v>
       </c>
       <c r="AR113" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.29</v>
+        <v>0.14</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.63</v>
+        <v>1.57</v>
       </c>
       <c r="AU113" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AV113" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AW113" t="n">
-        <v>2.91</v>
+        <v>3.12</v>
       </c>
       <c r="AX113" t="n">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="AY113" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AZ113" t="n">
-        <v>3.13</v>
+        <v>2.35</v>
       </c>
       <c r="BA113" t="n">
         <v>1.19</v>
       </c>
       <c r="BB113" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="BC113" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="BD113" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="BE113" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="BF113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG113" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BH113" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI113" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BJ113" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BK113" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
@@ -23495,7 +23495,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>2808761</v>
+        <v>2808757</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -23515,182 +23515,182 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Sporting Braga</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="n">
         <v>3</v>
       </c>
-      <c r="L114" t="n">
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['65', '83']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2</v>
+      </c>
+      <c r="R114" t="n">
+        <v>8</v>
+      </c>
+      <c r="S114" t="n">
+        <v>10</v>
+      </c>
+      <c r="T114" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X114" t="n">
         <v>3</v>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="n">
+      <c r="Y114" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF114" t="n">
         <v>4</v>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>['9', '36', '53']</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>['17']</t>
-        </is>
-      </c>
-      <c r="Q114" t="n">
-        <v>6</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0</v>
-      </c>
-      <c r="S114" t="n">
-        <v>6</v>
-      </c>
-      <c r="T114" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U114" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="V114" t="n">
-        <v>12</v>
-      </c>
-      <c r="W114" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X114" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM114" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN114" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AO114" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AP114" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AQ114" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR114" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS114" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT114" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU114" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AV114" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AW114" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AX114" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AY114" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ114" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA114" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BB114" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BC114" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BD114" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BE114" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="BF114" t="n">
-        <v>6</v>
-      </c>
       <c r="BG114" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BH114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ114" t="n">
         <v>9</v>
       </c>
-      <c r="BI114" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ114" t="n">
-        <v>15</v>
-      </c>
       <c r="BK114" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -23698,7 +23698,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>2808757</v>
+        <v>2808758</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -23718,12 +23718,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sporting Braga</t>
+          <t>GD Chaves</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -23746,154 +23746,154 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>['65', '83']</t>
+          <t>['82', '90+1']</t>
         </is>
       </c>
       <c r="Q115" t="n">
         <v>2</v>
       </c>
       <c r="R115" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T115" t="n">
-        <v>4.75</v>
+        <v>2.65</v>
       </c>
       <c r="U115" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="V115" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="W115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z115" t="n">
         <v>1.36</v>
       </c>
-      <c r="X115" t="n">
+      <c r="AA115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI115" t="n">
         <v>3</v>
       </c>
-      <c r="Y115" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Z115" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA115" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AJ115" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="AK115" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="AL115" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AM115" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AN115" t="n">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="AO115" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.18</v>
+        <v>1.72</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.67</v>
       </c>
       <c r="AR115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE115" t="n">
         <v>2.5</v>
       </c>
-      <c r="AS115" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AT115" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AU115" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AV115" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW115" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AX115" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AY115" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ115" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BA115" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB115" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC115" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BD115" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="BE115" t="n">
-        <v>2.79</v>
-      </c>
       <c r="BF115" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG115" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BH115" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI115" t="n">
         <v>8</v>
       </c>
       <c r="BJ115" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK115" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
@@ -23901,7 +23901,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>2808758</v>
+        <v>2808761</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -23921,182 +23921,182 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>GD Chaves</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['9', '36', '53']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>6</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>6</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V116" t="n">
+        <v>12</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X116" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AQ116" t="n">
         <v>3</v>
       </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>['28']</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>['82', '90+1']</t>
-        </is>
-      </c>
-      <c r="Q116" t="n">
-        <v>2</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0</v>
-      </c>
-      <c r="S116" t="n">
-        <v>2</v>
-      </c>
-      <c r="T116" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U116" t="n">
-        <v>2</v>
-      </c>
-      <c r="V116" t="n">
-        <v>4</v>
-      </c>
-      <c r="W116" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X116" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y116" t="n">
+      <c r="AR116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS116" t="n">
         <v>3</v>
       </c>
-      <c r="Z116" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA116" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL116" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM116" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN116" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO116" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP116" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AQ116" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR116" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS116" t="n">
+      <c r="AT116" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AV116" t="n">
         <v>1.43</v>
       </c>
-      <c r="AT116" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AU116" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AV116" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AW116" t="n">
-        <v>2.58</v>
+        <v>4.45</v>
       </c>
       <c r="AX116" t="n">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
       <c r="AY116" t="n">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="AZ116" t="n">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="BA116" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="BB116" t="n">
         <v>1.3</v>
       </c>
       <c r="BC116" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="BD116" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="BE116" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="BF116" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH116" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI116" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BJ116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK116" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -25315,6 +25315,209 @@
       </c>
       <c r="BK122" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2808765</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44924.76041666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>3</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['3', '22', '44']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>4</v>
+      </c>
+      <c r="R123" t="n">
+        <v>3</v>
+      </c>
+      <c r="S123" t="n">
+        <v>7</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V123" t="n">
+        <v>13</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X123" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK123"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.83</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT7" t="n">
         <v>1.43</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.43</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1.57</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT25" t="n">
         <v>0.63</v>
@@ -5775,7 +5775,7 @@
         <v>1.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>2.15</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU27" t="n">
         <v>1.83</v>
@@ -6587,7 +6587,7 @@
         <v>1.57</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>0.67</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>2.32</v>
@@ -9429,7 +9429,7 @@
         <v>1.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU44" t="n">
         <v>1.84</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>0.86</v>
@@ -10241,7 +10241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
         <v>1.57</v>
@@ -12880,7 +12880,7 @@
         <v>1.43</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>0.97</v>
@@ -13083,7 +13083,7 @@
         <v>1.43</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU62" t="n">
         <v>0.99</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT64" t="n">
         <v>1.57</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
         <v>1.5</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>1.57</v>
@@ -14504,7 +14504,7 @@
         <v>2.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU69" t="n">
         <v>1.52</v>
@@ -16331,7 +16331,7 @@
         <v>0.14</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.5</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT81" t="n">
         <v>1.71</v>
@@ -17143,7 +17143,7 @@
         <v>1.43</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU82" t="n">
         <v>1.08</v>
@@ -17346,7 +17346,7 @@
         <v>2.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU83" t="n">
         <v>2</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT88" t="n">
         <v>0.57</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
         <v>0.67</v>
@@ -20797,7 +20797,7 @@
         <v>2.29</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU100" t="n">
         <v>1.56</v>
@@ -21200,7 +21200,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
         <v>1.29</v>
@@ -21609,7 +21609,7 @@
         <v>2.57</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>2.44</v>
@@ -22015,7 +22015,7 @@
         <v>0.33</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU106" t="n">
         <v>1.72</v>
@@ -22215,7 +22215,7 @@
         <v>2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT107" t="n">
         <v>2.29</v>
@@ -22421,7 +22421,7 @@
         <v>0.83</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AU108" t="n">
         <v>1</v>
@@ -22621,7 +22621,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>0.57</v>
@@ -25518,6 +25518,615 @@
       </c>
       <c r="BK123" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2808767</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44925.58333333334</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['18', '53']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>5</v>
+      </c>
+      <c r="R124" t="n">
+        <v>3</v>
+      </c>
+      <c r="S124" t="n">
+        <v>8</v>
+      </c>
+      <c r="T124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2808766</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44925.66666666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>3</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['43', '47', '90+4']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>1</v>
+      </c>
+      <c r="R125" t="n">
+        <v>5</v>
+      </c>
+      <c r="S125" t="n">
+        <v>6</v>
+      </c>
+      <c r="T125" t="n">
+        <v>3</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V125" t="n">
+        <v>4</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2808770</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44925.76041666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>3</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>3</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['2', '32', '70']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>4</v>
+      </c>
+      <c r="R126" t="n">
+        <v>8</v>
+      </c>
+      <c r="S126" t="n">
+        <v>12</v>
+      </c>
+      <c r="T126" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT6" t="n">
         <v>2.29</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT21" t="n">
         <v>1.29</v>
@@ -7196,7 +7196,7 @@
         <v>1.43</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU33" t="n">
         <v>0.93</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT43" t="n">
         <v>0.63</v>
@@ -11459,7 +11459,7 @@
         <v>1.86</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU54" t="n">
         <v>0.92</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT58" t="n">
         <v>0.14</v>
@@ -13895,7 +13895,7 @@
         <v>2.57</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU66" t="n">
         <v>2.03</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT75" t="n">
         <v>1.43</v>
@@ -17752,7 +17752,7 @@
         <v>0.83</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU85" t="n">
         <v>1.02</v>
@@ -19373,7 +19373,7 @@
         <v>2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT93" t="n">
         <v>2</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU99" t="n">
         <v>1.68</v>
@@ -23639,7 +23639,7 @@
         <v>1.25</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU114" t="n">
         <v>1.69</v>
@@ -24448,7 +24448,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT118" t="n">
         <v>1.57</v>
@@ -26127,6 +26127,209 @@
       </c>
       <c r="BK126" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2808775</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44931.71875</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>4</v>
+      </c>
+      <c r="N127" t="n">
+        <v>4</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['15', '16', '53', '80']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" t="n">
+        <v>6</v>
+      </c>
+      <c r="S127" t="n">
+        <v>7</v>
+      </c>
+      <c r="T127" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.86</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
@@ -4354,7 +4354,7 @@
         <v>0.14</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU22" t="n">
         <v>1.63</v>
@@ -6384,7 +6384,7 @@
         <v>0.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU29" t="n">
         <v>1.52</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT32" t="n">
         <v>0.57</v>
@@ -8211,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU38" t="n">
         <v>2.68</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT48" t="n">
         <v>2.29</v>
@@ -10444,7 +10444,7 @@
         <v>2.57</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU49" t="n">
         <v>2.74</v>
@@ -13489,7 +13489,7 @@
         <v>1.86</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU64" t="n">
         <v>2.15</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>1.43</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU80" t="n">
         <v>1.17</v>
@@ -17546,7 +17546,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT84" t="n">
         <v>0.14</v>
@@ -18970,7 +18970,7 @@
         <v>1.86</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -20188,7 +20188,7 @@
         <v>1.57</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU97" t="n">
         <v>1.43</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -23436,7 +23436,7 @@
         <v>0.14</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU113" t="n">
         <v>1.64</v>
@@ -24245,7 +24245,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT117" t="n">
         <v>1.43</v>
@@ -26330,6 +26330,412 @@
       </c>
       <c r="BK127" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2808779</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44932.66666666666</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>12</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2</v>
+      </c>
+      <c r="S128" t="n">
+        <v>14</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U128" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V128" t="n">
+        <v>12</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X128" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2808778</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44932.76041666666</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['45+1', '81']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>6</v>
+      </c>
+      <c r="R129" t="n">
+        <v>4</v>
+      </c>
+      <c r="S129" t="n">
+        <v>10</v>
+      </c>
+      <c r="T129" t="n">
+        <v>3</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT12" t="n">
         <v>2.29</v>
@@ -3136,7 +3136,7 @@
         <v>2.57</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT18" t="n">
         <v>0.67</v>
@@ -4557,7 +4557,7 @@
         <v>0.83</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU20" t="n">
         <v>1.34</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>0.14</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT33" t="n">
         <v>2.63</v>
@@ -7399,7 +7399,7 @@
         <v>1.86</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU34" t="n">
         <v>0.91</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT35" t="n">
         <v>2.29</v>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU41" t="n">
         <v>1.81</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT42" t="n">
         <v>1.29</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU46" t="n">
         <v>1.7</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT47" t="n">
         <v>0.57</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU55" t="n">
         <v>1.66</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -12474,7 +12474,7 @@
         <v>0.83</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU59" t="n">
         <v>1.06</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT62" t="n">
         <v>0.63</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU68" t="n">
         <v>1.8</v>
@@ -14501,7 +14501,7 @@
         <v>3</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT69" t="n">
         <v>2.29</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU74" t="n">
         <v>1.65</v>
@@ -15925,7 +15925,7 @@
         <v>1.25</v>
       </c>
       <c r="AT76" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16128,7 +16128,7 @@
         <v>3</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU77" t="n">
         <v>2.96</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT80" t="n">
         <v>1.38</v>
@@ -17140,7 +17140,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT82" t="n">
         <v>0.63</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>1.13</v>
       </c>
       <c r="AT93" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU93" t="n">
         <v>1.28</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT95" t="n">
         <v>1.43</v>
@@ -19985,7 +19985,7 @@
         <v>1.25</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU96" t="n">
         <v>1.53</v>
@@ -20388,10 +20388,10 @@
         <v>0.6</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU98" t="n">
         <v>1.28</v>
@@ -20794,7 +20794,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT100" t="n">
         <v>0.63</v>
@@ -22824,10 +22824,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU110" t="n">
         <v>1.17</v>
@@ -23030,7 +23030,7 @@
         <v>1.57</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU111" t="n">
         <v>1.47</v>
@@ -23230,7 +23230,7 @@
         <v>0.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AT112" t="n">
         <v>0.63</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT115" t="n">
         <v>1.71</v>
@@ -24451,7 +24451,7 @@
         <v>1.13</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU118" t="n">
         <v>1.28</v>
@@ -26736,6 +26736,615 @@
       </c>
       <c r="BK129" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2808782</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44933.52083333334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['28', '64']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>2</v>
+      </c>
+      <c r="R130" t="n">
+        <v>5</v>
+      </c>
+      <c r="S130" t="n">
+        <v>7</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V130" t="n">
+        <v>4</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2808774</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44933.625</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>5</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2</v>
+      </c>
+      <c r="S131" t="n">
+        <v>7</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V131" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2808781</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44933.72916666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>5</v>
+      </c>
+      <c r="R132" t="n">
+        <v>6</v>
+      </c>
+      <c r="S132" t="n">
+        <v>11</v>
+      </c>
+      <c r="T132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK132"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.86</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT14" t="n">
         <v>0.57</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.63</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT19" t="n">
         <v>1.29</v>
@@ -5166,7 +5166,7 @@
         <v>2.57</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU23" t="n">
         <v>2.3</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT28" t="n">
         <v>1.38</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT29" t="n">
         <v>1.29</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT30" t="n">
         <v>2.29</v>
@@ -6790,7 +6790,7 @@
         <v>2.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU31" t="n">
         <v>2.67</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU36" t="n">
         <v>0.71</v>
@@ -8414,7 +8414,7 @@
         <v>0.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.2</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT45" t="n">
         <v>0.14</v>
@@ -10647,7 +10647,7 @@
         <v>2.57</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU50" t="n">
         <v>1.9</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT51" t="n">
         <v>2.29</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU53" t="n">
         <v>1.74</v>
@@ -11865,7 +11865,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU56" t="n">
         <v>1.62</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU60" t="n">
         <v>1.33</v>
@@ -13692,7 +13692,7 @@
         <v>2.57</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU65" t="n">
         <v>2.47</v>
@@ -14907,7 +14907,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT71" t="n">
         <v>1.29</v>
@@ -15313,7 +15313,7 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT73" t="n">
         <v>2.29</v>
@@ -15722,7 +15722,7 @@
         <v>1.13</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT79" t="n">
         <v>0.63</v>
@@ -16940,7 +16940,7 @@
         <v>1.86</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU81" t="n">
         <v>2.3</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT87" t="n">
         <v>1.29</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU89" t="n">
         <v>1.68</v>
@@ -19170,7 +19170,7 @@
         <v>0.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT92" t="n">
         <v>0.63</v>
@@ -19579,7 +19579,7 @@
         <v>3</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU94" t="n">
         <v>3.07</v>
@@ -19782,7 +19782,7 @@
         <v>1.63</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU95" t="n">
         <v>1.16</v>
@@ -20185,7 +20185,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT97" t="n">
         <v>1.38</v>
@@ -22012,7 +22012,7 @@
         <v>0.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT106" t="n">
         <v>0.63</v>
@@ -23027,7 +23027,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT111" t="n">
         <v>1.88</v>
@@ -23433,7 +23433,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AT113" t="n">
         <v>1.38</v>
@@ -23842,7 +23842,7 @@
         <v>1.38</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU115" t="n">
         <v>1.28</v>
@@ -24045,7 +24045,7 @@
         <v>3</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU116" t="n">
         <v>3.02</v>
@@ -24248,7 +24248,7 @@
         <v>1.71</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -27345,6 +27345,615 @@
       </c>
       <c r="BK132" t="n">
         <v>27</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2808776</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44934.52083333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>9</v>
+      </c>
+      <c r="R133" t="n">
+        <v>6</v>
+      </c>
+      <c r="S133" t="n">
+        <v>15</v>
+      </c>
+      <c r="T133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2808777</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44934.625</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>3</v>
+      </c>
+      <c r="R134" t="n">
+        <v>8</v>
+      </c>
+      <c r="S134" t="n">
+        <v>11</v>
+      </c>
+      <c r="T134" t="n">
+        <v>7</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2808780</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44934.72916666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>6</v>
+      </c>
+      <c r="R135" t="n">
+        <v>9</v>
+      </c>
+      <c r="S135" t="n">
+        <v>15</v>
+      </c>
+      <c r="T135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.57</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT15" t="n">
         <v>1.88</v>
@@ -5572,7 +5572,7 @@
         <v>1.86</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU25" t="n">
         <v>1.99</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -6993,7 +6993,7 @@
         <v>1.71</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT36" t="n">
         <v>0.57</v>
@@ -9226,7 +9226,7 @@
         <v>1.13</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU43" t="n">
         <v>1.24</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT44" t="n">
         <v>0.63</v>
@@ -10038,7 +10038,7 @@
         <v>2.13</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU47" t="n">
         <v>1.62</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT55" t="n">
         <v>1.38</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT56" t="n">
         <v>1.63</v>
@@ -13286,7 +13286,7 @@
         <v>3</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU63" t="n">
         <v>2.89</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT67" t="n">
         <v>1.29</v>
@@ -14707,7 +14707,7 @@
         <v>1.86</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT76" t="n">
         <v>1.88</v>
@@ -16534,7 +16534,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU79" t="n">
         <v>1.23</v>
@@ -18358,10 +18358,10 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU88" t="n">
         <v>1.95</v>
@@ -19173,7 +19173,7 @@
         <v>0.25</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT96" t="n">
         <v>1.38</v>
@@ -21200,7 +21200,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT102" t="n">
         <v>1.29</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -23233,7 +23233,7 @@
         <v>2.13</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU112" t="n">
         <v>1.56</v>
@@ -23636,7 +23636,7 @@
         <v>2.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT114" t="n">
         <v>2.63</v>
@@ -24654,7 +24654,7 @@
         <v>1.86</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU119" t="n">
         <v>1.24</v>
@@ -24854,7 +24854,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT120" t="n">
         <v>2.29</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -27954,6 +27954,412 @@
       </c>
       <c r="BK135" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2808790</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44939.71875</v>
+      </c>
+      <c r="F136" t="n">
+        <v>16</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>6</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1</v>
+      </c>
+      <c r="S136" t="n">
+        <v>7</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2808783</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44940.52083333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>3</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['3', '5', '75']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>5</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>9</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V137" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT3" t="n">
         <v>1.38</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.25</v>
@@ -2121,7 +2121,7 @@
         <v>1.22</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.38</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU24" t="n">
         <v>0.85</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5600000000000001</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT34" t="n">
         <v>1.88</v>
@@ -8008,7 +8008,7 @@
         <v>3</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -11053,7 +11053,7 @@
         <v>1.63</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU52" t="n">
         <v>1.09</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT54" t="n">
         <v>2.63</v>
@@ -12271,7 +12271,7 @@
         <v>1.13</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.23</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
         <v>1.38</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT70" t="n">
         <v>0.63</v>
@@ -15113,7 +15113,7 @@
         <v>1.71</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU72" t="n">
         <v>1.32</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
         <v>1.63</v>
@@ -17549,7 +17549,7 @@
         <v>1.71</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -18767,7 +18767,7 @@
         <v>2.13</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU90" t="n">
         <v>1.35</v>
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT91" t="n">
         <v>1.29</v>
@@ -21406,7 +21406,7 @@
         <v>2.57</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.94</v>
@@ -21809,10 +21809,10 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU105" t="n">
         <v>1.25</v>
@@ -22215,7 +22215,7 @@
         <v>2</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>2.29</v>
@@ -24651,7 +24651,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT119" t="n">
         <v>0.5600000000000001</v>
@@ -25466,7 +25466,7 @@
         <v>2.57</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU123" t="n">
         <v>2.42</v>
@@ -26072,7 +26072,7 @@
         <v>2.67</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>2.29</v>
@@ -28221,13 +28221,13 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R137" t="n">
         <v>4</v>
       </c>
       <c r="S137" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T137" t="n">
         <v>2.37</v>
@@ -28344,22 +28344,428 @@
         <v>2.4</v>
       </c>
       <c r="BF137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2808784</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44940.625</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
         <v>6</v>
       </c>
-      <c r="BG137" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH137" t="n">
+      <c r="R138" t="n">
+        <v>2</v>
+      </c>
+      <c r="S138" t="n">
+        <v>8</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF138" t="n">
         <v>6</v>
       </c>
-      <c r="BI137" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ137" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK137" t="n">
-        <v>4</v>
+      <c r="BG138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2808789</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44940.72916666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>1</v>
+      </c>
+      <c r="R139" t="n">
+        <v>7</v>
+      </c>
+      <c r="S139" t="n">
+        <v>8</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V139" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0.83</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT5" t="n">
         <v>0.5600000000000001</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.13</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU21" t="n">
         <v>1</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU23" t="n">
         <v>2.3</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU27" t="n">
         <v>1.83</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT38" t="n">
         <v>1.38</v>
@@ -8414,7 +8414,7 @@
         <v>0.83</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU39" t="n">
         <v>1.2</v>
@@ -9023,7 +9023,7 @@
         <v>1.38</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU42" t="n">
         <v>0.97</v>
@@ -9429,7 +9429,7 @@
         <v>1.22</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU44" t="n">
         <v>1.84</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT50" t="n">
         <v>1.63</v>
@@ -12677,7 +12677,7 @@
         <v>1.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU60" t="n">
         <v>1.33</v>
@@ -13083,7 +13083,7 @@
         <v>1.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU62" t="n">
         <v>0.99</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT63" t="n">
         <v>0.5600000000000001</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT66" t="n">
         <v>2.63</v>
@@ -14910,7 +14910,7 @@
         <v>0.25</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU71" t="n">
         <v>1.69</v>
@@ -15722,7 +15722,7 @@
         <v>1.13</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT77" t="n">
         <v>0.88</v>
@@ -17143,7 +17143,7 @@
         <v>1.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU82" t="n">
         <v>1.08</v>
@@ -17343,7 +17343,7 @@
         <v>2.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT83" t="n">
         <v>2.29</v>
@@ -18158,7 +18158,7 @@
         <v>0.71</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -19576,7 +19576,7 @@
         <v>1.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT94" t="n">
         <v>1.63</v>
@@ -19782,7 +19782,7 @@
         <v>1.63</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU95" t="n">
         <v>1.16</v>
@@ -20797,7 +20797,7 @@
         <v>2.13</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU100" t="n">
         <v>1.56</v>
@@ -21203,7 +21203,7 @@
         <v>1.25</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21403,7 +21403,7 @@
         <v>0.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT103" t="n">
         <v>0.5</v>
@@ -22015,7 +22015,7 @@
         <v>0.71</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU106" t="n">
         <v>1.72</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT116" t="n">
         <v>0.57</v>
@@ -24248,7 +24248,7 @@
         <v>1.71</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -25057,10 +25057,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25669,7 +25669,7 @@
         <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU124" t="n">
         <v>1.82</v>
@@ -26478,7 +26478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="AT128" t="n">
         <v>1.29</v>
@@ -27699,7 +27699,7 @@
         <v>0.71</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU134" t="n">
         <v>1.78</v>
@@ -28765,6 +28765,615 @@
         <v>10</v>
       </c>
       <c r="BK139" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2808788</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44941.52083333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>11</v>
+      </c>
+      <c r="S140" t="n">
+        <v>16</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2808791</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44941.625</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>2</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>4</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['37', '64']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['27', '53']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>5</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2</v>
+      </c>
+      <c r="S141" t="n">
+        <v>7</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V141" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2808786</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44941.72916666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>3</v>
+      </c>
+      <c r="L142" t="n">
+        <v>4</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>5</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['10', '21', '42', '48']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>2</v>
+      </c>
+      <c r="R142" t="n">
+        <v>5</v>
+      </c>
+      <c r="S142" t="n">
+        <v>7</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V142" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK142" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK142"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5600000000000001</v>
@@ -1715,7 +1715,7 @@
         <v>1.13</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT20" t="n">
         <v>0.88</v>
@@ -5775,7 +5775,7 @@
         <v>1.22</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU26" t="n">
         <v>2.15</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT27" t="n">
         <v>0.5600000000000001</v>
@@ -7602,7 +7602,7 @@
         <v>2.13</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT39" t="n">
         <v>1.22</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU40" t="n">
         <v>2.32</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT41" t="n">
         <v>1.88</v>
@@ -10850,7 +10850,7 @@
         <v>0.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT57" t="n">
         <v>0.88</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT59" t="n">
         <v>1.88</v>
@@ -12880,7 +12880,7 @@
         <v>1.63</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU61" t="n">
         <v>0.97</v>
@@ -15316,7 +15316,7 @@
         <v>0.71</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU73" t="n">
         <v>1.71</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT74" t="n">
         <v>1.38</v>
@@ -16331,7 +16331,7 @@
         <v>0.25</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.5</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT85" t="n">
         <v>2.63</v>
@@ -17955,7 +17955,7 @@
         <v>2.57</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU86" t="n">
         <v>2.37</v>
@@ -20591,7 +20591,7 @@
         <v>2.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT99" t="n">
         <v>2.63</v>
@@ -20997,7 +20997,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT101" t="n">
         <v>1.29</v>
@@ -21609,7 +21609,7 @@
         <v>2.57</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU104" t="n">
         <v>2.44</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU107" t="n">
         <v>2.45</v>
@@ -22418,7 +22418,7 @@
         <v>2.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT108" t="n">
         <v>2.29</v>
@@ -24857,7 +24857,7 @@
         <v>1.22</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU120" t="n">
         <v>1.6</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT122" t="n">
         <v>0.63</v>
@@ -25872,7 +25872,7 @@
         <v>1.25</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU125" t="n">
         <v>2.07</v>
@@ -29375,6 +29375,412 @@
       </c>
       <c r="BK142" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2808787</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44942.66666666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['32', '77']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>4</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>8</v>
+      </c>
+      <c r="T143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2808785</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44942.76041666666</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>3</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['40', '82']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>3</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>3</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.63</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT13" t="n">
         <v>0.88</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT18" t="n">
         <v>0.57</v>
@@ -4354,7 +4354,7 @@
         <v>0.25</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU22" t="n">
         <v>1.63</v>
@@ -6384,7 +6384,7 @@
         <v>0.71</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU29" t="n">
         <v>1.52</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT31" t="n">
         <v>1.63</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT33" t="n">
         <v>2.63</v>
@@ -8211,7 +8211,7 @@
         <v>2.78</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU38" t="n">
         <v>2.68</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU49" t="n">
         <v>2.74</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT52" t="n">
         <v>0.86</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT61" t="n">
         <v>0.88</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU64" t="n">
         <v>2.15</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT65" t="n">
         <v>0.57</v>
@@ -14098,7 +14098,7 @@
         <v>1.25</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -16737,7 +16737,7 @@
         <v>1.38</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU80" t="n">
         <v>1.17</v>
@@ -17140,7 +17140,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT82" t="n">
         <v>0.5600000000000001</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT86" t="n">
         <v>2</v>
@@ -18970,7 +18970,7 @@
         <v>1.63</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT95" t="n">
         <v>1.22</v>
@@ -20188,7 +20188,7 @@
         <v>1.75</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU97" t="n">
         <v>1.43</v>
@@ -21000,7 +21000,7 @@
         <v>1.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -21606,7 +21606,7 @@
         <v>1.4</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT104" t="n">
         <v>0.88</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT110" t="n">
         <v>0.88</v>
@@ -23436,7 +23436,7 @@
         <v>0.25</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU113" t="n">
         <v>1.64</v>
@@ -25463,7 +25463,7 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT123" t="n">
         <v>0.5</v>
@@ -26481,7 +26481,7 @@
         <v>2.78</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU128" t="n">
         <v>2.82</v>
@@ -26684,7 +26684,7 @@
         <v>1.71</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU129" t="n">
         <v>1.27</v>
@@ -26884,7 +26884,7 @@
         <v>1.57</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT130" t="n">
         <v>1.38</v>
@@ -29781,6 +29781,412 @@
       </c>
       <c r="BK144" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2808813</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44946.66666666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>17</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>4</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>4</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['6', '32', '76', '79']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>3</v>
+      </c>
+      <c r="R145" t="n">
+        <v>7</v>
+      </c>
+      <c r="S145" t="n">
+        <v>10</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2</v>
+      </c>
+      <c r="V145" t="n">
+        <v>4</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2808809</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44946.76041666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['59', '90+5']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>8</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1</v>
+      </c>
+      <c r="S146" t="n">
+        <v>9</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V146" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK146"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -2730,7 +2730,7 @@
         <v>1.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.38</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT16" t="n">
         <v>1.38</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT19" t="n">
         <v>1.13</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>1.25</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT28" t="n">
         <v>1.38</v>
@@ -6587,7 +6587,7 @@
         <v>1.75</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -7196,7 +7196,7 @@
         <v>1.78</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU33" t="n">
         <v>0.93</v>
@@ -7399,7 +7399,7 @@
         <v>1.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>0.91</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -8820,7 +8820,7 @@
         <v>1.22</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.81</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>0.5600000000000001</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT47" t="n">
         <v>0.63</v>
@@ -10241,7 +10241,7 @@
         <v>1.71</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT51" t="n">
         <v>2</v>
@@ -11459,7 +11459,7 @@
         <v>1.63</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU54" t="n">
         <v>0.92</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5</v>
@@ -12474,7 +12474,7 @@
         <v>1.14</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.06</v>
@@ -13895,7 +13895,7 @@
         <v>2.63</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU66" t="n">
         <v>2.03</v>
@@ -14501,10 +14501,10 @@
         <v>3</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU69" t="n">
         <v>1.52</v>
@@ -14907,7 +14907,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT71" t="n">
         <v>1.25</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>1.22</v>
@@ -15925,7 +15925,7 @@
         <v>1.22</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -17346,7 +17346,7 @@
         <v>2.63</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU83" t="n">
         <v>2</v>
@@ -17752,7 +17752,7 @@
         <v>1.14</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU85" t="n">
         <v>1.02</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT90" t="n">
         <v>0.86</v>
@@ -19170,7 +19170,7 @@
         <v>0.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5600000000000001</v>
@@ -19373,10 +19373,10 @@
         <v>2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU93" t="n">
         <v>1.28</v>
@@ -20594,7 +20594,7 @@
         <v>1.22</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU99" t="n">
         <v>1.68</v>
@@ -20794,7 +20794,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT100" t="n">
         <v>0.5600000000000001</v>
@@ -22421,7 +22421,7 @@
         <v>1.14</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU108" t="n">
         <v>1</v>
@@ -23030,7 +23030,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU111" t="n">
         <v>1.47</v>
@@ -23230,7 +23230,7 @@
         <v>0.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT112" t="n">
         <v>0.5600000000000001</v>
@@ -23433,7 +23433,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT113" t="n">
         <v>1.22</v>
@@ -23639,7 +23639,7 @@
         <v>1.22</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU114" t="n">
         <v>1.69</v>
@@ -24448,7 +24448,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT118" t="n">
         <v>1.38</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU126" t="n">
         <v>2.49</v>
@@ -26275,10 +26275,10 @@
         <v>2.57</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AU127" t="n">
         <v>1.34</v>
@@ -27087,7 +27087,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT131" t="n">
         <v>0.88</v>
@@ -27293,7 +27293,7 @@
         <v>1.38</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU132" t="n">
         <v>1.31</v>
@@ -27493,7 +27493,7 @@
         <v>1.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AT133" t="n">
         <v>1.63</v>
@@ -30187,6 +30187,615 @@
       </c>
       <c r="BK146" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2808793</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44947.52083333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['58', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>4</v>
+      </c>
+      <c r="R147" t="n">
+        <v>10</v>
+      </c>
+      <c r="S147" t="n">
+        <v>14</v>
+      </c>
+      <c r="T147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X147" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2808792</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44947.625</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['9', '16', '80']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>8</v>
+      </c>
+      <c r="R148" t="n">
+        <v>9</v>
+      </c>
+      <c r="S148" t="n">
+        <v>17</v>
+      </c>
+      <c r="T148" t="n">
+        <v>8</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2808808</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44947.72916666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>3</v>
+      </c>
+      <c r="R149" t="n">
+        <v>6</v>
+      </c>
+      <c r="S149" t="n">
+        <v>9</v>
+      </c>
+      <c r="T149" t="n">
+        <v>7</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT11" t="n">
         <v>2.67</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT12" t="n">
         <v>2.38</v>
@@ -3136,7 +3136,7 @@
         <v>2.63</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.89</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.63</v>
@@ -4151,7 +4151,7 @@
         <v>1.78</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.14</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU20" t="n">
         <v>1.34</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT24" t="n">
         <v>0.86</v>
@@ -6181,7 +6181,7 @@
         <v>0.22</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>1.13</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT32" t="n">
         <v>0.63</v>
@@ -7805,7 +7805,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU36" t="n">
         <v>0.71</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT42" t="n">
         <v>1.25</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU46" t="n">
         <v>1.7</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT48" t="n">
         <v>2.38</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU53" t="n">
         <v>1.74</v>
@@ -11662,7 +11662,7 @@
         <v>1.25</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU55" t="n">
         <v>1.66</v>
@@ -12068,7 +12068,7 @@
         <v>1.22</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT62" t="n">
         <v>0.5600000000000001</v>
@@ -13692,7 +13692,7 @@
         <v>2.63</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU65" t="n">
         <v>2.47</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU68" t="n">
         <v>1.8</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT72" t="n">
         <v>0.86</v>
@@ -15313,7 +15313,7 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>2</v>
@@ -15519,7 +15519,7 @@
         <v>1.22</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU74" t="n">
         <v>1.65</v>
@@ -16128,7 +16128,7 @@
         <v>2.78</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU77" t="n">
         <v>2.96</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT80" t="n">
         <v>1.22</v>
@@ -17546,7 +17546,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT87" t="n">
         <v>1.25</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU89" t="n">
         <v>1.68</v>
@@ -19985,7 +19985,7 @@
         <v>1.22</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU96" t="n">
         <v>1.53</v>
@@ -20388,10 +20388,10 @@
         <v>0.6</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU98" t="n">
         <v>1.28</v>
@@ -22012,7 +22012,7 @@
         <v>0.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>0.5600000000000001</v>
@@ -22827,7 +22827,7 @@
         <v>1.78</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU110" t="n">
         <v>1.17</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT115" t="n">
         <v>1.63</v>
@@ -24045,7 +24045,7 @@
         <v>2.78</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU116" t="n">
         <v>3.02</v>
@@ -24245,7 +24245,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT117" t="n">
         <v>1.22</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU118" t="n">
         <v>1.28</v>
@@ -26681,7 +26681,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT129" t="n">
         <v>1.22</v>
@@ -26887,7 +26887,7 @@
         <v>1.78</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU130" t="n">
         <v>1.18</v>
@@ -27090,7 +27090,7 @@
         <v>1.89</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU131" t="n">
         <v>1.54</v>
@@ -27290,7 +27290,7 @@
         <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT132" t="n">
         <v>2</v>
@@ -27696,7 +27696,7 @@
         <v>1.43</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT134" t="n">
         <v>1.22</v>
@@ -27902,7 +27902,7 @@
         <v>1.75</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU135" t="n">
         <v>1.36</v>
@@ -30795,6 +30795,615 @@
         <v>11</v>
       </c>
       <c r="BK149" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2808807</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44948.52083333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>4</v>
+      </c>
+      <c r="R150" t="n">
+        <v>5</v>
+      </c>
+      <c r="S150" t="n">
+        <v>9</v>
+      </c>
+      <c r="T150" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V150" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2808811</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44948.625</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>3</v>
+      </c>
+      <c r="N151" t="n">
+        <v>4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['50', '54', '62']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R151" t="n">
+        <v>4</v>
+      </c>
+      <c r="S151" t="n">
+        <v>10</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X151" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2808812</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44948.72916666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>4</v>
+      </c>
+      <c r="R152" t="n">
+        <v>3</v>
+      </c>
+      <c r="S152" t="n">
+        <v>7</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X152" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK152" t="n">
         <v>16</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT14" t="n">
         <v>0.63</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT30" t="n">
         <v>2.38</v>
@@ -6790,7 +6790,7 @@
         <v>2.63</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU31" t="n">
         <v>2.67</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT45" t="n">
         <v>0.5</v>
@@ -10647,7 +10647,7 @@
         <v>2.63</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU50" t="n">
         <v>1.9</v>
@@ -11865,7 +11865,7 @@
         <v>1.22</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU56" t="n">
         <v>1.62</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT60" t="n">
         <v>1.22</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT79" t="n">
         <v>0.5600000000000001</v>
@@ -16940,7 +16940,7 @@
         <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU81" t="n">
         <v>2.3</v>
@@ -19579,7 +19579,7 @@
         <v>2.78</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU94" t="n">
         <v>3.07</v>
@@ -20185,7 +20185,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT97" t="n">
         <v>1.22</v>
@@ -23027,7 +23027,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT111" t="n">
         <v>2</v>
@@ -23842,7 +23842,7 @@
         <v>1.22</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU115" t="n">
         <v>1.28</v>
@@ -27496,7 +27496,7 @@
         <v>0.22</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU133" t="n">
         <v>1.67</v>
@@ -27899,7 +27899,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT135" t="n">
         <v>0.88</v>
@@ -31405,6 +31405,209 @@
       </c>
       <c r="BK152" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2808810</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44949.71875</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>11</v>
+      </c>
+      <c r="R153" t="n">
+        <v>5</v>
+      </c>
+      <c r="S153" t="n">
+        <v>16</v>
+      </c>
+      <c r="T153" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V153" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X153" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1.22</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.13</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT28" t="n">
         <v>1.22</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -10241,7 +10241,7 @@
         <v>1.63</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT51" t="n">
         <v>2</v>
@@ -14504,7 +14504,7 @@
         <v>1.89</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU69" t="n">
         <v>1.52</v>
@@ -14907,7 +14907,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT71" t="n">
         <v>1.25</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -17346,7 +17346,7 @@
         <v>2.63</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU83" t="n">
         <v>2</v>
@@ -19170,7 +19170,7 @@
         <v>0.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5600000000000001</v>
@@ -22421,7 +22421,7 @@
         <v>1.14</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU108" t="n">
         <v>1</v>
@@ -23433,7 +23433,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT113" t="n">
         <v>1.22</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU126" t="n">
         <v>2.49</v>
@@ -27493,7 +27493,7 @@
         <v>1.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT133" t="n">
         <v>1.56</v>
@@ -30335,7 +30335,7 @@
         <v>2.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AT147" t="n">
         <v>2.67</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU148" t="n">
         <v>1.25</v>
@@ -31608,6 +31608,209 @@
       </c>
       <c r="BK153" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2808840</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44952.71875</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['7', '11']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R154" t="n">
+        <v>10</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
+      <c r="T154" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="V154" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT11" t="n">
         <v>2.67</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT12" t="n">
         <v>2.44</v>
@@ -3136,7 +3136,7 @@
         <v>2.63</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -3745,7 +3745,7 @@
         <v>1.89</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.14</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU20" t="n">
         <v>1.34</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT24" t="n">
         <v>0.86</v>
@@ -6181,7 +6181,7 @@
         <v>0.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.52</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT30" t="n">
         <v>2.44</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT36" t="n">
         <v>0.88</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT42" t="n">
         <v>1.25</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT45" t="n">
         <v>0.5</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU46" t="n">
         <v>1.7</v>
@@ -10038,7 +10038,7 @@
         <v>1.89</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU47" t="n">
         <v>1.62</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT48" t="n">
         <v>2.44</v>
@@ -10444,7 +10444,7 @@
         <v>2.63</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>2.74</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.66</v>
@@ -12068,7 +12068,7 @@
         <v>1.22</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT60" t="n">
         <v>1.22</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT62" t="n">
         <v>0.5600000000000001</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.8</v>
@@ -14707,7 +14707,7 @@
         <v>1.63</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT72" t="n">
         <v>0.86</v>
@@ -15519,7 +15519,7 @@
         <v>1.22</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.65</v>
@@ -16128,7 +16128,7 @@
         <v>2.78</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU77" t="n">
         <v>2.96</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT79" t="n">
         <v>0.5600000000000001</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT80" t="n">
         <v>1.22</v>
@@ -17546,7 +17546,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5</v>
@@ -18358,10 +18358,10 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU88" t="n">
         <v>1.95</v>
@@ -18970,7 +18970,7 @@
         <v>1.63</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -19985,7 +19985,7 @@
         <v>1.22</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.53</v>
@@ -20185,7 +20185,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT97" t="n">
         <v>1.22</v>
@@ -20388,10 +20388,10 @@
         <v>0.6</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU98" t="n">
         <v>1.28</v>
@@ -21000,7 +21000,7 @@
         <v>1.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -21200,7 +21200,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT102" t="n">
         <v>1.25</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -22827,7 +22827,7 @@
         <v>1.78</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU110" t="n">
         <v>1.17</v>
@@ -23027,7 +23027,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT111" t="n">
         <v>2</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT115" t="n">
         <v>1.56</v>
@@ -24245,7 +24245,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT117" t="n">
         <v>1.22</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.28</v>
@@ -25263,7 +25263,7 @@
         <v>1.22</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT125" t="n">
         <v>0.88</v>
@@ -26481,7 +26481,7 @@
         <v>2.78</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>2.82</v>
@@ -26681,7 +26681,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT129" t="n">
         <v>1.22</v>
@@ -26887,7 +26887,7 @@
         <v>1.78</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.18</v>
@@ -27090,7 +27090,7 @@
         <v>1.89</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU131" t="n">
         <v>1.54</v>
@@ -27290,7 +27290,7 @@
         <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT132" t="n">
         <v>2</v>
@@ -27899,7 +27899,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT135" t="n">
         <v>0.88</v>
@@ -28105,7 +28105,7 @@
         <v>1.22</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU136" t="n">
         <v>1.5</v>
@@ -28305,7 +28305,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT137" t="n">
         <v>0.5600000000000001</v>
@@ -29932,7 +29932,7 @@
         <v>1.78</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.28</v>
@@ -30947,7 +30947,7 @@
         <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.68</v>
@@ -31147,7 +31147,7 @@
         <v>0.57</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT151" t="n">
         <v>0.88</v>
@@ -31350,10 +31350,10 @@
         <v>0.88</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU152" t="n">
         <v>1.26</v>
@@ -31553,7 +31553,7 @@
         <v>1.63</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT153" t="n">
         <v>1.56</v>
@@ -31811,6 +31811,818 @@
       </c>
       <c r="BK154" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2808815</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44955.52083333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>4</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['55', '64', '90+2']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>3</v>
+      </c>
+      <c r="R155" t="n">
+        <v>8</v>
+      </c>
+      <c r="S155" t="n">
+        <v>11</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2</v>
+      </c>
+      <c r="V155" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2808821</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44955.52083333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['75', '90+4']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>8</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>11</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V156" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2808822</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44955.625</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>4</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>6</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['50', '53', '75', '81']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['55', '83']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>7</v>
+      </c>
+      <c r="R157" t="n">
+        <v>6</v>
+      </c>
+      <c r="S157" t="n">
+        <v>13</v>
+      </c>
+      <c r="T157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2808817</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44955.72916666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>5</v>
+      </c>
+      <c r="R158" t="n">
+        <v>7</v>
+      </c>
+      <c r="S158" t="n">
+        <v>12</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>1.1</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>2.63</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU31" t="n">
         <v>2.67</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
         <v>0.5600000000000001</v>
@@ -10647,7 +10647,7 @@
         <v>2.63</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU50" t="n">
         <v>1.9</v>
@@ -11865,7 +11865,7 @@
         <v>1.22</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.62</v>
@@ -14501,7 +14501,7 @@
         <v>3</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>2.44</v>
@@ -16940,7 +16940,7 @@
         <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU81" t="n">
         <v>2.3</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>0.86</v>
@@ -19579,7 +19579,7 @@
         <v>2.78</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU94" t="n">
         <v>3.07</v>
@@ -20794,7 +20794,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
         <v>0.5600000000000001</v>
@@ -23230,7 +23230,7 @@
         <v>0.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT112" t="n">
         <v>0.5600000000000001</v>
@@ -23842,7 +23842,7 @@
         <v>1.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU115" t="n">
         <v>1.28</v>
@@ -27087,7 +27087,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT131" t="n">
         <v>0.8</v>
@@ -27496,7 +27496,7 @@
         <v>0.2</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU133" t="n">
         <v>1.67</v>
@@ -30741,7 +30741,7 @@
         <v>1.88</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT149" t="n">
         <v>2</v>
@@ -31556,7 +31556,7 @@
         <v>1.8</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU153" t="n">
         <v>1.4</v>
@@ -32622,6 +32622,209 @@
         <v>16</v>
       </c>
       <c r="BK158" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2808818</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44956.71875</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['18', '90+7']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>7</v>
+      </c>
+      <c r="R159" t="n">
+        <v>6</v>
+      </c>
+      <c r="S159" t="n">
+        <v>13</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V159" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK159" t="n">
         <v>16</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1.4</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT28" t="n">
         <v>1.1</v>
@@ -6587,7 +6587,7 @@
         <v>1.8</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT33" t="n">
         <v>2.67</v>
@@ -7805,7 +7805,7 @@
         <v>1.44</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU36" t="n">
         <v>0.71</v>
@@ -10241,7 +10241,7 @@
         <v>1.78</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT51" t="n">
         <v>2</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT52" t="n">
         <v>0.86</v>
@@ -11256,7 +11256,7 @@
         <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU53" t="n">
         <v>1.74</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT61" t="n">
         <v>0.88</v>
@@ -13692,7 +13692,7 @@
         <v>2.63</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU65" t="n">
         <v>2.47</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.52</v>
@@ -14907,7 +14907,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT71" t="n">
         <v>1.25</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -17140,7 +17140,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT82" t="n">
         <v>0.5600000000000001</v>
@@ -17346,7 +17346,7 @@
         <v>2.63</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU83" t="n">
         <v>2</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU89" t="n">
         <v>1.68</v>
@@ -19170,7 +19170,7 @@
         <v>0.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5600000000000001</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT95" t="n">
         <v>1.22</v>
@@ -22421,7 +22421,7 @@
         <v>1.14</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU108" t="n">
         <v>1</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT110" t="n">
         <v>0.8</v>
@@ -23433,7 +23433,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT113" t="n">
         <v>1.22</v>
@@ -24045,7 +24045,7 @@
         <v>2.78</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU116" t="n">
         <v>3.02</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU126" t="n">
         <v>2.49</v>
@@ -26884,7 +26884,7 @@
         <v>1.57</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT130" t="n">
         <v>1.1</v>
@@ -27493,7 +27493,7 @@
         <v>1.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT133" t="n">
         <v>1.4</v>
@@ -27902,7 +27902,7 @@
         <v>1.8</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU135" t="n">
         <v>1.36</v>
@@ -29929,7 +29929,7 @@
         <v>1.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -30335,7 +30335,7 @@
         <v>2.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT147" t="n">
         <v>2.67</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU148" t="n">
         <v>1.25</v>
@@ -31150,7 +31150,7 @@
         <v>1.4</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU151" t="n">
         <v>1.19</v>
@@ -31756,10 +31756,10 @@
         <v>2.38</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU154" t="n">
         <v>1.62</v>
@@ -32826,6 +32826,412 @@
       </c>
       <c r="BK159" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2808814</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44957.66666666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['34', '58']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>11</v>
+      </c>
+      <c r="R160" t="n">
+        <v>12</v>
+      </c>
+      <c r="S160" t="n">
+        <v>23</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2808816</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44957.76041666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['25', '54', '80']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>3</v>
+      </c>
+      <c r="R161" t="n">
+        <v>3</v>
+      </c>
+      <c r="S161" t="n">
+        <v>6</v>
+      </c>
+      <c r="T161" t="n">
+        <v>7</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V161" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.78</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT13" t="n">
         <v>0.8</v>
@@ -3542,7 +3542,7 @@
         <v>1.44</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT17" t="n">
         <v>1.4</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT31" t="n">
         <v>1.4</v>
@@ -7196,7 +7196,7 @@
         <v>1.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU33" t="n">
         <v>0.93</v>
@@ -7399,7 +7399,7 @@
         <v>1.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU34" t="n">
         <v>0.91</v>
@@ -8820,7 +8820,7 @@
         <v>1.22</v>
       </c>
       <c r="AT41" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.81</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT53" t="n">
         <v>0.78</v>
@@ -11459,7 +11459,7 @@
         <v>1.63</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU54" t="n">
         <v>0.92</v>
@@ -12474,7 +12474,7 @@
         <v>1.14</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.06</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT65" t="n">
         <v>0.78</v>
@@ -13895,7 +13895,7 @@
         <v>2.63</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU66" t="n">
         <v>2.03</v>
@@ -15313,7 +15313,7 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT73" t="n">
         <v>2</v>
@@ -15925,7 +15925,7 @@
         <v>1.22</v>
       </c>
       <c r="AT76" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -17752,7 +17752,7 @@
         <v>1.14</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU85" t="n">
         <v>1.02</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT86" t="n">
         <v>2</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT87" t="n">
         <v>1.25</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.28</v>
@@ -20594,7 +20594,7 @@
         <v>1.22</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU99" t="n">
         <v>1.68</v>
@@ -21606,7 +21606,7 @@
         <v>1.4</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT104" t="n">
         <v>0.88</v>
@@ -22012,7 +22012,7 @@
         <v>0.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT106" t="n">
         <v>0.5600000000000001</v>
@@ -23030,7 +23030,7 @@
         <v>1.8</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.47</v>
@@ -23639,7 +23639,7 @@
         <v>1.22</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU114" t="n">
         <v>1.69</v>
@@ -25463,7 +25463,7 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT123" t="n">
         <v>0.5</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.34</v>
@@ -27293,7 +27293,7 @@
         <v>1.4</v>
       </c>
       <c r="AT132" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU132" t="n">
         <v>1.31</v>
@@ -27696,7 +27696,7 @@
         <v>1.43</v>
       </c>
       <c r="AS134" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT134" t="n">
         <v>1.22</v>
@@ -30132,7 +30132,7 @@
         <v>1.38</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT146" t="n">
         <v>1.22</v>
@@ -30338,7 +30338,7 @@
         <v>0.45</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AU147" t="n">
         <v>1.66</v>
@@ -30744,7 +30744,7 @@
         <v>2</v>
       </c>
       <c r="AT149" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU149" t="n">
         <v>1.5</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT150" t="n">
         <v>1.1</v>
@@ -33232,6 +33232,412 @@
       </c>
       <c r="BK161" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2808819</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44958.66666666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['50', '55']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>5</v>
+      </c>
+      <c r="R162" t="n">
+        <v>1</v>
+      </c>
+      <c r="S162" t="n">
+        <v>6</v>
+      </c>
+      <c r="T162" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2808820</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44958.76041666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>18</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>5</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>5</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['9', '46', '61', '86', '90+3']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>10</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1</v>
+      </c>
+      <c r="S163" t="n">
+        <v>11</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V163" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.22</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU24" t="n">
         <v>0.85</v>
@@ -11053,7 +11053,7 @@
         <v>1.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU52" t="n">
         <v>1.09</v>
@@ -15113,7 +15113,7 @@
         <v>1.78</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU72" t="n">
         <v>1.32</v>
@@ -18767,7 +18767,7 @@
         <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU90" t="n">
         <v>1.35</v>
@@ -21812,7 +21812,7 @@
         <v>1.63</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU105" t="n">
         <v>1.25</v>
@@ -28714,7 +28714,7 @@
         <v>2</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU139" t="n">
         <v>2.39</v>
@@ -33638,6 +33638,209 @@
       </c>
       <c r="BK163" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2808828</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44961.52083333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['60', '86']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['13', '64']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>7</v>
+      </c>
+      <c r="R164" t="n">
+        <v>7</v>
+      </c>
+      <c r="S164" t="n">
+        <v>14</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK164"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.63</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT7" t="n">
         <v>1.22</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>0.8</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU21" t="n">
         <v>1</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.63</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT23" t="n">
         <v>1.22</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>1.99</v>
@@ -5775,7 +5775,7 @@
         <v>1.22</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU26" t="n">
         <v>2.15</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.83</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -8208,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU38" t="n">
         <v>2.68</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.22</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU40" t="n">
         <v>2.32</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT41" t="n">
         <v>2.1</v>
@@ -9023,7 +9023,7 @@
         <v>1.4</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU42" t="n">
         <v>0.97</v>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.24</v>
@@ -9429,7 +9429,7 @@
         <v>1.22</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.84</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT46" t="n">
         <v>0.8</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT50" t="n">
         <v>1.4</v>
@@ -10850,7 +10850,7 @@
         <v>0.45</v>
       </c>
       <c r="AT51" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT57" t="n">
         <v>0.8</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
         <v>2.1</v>
@@ -12880,7 +12880,7 @@
         <v>1.6</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU61" t="n">
         <v>0.97</v>
@@ -13083,7 +13083,7 @@
         <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>0.99</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU63" t="n">
         <v>2.89</v>
@@ -13486,10 +13486,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU64" t="n">
         <v>2.15</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT66" t="n">
         <v>2.4</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT68" t="n">
         <v>1.1</v>
@@ -14910,7 +14910,7 @@
         <v>0.45</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU71" t="n">
         <v>1.69</v>
@@ -15316,7 +15316,7 @@
         <v>0.89</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU73" t="n">
         <v>1.71</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.1</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT77" t="n">
         <v>0.8</v>
@@ -16331,7 +16331,7 @@
         <v>0.45</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU78" t="n">
         <v>1.5</v>
@@ -16534,7 +16534,7 @@
         <v>1.8</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.23</v>
@@ -16737,7 +16737,7 @@
         <v>1.4</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU80" t="n">
         <v>1.17</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT81" t="n">
         <v>1.4</v>
@@ -17143,7 +17143,7 @@
         <v>1.6</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU82" t="n">
         <v>1.08</v>
@@ -17343,7 +17343,7 @@
         <v>2.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT83" t="n">
         <v>2.5</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>2.4</v>
@@ -17955,7 +17955,7 @@
         <v>2.67</v>
       </c>
       <c r="AT86" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU86" t="n">
         <v>2.37</v>
@@ -18158,7 +18158,7 @@
         <v>0.89</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT89" t="n">
         <v>0.78</v>
@@ -19173,7 +19173,7 @@
         <v>0.45</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -19576,7 +19576,7 @@
         <v>1.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT94" t="n">
         <v>1.4</v>
@@ -20188,7 +20188,7 @@
         <v>1.8</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.43</v>
@@ -20591,7 +20591,7 @@
         <v>2.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT99" t="n">
         <v>2.4</v>
@@ -20797,7 +20797,7 @@
         <v>2</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.56</v>
@@ -20997,7 +20997,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT101" t="n">
         <v>1</v>
@@ -21203,7 +21203,7 @@
         <v>1.44</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21403,7 +21403,7 @@
         <v>0.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT103" t="n">
         <v>0.5</v>
@@ -21609,7 +21609,7 @@
         <v>2.67</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU104" t="n">
         <v>2.44</v>
@@ -22015,7 +22015,7 @@
         <v>0.89</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.72</v>
@@ -22215,10 +22215,10 @@
         <v>2</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT107" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU107" t="n">
         <v>2.45</v>
@@ -22418,7 +22418,7 @@
         <v>2.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
         <v>2.5</v>
@@ -22621,7 +22621,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT109" t="n">
         <v>0.5600000000000001</v>
@@ -23233,7 +23233,7 @@
         <v>2</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.56</v>
@@ -23436,7 +23436,7 @@
         <v>0.45</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.64</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT116" t="n">
         <v>0.78</v>
@@ -24654,7 +24654,7 @@
         <v>1.63</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU119" t="n">
         <v>1.24</v>
@@ -24857,7 +24857,7 @@
         <v>1.22</v>
       </c>
       <c r="AT120" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU120" t="n">
         <v>1.6</v>
@@ -25057,10 +25057,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT122" t="n">
         <v>0.5600000000000001</v>
@@ -25666,10 +25666,10 @@
         <v>0.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.82</v>
@@ -25872,7 +25872,7 @@
         <v>1.44</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU125" t="n">
         <v>2.07</v>
@@ -26072,7 +26072,7 @@
         <v>2.67</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT126" t="n">
         <v>2.5</v>
@@ -26478,7 +26478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1.78</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU129" t="n">
         <v>1.27</v>
@@ -28308,7 +28308,7 @@
         <v>1.44</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU137" t="n">
         <v>1.96</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT139" t="n">
         <v>0.88</v>
@@ -28914,10 +28914,10 @@
         <v>1.29</v>
       </c>
       <c r="AS140" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -29117,7 +29117,7 @@
         <v>1.25</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT141" t="n">
         <v>1.22</v>
@@ -29320,10 +29320,10 @@
         <v>0.63</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -29523,10 +29523,10 @@
         <v>2.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU143" t="n">
         <v>0.98</v>
@@ -29726,10 +29726,10 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU144" t="n">
         <v>1.62</v>
@@ -30135,7 +30135,7 @@
         <v>2.67</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU146" t="n">
         <v>2.33</v>
@@ -33841,6 +33841,1224 @@
       </c>
       <c r="BK164" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2808830</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44961.625</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>3</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['35', '43', '71']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>4</v>
+      </c>
+      <c r="R165" t="n">
+        <v>4</v>
+      </c>
+      <c r="S165" t="n">
+        <v>8</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V165" t="n">
+        <v>10</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2808823</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44961.72916666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>4</v>
+      </c>
+      <c r="R166" t="n">
+        <v>5</v>
+      </c>
+      <c r="S166" t="n">
+        <v>9</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2808826</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44962.52083333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['2', '21']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>6</v>
+      </c>
+      <c r="S167" t="n">
+        <v>9</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2808827</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44962.52083333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>4</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>5</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['22', '79', '90+1', '90+3']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>6</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2</v>
+      </c>
+      <c r="S168" t="n">
+        <v>8</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2808824</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44962.625</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['41', '86']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>7</v>
+      </c>
+      <c r="R169" t="n">
+        <v>5</v>
+      </c>
+      <c r="S169" t="n">
+        <v>12</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V169" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2808831</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44962.72916666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>13</v>
+      </c>
+      <c r="R170" t="n">
+        <v>4</v>
+      </c>
+      <c r="S170" t="n">
+        <v>17</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT3" t="n">
         <v>1.1</v>
@@ -1918,7 +1918,7 @@
         <v>2.11</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT8" t="n">
         <v>0.88</v>
@@ -2527,7 +2527,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU23" t="n">
         <v>2.3</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT26" t="n">
         <v>1.11</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT34" t="n">
         <v>2.1</v>
@@ -8008,7 +8008,7 @@
         <v>2.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.2</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT44" t="n">
         <v>0.5</v>
@@ -9632,7 +9632,7 @@
         <v>1.8</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT54" t="n">
         <v>2.4</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
         <v>1.4</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU58" t="n">
         <v>1.23</v>
@@ -12677,7 +12677,7 @@
         <v>1.8</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU60" t="n">
         <v>1.33</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT70" t="n">
         <v>0.5600000000000001</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT76" t="n">
         <v>2.1</v>
@@ -17549,7 +17549,7 @@
         <v>1.78</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -18967,7 +18967,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19782,7 +19782,7 @@
         <v>1.6</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU95" t="n">
         <v>1.16</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT96" t="n">
         <v>1.1</v>
@@ -21406,7 +21406,7 @@
         <v>2.67</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU103" t="n">
         <v>1.94</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT105" t="n">
         <v>0.88</v>
@@ -23636,7 +23636,7 @@
         <v>2.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT114" t="n">
         <v>2.4</v>
@@ -24248,7 +24248,7 @@
         <v>1.78</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -24651,7 +24651,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT119" t="n">
         <v>0.5</v>
@@ -24854,7 +24854,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT120" t="n">
         <v>1.78</v>
@@ -25466,7 +25466,7 @@
         <v>2.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU123" t="n">
         <v>2.42</v>
@@ -27699,7 +27699,7 @@
         <v>0.89</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU134" t="n">
         <v>1.78</v>
@@ -28102,7 +28102,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT136" t="n">
         <v>0.5600000000000001</v>
@@ -28508,10 +28508,10 @@
         <v>0.14</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU138" t="n">
         <v>1.35</v>
@@ -29120,7 +29120,7 @@
         <v>2.8</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU141" t="n">
         <v>2.89</v>
@@ -35059,6 +35059,412 @@
       </c>
       <c r="BK170" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2808829</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44963.66666666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>10</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2</v>
+      </c>
+      <c r="S171" t="n">
+        <v>12</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2</v>
+      </c>
+      <c r="V171" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2808825</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44963.76041666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>19</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>4</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2</v>
+      </c>
+      <c r="S172" t="n">
+        <v>6</v>
+      </c>
+      <c r="T172" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,9 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['49', '76']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -827,6 +830,9 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1901,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT4">
         <v>0.5</v>
@@ -2387,7 +2393,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2668,7 +2674,7 @@
         <v>1.4</v>
       </c>
       <c r="AT8">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3151,7 +3157,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3724,7 +3730,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3915,7 +3921,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4297,7 +4303,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4679,7 +4685,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4870,7 +4876,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4957,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT20">
         <v>0.8</v>
@@ -5061,7 +5067,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5724,7 +5730,7 @@
         <v>1.4</v>
       </c>
       <c r="AT24">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU24">
         <v>0.85</v>
@@ -6398,7 +6404,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6589,7 +6595,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6780,7 +6786,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6971,7 +6977,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7353,7 +7359,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7544,7 +7550,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7926,7 +7932,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8117,7 +8123,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8499,7 +8505,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8586,7 +8592,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT39">
         <v>1.4</v>
@@ -8881,7 +8887,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9263,7 +9269,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9836,7 +9842,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10218,7 +10224,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10791,7 +10797,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10982,7 +10988,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11072,7 +11078,7 @@
         <v>1.6</v>
       </c>
       <c r="AT52">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU52">
         <v>1.09</v>
@@ -11173,7 +11179,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11364,7 +11370,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11937,7 +11943,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12128,7 +12134,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12319,7 +12325,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12406,7 +12412,7 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT59">
         <v>2.1</v>
@@ -12701,7 +12707,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13465,7 +13471,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14038,7 +14044,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14611,7 +14617,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14892,7 +14898,7 @@
         <v>1.78</v>
       </c>
       <c r="AT72">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU72">
         <v>1.32</v>
@@ -14993,7 +14999,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15184,7 +15190,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15375,7 +15381,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15566,7 +15572,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15757,7 +15763,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16139,7 +16145,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16330,7 +16336,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16712,7 +16718,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16903,7 +16909,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17094,7 +17100,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17285,7 +17291,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17372,7 +17378,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT85">
         <v>2.4</v>
@@ -17476,7 +17482,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17667,7 +17673,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17858,7 +17864,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18049,7 +18055,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18240,7 +18246,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18330,7 +18336,7 @@
         <v>2</v>
       </c>
       <c r="AT90">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU90">
         <v>1.35</v>
@@ -19577,7 +19583,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19959,7 +19965,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20150,7 +20156,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20341,7 +20347,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21195,7 +21201,7 @@
         <v>1.44</v>
       </c>
       <c r="AT105">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU105">
         <v>1.25</v>
@@ -21487,7 +21493,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21678,7 +21684,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21765,7 +21771,7 @@
         <v>2.6</v>
       </c>
       <c r="AS108">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT108">
         <v>2.5</v>
@@ -22060,7 +22066,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22251,7 +22257,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22633,7 +22639,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22824,7 +22830,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23015,7 +23021,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23397,7 +23403,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23588,7 +23594,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23970,7 +23976,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24734,7 +24740,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25307,7 +25313,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25689,7 +25695,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -26453,7 +26459,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27408,7 +27414,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27689,7 +27695,7 @@
         <v>2.11</v>
       </c>
       <c r="AT139">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU139">
         <v>2.39</v>
@@ -27790,7 +27796,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27981,7 +27987,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28172,7 +28178,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28450,7 +28456,7 @@
         <v>2.29</v>
       </c>
       <c r="AS143">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT143">
         <v>1.78</v>
@@ -29127,7 +29133,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29318,7 +29324,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29509,7 +29515,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29891,7 +29897,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30464,7 +30470,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30655,7 +30661,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30846,7 +30852,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31037,7 +31043,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31801,7 +31807,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31992,7 +31998,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32374,7 +32380,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32464,7 +32470,7 @@
         <v>1</v>
       </c>
       <c r="AT164">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU164">
         <v>1.22</v>
@@ -32843,7 +32849,7 @@
         <v>0.88</v>
       </c>
       <c r="AS166">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT166">
         <v>1.11</v>
@@ -33138,7 +33144,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33520,7 +33526,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33902,7 +33908,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34044,6 +34050,197 @@
       </c>
       <c r="BK172">
         <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2808771</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44966.625</v>
+      </c>
+      <c r="F173">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>67</v>
+      </c>
+      <c r="H173" t="s">
+        <v>77</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>195</v>
+      </c>
+      <c r="P173" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q173">
+        <v>11</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>11</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
+        <v>4</v>
+      </c>
+      <c r="W173">
+        <v>1.5</v>
+      </c>
+      <c r="X173">
+        <v>2.5</v>
+      </c>
+      <c r="Y173">
+        <v>3.4</v>
+      </c>
+      <c r="Z173">
+        <v>1.3</v>
+      </c>
+      <c r="AA173">
+        <v>10</v>
+      </c>
+      <c r="AB173">
+        <v>1.06</v>
+      </c>
+      <c r="AC173">
+        <v>2.3</v>
+      </c>
+      <c r="AD173">
+        <v>3.1</v>
+      </c>
+      <c r="AE173">
+        <v>3.1</v>
+      </c>
+      <c r="AF173">
+        <v>1.08</v>
+      </c>
+      <c r="AG173">
+        <v>6.5</v>
+      </c>
+      <c r="AH173">
+        <v>1.43</v>
+      </c>
+      <c r="AI173">
+        <v>2.63</v>
+      </c>
+      <c r="AJ173">
+        <v>2.19</v>
+      </c>
+      <c r="AK173">
+        <v>1.6</v>
+      </c>
+      <c r="AL173">
+        <v>1.95</v>
+      </c>
+      <c r="AM173">
+        <v>1.8</v>
+      </c>
+      <c r="AN173">
+        <v>1.28</v>
+      </c>
+      <c r="AO173">
+        <v>1.35</v>
+      </c>
+      <c r="AP173">
+        <v>1.62</v>
+      </c>
+      <c r="AQ173">
+        <v>1</v>
+      </c>
+      <c r="AR173">
+        <v>0.88</v>
+      </c>
+      <c r="AS173">
+        <v>1.22</v>
+      </c>
+      <c r="AT173">
+        <v>0.78</v>
+      </c>
+      <c r="AU173">
+        <v>1.08</v>
+      </c>
+      <c r="AV173">
+        <v>1.15</v>
+      </c>
+      <c r="AW173">
+        <v>2.23</v>
+      </c>
+      <c r="AX173">
+        <v>2</v>
+      </c>
+      <c r="AY173">
+        <v>8</v>
+      </c>
+      <c r="AZ173">
+        <v>2.05</v>
+      </c>
+      <c r="BA173">
+        <v>1.27</v>
+      </c>
+      <c r="BB173">
+        <v>1.5</v>
+      </c>
+      <c r="BC173">
+        <v>1.88</v>
+      </c>
+      <c r="BD173">
+        <v>2.45</v>
+      </c>
+      <c r="BE173">
+        <v>3.4</v>
+      </c>
+      <c r="BF173">
+        <v>15</v>
+      </c>
+      <c r="BG173">
+        <v>4</v>
+      </c>
+      <c r="BH173">
+        <v>12</v>
+      </c>
+      <c r="BI173">
+        <v>1</v>
+      </c>
+      <c r="BJ173">
+        <v>27</v>
+      </c>
+      <c r="BK173">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['49', '76']</t>
   </si>
   <si>
+    <t>['49']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -781,9 +784,6 @@
     <t>['15', '16', '53', '80']</t>
   </si>
   <si>
-    <t>['49']</t>
-  </si>
-  <si>
     <t>['79']</t>
   </si>
   <si>
@@ -833,6 +833,9 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK173"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2393,7 +2396,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3157,7 +3160,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3244,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT11">
         <v>2.4</v>
@@ -3730,7 +3733,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3820,7 +3823,7 @@
         <v>1.8</v>
       </c>
       <c r="AT14">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3921,7 +3924,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4008,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT15">
         <v>2.1</v>
@@ -4199,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT16">
         <v>1.1</v>
@@ -4303,7 +4306,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4393,7 +4396,7 @@
         <v>0.89</v>
       </c>
       <c r="AT17">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4581,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT18">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4685,7 +4688,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4775,7 +4778,7 @@
         <v>0.45</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4876,7 +4879,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5067,7 +5070,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -6404,7 +6407,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6595,7 +6598,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6685,7 +6688,7 @@
         <v>0.89</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU29">
         <v>1.52</v>
@@ -6786,7 +6789,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6977,7 +6980,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7067,7 +7070,7 @@
         <v>2.67</v>
       </c>
       <c r="AT31">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU31">
         <v>2.67</v>
@@ -7255,10 +7258,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT32">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7359,7 +7362,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7446,7 +7449,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT33">
         <v>2.4</v>
@@ -7550,7 +7553,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7828,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT35">
         <v>1.78</v>
@@ -7932,7 +7935,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8019,10 +8022,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT36">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>0.71</v>
@@ -8123,7 +8126,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8505,7 +8508,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8887,7 +8890,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9269,7 +9272,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9842,7 +9845,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10120,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT47">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU47">
         <v>1.62</v>
@@ -10224,7 +10227,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10311,7 +10314,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT48">
         <v>2.5</v>
@@ -10505,7 +10508,7 @@
         <v>2.67</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU49">
         <v>2.74</v>
@@ -10696,7 +10699,7 @@
         <v>2.67</v>
       </c>
       <c r="AT50">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU50">
         <v>1.9</v>
@@ -10797,7 +10800,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10988,7 +10991,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11075,7 +11078,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT52">
         <v>0.78</v>
@@ -11179,7 +11182,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11269,7 +11272,7 @@
         <v>0.89</v>
       </c>
       <c r="AT53">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.74</v>
@@ -11370,7 +11373,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11648,7 +11651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT55">
         <v>1.1</v>
@@ -11842,7 +11845,7 @@
         <v>1.4</v>
       </c>
       <c r="AT56">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU56">
         <v>1.62</v>
@@ -11943,7 +11946,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12134,7 +12137,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12325,7 +12328,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12707,7 +12710,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12794,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT61">
         <v>1.11</v>
@@ -13471,7 +13474,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13561,7 +13564,7 @@
         <v>2.67</v>
       </c>
       <c r="AT65">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU65">
         <v>2.47</v>
@@ -13940,10 +13943,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU67">
         <v>1.91</v>
@@ -14044,7 +14047,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14322,7 +14325,7 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT69">
         <v>2.5</v>
@@ -14516,7 +14519,7 @@
         <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU70">
         <v>1.23</v>
@@ -14617,7 +14620,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14895,7 +14898,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT72">
         <v>0.78</v>
@@ -14999,7 +15002,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15190,7 +15193,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15381,7 +15384,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15572,7 +15575,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15763,7 +15766,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16145,7 +16148,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16336,7 +16339,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16617,7 +16620,7 @@
         <v>2.11</v>
       </c>
       <c r="AT81">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU81">
         <v>2.3</v>
@@ -16718,7 +16721,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16805,7 +16808,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT82">
         <v>0.5</v>
@@ -16909,7 +16912,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17100,7 +17103,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17187,7 +17190,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT84">
         <v>0.44</v>
@@ -17291,7 +17294,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17482,7 +17485,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17673,7 +17676,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17864,7 +17867,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17951,10 +17954,10 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT88">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU88">
         <v>1.95</v>
@@ -18055,7 +18058,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18145,7 +18148,7 @@
         <v>1.22</v>
       </c>
       <c r="AT89">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU89">
         <v>1.68</v>
@@ -18246,7 +18249,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18333,7 +18336,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT90">
         <v>0.78</v>
@@ -18527,7 +18530,7 @@
         <v>1.44</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU91">
         <v>1.13</v>
@@ -19100,7 +19103,7 @@
         <v>2.8</v>
       </c>
       <c r="AT94">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU94">
         <v>3.07</v>
@@ -19288,7 +19291,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT95">
         <v>1.4</v>
@@ -19583,7 +19586,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19965,7 +19968,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20156,7 +20159,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20243,7 +20246,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT100">
         <v>0.5</v>
@@ -20347,7 +20350,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20437,7 +20440,7 @@
         <v>1.2</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU101">
         <v>1.57</v>
@@ -20625,7 +20628,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT102">
         <v>1.22</v>
@@ -21493,7 +21496,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21684,7 +21687,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21965,7 +21968,7 @@
         <v>1.22</v>
       </c>
       <c r="AT109">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -22066,7 +22069,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22153,7 +22156,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT110">
         <v>0.8</v>
@@ -22257,7 +22260,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22535,7 +22538,7 @@
         <v>0.67</v>
       </c>
       <c r="AS112">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT112">
         <v>0.5</v>
@@ -22639,7 +22642,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22830,7 +22833,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23021,7 +23024,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23111,7 +23114,7 @@
         <v>1.4</v>
       </c>
       <c r="AT115">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU115">
         <v>1.28</v>
@@ -23302,7 +23305,7 @@
         <v>2.8</v>
       </c>
       <c r="AT116">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU116">
         <v>3.02</v>
@@ -23403,7 +23406,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23490,7 +23493,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT117">
         <v>1.4</v>
@@ -23594,7 +23597,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23976,7 +23979,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24448,7 +24451,7 @@
         <v>1.2</v>
       </c>
       <c r="AT122">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU122">
         <v>1.64</v>
@@ -24740,7 +24743,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25018,7 +25021,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT125">
         <v>1.11</v>
@@ -25313,7 +25316,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25594,7 +25597,7 @@
         <v>2.8</v>
       </c>
       <c r="AT128">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU128">
         <v>2.82</v>
@@ -25695,7 +25698,7 @@
         <v>166</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25782,7 +25785,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT129">
         <v>1.1</v>
@@ -25973,7 +25976,7 @@
         <v>1.57</v>
       </c>
       <c r="AS130">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT130">
         <v>1.1</v>
@@ -26164,7 +26167,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT131">
         <v>0.8</v>
@@ -26459,7 +26462,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26549,7 +26552,7 @@
         <v>0.45</v>
       </c>
       <c r="AT133">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU133">
         <v>1.67</v>
@@ -26931,7 +26934,7 @@
         <v>1.8</v>
       </c>
       <c r="AT135">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU135">
         <v>1.36</v>
@@ -27122,7 +27125,7 @@
         <v>1.4</v>
       </c>
       <c r="AT136">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27310,7 +27313,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT137">
         <v>0.5</v>
@@ -27414,7 +27417,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -28838,10 +28841,10 @@
         <v>1.29</v>
       </c>
       <c r="AS145">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU145">
         <v>1.28</v>
@@ -29602,7 +29605,7 @@
         <v>1.88</v>
       </c>
       <c r="AS149">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT149">
         <v>2.1</v>
@@ -29987,7 +29990,7 @@
         <v>1.4</v>
       </c>
       <c r="AT151">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>1.19</v>
@@ -30175,7 +30178,7 @@
         <v>0.88</v>
       </c>
       <c r="AS152">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT152">
         <v>0.8</v>
@@ -30369,7 +30372,7 @@
         <v>1.8</v>
       </c>
       <c r="AT153">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU153">
         <v>1.4</v>
@@ -30748,7 +30751,7 @@
         <v>0.89</v>
       </c>
       <c r="AS155">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT155">
         <v>0.8</v>
@@ -30942,7 +30945,7 @@
         <v>1.4</v>
       </c>
       <c r="AT156">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU156">
         <v>1.23</v>
@@ -31133,7 +31136,7 @@
         <v>1.8</v>
       </c>
       <c r="AT157">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU157">
         <v>1.38</v>
@@ -31321,7 +31324,7 @@
         <v>1.22</v>
       </c>
       <c r="AS158">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT158">
         <v>1.1</v>
@@ -31512,10 +31515,10 @@
         <v>1.56</v>
       </c>
       <c r="AS159">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT159">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU159">
         <v>1.43</v>
@@ -31706,7 +31709,7 @@
         <v>0.45</v>
       </c>
       <c r="AT160">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU160">
         <v>1.6</v>
@@ -31894,7 +31897,7 @@
         <v>2.44</v>
       </c>
       <c r="AS161">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT161">
         <v>2.5</v>
@@ -33908,7 +33911,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34241,6 +34244,770 @@
       </c>
       <c r="BK173">
         <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2808838</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44967.71875</v>
+      </c>
+      <c r="F174">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>78</v>
+      </c>
+      <c r="H174" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174" t="s">
+        <v>84</v>
+      </c>
+      <c r="P174" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q174">
+        <v>5</v>
+      </c>
+      <c r="R174">
+        <v>6</v>
+      </c>
+      <c r="S174">
+        <v>11</v>
+      </c>
+      <c r="T174">
+        <v>2.6</v>
+      </c>
+      <c r="U174">
+        <v>2.05</v>
+      </c>
+      <c r="V174">
+        <v>4.75</v>
+      </c>
+      <c r="W174">
+        <v>1.44</v>
+      </c>
+      <c r="X174">
+        <v>2.6</v>
+      </c>
+      <c r="Y174">
+        <v>3.05</v>
+      </c>
+      <c r="Z174">
+        <v>1.33</v>
+      </c>
+      <c r="AA174">
+        <v>7.9</v>
+      </c>
+      <c r="AB174">
+        <v>1.05</v>
+      </c>
+      <c r="AC174">
+        <v>1.83</v>
+      </c>
+      <c r="AD174">
+        <v>3.2</v>
+      </c>
+      <c r="AE174">
+        <v>3.8</v>
+      </c>
+      <c r="AF174">
+        <v>1.07</v>
+      </c>
+      <c r="AG174">
+        <v>9</v>
+      </c>
+      <c r="AH174">
+        <v>1.36</v>
+      </c>
+      <c r="AI174">
+        <v>3.1</v>
+      </c>
+      <c r="AJ174">
+        <v>2.15</v>
+      </c>
+      <c r="AK174">
+        <v>1.61</v>
+      </c>
+      <c r="AL174">
+        <v>1.9</v>
+      </c>
+      <c r="AM174">
+        <v>1.83</v>
+      </c>
+      <c r="AN174">
+        <v>1.22</v>
+      </c>
+      <c r="AO174">
+        <v>1.25</v>
+      </c>
+      <c r="AP174">
+        <v>1.9</v>
+      </c>
+      <c r="AQ174">
+        <v>1.44</v>
+      </c>
+      <c r="AR174">
+        <v>1.4</v>
+      </c>
+      <c r="AS174">
+        <v>1.4</v>
+      </c>
+      <c r="AT174">
+        <v>1.36</v>
+      </c>
+      <c r="AU174">
+        <v>1.92</v>
+      </c>
+      <c r="AV174">
+        <v>1.26</v>
+      </c>
+      <c r="AW174">
+        <v>3.18</v>
+      </c>
+      <c r="AX174">
+        <v>1.51</v>
+      </c>
+      <c r="AY174">
+        <v>9</v>
+      </c>
+      <c r="AZ174">
+        <v>3.15</v>
+      </c>
+      <c r="BA174">
+        <v>1.11</v>
+      </c>
+      <c r="BB174">
+        <v>1.27</v>
+      </c>
+      <c r="BC174">
+        <v>1.48</v>
+      </c>
+      <c r="BD174">
+        <v>1.8</v>
+      </c>
+      <c r="BE174">
+        <v>2.35</v>
+      </c>
+      <c r="BF174">
+        <v>4</v>
+      </c>
+      <c r="BG174">
+        <v>8</v>
+      </c>
+      <c r="BH174">
+        <v>12</v>
+      </c>
+      <c r="BI174">
+        <v>10</v>
+      </c>
+      <c r="BJ174">
+        <v>16</v>
+      </c>
+      <c r="BK174">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2808835</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44968.625</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>81</v>
+      </c>
+      <c r="H175" t="s">
+        <v>69</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>196</v>
+      </c>
+      <c r="P175" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q175">
+        <v>3</v>
+      </c>
+      <c r="R175">
+        <v>3</v>
+      </c>
+      <c r="S175">
+        <v>6</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>2.05</v>
+      </c>
+      <c r="V175">
+        <v>4.33</v>
+      </c>
+      <c r="W175">
+        <v>1.5</v>
+      </c>
+      <c r="X175">
+        <v>2.5</v>
+      </c>
+      <c r="Y175">
+        <v>3.4</v>
+      </c>
+      <c r="Z175">
+        <v>1.3</v>
+      </c>
+      <c r="AA175">
+        <v>10</v>
+      </c>
+      <c r="AB175">
+        <v>1.06</v>
+      </c>
+      <c r="AC175">
+        <v>2.16</v>
+      </c>
+      <c r="AD175">
+        <v>3.15</v>
+      </c>
+      <c r="AE175">
+        <v>3.3</v>
+      </c>
+      <c r="AF175">
+        <v>1.07</v>
+      </c>
+      <c r="AG175">
+        <v>8.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.42</v>
+      </c>
+      <c r="AI175">
+        <v>2.85</v>
+      </c>
+      <c r="AJ175">
+        <v>2.19</v>
+      </c>
+      <c r="AK175">
+        <v>1.6</v>
+      </c>
+      <c r="AL175">
+        <v>2</v>
+      </c>
+      <c r="AM175">
+        <v>1.75</v>
+      </c>
+      <c r="AN175">
+        <v>1.29</v>
+      </c>
+      <c r="AO175">
+        <v>1.33</v>
+      </c>
+      <c r="AP175">
+        <v>1.68</v>
+      </c>
+      <c r="AQ175">
+        <v>1.6</v>
+      </c>
+      <c r="AR175">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS175">
+        <v>1.73</v>
+      </c>
+      <c r="AT175">
+        <v>0.5</v>
+      </c>
+      <c r="AU175">
+        <v>1.33</v>
+      </c>
+      <c r="AV175">
+        <v>1.2</v>
+      </c>
+      <c r="AW175">
+        <v>2.53</v>
+      </c>
+      <c r="AX175">
+        <v>1.75</v>
+      </c>
+      <c r="AY175">
+        <v>8</v>
+      </c>
+      <c r="AZ175">
+        <v>2.44</v>
+      </c>
+      <c r="BA175">
+        <v>1.27</v>
+      </c>
+      <c r="BB175">
+        <v>1.5</v>
+      </c>
+      <c r="BC175">
+        <v>1.88</v>
+      </c>
+      <c r="BD175">
+        <v>2.45</v>
+      </c>
+      <c r="BE175">
+        <v>3.4</v>
+      </c>
+      <c r="BF175">
+        <v>6</v>
+      </c>
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>5</v>
+      </c>
+      <c r="BI175">
+        <v>4</v>
+      </c>
+      <c r="BJ175">
+        <v>11</v>
+      </c>
+      <c r="BK175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2808834</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44968.72916666666</v>
+      </c>
+      <c r="F176">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" t="s">
+        <v>71</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>135</v>
+      </c>
+      <c r="P176" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q176">
+        <v>5</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>7</v>
+      </c>
+      <c r="T176">
+        <v>2.4</v>
+      </c>
+      <c r="U176">
+        <v>2.1</v>
+      </c>
+      <c r="V176">
+        <v>5.5</v>
+      </c>
+      <c r="W176">
+        <v>1.44</v>
+      </c>
+      <c r="X176">
+        <v>2.63</v>
+      </c>
+      <c r="Y176">
+        <v>3.25</v>
+      </c>
+      <c r="Z176">
+        <v>1.33</v>
+      </c>
+      <c r="AA176">
+        <v>10</v>
+      </c>
+      <c r="AB176">
+        <v>1.06</v>
+      </c>
+      <c r="AC176">
+        <v>1.88</v>
+      </c>
+      <c r="AD176">
+        <v>3.4</v>
+      </c>
+      <c r="AE176">
+        <v>3.9</v>
+      </c>
+      <c r="AF176">
+        <v>1.06</v>
+      </c>
+      <c r="AG176">
+        <v>9.5</v>
+      </c>
+      <c r="AH176">
+        <v>1.38</v>
+      </c>
+      <c r="AI176">
+        <v>3</v>
+      </c>
+      <c r="AJ176">
+        <v>2.11</v>
+      </c>
+      <c r="AK176">
+        <v>1.65</v>
+      </c>
+      <c r="AL176">
+        <v>2.05</v>
+      </c>
+      <c r="AM176">
+        <v>1.7</v>
+      </c>
+      <c r="AN176">
+        <v>1.19</v>
+      </c>
+      <c r="AO176">
+        <v>1.29</v>
+      </c>
+      <c r="AP176">
+        <v>1.95</v>
+      </c>
+      <c r="AQ176">
+        <v>2</v>
+      </c>
+      <c r="AR176">
+        <v>1</v>
+      </c>
+      <c r="AS176">
+        <v>2.09</v>
+      </c>
+      <c r="AT176">
+        <v>0.9</v>
+      </c>
+      <c r="AU176">
+        <v>1.5</v>
+      </c>
+      <c r="AV176">
+        <v>1.22</v>
+      </c>
+      <c r="AW176">
+        <v>2.72</v>
+      </c>
+      <c r="AX176">
+        <v>1.51</v>
+      </c>
+      <c r="AY176">
+        <v>8.5</v>
+      </c>
+      <c r="AZ176">
+        <v>3.16</v>
+      </c>
+      <c r="BA176">
+        <v>1.25</v>
+      </c>
+      <c r="BB176">
+        <v>1.47</v>
+      </c>
+      <c r="BC176">
+        <v>1.8</v>
+      </c>
+      <c r="BD176">
+        <v>2.38</v>
+      </c>
+      <c r="BE176">
+        <v>3.25</v>
+      </c>
+      <c r="BF176">
+        <v>4</v>
+      </c>
+      <c r="BG176">
+        <v>5</v>
+      </c>
+      <c r="BH176">
+        <v>6</v>
+      </c>
+      <c r="BI176">
+        <v>6</v>
+      </c>
+      <c r="BJ176">
+        <v>10</v>
+      </c>
+      <c r="BK176">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2808833</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44969.52083333334</v>
+      </c>
+      <c r="F177">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>74</v>
+      </c>
+      <c r="H177" t="s">
+        <v>73</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>84</v>
+      </c>
+      <c r="P177" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q177">
+        <v>4</v>
+      </c>
+      <c r="R177">
+        <v>5</v>
+      </c>
+      <c r="S177">
+        <v>9</v>
+      </c>
+      <c r="T177">
+        <v>2.88</v>
+      </c>
+      <c r="U177">
+        <v>2.1</v>
+      </c>
+      <c r="V177">
+        <v>4</v>
+      </c>
+      <c r="W177">
+        <v>1.44</v>
+      </c>
+      <c r="X177">
+        <v>2.63</v>
+      </c>
+      <c r="Y177">
+        <v>3.25</v>
+      </c>
+      <c r="Z177">
+        <v>1.33</v>
+      </c>
+      <c r="AA177">
+        <v>9</v>
+      </c>
+      <c r="AB177">
+        <v>1.07</v>
+      </c>
+      <c r="AC177">
+        <v>2.27</v>
+      </c>
+      <c r="AD177">
+        <v>3.3</v>
+      </c>
+      <c r="AE177">
+        <v>3.22</v>
+      </c>
+      <c r="AF177">
+        <v>1.07</v>
+      </c>
+      <c r="AG177">
+        <v>9</v>
+      </c>
+      <c r="AH177">
+        <v>1.36</v>
+      </c>
+      <c r="AI177">
+        <v>3.1</v>
+      </c>
+      <c r="AJ177">
+        <v>2.18</v>
+      </c>
+      <c r="AK177">
+        <v>1.68</v>
+      </c>
+      <c r="AL177">
+        <v>1.91</v>
+      </c>
+      <c r="AM177">
+        <v>1.91</v>
+      </c>
+      <c r="AN177">
+        <v>1.3</v>
+      </c>
+      <c r="AO177">
+        <v>1.28</v>
+      </c>
+      <c r="AP177">
+        <v>1.72</v>
+      </c>
+      <c r="AQ177">
+        <v>1.78</v>
+      </c>
+      <c r="AR177">
+        <v>0.78</v>
+      </c>
+      <c r="AS177">
+        <v>1.6</v>
+      </c>
+      <c r="AT177">
+        <v>1</v>
+      </c>
+      <c r="AU177">
+        <v>1.37</v>
+      </c>
+      <c r="AV177">
+        <v>1.46</v>
+      </c>
+      <c r="AW177">
+        <v>2.83</v>
+      </c>
+      <c r="AX177">
+        <v>1.91</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>2.2</v>
+      </c>
+      <c r="BA177">
+        <v>1.27</v>
+      </c>
+      <c r="BB177">
+        <v>1.5</v>
+      </c>
+      <c r="BC177">
+        <v>1.88</v>
+      </c>
+      <c r="BD177">
+        <v>2.45</v>
+      </c>
+      <c r="BE177">
+        <v>3.4</v>
+      </c>
+      <c r="BF177">
+        <v>6</v>
+      </c>
+      <c r="BG177">
+        <v>4</v>
+      </c>
+      <c r="BH177">
+        <v>14</v>
+      </c>
+      <c r="BI177">
+        <v>13</v>
+      </c>
+      <c r="BJ177">
+        <v>20</v>
+      </c>
+      <c r="BK177">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,12 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -836,6 +842,12 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['60', '90+4']</t>
+  </si>
+  <si>
+    <t>['40', '45+3']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2396,7 +2408,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3160,7 +3172,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3250,7 +3262,7 @@
         <v>1.6</v>
       </c>
       <c r="AT11">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3629,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT13">
         <v>0.8</v>
@@ -3733,7 +3745,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3924,7 +3936,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4014,7 +4026,7 @@
         <v>1.4</v>
       </c>
       <c r="AT15">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4306,7 +4318,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4393,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT17">
         <v>1.36</v>
@@ -4688,7 +4700,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4879,7 +4891,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5070,7 +5082,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -6407,7 +6419,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6598,7 +6610,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6685,7 +6697,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT29">
         <v>0.9</v>
@@ -6789,7 +6801,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6980,7 +6992,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7067,7 +7079,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT31">
         <v>1.36</v>
@@ -7362,7 +7374,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7452,7 +7464,7 @@
         <v>1.73</v>
       </c>
       <c r="AT33">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU33">
         <v>0.93</v>
@@ -7553,7 +7565,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7643,7 +7655,7 @@
         <v>1.44</v>
       </c>
       <c r="AT34">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU34">
         <v>0.91</v>
@@ -7935,7 +7947,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8126,7 +8138,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8508,7 +8520,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8890,7 +8902,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -8980,7 +8992,7 @@
         <v>1.2</v>
       </c>
       <c r="AT41">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU41">
         <v>1.81</v>
@@ -9272,7 +9284,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9845,7 +9857,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10227,7 +10239,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10505,7 +10517,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT49">
         <v>0.9</v>
@@ -10800,7 +10812,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10991,7 +11003,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11182,7 +11194,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11269,7 +11281,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11373,7 +11385,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11463,7 +11475,7 @@
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU54">
         <v>0.92</v>
@@ -11946,7 +11958,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12137,7 +12149,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12328,7 +12340,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12418,7 +12430,7 @@
         <v>1.22</v>
       </c>
       <c r="AT59">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU59">
         <v>1.06</v>
@@ -12710,7 +12722,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13474,7 +13486,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13561,7 +13573,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13755,7 +13767,7 @@
         <v>2.67</v>
       </c>
       <c r="AT66">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU66">
         <v>2.03</v>
@@ -14047,7 +14059,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14620,7 +14632,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15002,7 +15014,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15089,7 +15101,7 @@
         <v>2.33</v>
       </c>
       <c r="AS73">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT73">
         <v>1.78</v>
@@ -15193,7 +15205,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15384,7 +15396,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15575,7 +15587,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15665,7 +15677,7 @@
         <v>1.4</v>
       </c>
       <c r="AT76">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU76">
         <v>1.66</v>
@@ -15766,7 +15778,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16148,7 +16160,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16339,7 +16351,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16721,7 +16733,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16912,7 +16924,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17103,7 +17115,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17294,7 +17306,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17384,7 +17396,7 @@
         <v>1.22</v>
       </c>
       <c r="AT85">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU85">
         <v>1.02</v>
@@ -17485,7 +17497,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17572,7 +17584,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT86">
         <v>1.78</v>
@@ -17676,7 +17688,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17763,7 +17775,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT87">
         <v>1.22</v>
@@ -17867,7 +17879,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18058,7 +18070,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18249,7 +18261,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18912,7 +18924,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU93">
         <v>1.28</v>
@@ -19586,7 +19598,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19968,7 +19980,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20058,7 +20070,7 @@
         <v>1.2</v>
       </c>
       <c r="AT99">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -20159,7 +20171,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20350,7 +20362,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21010,7 +21022,7 @@
         <v>1.4</v>
       </c>
       <c r="AS104">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT104">
         <v>1.11</v>
@@ -21392,7 +21404,7 @@
         <v>0.17</v>
       </c>
       <c r="AS106">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT106">
         <v>0.5</v>
@@ -21496,7 +21508,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21687,7 +21699,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22069,7 +22081,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22260,7 +22272,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22350,7 +22362,7 @@
         <v>1.8</v>
       </c>
       <c r="AT111">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU111">
         <v>1.47</v>
@@ -22642,7 +22654,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22833,7 +22845,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22923,7 +22935,7 @@
         <v>1.4</v>
       </c>
       <c r="AT114">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU114">
         <v>1.69</v>
@@ -23024,7 +23036,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23406,7 +23418,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23597,7 +23609,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23979,7 +23991,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24639,7 +24651,7 @@
         <v>0.17</v>
       </c>
       <c r="AS123">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT123">
         <v>0.44</v>
@@ -24743,7 +24755,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25316,7 +25328,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25406,7 +25418,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU127">
         <v>1.34</v>
@@ -26361,7 +26373,7 @@
         <v>1.4</v>
       </c>
       <c r="AT132">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU132">
         <v>1.31</v>
@@ -26462,7 +26474,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26740,7 +26752,7 @@
         <v>1.43</v>
       </c>
       <c r="AS134">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT134">
         <v>1.4</v>
@@ -27417,7 +27429,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27799,7 +27811,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27990,7 +28002,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28181,7 +28193,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -29032,7 +29044,7 @@
         <v>1.38</v>
       </c>
       <c r="AS146">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT146">
         <v>1.1</v>
@@ -29136,7 +29148,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29226,7 +29238,7 @@
         <v>0.45</v>
       </c>
       <c r="AT147">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU147">
         <v>1.66</v>
@@ -29327,7 +29339,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29518,7 +29530,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29608,7 +29620,7 @@
         <v>2.09</v>
       </c>
       <c r="AT149">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU149">
         <v>1.5</v>
@@ -29796,7 +29808,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT150">
         <v>1.1</v>
@@ -29900,7 +29912,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30473,7 +30485,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30664,7 +30676,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30855,7 +30867,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31046,7 +31058,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31810,7 +31822,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32001,7 +32013,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32088,10 +32100,10 @@
         <v>2</v>
       </c>
       <c r="AS162">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT162">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU162">
         <v>1.6</v>
@@ -32279,10 +32291,10 @@
         <v>2.67</v>
       </c>
       <c r="AS163">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AT163">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU163">
         <v>2.38</v>
@@ -32383,7 +32395,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -33147,7 +33159,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33529,7 +33541,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33911,7 +33923,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34102,7 +34114,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -34866,16 +34878,16 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q177">
         <v>4</v>
       </c>
       <c r="R177">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S177">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T177">
         <v>2.88</v>
@@ -35008,6 +35020,388 @@
       </c>
       <c r="BK177">
         <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2808836</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44969.625</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>76</v>
+      </c>
+      <c r="H178" t="s">
+        <v>68</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>197</v>
+      </c>
+      <c r="P178" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q178">
+        <v>8</v>
+      </c>
+      <c r="R178">
+        <v>4</v>
+      </c>
+      <c r="S178">
+        <v>12</v>
+      </c>
+      <c r="T178">
+        <v>3.4</v>
+      </c>
+      <c r="U178">
+        <v>2.1</v>
+      </c>
+      <c r="V178">
+        <v>3.2</v>
+      </c>
+      <c r="W178">
+        <v>1.4</v>
+      </c>
+      <c r="X178">
+        <v>2.75</v>
+      </c>
+      <c r="Y178">
+        <v>3</v>
+      </c>
+      <c r="Z178">
+        <v>1.36</v>
+      </c>
+      <c r="AA178">
+        <v>8</v>
+      </c>
+      <c r="AB178">
+        <v>1.08</v>
+      </c>
+      <c r="AC178">
+        <v>2.85</v>
+      </c>
+      <c r="AD178">
+        <v>3.32</v>
+      </c>
+      <c r="AE178">
+        <v>2.49</v>
+      </c>
+      <c r="AF178">
+        <v>1.05</v>
+      </c>
+      <c r="AG178">
+        <v>10</v>
+      </c>
+      <c r="AH178">
+        <v>1.33</v>
+      </c>
+      <c r="AI178">
+        <v>3.3</v>
+      </c>
+      <c r="AJ178">
+        <v>2.1</v>
+      </c>
+      <c r="AK178">
+        <v>1.74</v>
+      </c>
+      <c r="AL178">
+        <v>1.8</v>
+      </c>
+      <c r="AM178">
+        <v>1.95</v>
+      </c>
+      <c r="AN178">
+        <v>1.49</v>
+      </c>
+      <c r="AO178">
+        <v>1.33</v>
+      </c>
+      <c r="AP178">
+        <v>1.43</v>
+      </c>
+      <c r="AQ178">
+        <v>2.67</v>
+      </c>
+      <c r="AR178">
+        <v>2.1</v>
+      </c>
+      <c r="AS178">
+        <v>2.4</v>
+      </c>
+      <c r="AT178">
+        <v>2.18</v>
+      </c>
+      <c r="AU178">
+        <v>2.37</v>
+      </c>
+      <c r="AV178">
+        <v>2.09</v>
+      </c>
+      <c r="AW178">
+        <v>4.46</v>
+      </c>
+      <c r="AX178">
+        <v>1.91</v>
+      </c>
+      <c r="AY178">
+        <v>8</v>
+      </c>
+      <c r="AZ178">
+        <v>2.2</v>
+      </c>
+      <c r="BA178">
+        <v>1.27</v>
+      </c>
+      <c r="BB178">
+        <v>1.5</v>
+      </c>
+      <c r="BC178">
+        <v>1.9</v>
+      </c>
+      <c r="BD178">
+        <v>2.45</v>
+      </c>
+      <c r="BE178">
+        <v>3.4</v>
+      </c>
+      <c r="BF178">
+        <v>7</v>
+      </c>
+      <c r="BG178">
+        <v>4</v>
+      </c>
+      <c r="BH178">
+        <v>10</v>
+      </c>
+      <c r="BI178">
+        <v>7</v>
+      </c>
+      <c r="BJ178">
+        <v>17</v>
+      </c>
+      <c r="BK178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2808837</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44969.72916666666</v>
+      </c>
+      <c r="F179">
+        <v>20</v>
+      </c>
+      <c r="G179" t="s">
+        <v>80</v>
+      </c>
+      <c r="H179" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>198</v>
+      </c>
+      <c r="P179" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q179">
+        <v>5</v>
+      </c>
+      <c r="R179">
+        <v>5</v>
+      </c>
+      <c r="S179">
+        <v>10</v>
+      </c>
+      <c r="T179">
+        <v>5.5</v>
+      </c>
+      <c r="U179">
+        <v>2.25</v>
+      </c>
+      <c r="V179">
+        <v>2.2</v>
+      </c>
+      <c r="W179">
+        <v>1.36</v>
+      </c>
+      <c r="X179">
+        <v>3</v>
+      </c>
+      <c r="Y179">
+        <v>2.75</v>
+      </c>
+      <c r="Z179">
+        <v>1.4</v>
+      </c>
+      <c r="AA179">
+        <v>7</v>
+      </c>
+      <c r="AB179">
+        <v>1.1</v>
+      </c>
+      <c r="AC179">
+        <v>6.65</v>
+      </c>
+      <c r="AD179">
+        <v>4.52</v>
+      </c>
+      <c r="AE179">
+        <v>1.46</v>
+      </c>
+      <c r="AF179">
+        <v>1.03</v>
+      </c>
+      <c r="AG179">
+        <v>13</v>
+      </c>
+      <c r="AH179">
+        <v>1.25</v>
+      </c>
+      <c r="AI179">
+        <v>3.75</v>
+      </c>
+      <c r="AJ179">
+        <v>1.74</v>
+      </c>
+      <c r="AK179">
+        <v>2.09</v>
+      </c>
+      <c r="AL179">
+        <v>1.91</v>
+      </c>
+      <c r="AM179">
+        <v>1.91</v>
+      </c>
+      <c r="AN179">
+        <v>2.3</v>
+      </c>
+      <c r="AO179">
+        <v>1.24</v>
+      </c>
+      <c r="AP179">
+        <v>1.15</v>
+      </c>
+      <c r="AQ179">
+        <v>0.89</v>
+      </c>
+      <c r="AR179">
+        <v>2.4</v>
+      </c>
+      <c r="AS179">
+        <v>0.8</v>
+      </c>
+      <c r="AT179">
+        <v>2.45</v>
+      </c>
+      <c r="AU179">
+        <v>1.57</v>
+      </c>
+      <c r="AV179">
+        <v>1.96</v>
+      </c>
+      <c r="AW179">
+        <v>3.53</v>
+      </c>
+      <c r="AX179">
+        <v>2.66</v>
+      </c>
+      <c r="AY179">
+        <v>8.5</v>
+      </c>
+      <c r="AZ179">
+        <v>1.64</v>
+      </c>
+      <c r="BA179">
+        <v>1.22</v>
+      </c>
+      <c r="BB179">
+        <v>1.42</v>
+      </c>
+      <c r="BC179">
+        <v>1.74</v>
+      </c>
+      <c r="BD179">
+        <v>2.23</v>
+      </c>
+      <c r="BE179">
+        <v>3</v>
+      </c>
+      <c r="BF179">
+        <v>6</v>
+      </c>
+      <c r="BG179">
+        <v>3</v>
+      </c>
+      <c r="BH179">
+        <v>12</v>
+      </c>
+      <c r="BI179">
+        <v>7</v>
+      </c>
+      <c r="BJ179">
+        <v>18</v>
+      </c>
+      <c r="BK179">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['65', '90+5']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -1209,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1731,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT3">
         <v>1.1</v>
@@ -2307,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2408,7 +2411,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3172,7 +3175,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3745,7 +3748,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3832,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT14">
         <v>0.5</v>
@@ -3936,7 +3939,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4217,7 +4220,7 @@
         <v>2.09</v>
       </c>
       <c r="AT16">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4318,7 +4321,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4700,7 +4703,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4891,7 +4894,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5082,7 +5085,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -6419,7 +6422,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6509,7 +6512,7 @@
         <v>0.45</v>
       </c>
       <c r="AT28">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU28">
         <v>1.63</v>
@@ -6610,7 +6613,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6801,7 +6804,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6888,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT30">
         <v>2.5</v>
@@ -6992,7 +6995,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7374,7 +7377,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7565,7 +7568,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7652,7 +7655,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT34">
         <v>2.18</v>
@@ -7846,7 +7849,7 @@
         <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -7947,7 +7950,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8138,7 +8141,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8520,7 +8523,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8902,7 +8905,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9284,7 +9287,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9753,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT45">
         <v>0.44</v>
@@ -9857,7 +9860,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10239,7 +10242,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10812,7 +10815,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10902,7 +10905,7 @@
         <v>0.45</v>
       </c>
       <c r="AT51">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -11003,7 +11006,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11194,7 +11197,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11385,7 +11388,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11472,7 +11475,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT54">
         <v>2.45</v>
@@ -11666,7 +11669,7 @@
         <v>1.4</v>
       </c>
       <c r="AT55">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.66</v>
@@ -11958,7 +11961,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12149,7 +12152,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12340,7 +12343,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12618,7 +12621,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT60">
         <v>1.4</v>
@@ -12722,7 +12725,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13486,7 +13489,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14059,7 +14062,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14149,7 +14152,7 @@
         <v>1.22</v>
       </c>
       <c r="AT68">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.8</v>
@@ -14528,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT70">
         <v>0.5</v>
@@ -14632,7 +14635,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15014,7 +15017,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15104,7 +15107,7 @@
         <v>0.8</v>
       </c>
       <c r="AT73">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU73">
         <v>1.71</v>
@@ -15205,7 +15208,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15295,7 +15298,7 @@
         <v>1.2</v>
       </c>
       <c r="AT74">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>1.65</v>
@@ -15396,7 +15399,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15587,7 +15590,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15778,7 +15781,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16160,7 +16163,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16247,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT79">
         <v>0.5</v>
@@ -16351,7 +16354,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16733,7 +16736,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16924,7 +16927,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17115,7 +17118,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17306,7 +17309,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17497,7 +17500,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17587,7 +17590,7 @@
         <v>2.4</v>
       </c>
       <c r="AT86">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU86">
         <v>2.37</v>
@@ -17688,7 +17691,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17879,7 +17882,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18070,7 +18073,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18261,7 +18264,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18539,7 +18542,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT91">
         <v>0.9</v>
@@ -19497,7 +19500,7 @@
         <v>1.4</v>
       </c>
       <c r="AT96">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.53</v>
@@ -19598,7 +19601,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19685,7 +19688,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT97">
         <v>1.1</v>
@@ -19980,7 +19983,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20171,7 +20174,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20362,7 +20365,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21213,7 +21216,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT105">
         <v>0.78</v>
@@ -21508,7 +21511,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21598,7 +21601,7 @@
         <v>2.11</v>
       </c>
       <c r="AT107">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU107">
         <v>2.45</v>
@@ -21699,7 +21702,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22081,7 +22084,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22272,7 +22275,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22359,7 +22362,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT111">
         <v>2.18</v>
@@ -22654,7 +22657,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22845,7 +22848,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23036,7 +23039,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23418,7 +23421,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23609,7 +23612,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23699,7 +23702,7 @@
         <v>1</v>
       </c>
       <c r="AT118">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.28</v>
@@ -23887,7 +23890,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT119">
         <v>0.5</v>
@@ -23991,7 +23994,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24081,7 +24084,7 @@
         <v>1.4</v>
       </c>
       <c r="AT120">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU120">
         <v>1.6</v>
@@ -24755,7 +24758,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25328,7 +25331,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25991,7 +25994,7 @@
         <v>1.73</v>
       </c>
       <c r="AT130">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <v>1.18</v>
@@ -26474,7 +26477,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26943,7 +26946,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT135">
         <v>1</v>
@@ -27429,7 +27432,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27516,7 +27519,7 @@
         <v>0.14</v>
       </c>
       <c r="AS138">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT138">
         <v>0.44</v>
@@ -27811,7 +27814,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28002,7 +28005,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28193,7 +28196,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28474,7 +28477,7 @@
         <v>1.22</v>
       </c>
       <c r="AT143">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU143">
         <v>0.98</v>
@@ -29148,7 +29151,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29339,7 +29342,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29530,7 +29533,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29811,7 +29814,7 @@
         <v>0.8</v>
       </c>
       <c r="AT150">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>1.68</v>
@@ -29912,7 +29915,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30381,7 +30384,7 @@
         <v>1.63</v>
       </c>
       <c r="AS153">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT153">
         <v>1.36</v>
@@ -30485,7 +30488,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30676,7 +30679,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30867,7 +30870,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31058,7 +31061,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31145,7 +31148,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT157">
         <v>0.9</v>
@@ -31339,7 +31342,7 @@
         <v>1.6</v>
       </c>
       <c r="AT158">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU158">
         <v>1.32</v>
@@ -31822,7 +31825,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32013,7 +32016,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32395,7 +32398,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32676,7 +32679,7 @@
         <v>2.8</v>
       </c>
       <c r="AT165">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU165">
         <v>2.81</v>
@@ -33159,7 +33162,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33541,7 +33544,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33923,7 +33926,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34010,7 +34013,7 @@
         <v>1.22</v>
       </c>
       <c r="AS172">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT172">
         <v>1.4</v>
@@ -34114,7 +34117,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -34878,7 +34881,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35069,7 +35072,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35260,7 +35263,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35402,6 +35405,388 @@
       </c>
       <c r="BK179">
         <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2808839</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44970.66666666666</v>
+      </c>
+      <c r="F180">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
+        <v>66</v>
+      </c>
+      <c r="H180" t="s">
+        <v>67</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>199</v>
+      </c>
+      <c r="P180" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q180">
+        <v>2</v>
+      </c>
+      <c r="R180">
+        <v>9</v>
+      </c>
+      <c r="S180">
+        <v>11</v>
+      </c>
+      <c r="T180">
+        <v>3</v>
+      </c>
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>4</v>
+      </c>
+      <c r="W180">
+        <v>1.5</v>
+      </c>
+      <c r="X180">
+        <v>2.5</v>
+      </c>
+      <c r="Y180">
+        <v>3.5</v>
+      </c>
+      <c r="Z180">
+        <v>1.29</v>
+      </c>
+      <c r="AA180">
+        <v>11</v>
+      </c>
+      <c r="AB180">
+        <v>1.05</v>
+      </c>
+      <c r="AC180">
+        <v>2.22</v>
+      </c>
+      <c r="AD180">
+        <v>3.29</v>
+      </c>
+      <c r="AE180">
+        <v>3.64</v>
+      </c>
+      <c r="AF180">
+        <v>1.09</v>
+      </c>
+      <c r="AG180">
+        <v>8</v>
+      </c>
+      <c r="AH180">
+        <v>1.47</v>
+      </c>
+      <c r="AI180">
+        <v>2.75</v>
+      </c>
+      <c r="AJ180">
+        <v>2.48</v>
+      </c>
+      <c r="AK180">
+        <v>1.47</v>
+      </c>
+      <c r="AL180">
+        <v>2</v>
+      </c>
+      <c r="AM180">
+        <v>1.75</v>
+      </c>
+      <c r="AN180">
+        <v>1.31</v>
+      </c>
+      <c r="AO180">
+        <v>1.35</v>
+      </c>
+      <c r="AP180">
+        <v>1.62</v>
+      </c>
+      <c r="AQ180">
+        <v>1.44</v>
+      </c>
+      <c r="AR180">
+        <v>1.1</v>
+      </c>
+      <c r="AS180">
+        <v>1.6</v>
+      </c>
+      <c r="AT180">
+        <v>1</v>
+      </c>
+      <c r="AU180">
+        <v>1.36</v>
+      </c>
+      <c r="AV180">
+        <v>1.45</v>
+      </c>
+      <c r="AW180">
+        <v>2.81</v>
+      </c>
+      <c r="AX180">
+        <v>1.72</v>
+      </c>
+      <c r="AY180">
+        <v>8.5</v>
+      </c>
+      <c r="AZ180">
+        <v>2.42</v>
+      </c>
+      <c r="BA180">
+        <v>1.17</v>
+      </c>
+      <c r="BB180">
+        <v>1.28</v>
+      </c>
+      <c r="BC180">
+        <v>1.51</v>
+      </c>
+      <c r="BD180">
+        <v>2</v>
+      </c>
+      <c r="BE180">
+        <v>2.45</v>
+      </c>
+      <c r="BF180">
+        <v>3</v>
+      </c>
+      <c r="BG180">
+        <v>3</v>
+      </c>
+      <c r="BH180">
+        <v>5</v>
+      </c>
+      <c r="BI180">
+        <v>6</v>
+      </c>
+      <c r="BJ180">
+        <v>8</v>
+      </c>
+      <c r="BK180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2808832</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44970.76041666666</v>
+      </c>
+      <c r="F181">
+        <v>20</v>
+      </c>
+      <c r="G181" t="s">
+        <v>77</v>
+      </c>
+      <c r="H181" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181" t="s">
+        <v>84</v>
+      </c>
+      <c r="P181" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q181">
+        <v>7</v>
+      </c>
+      <c r="R181">
+        <v>3</v>
+      </c>
+      <c r="S181">
+        <v>10</v>
+      </c>
+      <c r="T181">
+        <v>3.2</v>
+      </c>
+      <c r="U181">
+        <v>1.95</v>
+      </c>
+      <c r="V181">
+        <v>3.75</v>
+      </c>
+      <c r="W181">
+        <v>1.53</v>
+      </c>
+      <c r="X181">
+        <v>2.38</v>
+      </c>
+      <c r="Y181">
+        <v>3.5</v>
+      </c>
+      <c r="Z181">
+        <v>1.29</v>
+      </c>
+      <c r="AA181">
+        <v>11</v>
+      </c>
+      <c r="AB181">
+        <v>1.05</v>
+      </c>
+      <c r="AC181">
+        <v>2.43</v>
+      </c>
+      <c r="AD181">
+        <v>3.07</v>
+      </c>
+      <c r="AE181">
+        <v>3.31</v>
+      </c>
+      <c r="AF181">
+        <v>1.09</v>
+      </c>
+      <c r="AG181">
+        <v>7.5</v>
+      </c>
+      <c r="AH181">
+        <v>1.47</v>
+      </c>
+      <c r="AI181">
+        <v>2.7</v>
+      </c>
+      <c r="AJ181">
+        <v>2.26</v>
+      </c>
+      <c r="AK181">
+        <v>1.55</v>
+      </c>
+      <c r="AL181">
+        <v>2</v>
+      </c>
+      <c r="AM181">
+        <v>1.75</v>
+      </c>
+      <c r="AN181">
+        <v>1.36</v>
+      </c>
+      <c r="AO181">
+        <v>1.35</v>
+      </c>
+      <c r="AP181">
+        <v>1.53</v>
+      </c>
+      <c r="AQ181">
+        <v>1.8</v>
+      </c>
+      <c r="AR181">
+        <v>1.78</v>
+      </c>
+      <c r="AS181">
+        <v>1.73</v>
+      </c>
+      <c r="AT181">
+        <v>1.7</v>
+      </c>
+      <c r="AU181">
+        <v>1.45</v>
+      </c>
+      <c r="AV181">
+        <v>1.2</v>
+      </c>
+      <c r="AW181">
+        <v>2.65</v>
+      </c>
+      <c r="AX181">
+        <v>1.69</v>
+      </c>
+      <c r="AY181">
+        <v>8.5</v>
+      </c>
+      <c r="AZ181">
+        <v>2.49</v>
+      </c>
+      <c r="BA181">
+        <v>1.18</v>
+      </c>
+      <c r="BB181">
+        <v>1.35</v>
+      </c>
+      <c r="BC181">
+        <v>1.63</v>
+      </c>
+      <c r="BD181">
+        <v>2.1</v>
+      </c>
+      <c r="BE181">
+        <v>2.8</v>
+      </c>
+      <c r="BF181">
+        <v>5</v>
+      </c>
+      <c r="BG181">
+        <v>2</v>
+      </c>
+      <c r="BH181">
+        <v>6</v>
+      </c>
+      <c r="BI181">
+        <v>5</v>
+      </c>
+      <c r="BJ181">
+        <v>11</v>
+      </c>
+      <c r="BK181">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1212,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1737,7 +1737,7 @@
         <v>1.6</v>
       </c>
       <c r="AT3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT10">
         <v>0.44</v>
@@ -5366,7 +5366,7 @@
         <v>1.22</v>
       </c>
       <c r="AT22">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT27">
         <v>0.5</v>
@@ -8422,7 +8422,7 @@
         <v>2.8</v>
       </c>
       <c r="AT38">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU38">
         <v>2.68</v>
@@ -8992,7 +8992,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT41">
         <v>2.18</v>
@@ -12048,7 +12048,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT57">
         <v>0.8</v>
@@ -13388,7 +13388,7 @@
         <v>2.11</v>
       </c>
       <c r="AT64">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU64">
         <v>2.15</v>
@@ -15295,7 +15295,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT74">
         <v>1</v>
@@ -16444,7 +16444,7 @@
         <v>1.4</v>
       </c>
       <c r="AT80">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -19691,7 +19691,7 @@
         <v>1.73</v>
       </c>
       <c r="AT97">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -20070,7 +20070,7 @@
         <v>2.4</v>
       </c>
       <c r="AS99">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT99">
         <v>2.45</v>
@@ -20452,7 +20452,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT101">
         <v>0.9</v>
@@ -22747,7 +22747,7 @@
         <v>0.45</v>
       </c>
       <c r="AT113">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU113">
         <v>1.64</v>
@@ -24463,7 +24463,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT122">
         <v>0.5</v>
@@ -25803,7 +25803,7 @@
         <v>1.6</v>
       </c>
       <c r="AT129">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU129">
         <v>1.27</v>
@@ -28665,7 +28665,7 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT144">
         <v>1.11</v>
@@ -29050,7 +29050,7 @@
         <v>2.4</v>
       </c>
       <c r="AT146">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU146">
         <v>2.33</v>
@@ -33443,7 +33443,7 @@
         <v>2.67</v>
       </c>
       <c r="AT169">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU169">
         <v>2.11</v>
@@ -33631,7 +33631,7 @@
         <v>1.25</v>
       </c>
       <c r="AS170">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT170">
         <v>1.22</v>
@@ -35787,6 +35787,197 @@
       </c>
       <c r="BK181">
         <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2808842</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44974.71875</v>
+      </c>
+      <c r="F182">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s">
+        <v>78</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>169</v>
+      </c>
+      <c r="P182" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q182">
+        <v>10</v>
+      </c>
+      <c r="R182">
+        <v>2</v>
+      </c>
+      <c r="S182">
+        <v>12</v>
+      </c>
+      <c r="T182">
+        <v>3</v>
+      </c>
+      <c r="U182">
+        <v>2.05</v>
+      </c>
+      <c r="V182">
+        <v>3.3</v>
+      </c>
+      <c r="W182">
+        <v>1.41</v>
+      </c>
+      <c r="X182">
+        <v>2.65</v>
+      </c>
+      <c r="Y182">
+        <v>2.85</v>
+      </c>
+      <c r="Z182">
+        <v>1.37</v>
+      </c>
+      <c r="AA182">
+        <v>7.5</v>
+      </c>
+      <c r="AB182">
+        <v>1.08</v>
+      </c>
+      <c r="AC182">
+        <v>2.62</v>
+      </c>
+      <c r="AD182">
+        <v>3.22</v>
+      </c>
+      <c r="AE182">
+        <v>2.77</v>
+      </c>
+      <c r="AF182">
+        <v>1.05</v>
+      </c>
+      <c r="AG182">
+        <v>10</v>
+      </c>
+      <c r="AH182">
+        <v>1.33</v>
+      </c>
+      <c r="AI182">
+        <v>3.25</v>
+      </c>
+      <c r="AJ182">
+        <v>2.15</v>
+      </c>
+      <c r="AK182">
+        <v>1.61</v>
+      </c>
+      <c r="AL182">
+        <v>1.75</v>
+      </c>
+      <c r="AM182">
+        <v>1.93</v>
+      </c>
+      <c r="AN182">
+        <v>1.42</v>
+      </c>
+      <c r="AO182">
+        <v>1.32</v>
+      </c>
+      <c r="AP182">
+        <v>1.51</v>
+      </c>
+      <c r="AQ182">
+        <v>1.2</v>
+      </c>
+      <c r="AR182">
+        <v>1.1</v>
+      </c>
+      <c r="AS182">
+        <v>1.18</v>
+      </c>
+      <c r="AT182">
+        <v>1.09</v>
+      </c>
+      <c r="AU182">
+        <v>1.66</v>
+      </c>
+      <c r="AV182">
+        <v>1.48</v>
+      </c>
+      <c r="AW182">
+        <v>3.14</v>
+      </c>
+      <c r="AX182">
+        <v>1.51</v>
+      </c>
+      <c r="AY182">
+        <v>9</v>
+      </c>
+      <c r="AZ182">
+        <v>3.06</v>
+      </c>
+      <c r="BA182">
+        <v>1.11</v>
+      </c>
+      <c r="BB182">
+        <v>1.23</v>
+      </c>
+      <c r="BC182">
+        <v>1.43</v>
+      </c>
+      <c r="BD182">
+        <v>1.83</v>
+      </c>
+      <c r="BE182">
+        <v>2.25</v>
+      </c>
+      <c r="BF182">
+        <v>7</v>
+      </c>
+      <c r="BG182">
+        <v>5</v>
+      </c>
+      <c r="BH182">
+        <v>3</v>
+      </c>
+      <c r="BI182">
+        <v>6</v>
+      </c>
+      <c r="BJ182">
+        <v>10</v>
+      </c>
+      <c r="BK182">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,21 @@
     <t>['65', '90+5']</t>
   </si>
   <si>
+    <t>['84', '90+1']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['1', '81']</t>
+  </si>
+  <si>
+    <t>['34', '90+6']</t>
+  </si>
+  <si>
+    <t>['55', '82', '90+2']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -739,9 +754,6 @@
     <t>['10', '31']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['87']</t>
   </si>
   <si>
@@ -851,6 +863,15 @@
   </si>
   <si>
     <t>['40', '45+3']</t>
+  </si>
+  <si>
+    <t>['16', '26', '64']</t>
+  </si>
+  <si>
+    <t>['48', '82', '90+4']</t>
+  </si>
+  <si>
+    <t>['8', '61', '70']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1543,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT2">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1925,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2116,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2307,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT6">
         <v>1.7</v>
@@ -2411,7 +2432,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2498,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT7">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2689,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2880,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT9">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3074,7 +3095,7 @@
         <v>1.18</v>
       </c>
       <c r="AT10">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3175,7 +3196,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3453,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT12">
         <v>2.5</v>
@@ -3647,7 +3668,7 @@
         <v>2.4</v>
       </c>
       <c r="AT13">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3748,7 +3769,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3939,7 +3960,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4321,7 +4342,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4703,7 +4724,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4894,7 +4915,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -4981,10 +5002,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT20">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU20">
         <v>1.34</v>
@@ -5085,7 +5106,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5172,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT21">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU21">
         <v>1</v>
@@ -5363,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT22">
         <v>1.09</v>
@@ -5554,10 +5575,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT23">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU23">
         <v>2.3</v>
@@ -5745,10 +5766,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT24">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU24">
         <v>0.85</v>
@@ -5936,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT25">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU25">
         <v>1.99</v>
@@ -6127,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT26">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU26">
         <v>2.15</v>
@@ -6321,7 +6342,7 @@
         <v>1.18</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU27">
         <v>1.83</v>
@@ -6422,7 +6443,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6613,7 +6634,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6804,7 +6825,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6995,7 +7016,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7377,7 +7398,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7568,7 +7589,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7950,7 +7971,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8141,7 +8162,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8228,10 +8249,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT37">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU37">
         <v>2.43</v>
@@ -8419,7 +8440,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT38">
         <v>1.09</v>
@@ -8523,7 +8544,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8610,10 +8631,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT39">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU39">
         <v>1.2</v>
@@ -8801,10 +8822,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT40">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU40">
         <v>2.32</v>
@@ -8905,7 +8926,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9183,10 +9204,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT42">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU42">
         <v>0.97</v>
@@ -9287,7 +9308,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9374,10 +9395,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT43">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9565,10 +9586,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT44">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU44">
         <v>1.84</v>
@@ -9759,7 +9780,7 @@
         <v>1.73</v>
       </c>
       <c r="AT45">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU45">
         <v>1.23</v>
@@ -9860,7 +9881,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9947,10 +9968,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT46">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -10242,7 +10263,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10711,7 +10732,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT50">
         <v>1.36</v>
@@ -10815,7 +10836,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11006,7 +11027,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11096,7 +11117,7 @@
         <v>1.73</v>
       </c>
       <c r="AT52">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU52">
         <v>1.09</v>
@@ -11197,7 +11218,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11388,7 +11409,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11857,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT56">
         <v>1.36</v>
@@ -11961,7 +11982,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12051,7 +12072,7 @@
         <v>1.18</v>
       </c>
       <c r="AT57">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU57">
         <v>1.46</v>
@@ -12152,7 +12173,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12239,10 +12260,10 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT58">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU58">
         <v>1.23</v>
@@ -12343,7 +12364,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12430,7 +12451,7 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT59">
         <v>2.18</v>
@@ -12624,7 +12645,7 @@
         <v>1.73</v>
       </c>
       <c r="AT60">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU60">
         <v>1.33</v>
@@ -12725,7 +12746,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12815,7 +12836,7 @@
         <v>1.73</v>
       </c>
       <c r="AT61">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU61">
         <v>0.97</v>
@@ -13003,10 +13024,10 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT62">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU62">
         <v>0.99</v>
@@ -13194,10 +13215,10 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT63">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU63">
         <v>2.89</v>
@@ -13385,7 +13406,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT64">
         <v>1.09</v>
@@ -13489,7 +13510,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13767,7 +13788,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT66">
         <v>2.45</v>
@@ -14062,7 +14083,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14149,7 +14170,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT68">
         <v>1</v>
@@ -14635,7 +14656,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14725,7 +14746,7 @@
         <v>0.45</v>
       </c>
       <c r="AT71">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU71">
         <v>1.69</v>
@@ -14916,7 +14937,7 @@
         <v>1.6</v>
       </c>
       <c r="AT72">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU72">
         <v>1.32</v>
@@ -15017,7 +15038,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15208,7 +15229,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15399,7 +15420,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15486,10 +15507,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT75">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU75">
         <v>1.23</v>
@@ -15590,7 +15611,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15677,7 +15698,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT76">
         <v>2.18</v>
@@ -15781,7 +15802,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15868,10 +15889,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT77">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU77">
         <v>2.96</v>
@@ -16062,7 +16083,7 @@
         <v>0.45</v>
       </c>
       <c r="AT78">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU78">
         <v>1.5</v>
@@ -16163,7 +16184,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16253,7 +16274,7 @@
         <v>1.73</v>
       </c>
       <c r="AT79">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU79">
         <v>1.23</v>
@@ -16354,7 +16375,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16441,7 +16462,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT80">
         <v>1.09</v>
@@ -16632,7 +16653,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT81">
         <v>1.36</v>
@@ -16736,7 +16757,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16826,7 +16847,7 @@
         <v>1.73</v>
       </c>
       <c r="AT82">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU82">
         <v>1.08</v>
@@ -16927,7 +16948,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17014,7 +17035,7 @@
         <v>2.5</v>
       </c>
       <c r="AS83">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT83">
         <v>2.5</v>
@@ -17118,7 +17139,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17208,7 +17229,7 @@
         <v>1.6</v>
       </c>
       <c r="AT84">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU84">
         <v>1.27</v>
@@ -17309,7 +17330,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17396,7 +17417,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT85">
         <v>2.45</v>
@@ -17500,7 +17521,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17691,7 +17712,7 @@
         <v>139</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17781,7 +17802,7 @@
         <v>0.8</v>
       </c>
       <c r="AT87">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -17882,7 +17903,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18073,7 +18094,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18160,7 +18181,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18264,7 +18285,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18354,7 +18375,7 @@
         <v>2.09</v>
       </c>
       <c r="AT90">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU90">
         <v>1.35</v>
@@ -18736,7 +18757,7 @@
         <v>0.45</v>
       </c>
       <c r="AT92">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU92">
         <v>1.72</v>
@@ -18924,7 +18945,7 @@
         <v>2</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT93">
         <v>2.18</v>
@@ -19115,7 +19136,7 @@
         <v>1.8</v>
       </c>
       <c r="AS94">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT94">
         <v>1.36</v>
@@ -19309,7 +19330,7 @@
         <v>1.73</v>
       </c>
       <c r="AT95">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU95">
         <v>1.16</v>
@@ -19497,7 +19518,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -19601,7 +19622,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19879,10 +19900,10 @@
         <v>0.6</v>
       </c>
       <c r="AS98">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT98">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU98">
         <v>1.28</v>
@@ -19983,7 +20004,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20174,7 +20195,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20264,7 +20285,7 @@
         <v>2.09</v>
       </c>
       <c r="AT100">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU100">
         <v>1.56</v>
@@ -20365,7 +20386,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20646,7 +20667,7 @@
         <v>1.4</v>
       </c>
       <c r="AT102">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU102">
         <v>1.89</v>
@@ -20834,10 +20855,10 @@
         <v>0.2</v>
       </c>
       <c r="AS103">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT103">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU103">
         <v>1.94</v>
@@ -21028,7 +21049,7 @@
         <v>2.4</v>
       </c>
       <c r="AT104">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU104">
         <v>2.44</v>
@@ -21219,7 +21240,7 @@
         <v>1.6</v>
       </c>
       <c r="AT105">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU105">
         <v>1.25</v>
@@ -21410,7 +21431,7 @@
         <v>0.8</v>
       </c>
       <c r="AT106">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU106">
         <v>1.72</v>
@@ -21511,7 +21532,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21598,7 +21619,7 @@
         <v>2</v>
       </c>
       <c r="AS107">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT107">
         <v>1.7</v>
@@ -21702,7 +21723,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21789,7 +21810,7 @@
         <v>2.6</v>
       </c>
       <c r="AS108">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT108">
         <v>2.5</v>
@@ -21980,7 +22001,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT109">
         <v>0.5</v>
@@ -22084,7 +22105,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22174,7 +22195,7 @@
         <v>1.73</v>
       </c>
       <c r="AT110">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU110">
         <v>1.17</v>
@@ -22275,7 +22296,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22556,7 +22577,7 @@
         <v>2.09</v>
       </c>
       <c r="AT112">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU112">
         <v>1.56</v>
@@ -22657,7 +22678,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22848,7 +22869,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22935,7 +22956,7 @@
         <v>2.5</v>
       </c>
       <c r="AS114">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT114">
         <v>2.45</v>
@@ -23039,7 +23060,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23126,7 +23147,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT115">
         <v>1.36</v>
@@ -23317,7 +23338,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT116">
         <v>1</v>
@@ -23421,7 +23442,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23511,7 +23532,7 @@
         <v>1.6</v>
       </c>
       <c r="AT117">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU117">
         <v>1.26</v>
@@ -23612,7 +23633,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23699,7 +23720,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -23893,7 +23914,7 @@
         <v>1.6</v>
       </c>
       <c r="AT119">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU119">
         <v>1.24</v>
@@ -23994,7 +24015,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24081,7 +24102,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT120">
         <v>1.7</v>
@@ -24272,10 +24293,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT121">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU121">
         <v>2.01</v>
@@ -24657,7 +24678,7 @@
         <v>2.4</v>
       </c>
       <c r="AT123">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU123">
         <v>2.42</v>
@@ -24758,7 +24779,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24845,10 +24866,10 @@
         <v>0.29</v>
       </c>
       <c r="AS124">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT124">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU124">
         <v>1.82</v>
@@ -25039,7 +25060,7 @@
         <v>1.4</v>
       </c>
       <c r="AT125">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU125">
         <v>2.07</v>
@@ -25227,7 +25248,7 @@
         <v>2.67</v>
       </c>
       <c r="AS126">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT126">
         <v>2.5</v>
@@ -25331,7 +25352,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25418,7 +25439,7 @@
         <v>2.57</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT127">
         <v>2.45</v>
@@ -25609,7 +25630,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT128">
         <v>0.9</v>
@@ -26185,7 +26206,7 @@
         <v>2.09</v>
       </c>
       <c r="AT131">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU131">
         <v>1.54</v>
@@ -26373,7 +26394,7 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT132">
         <v>2.18</v>
@@ -26477,7 +26498,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26758,7 +26779,7 @@
         <v>0.8</v>
       </c>
       <c r="AT134">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU134">
         <v>1.78</v>
@@ -27137,7 +27158,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT136">
         <v>0.5</v>
@@ -27331,7 +27352,7 @@
         <v>1.4</v>
       </c>
       <c r="AT137">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU137">
         <v>1.96</v>
@@ -27432,7 +27453,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27522,7 +27543,7 @@
         <v>1.6</v>
       </c>
       <c r="AT138">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU138">
         <v>1.35</v>
@@ -27710,10 +27731,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT139">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU139">
         <v>2.39</v>
@@ -27814,7 +27835,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27901,10 +27922,10 @@
         <v>1.29</v>
       </c>
       <c r="AS140">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT140">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU140">
         <v>1.86</v>
@@ -28005,7 +28026,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28092,10 +28113,10 @@
         <v>1.25</v>
       </c>
       <c r="AS141">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT141">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU141">
         <v>2.89</v>
@@ -28196,7 +28217,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28283,10 +28304,10 @@
         <v>0.63</v>
       </c>
       <c r="AS142">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT142">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU142">
         <v>2.08</v>
@@ -28474,7 +28495,7 @@
         <v>2.29</v>
       </c>
       <c r="AS143">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT143">
         <v>1.7</v>
@@ -28668,7 +28689,7 @@
         <v>1.18</v>
       </c>
       <c r="AT144">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU144">
         <v>1.62</v>
@@ -29151,7 +29172,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29342,7 +29363,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29429,7 +29450,7 @@
         <v>2.29</v>
       </c>
       <c r="AS148">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT148">
         <v>2.5</v>
@@ -29533,7 +29554,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29915,7 +29936,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30002,7 +30023,7 @@
         <v>0.57</v>
       </c>
       <c r="AS151">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT151">
         <v>1</v>
@@ -30196,7 +30217,7 @@
         <v>1.6</v>
       </c>
       <c r="AT152">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU152">
         <v>1.26</v>
@@ -30488,7 +30509,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30679,7 +30700,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30769,7 +30790,7 @@
         <v>1.4</v>
       </c>
       <c r="AT155">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU155">
         <v>1.96</v>
@@ -30870,7 +30891,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -30957,7 +30978,7 @@
         <v>0.63</v>
       </c>
       <c r="AS156">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT156">
         <v>0.5</v>
@@ -31061,7 +31082,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31825,7 +31846,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32016,7 +32037,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32398,7 +32419,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32485,10 +32506,10 @@
         <v>0.86</v>
       </c>
       <c r="AS164">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT164">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU164">
         <v>1.22</v>
@@ -32676,7 +32697,7 @@
         <v>2</v>
       </c>
       <c r="AS165">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT165">
         <v>1.7</v>
@@ -32867,10 +32888,10 @@
         <v>0.88</v>
       </c>
       <c r="AS166">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT166">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU166">
         <v>1.02</v>
@@ -33058,10 +33079,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS167">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT167">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU167">
         <v>1.84</v>
@@ -33162,7 +33183,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33249,10 +33270,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS168">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT168">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU168">
         <v>2.25</v>
@@ -33440,7 +33461,7 @@
         <v>1.22</v>
       </c>
       <c r="AS169">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT169">
         <v>1.09</v>
@@ -33544,7 +33565,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33634,7 +33655,7 @@
         <v>1.18</v>
       </c>
       <c r="AT170">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU170">
         <v>1.61</v>
@@ -33822,10 +33843,10 @@
         <v>0.5</v>
       </c>
       <c r="AS171">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT171">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU171">
         <v>1.61</v>
@@ -33926,7 +33947,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34016,7 +34037,7 @@
         <v>1.6</v>
       </c>
       <c r="AT172">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU172">
         <v>1.43</v>
@@ -34117,7 +34138,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -34204,10 +34225,10 @@
         <v>0.88</v>
       </c>
       <c r="AS173">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT173">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU173">
         <v>1.08</v>
@@ -34881,7 +34902,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35072,7 +35093,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35263,7 +35284,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35836,7 +35857,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -35978,6 +35999,1534 @@
       </c>
       <c r="BK182">
         <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2808846</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F183">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>80</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>200</v>
+      </c>
+      <c r="P183" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q183">
+        <v>8</v>
+      </c>
+      <c r="R183">
+        <v>1</v>
+      </c>
+      <c r="S183">
+        <v>9</v>
+      </c>
+      <c r="T183">
+        <v>2.85</v>
+      </c>
+      <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183">
+        <v>3.6</v>
+      </c>
+      <c r="W183">
+        <v>1.4</v>
+      </c>
+      <c r="X183">
+        <v>2.75</v>
+      </c>
+      <c r="Y183">
+        <v>3</v>
+      </c>
+      <c r="Z183">
+        <v>1.36</v>
+      </c>
+      <c r="AA183">
+        <v>7.5</v>
+      </c>
+      <c r="AB183">
+        <v>1.07</v>
+      </c>
+      <c r="AC183">
+        <v>1.96</v>
+      </c>
+      <c r="AD183">
+        <v>3.48</v>
+      </c>
+      <c r="AE183">
+        <v>3.9</v>
+      </c>
+      <c r="AF183">
+        <v>1.07</v>
+      </c>
+      <c r="AG183">
+        <v>7.5</v>
+      </c>
+      <c r="AH183">
+        <v>1.36</v>
+      </c>
+      <c r="AI183">
+        <v>3</v>
+      </c>
+      <c r="AJ183">
+        <v>2.09</v>
+      </c>
+      <c r="AK183">
+        <v>1.74</v>
+      </c>
+      <c r="AL183">
+        <v>1.91</v>
+      </c>
+      <c r="AM183">
+        <v>1.8</v>
+      </c>
+      <c r="AN183">
+        <v>1.34</v>
+      </c>
+      <c r="AO183">
+        <v>1.33</v>
+      </c>
+      <c r="AP183">
+        <v>1.6</v>
+      </c>
+      <c r="AQ183">
+        <v>1.4</v>
+      </c>
+      <c r="AR183">
+        <v>0.5</v>
+      </c>
+      <c r="AS183">
+        <v>1.55</v>
+      </c>
+      <c r="AT183">
+        <v>0.45</v>
+      </c>
+      <c r="AU183">
+        <v>1.63</v>
+      </c>
+      <c r="AV183">
+        <v>1.25</v>
+      </c>
+      <c r="AW183">
+        <v>2.88</v>
+      </c>
+      <c r="AX183">
+        <v>2.33</v>
+      </c>
+      <c r="AY183">
+        <v>8</v>
+      </c>
+      <c r="AZ183">
+        <v>1.82</v>
+      </c>
+      <c r="BA183">
+        <v>1.17</v>
+      </c>
+      <c r="BB183">
+        <v>1.31</v>
+      </c>
+      <c r="BC183">
+        <v>1.57</v>
+      </c>
+      <c r="BD183">
+        <v>1.98</v>
+      </c>
+      <c r="BE183">
+        <v>2.65</v>
+      </c>
+      <c r="BF183">
+        <v>4</v>
+      </c>
+      <c r="BG183">
+        <v>3</v>
+      </c>
+      <c r="BH183">
+        <v>4</v>
+      </c>
+      <c r="BI183">
+        <v>3</v>
+      </c>
+      <c r="BJ183">
+        <v>8</v>
+      </c>
+      <c r="BK183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2808841</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44975.625</v>
+      </c>
+      <c r="F184">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>67</v>
+      </c>
+      <c r="H184" t="s">
+        <v>82</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>3</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>95</v>
+      </c>
+      <c r="P184" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q184">
+        <v>5</v>
+      </c>
+      <c r="R184">
+        <v>7</v>
+      </c>
+      <c r="S184">
+        <v>12</v>
+      </c>
+      <c r="T184">
+        <v>2.6</v>
+      </c>
+      <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
+        <v>4.2</v>
+      </c>
+      <c r="W184">
+        <v>1.44</v>
+      </c>
+      <c r="X184">
+        <v>2.62</v>
+      </c>
+      <c r="Y184">
+        <v>3</v>
+      </c>
+      <c r="Z184">
+        <v>1.36</v>
+      </c>
+      <c r="AA184">
+        <v>7.5</v>
+      </c>
+      <c r="AB184">
+        <v>1.07</v>
+      </c>
+      <c r="AC184">
+        <v>1.96</v>
+      </c>
+      <c r="AD184">
+        <v>3.48</v>
+      </c>
+      <c r="AE184">
+        <v>3.9</v>
+      </c>
+      <c r="AF184">
+        <v>1.08</v>
+      </c>
+      <c r="AG184">
+        <v>7</v>
+      </c>
+      <c r="AH184">
+        <v>1.36</v>
+      </c>
+      <c r="AI184">
+        <v>3</v>
+      </c>
+      <c r="AJ184">
+        <v>2.09</v>
+      </c>
+      <c r="AK184">
+        <v>1.74</v>
+      </c>
+      <c r="AL184">
+        <v>2</v>
+      </c>
+      <c r="AM184">
+        <v>1.73</v>
+      </c>
+      <c r="AN184">
+        <v>1.26</v>
+      </c>
+      <c r="AO184">
+        <v>1.32</v>
+      </c>
+      <c r="AP184">
+        <v>1.75</v>
+      </c>
+      <c r="AQ184">
+        <v>1.22</v>
+      </c>
+      <c r="AR184">
+        <v>0.44</v>
+      </c>
+      <c r="AS184">
+        <v>1.1</v>
+      </c>
+      <c r="AT184">
+        <v>0.7</v>
+      </c>
+      <c r="AU184">
+        <v>1.35</v>
+      </c>
+      <c r="AV184">
+        <v>1.02</v>
+      </c>
+      <c r="AW184">
+        <v>2.37</v>
+      </c>
+      <c r="AX184">
+        <v>1.82</v>
+      </c>
+      <c r="AY184">
+        <v>8.5</v>
+      </c>
+      <c r="AZ184">
+        <v>2.32</v>
+      </c>
+      <c r="BA184">
+        <v>1.12</v>
+      </c>
+      <c r="BB184">
+        <v>1.26</v>
+      </c>
+      <c r="BC184">
+        <v>1.49</v>
+      </c>
+      <c r="BD184">
+        <v>1.93</v>
+      </c>
+      <c r="BE184">
+        <v>2.4</v>
+      </c>
+      <c r="BF184">
+        <v>5</v>
+      </c>
+      <c r="BG184">
+        <v>6</v>
+      </c>
+      <c r="BH184">
+        <v>5</v>
+      </c>
+      <c r="BI184">
+        <v>5</v>
+      </c>
+      <c r="BJ184">
+        <v>10</v>
+      </c>
+      <c r="BK184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2808843</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44975.72916666666</v>
+      </c>
+      <c r="F185">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>68</v>
+      </c>
+      <c r="H185" t="s">
+        <v>66</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>201</v>
+      </c>
+      <c r="P185" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q185">
+        <v>8</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>10</v>
+      </c>
+      <c r="T185">
+        <v>1.55</v>
+      </c>
+      <c r="U185">
+        <v>2.7</v>
+      </c>
+      <c r="V185">
+        <v>10</v>
+      </c>
+      <c r="W185">
+        <v>1.28</v>
+      </c>
+      <c r="X185">
+        <v>3.3</v>
+      </c>
+      <c r="Y185">
+        <v>2.3</v>
+      </c>
+      <c r="Z185">
+        <v>1.55</v>
+      </c>
+      <c r="AA185">
+        <v>5.25</v>
+      </c>
+      <c r="AB185">
+        <v>1.14</v>
+      </c>
+      <c r="AC185">
+        <v>1.22</v>
+      </c>
+      <c r="AD185">
+        <v>6.4</v>
+      </c>
+      <c r="AE185">
+        <v>13</v>
+      </c>
+      <c r="AF185">
+        <v>1.03</v>
+      </c>
+      <c r="AG185">
+        <v>13.5</v>
+      </c>
+      <c r="AH185">
+        <v>1.19</v>
+      </c>
+      <c r="AI185">
+        <v>4.2</v>
+      </c>
+      <c r="AJ185">
+        <v>1.6</v>
+      </c>
+      <c r="AK185">
+        <v>2.25</v>
+      </c>
+      <c r="AL185">
+        <v>2.5</v>
+      </c>
+      <c r="AM185">
+        <v>1.46</v>
+      </c>
+      <c r="AN185">
+        <v>1.03</v>
+      </c>
+      <c r="AO185">
+        <v>1.1</v>
+      </c>
+      <c r="AP185">
+        <v>4.75</v>
+      </c>
+      <c r="AQ185">
+        <v>2.67</v>
+      </c>
+      <c r="AR185">
+        <v>0.8</v>
+      </c>
+      <c r="AS185">
+        <v>2.7</v>
+      </c>
+      <c r="AT185">
+        <v>0.73</v>
+      </c>
+      <c r="AU185">
+        <v>2.06</v>
+      </c>
+      <c r="AV185">
+        <v>1.24</v>
+      </c>
+      <c r="AW185">
+        <v>3.3</v>
+      </c>
+      <c r="AX185">
+        <v>1.14</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>6.5</v>
+      </c>
+      <c r="BA185">
+        <v>1.21</v>
+      </c>
+      <c r="BB185">
+        <v>1.4</v>
+      </c>
+      <c r="BC185">
+        <v>1.71</v>
+      </c>
+      <c r="BD185">
+        <v>2.2</v>
+      </c>
+      <c r="BE185">
+        <v>3</v>
+      </c>
+      <c r="BF185">
+        <v>5</v>
+      </c>
+      <c r="BG185">
+        <v>5</v>
+      </c>
+      <c r="BH185">
+        <v>7</v>
+      </c>
+      <c r="BI185">
+        <v>7</v>
+      </c>
+      <c r="BJ185">
+        <v>12</v>
+      </c>
+      <c r="BK185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2808848</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44976.52083333334</v>
+      </c>
+      <c r="F186">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>69</v>
+      </c>
+      <c r="H186" t="s">
+        <v>74</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>3</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186" t="s">
+        <v>168</v>
+      </c>
+      <c r="P186" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q186">
+        <v>3</v>
+      </c>
+      <c r="R186">
+        <v>6</v>
+      </c>
+      <c r="S186">
+        <v>9</v>
+      </c>
+      <c r="T186">
+        <v>3.6</v>
+      </c>
+      <c r="U186">
+        <v>1.88</v>
+      </c>
+      <c r="V186">
+        <v>3.2</v>
+      </c>
+      <c r="W186">
+        <v>1.53</v>
+      </c>
+      <c r="X186">
+        <v>2.3</v>
+      </c>
+      <c r="Y186">
+        <v>3.4</v>
+      </c>
+      <c r="Z186">
+        <v>1.27</v>
+      </c>
+      <c r="AA186">
+        <v>9.75</v>
+      </c>
+      <c r="AB186">
+        <v>1.05</v>
+      </c>
+      <c r="AC186">
+        <v>2.69</v>
+      </c>
+      <c r="AD186">
+        <v>3</v>
+      </c>
+      <c r="AE186">
+        <v>2.53</v>
+      </c>
+      <c r="AF186">
+        <v>1.1</v>
+      </c>
+      <c r="AG186">
+        <v>6.25</v>
+      </c>
+      <c r="AH186">
+        <v>1.5</v>
+      </c>
+      <c r="AI186">
+        <v>2.5</v>
+      </c>
+      <c r="AJ186">
+        <v>2.3</v>
+      </c>
+      <c r="AK186">
+        <v>1.57</v>
+      </c>
+      <c r="AL186">
+        <v>2.05</v>
+      </c>
+      <c r="AM186">
+        <v>1.68</v>
+      </c>
+      <c r="AN186">
+        <v>1.5</v>
+      </c>
+      <c r="AO186">
+        <v>1.37</v>
+      </c>
+      <c r="AP186">
+        <v>1.37</v>
+      </c>
+      <c r="AQ186">
+        <v>1</v>
+      </c>
+      <c r="AR186">
+        <v>0.5</v>
+      </c>
+      <c r="AS186">
+        <v>0.91</v>
+      </c>
+      <c r="AT186">
+        <v>0.73</v>
+      </c>
+      <c r="AU186">
+        <v>1.23</v>
+      </c>
+      <c r="AV186">
+        <v>1.37</v>
+      </c>
+      <c r="AW186">
+        <v>2.6</v>
+      </c>
+      <c r="AX186">
+        <v>2</v>
+      </c>
+      <c r="AY186">
+        <v>8</v>
+      </c>
+      <c r="AZ186">
+        <v>2.05</v>
+      </c>
+      <c r="BA186">
+        <v>1.25</v>
+      </c>
+      <c r="BB186">
+        <v>1.47</v>
+      </c>
+      <c r="BC186">
+        <v>1.9</v>
+      </c>
+      <c r="BD186">
+        <v>2.4</v>
+      </c>
+      <c r="BE186">
+        <v>3.4</v>
+      </c>
+      <c r="BF186">
+        <v>8</v>
+      </c>
+      <c r="BG186">
+        <v>8</v>
+      </c>
+      <c r="BH186">
+        <v>6</v>
+      </c>
+      <c r="BI186">
+        <v>5</v>
+      </c>
+      <c r="BJ186">
+        <v>14</v>
+      </c>
+      <c r="BK186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2808849</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44976.625</v>
+      </c>
+      <c r="F187">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>70</v>
+      </c>
+      <c r="H187" t="s">
+        <v>81</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>202</v>
+      </c>
+      <c r="P187" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q187">
+        <v>4</v>
+      </c>
+      <c r="R187">
+        <v>3</v>
+      </c>
+      <c r="S187">
+        <v>7</v>
+      </c>
+      <c r="T187">
+        <v>1.87</v>
+      </c>
+      <c r="U187">
+        <v>2.37</v>
+      </c>
+      <c r="V187">
+        <v>6.25</v>
+      </c>
+      <c r="W187">
+        <v>1.31</v>
+      </c>
+      <c r="X187">
+        <v>3.1</v>
+      </c>
+      <c r="Y187">
+        <v>2.37</v>
+      </c>
+      <c r="Z187">
+        <v>1.51</v>
+      </c>
+      <c r="AA187">
+        <v>5.5</v>
+      </c>
+      <c r="AB187">
+        <v>1.12</v>
+      </c>
+      <c r="AC187">
+        <v>1.34</v>
+      </c>
+      <c r="AD187">
+        <v>4.65</v>
+      </c>
+      <c r="AE187">
+        <v>7.1</v>
+      </c>
+      <c r="AF187">
+        <v>1.04</v>
+      </c>
+      <c r="AG187">
+        <v>11.5</v>
+      </c>
+      <c r="AH187">
+        <v>1.21</v>
+      </c>
+      <c r="AI187">
+        <v>3.9</v>
+      </c>
+      <c r="AJ187">
+        <v>1.71</v>
+      </c>
+      <c r="AK187">
+        <v>2.06</v>
+      </c>
+      <c r="AL187">
+        <v>1.9</v>
+      </c>
+      <c r="AM187">
+        <v>1.78</v>
+      </c>
+      <c r="AN187">
+        <v>1.08</v>
+      </c>
+      <c r="AO187">
+        <v>1.15</v>
+      </c>
+      <c r="AP187">
+        <v>2.95</v>
+      </c>
+      <c r="AQ187">
+        <v>2.11</v>
+      </c>
+      <c r="AR187">
+        <v>1.22</v>
+      </c>
+      <c r="AS187">
+        <v>2.2</v>
+      </c>
+      <c r="AT187">
+        <v>1.1</v>
+      </c>
+      <c r="AU187">
+        <v>2.21</v>
+      </c>
+      <c r="AV187">
+        <v>1.29</v>
+      </c>
+      <c r="AW187">
+        <v>3.5</v>
+      </c>
+      <c r="AX187">
+        <v>1.3</v>
+      </c>
+      <c r="AY187">
+        <v>9.5</v>
+      </c>
+      <c r="AZ187">
+        <v>4.44</v>
+      </c>
+      <c r="BA187">
+        <v>1.24</v>
+      </c>
+      <c r="BB187">
+        <v>1.47</v>
+      </c>
+      <c r="BC187">
+        <v>1.85</v>
+      </c>
+      <c r="BD187">
+        <v>2.4</v>
+      </c>
+      <c r="BE187">
+        <v>3.3</v>
+      </c>
+      <c r="BF187">
+        <v>5</v>
+      </c>
+      <c r="BG187">
+        <v>4</v>
+      </c>
+      <c r="BH187">
+        <v>2</v>
+      </c>
+      <c r="BI187">
+        <v>6</v>
+      </c>
+      <c r="BJ187">
+        <v>7</v>
+      </c>
+      <c r="BK187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2808845</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44976.72916666666</v>
+      </c>
+      <c r="F188">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>75</v>
+      </c>
+      <c r="H188" t="s">
+        <v>79</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188" t="s">
+        <v>84</v>
+      </c>
+      <c r="P188" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>4</v>
+      </c>
+      <c r="S188">
+        <v>7</v>
+      </c>
+      <c r="T188">
+        <v>3.1</v>
+      </c>
+      <c r="U188">
+        <v>1.93</v>
+      </c>
+      <c r="V188">
+        <v>3.6</v>
+      </c>
+      <c r="W188">
+        <v>1.5</v>
+      </c>
+      <c r="X188">
+        <v>2.4</v>
+      </c>
+      <c r="Y188">
+        <v>3.3</v>
+      </c>
+      <c r="Z188">
+        <v>1.29</v>
+      </c>
+      <c r="AA188">
+        <v>9.25</v>
+      </c>
+      <c r="AB188">
+        <v>1.05</v>
+      </c>
+      <c r="AC188">
+        <v>2.4</v>
+      </c>
+      <c r="AD188">
+        <v>3.05</v>
+      </c>
+      <c r="AE188">
+        <v>2.82</v>
+      </c>
+      <c r="AF188">
+        <v>1.09</v>
+      </c>
+      <c r="AG188">
+        <v>6.75</v>
+      </c>
+      <c r="AH188">
+        <v>1.43</v>
+      </c>
+      <c r="AI188">
+        <v>2.6</v>
+      </c>
+      <c r="AJ188">
+        <v>2.23</v>
+      </c>
+      <c r="AK188">
+        <v>1.61</v>
+      </c>
+      <c r="AL188">
+        <v>1.98</v>
+      </c>
+      <c r="AM188">
+        <v>1.72</v>
+      </c>
+      <c r="AN188">
+        <v>1.38</v>
+      </c>
+      <c r="AO188">
+        <v>1.35</v>
+      </c>
+      <c r="AP188">
+        <v>1.52</v>
+      </c>
+      <c r="AQ188">
+        <v>1.4</v>
+      </c>
+      <c r="AR188">
+        <v>1.11</v>
+      </c>
+      <c r="AS188">
+        <v>1.36</v>
+      </c>
+      <c r="AT188">
+        <v>1.1</v>
+      </c>
+      <c r="AU188">
+        <v>1.34</v>
+      </c>
+      <c r="AV188">
+        <v>1.42</v>
+      </c>
+      <c r="AW188">
+        <v>2.76</v>
+      </c>
+      <c r="AX188">
+        <v>1.75</v>
+      </c>
+      <c r="AY188">
+        <v>8</v>
+      </c>
+      <c r="AZ188">
+        <v>2.44</v>
+      </c>
+      <c r="BA188">
+        <v>1.25</v>
+      </c>
+      <c r="BB188">
+        <v>1.47</v>
+      </c>
+      <c r="BC188">
+        <v>1.93</v>
+      </c>
+      <c r="BD188">
+        <v>2.4</v>
+      </c>
+      <c r="BE188">
+        <v>3.4</v>
+      </c>
+      <c r="BF188">
+        <v>3</v>
+      </c>
+      <c r="BG188">
+        <v>0</v>
+      </c>
+      <c r="BH188">
+        <v>4</v>
+      </c>
+      <c r="BI188">
+        <v>5</v>
+      </c>
+      <c r="BJ188">
+        <v>7</v>
+      </c>
+      <c r="BK188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2808844</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44977.66666666666</v>
+      </c>
+      <c r="F189">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>72</v>
+      </c>
+      <c r="H189" t="s">
+        <v>76</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>3</v>
+      </c>
+      <c r="N189">
+        <v>5</v>
+      </c>
+      <c r="O189" t="s">
+        <v>203</v>
+      </c>
+      <c r="P189" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q189">
+        <v>4</v>
+      </c>
+      <c r="R189">
+        <v>4</v>
+      </c>
+      <c r="S189">
+        <v>8</v>
+      </c>
+      <c r="T189">
+        <v>6</v>
+      </c>
+      <c r="U189">
+        <v>2.5</v>
+      </c>
+      <c r="V189">
+        <v>1.91</v>
+      </c>
+      <c r="W189">
+        <v>1.29</v>
+      </c>
+      <c r="X189">
+        <v>3.5</v>
+      </c>
+      <c r="Y189">
+        <v>2.25</v>
+      </c>
+      <c r="Z189">
+        <v>1.57</v>
+      </c>
+      <c r="AA189">
+        <v>5.5</v>
+      </c>
+      <c r="AB189">
+        <v>1.14</v>
+      </c>
+      <c r="AC189">
+        <v>7</v>
+      </c>
+      <c r="AD189">
+        <v>4.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.4</v>
+      </c>
+      <c r="AF189">
+        <v>1.02</v>
+      </c>
+      <c r="AG189">
+        <v>17</v>
+      </c>
+      <c r="AH189">
+        <v>1.18</v>
+      </c>
+      <c r="AI189">
+        <v>5</v>
+      </c>
+      <c r="AJ189">
+        <v>1.75</v>
+      </c>
+      <c r="AK189">
+        <v>2</v>
+      </c>
+      <c r="AL189">
+        <v>1.75</v>
+      </c>
+      <c r="AM189">
+        <v>2</v>
+      </c>
+      <c r="AN189">
+        <v>3.07</v>
+      </c>
+      <c r="AO189">
+        <v>1.18</v>
+      </c>
+      <c r="AP189">
+        <v>1.12</v>
+      </c>
+      <c r="AQ189">
+        <v>1.22</v>
+      </c>
+      <c r="AR189">
+        <v>1.4</v>
+      </c>
+      <c r="AS189">
+        <v>1.1</v>
+      </c>
+      <c r="AT189">
+        <v>1.55</v>
+      </c>
+      <c r="AU189">
+        <v>1.77</v>
+      </c>
+      <c r="AV189">
+        <v>1.59</v>
+      </c>
+      <c r="AW189">
+        <v>3.36</v>
+      </c>
+      <c r="AX189">
+        <v>4.1</v>
+      </c>
+      <c r="AY189">
+        <v>10</v>
+      </c>
+      <c r="AZ189">
+        <v>1.31</v>
+      </c>
+      <c r="BA189">
+        <v>1.18</v>
+      </c>
+      <c r="BB189">
+        <v>1.36</v>
+      </c>
+      <c r="BC189">
+        <v>1.65</v>
+      </c>
+      <c r="BD189">
+        <v>2.1</v>
+      </c>
+      <c r="BE189">
+        <v>2.85</v>
+      </c>
+      <c r="BF189">
+        <v>6</v>
+      </c>
+      <c r="BG189">
+        <v>9</v>
+      </c>
+      <c r="BH189">
+        <v>5</v>
+      </c>
+      <c r="BI189">
+        <v>2</v>
+      </c>
+      <c r="BJ189">
+        <v>11</v>
+      </c>
+      <c r="BK189">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2808847</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44977.76041666666</v>
+      </c>
+      <c r="F190">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>65</v>
+      </c>
+      <c r="H190" t="s">
+        <v>77</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190" t="s">
+        <v>204</v>
+      </c>
+      <c r="P190" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q190">
+        <v>8</v>
+      </c>
+      <c r="R190">
+        <v>5</v>
+      </c>
+      <c r="S190">
+        <v>13</v>
+      </c>
+      <c r="T190">
+        <v>1.57</v>
+      </c>
+      <c r="U190">
+        <v>2.75</v>
+      </c>
+      <c r="V190">
+        <v>12</v>
+      </c>
+      <c r="W190">
+        <v>1.29</v>
+      </c>
+      <c r="X190">
+        <v>3.5</v>
+      </c>
+      <c r="Y190">
+        <v>2.25</v>
+      </c>
+      <c r="Z190">
+        <v>1.57</v>
+      </c>
+      <c r="AA190">
+        <v>5.5</v>
+      </c>
+      <c r="AB190">
+        <v>1.14</v>
+      </c>
+      <c r="AC190">
+        <v>1.21</v>
+      </c>
+      <c r="AD190">
+        <v>6.5</v>
+      </c>
+      <c r="AE190">
+        <v>10</v>
+      </c>
+      <c r="AF190">
+        <v>1.02</v>
+      </c>
+      <c r="AG190">
+        <v>10</v>
+      </c>
+      <c r="AH190">
+        <v>1.18</v>
+      </c>
+      <c r="AI190">
+        <v>4.33</v>
+      </c>
+      <c r="AJ190">
+        <v>1.57</v>
+      </c>
+      <c r="AK190">
+        <v>2.32</v>
+      </c>
+      <c r="AL190">
+        <v>2.5</v>
+      </c>
+      <c r="AM190">
+        <v>1.5</v>
+      </c>
+      <c r="AN190">
+        <v>1.02</v>
+      </c>
+      <c r="AO190">
+        <v>1.11</v>
+      </c>
+      <c r="AP190">
+        <v>4.44</v>
+      </c>
+      <c r="AQ190">
+        <v>2.8</v>
+      </c>
+      <c r="AR190">
+        <v>0.78</v>
+      </c>
+      <c r="AS190">
+        <v>2.82</v>
+      </c>
+      <c r="AT190">
+        <v>0.7</v>
+      </c>
+      <c r="AU190">
+        <v>2.74</v>
+      </c>
+      <c r="AV190">
+        <v>1.12</v>
+      </c>
+      <c r="AW190">
+        <v>3.86</v>
+      </c>
+      <c r="AX190">
+        <v>1.21</v>
+      </c>
+      <c r="AY190">
+        <v>11</v>
+      </c>
+      <c r="AZ190">
+        <v>5.6</v>
+      </c>
+      <c r="BA190">
+        <v>1.15</v>
+      </c>
+      <c r="BB190">
+        <v>1.32</v>
+      </c>
+      <c r="BC190">
+        <v>1.57</v>
+      </c>
+      <c r="BD190">
+        <v>1.98</v>
+      </c>
+      <c r="BE190">
+        <v>2.65</v>
+      </c>
+      <c r="BF190">
+        <v>11</v>
+      </c>
+      <c r="BG190">
+        <v>3</v>
+      </c>
+      <c r="BH190">
+        <v>5</v>
+      </c>
+      <c r="BI190">
+        <v>2</v>
+      </c>
+      <c r="BJ190">
+        <v>16</v>
+      </c>
+      <c r="BK190">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1233,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT11">
         <v>2.45</v>
@@ -4814,7 +4814,7 @@
         <v>0.45</v>
       </c>
       <c r="AT19">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>0.8</v>
       </c>
       <c r="AT29">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU29">
         <v>1.52</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT32">
         <v>0.5</v>
@@ -10350,7 +10350,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT48">
         <v>2.5</v>
@@ -10544,7 +10544,7 @@
         <v>2.4</v>
       </c>
       <c r="AT49">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU49">
         <v>2.74</v>
@@ -13982,7 +13982,7 @@
         <v>1.4</v>
       </c>
       <c r="AT67">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU67">
         <v>1.91</v>
@@ -14934,7 +14934,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT72">
         <v>0.7</v>
@@ -17226,7 +17226,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT84">
         <v>0.7</v>
@@ -18566,7 +18566,7 @@
         <v>1.6</v>
       </c>
       <c r="AT91">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU91">
         <v>1.13</v>
@@ -20476,7 +20476,7 @@
         <v>1.18</v>
       </c>
       <c r="AT101">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU101">
         <v>1.57</v>
@@ -23529,7 +23529,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT117">
         <v>1.55</v>
@@ -25633,7 +25633,7 @@
         <v>2.82</v>
       </c>
       <c r="AT128">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU128">
         <v>2.82</v>
@@ -25821,7 +25821,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT129">
         <v>1.09</v>
@@ -28880,7 +28880,7 @@
         <v>1.73</v>
       </c>
       <c r="AT145">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU145">
         <v>1.28</v>
@@ -30214,7 +30214,7 @@
         <v>0.88</v>
       </c>
       <c r="AS152">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT152">
         <v>0.73</v>
@@ -31172,7 +31172,7 @@
         <v>1.73</v>
       </c>
       <c r="AT157">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU157">
         <v>1.38</v>
@@ -31360,7 +31360,7 @@
         <v>1.22</v>
       </c>
       <c r="AS158">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT158">
         <v>1</v>
@@ -34801,7 +34801,7 @@
         <v>2.09</v>
       </c>
       <c r="AT176">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU176">
         <v>1.5</v>
@@ -34989,7 +34989,7 @@
         <v>0.78</v>
       </c>
       <c r="AS177">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT177">
         <v>1</v>
@@ -37527,6 +37527,197 @@
       </c>
       <c r="BK190">
         <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2808852</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44981.71875</v>
+      </c>
+      <c r="F191">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>74</v>
+      </c>
+      <c r="H191" t="s">
+        <v>71</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>88</v>
+      </c>
+      <c r="P191" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q191">
+        <v>7</v>
+      </c>
+      <c r="R191">
+        <v>8</v>
+      </c>
+      <c r="S191">
+        <v>15</v>
+      </c>
+      <c r="T191">
+        <v>2.55</v>
+      </c>
+      <c r="U191">
+        <v>1.98</v>
+      </c>
+      <c r="V191">
+        <v>4.4</v>
+      </c>
+      <c r="W191">
+        <v>1.46</v>
+      </c>
+      <c r="X191">
+        <v>2.63</v>
+      </c>
+      <c r="Y191">
+        <v>3.18</v>
+      </c>
+      <c r="Z191">
+        <v>1.33</v>
+      </c>
+      <c r="AA191">
+        <v>8.4</v>
+      </c>
+      <c r="AB191">
+        <v>1.06</v>
+      </c>
+      <c r="AC191">
+        <v>1.92</v>
+      </c>
+      <c r="AD191">
+        <v>3.4</v>
+      </c>
+      <c r="AE191">
+        <v>3.8</v>
+      </c>
+      <c r="AF191">
+        <v>1.07</v>
+      </c>
+      <c r="AG191">
+        <v>9</v>
+      </c>
+      <c r="AH191">
+        <v>1.4</v>
+      </c>
+      <c r="AI191">
+        <v>2.95</v>
+      </c>
+      <c r="AJ191">
+        <v>2.25</v>
+      </c>
+      <c r="AK191">
+        <v>1.65</v>
+      </c>
+      <c r="AL191">
+        <v>1.98</v>
+      </c>
+      <c r="AM191">
+        <v>1.78</v>
+      </c>
+      <c r="AN191">
+        <v>1.23</v>
+      </c>
+      <c r="AO191">
+        <v>1.31</v>
+      </c>
+      <c r="AP191">
+        <v>1.92</v>
+      </c>
+      <c r="AQ191">
+        <v>1.6</v>
+      </c>
+      <c r="AR191">
+        <v>0.9</v>
+      </c>
+      <c r="AS191">
+        <v>1.73</v>
+      </c>
+      <c r="AT191">
+        <v>0.82</v>
+      </c>
+      <c r="AU191">
+        <v>1.44</v>
+      </c>
+      <c r="AV191">
+        <v>1.22</v>
+      </c>
+      <c r="AW191">
+        <v>2.66</v>
+      </c>
+      <c r="AX191">
+        <v>1.69</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
+        <v>2.54</v>
+      </c>
+      <c r="BA191">
+        <v>1.22</v>
+      </c>
+      <c r="BB191">
+        <v>1.41</v>
+      </c>
+      <c r="BC191">
+        <v>1.73</v>
+      </c>
+      <c r="BD191">
+        <v>2.23</v>
+      </c>
+      <c r="BE191">
+        <v>3</v>
+      </c>
+      <c r="BF191">
+        <v>7</v>
+      </c>
+      <c r="BG191">
+        <v>6</v>
+      </c>
+      <c r="BH191">
+        <v>15</v>
+      </c>
+      <c r="BI191">
+        <v>10</v>
+      </c>
+      <c r="BJ191">
+        <v>22</v>
+      </c>
+      <c r="BK191">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,12 @@
     <t>['55', '82', '90+2']</t>
   </si>
   <si>
+    <t>['81', '90+3']</t>
+  </si>
+  <si>
+    <t>['61', '72', '78']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -872,6 +878,9 @@
   </si>
   <si>
     <t>['8', '61', '70']</t>
+  </si>
+  <si>
+    <t>['38', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2331,7 +2340,7 @@
         <v>0.91</v>
       </c>
       <c r="AT6">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2432,7 +2441,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3196,7 +3205,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3477,7 +3486,7 @@
         <v>1.36</v>
       </c>
       <c r="AT12">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3769,7 +3778,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3859,7 +3868,7 @@
         <v>1.73</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3960,7 +3969,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4047,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT15">
         <v>2.18</v>
@@ -4342,7 +4351,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4429,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT17">
         <v>1.36</v>
@@ -4620,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -4724,7 +4733,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4915,7 +4924,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5106,7 +5115,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -6443,7 +6452,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6634,7 +6643,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6721,7 +6730,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT29">
         <v>0.82</v>
@@ -6825,7 +6834,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6915,7 +6924,7 @@
         <v>1.73</v>
       </c>
       <c r="AT30">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -7016,7 +7025,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7297,7 +7306,7 @@
         <v>1.73</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7398,7 +7407,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7485,7 +7494,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
         <v>2.45</v>
@@ -7589,7 +7598,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7870,7 +7879,7 @@
         <v>2.09</v>
       </c>
       <c r="AT35">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -7971,7 +7980,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8058,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8162,7 +8171,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8544,7 +8553,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8926,7 +8935,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9308,7 +9317,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9881,7 +9890,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10162,7 +10171,7 @@
         <v>2.09</v>
       </c>
       <c r="AT47">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU47">
         <v>1.62</v>
@@ -10263,7 +10272,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10353,7 +10362,7 @@
         <v>1.73</v>
       </c>
       <c r="AT48">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10836,7 +10845,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10926,7 +10935,7 @@
         <v>0.45</v>
       </c>
       <c r="AT51">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -11027,7 +11036,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11114,7 +11123,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT52">
         <v>0.7</v>
@@ -11218,7 +11227,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11305,7 +11314,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11409,7 +11418,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11687,7 +11696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11982,7 +11991,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12173,7 +12182,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12364,7 +12373,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12746,7 +12755,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12833,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT61">
         <v>1.1</v>
@@ -13510,7 +13519,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13979,7 +13988,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT67">
         <v>0.82</v>
@@ -14083,7 +14092,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14364,7 +14373,7 @@
         <v>2.09</v>
       </c>
       <c r="AT69">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU69">
         <v>1.52</v>
@@ -14555,7 +14564,7 @@
         <v>1.6</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU70">
         <v>1.23</v>
@@ -14656,7 +14665,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15038,7 +15047,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15125,10 +15134,10 @@
         <v>2.33</v>
       </c>
       <c r="AS73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU73">
         <v>1.71</v>
@@ -15229,7 +15238,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15420,7 +15429,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15611,7 +15620,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15802,7 +15811,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16184,7 +16193,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16375,7 +16384,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16757,7 +16766,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16844,7 +16853,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT82">
         <v>0.73</v>
@@ -16948,7 +16957,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17038,7 +17047,7 @@
         <v>2.7</v>
       </c>
       <c r="AT83">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -17139,7 +17148,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17330,7 +17339,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17521,7 +17530,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17611,7 +17620,7 @@
         <v>2.4</v>
       </c>
       <c r="AT86">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU86">
         <v>2.37</v>
@@ -17799,7 +17808,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT87">
         <v>1.1</v>
@@ -17903,7 +17912,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -17990,10 +17999,10 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT88">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU88">
         <v>1.95</v>
@@ -18094,7 +18103,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18285,7 +18294,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -19327,7 +19336,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT95">
         <v>1.55</v>
@@ -19622,7 +19631,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20004,7 +20013,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20195,7 +20204,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20386,7 +20395,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20664,7 +20673,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
         <v>1.1</v>
@@ -21428,7 +21437,7 @@
         <v>0.17</v>
       </c>
       <c r="AS106">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT106">
         <v>0.73</v>
@@ -21532,7 +21541,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21622,7 +21631,7 @@
         <v>2.2</v>
       </c>
       <c r="AT107">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU107">
         <v>2.45</v>
@@ -21723,7 +21732,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21813,7 +21822,7 @@
         <v>1.1</v>
       </c>
       <c r="AT108">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU108">
         <v>1</v>
@@ -22004,7 +22013,7 @@
         <v>1.1</v>
       </c>
       <c r="AT109">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -22105,7 +22114,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22192,7 +22201,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT110">
         <v>0.73</v>
@@ -22296,7 +22305,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22678,7 +22687,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22869,7 +22878,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23060,7 +23069,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23442,7 +23451,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23633,7 +23642,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24015,7 +24024,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24105,7 +24114,7 @@
         <v>1.55</v>
       </c>
       <c r="AT120">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU120">
         <v>1.6</v>
@@ -24487,7 +24496,7 @@
         <v>1.18</v>
       </c>
       <c r="AT122">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU122">
         <v>1.64</v>
@@ -24779,7 +24788,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25057,7 +25066,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT125">
         <v>1.1</v>
@@ -25251,7 +25260,7 @@
         <v>2.2</v>
       </c>
       <c r="AT126">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU126">
         <v>2.49</v>
@@ -25352,7 +25361,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -26012,7 +26021,7 @@
         <v>1.57</v>
       </c>
       <c r="AS130">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT130">
         <v>1</v>
@@ -26498,7 +26507,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26776,7 +26785,7 @@
         <v>1.43</v>
       </c>
       <c r="AS134">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT134">
         <v>1.55</v>
@@ -27161,7 +27170,7 @@
         <v>1.55</v>
       </c>
       <c r="AT136">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27349,7 +27358,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT137">
         <v>0.45</v>
@@ -27453,7 +27462,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27835,7 +27844,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28026,7 +28035,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28217,7 +28226,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28498,7 +28507,7 @@
         <v>1.1</v>
       </c>
       <c r="AT143">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU143">
         <v>0.98</v>
@@ -28877,7 +28886,7 @@
         <v>1.29</v>
       </c>
       <c r="AS145">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT145">
         <v>0.82</v>
@@ -29172,7 +29181,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29363,7 +29372,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29453,7 +29462,7 @@
         <v>0.91</v>
       </c>
       <c r="AT148">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU148">
         <v>1.25</v>
@@ -29554,7 +29563,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29832,7 +29841,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -29936,7 +29945,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30509,7 +30518,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30599,7 +30608,7 @@
         <v>0.45</v>
       </c>
       <c r="AT154">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU154">
         <v>1.62</v>
@@ -30700,7 +30709,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30787,7 +30796,7 @@
         <v>0.89</v>
       </c>
       <c r="AS155">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT155">
         <v>0.73</v>
@@ -30891,7 +30900,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -30981,7 +30990,7 @@
         <v>1.36</v>
       </c>
       <c r="AT156">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU156">
         <v>1.23</v>
@@ -31082,7 +31091,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31846,7 +31855,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31933,10 +31942,10 @@
         <v>2.44</v>
       </c>
       <c r="AS161">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT161">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU161">
         <v>1.42</v>
@@ -32037,7 +32046,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32124,7 +32133,7 @@
         <v>2</v>
       </c>
       <c r="AS162">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT162">
         <v>2.18</v>
@@ -32419,7 +32428,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32700,7 +32709,7 @@
         <v>2.82</v>
       </c>
       <c r="AT165">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU165">
         <v>2.81</v>
@@ -33183,7 +33192,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33565,7 +33574,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33947,7 +33956,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34138,7 +34147,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -34416,7 +34425,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT174">
         <v>1.36</v>
@@ -34607,10 +34616,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS175">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT175">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU175">
         <v>1.33</v>
@@ -34902,7 +34911,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35093,7 +35102,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35284,7 +35293,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35371,7 +35380,7 @@
         <v>2.4</v>
       </c>
       <c r="AS179">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT179">
         <v>2.45</v>
@@ -35756,7 +35765,7 @@
         <v>1.73</v>
       </c>
       <c r="AT181">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU181">
         <v>1.45</v>
@@ -35857,7 +35866,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36006,7 +36015,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2808846</v>
+        <v>2808841</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -36021,58 +36030,58 @@
         <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H183" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O183" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="Q183">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R183">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S183">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T183">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="U183">
         <v>2</v>
       </c>
       <c r="V183">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="W183">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X183">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Y183">
         <v>3</v>
@@ -36096,10 +36105,10 @@
         <v>3.9</v>
       </c>
       <c r="AF183">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG183">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH183">
         <v>1.36</v>
@@ -36114,82 +36123,82 @@
         <v>1.74</v>
       </c>
       <c r="AL183">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AM183">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AN183">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AO183">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AP183">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AQ183">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AR183">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AS183">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="AT183">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AU183">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AV183">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="AW183">
-        <v>2.88</v>
+        <v>2.37</v>
       </c>
       <c r="AX183">
-        <v>2.33</v>
+        <v>1.82</v>
       </c>
       <c r="AY183">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ183">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="BA183">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="BB183">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="BC183">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="BD183">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="BE183">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BF183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG183">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ183">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK183">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:63">
@@ -36197,7 +36206,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>2808841</v>
+        <v>2808846</v>
       </c>
       <c r="C184" t="s">
         <v>63</v>
@@ -36212,58 +36221,58 @@
         <v>21</v>
       </c>
       <c r="G184" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H184" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
         <v>3</v>
       </c>
-      <c r="N184">
-        <v>4</v>
-      </c>
       <c r="O184" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="P184" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="Q184">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R184">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S184">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T184">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="U184">
         <v>2</v>
       </c>
       <c r="V184">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="W184">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X184">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Y184">
         <v>3</v>
@@ -36287,10 +36296,10 @@
         <v>3.9</v>
       </c>
       <c r="AF184">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG184">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH184">
         <v>1.36</v>
@@ -36305,82 +36314,82 @@
         <v>1.74</v>
       </c>
       <c r="AL184">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AM184">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AN184">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AO184">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ184">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR184">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AS184">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="AT184">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="AU184">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="AV184">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="AW184">
-        <v>2.37</v>
+        <v>2.88</v>
       </c>
       <c r="AX184">
+        <v>2.33</v>
+      </c>
+      <c r="AY184">
+        <v>8</v>
+      </c>
+      <c r="AZ184">
         <v>1.82</v>
       </c>
-      <c r="AY184">
-        <v>8.5</v>
-      </c>
-      <c r="AZ184">
-        <v>2.32</v>
-      </c>
       <c r="BA184">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="BB184">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="BC184">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="BD184">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="BE184">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BF184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG184">
+        <v>3</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>3</v>
+      </c>
+      <c r="BJ184">
+        <v>8</v>
+      </c>
+      <c r="BK184">
         <v>6</v>
-      </c>
-      <c r="BH184">
-        <v>5</v>
-      </c>
-      <c r="BI184">
-        <v>5</v>
-      </c>
-      <c r="BJ184">
-        <v>10</v>
-      </c>
-      <c r="BK184">
-        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:63">
@@ -36621,7 +36630,7 @@
         <v>168</v>
       </c>
       <c r="P186" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37194,7 +37203,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37718,6 +37727,579 @@
       </c>
       <c r="BK191">
         <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2808851</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44982.52083333334</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+      <c r="G192" t="s">
+        <v>81</v>
+      </c>
+      <c r="H192" t="s">
+        <v>75</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>205</v>
+      </c>
+      <c r="P192" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q192">
+        <v>1</v>
+      </c>
+      <c r="R192">
+        <v>11</v>
+      </c>
+      <c r="S192">
+        <v>12</v>
+      </c>
+      <c r="T192">
+        <v>3</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>4</v>
+      </c>
+      <c r="W192">
+        <v>1.5</v>
+      </c>
+      <c r="X192">
+        <v>2.5</v>
+      </c>
+      <c r="Y192">
+        <v>3.5</v>
+      </c>
+      <c r="Z192">
+        <v>1.29</v>
+      </c>
+      <c r="AA192">
+        <v>10</v>
+      </c>
+      <c r="AB192">
+        <v>1.06</v>
+      </c>
+      <c r="AC192">
+        <v>2.3</v>
+      </c>
+      <c r="AD192">
+        <v>3</v>
+      </c>
+      <c r="AE192">
+        <v>3.1</v>
+      </c>
+      <c r="AF192">
+        <v>1.07</v>
+      </c>
+      <c r="AG192">
+        <v>7.75</v>
+      </c>
+      <c r="AH192">
+        <v>1.38</v>
+      </c>
+      <c r="AI192">
+        <v>2.8</v>
+      </c>
+      <c r="AJ192">
+        <v>2.4</v>
+      </c>
+      <c r="AK192">
+        <v>1.57</v>
+      </c>
+      <c r="AL192">
+        <v>1.95</v>
+      </c>
+      <c r="AM192">
+        <v>1.8</v>
+      </c>
+      <c r="AN192">
+        <v>1.36</v>
+      </c>
+      <c r="AO192">
+        <v>1.31</v>
+      </c>
+      <c r="AP192">
+        <v>1.6</v>
+      </c>
+      <c r="AQ192">
+        <v>1.73</v>
+      </c>
+      <c r="AR192">
+        <v>1.7</v>
+      </c>
+      <c r="AS192">
+        <v>1.83</v>
+      </c>
+      <c r="AT192">
+        <v>1.55</v>
+      </c>
+      <c r="AU192">
+        <v>1.34</v>
+      </c>
+      <c r="AV192">
+        <v>1.17</v>
+      </c>
+      <c r="AW192">
+        <v>2.51</v>
+      </c>
+      <c r="AX192">
+        <v>1.91</v>
+      </c>
+      <c r="AY192">
+        <v>8</v>
+      </c>
+      <c r="AZ192">
+        <v>2.2</v>
+      </c>
+      <c r="BA192">
+        <v>1.22</v>
+      </c>
+      <c r="BB192">
+        <v>1.41</v>
+      </c>
+      <c r="BC192">
+        <v>1.73</v>
+      </c>
+      <c r="BD192">
+        <v>2.23</v>
+      </c>
+      <c r="BE192">
+        <v>3</v>
+      </c>
+      <c r="BF192">
+        <v>4</v>
+      </c>
+      <c r="BG192">
+        <v>4</v>
+      </c>
+      <c r="BH192">
+        <v>5</v>
+      </c>
+      <c r="BI192">
+        <v>8</v>
+      </c>
+      <c r="BJ192">
+        <v>9</v>
+      </c>
+      <c r="BK192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2808857</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44982.625</v>
+      </c>
+      <c r="F193">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>80</v>
+      </c>
+      <c r="H193" t="s">
+        <v>69</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>4</v>
+      </c>
+      <c r="O193" t="s">
+        <v>206</v>
+      </c>
+      <c r="P193" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193">
+        <v>4</v>
+      </c>
+      <c r="S193">
+        <v>13</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>2</v>
+      </c>
+      <c r="V193">
+        <v>4</v>
+      </c>
+      <c r="W193">
+        <v>1.5</v>
+      </c>
+      <c r="X193">
+        <v>2.4</v>
+      </c>
+      <c r="Y193">
+        <v>3.2</v>
+      </c>
+      <c r="Z193">
+        <v>1.3</v>
+      </c>
+      <c r="AA193">
+        <v>8</v>
+      </c>
+      <c r="AB193">
+        <v>1.05</v>
+      </c>
+      <c r="AC193">
+        <v>2.1</v>
+      </c>
+      <c r="AD193">
+        <v>3.1</v>
+      </c>
+      <c r="AE193">
+        <v>3.4</v>
+      </c>
+      <c r="AF193">
+        <v>1.08</v>
+      </c>
+      <c r="AG193">
+        <v>6.5</v>
+      </c>
+      <c r="AH193">
+        <v>1.42</v>
+      </c>
+      <c r="AI193">
+        <v>2.62</v>
+      </c>
+      <c r="AJ193">
+        <v>2.4</v>
+      </c>
+      <c r="AK193">
+        <v>1.57</v>
+      </c>
+      <c r="AL193">
+        <v>2</v>
+      </c>
+      <c r="AM193">
+        <v>1.78</v>
+      </c>
+      <c r="AN193">
+        <v>1.33</v>
+      </c>
+      <c r="AO193">
+        <v>1.28</v>
+      </c>
+      <c r="AP193">
+        <v>1.66</v>
+      </c>
+      <c r="AQ193">
+        <v>0.8</v>
+      </c>
+      <c r="AR193">
+        <v>0.5</v>
+      </c>
+      <c r="AS193">
+        <v>1</v>
+      </c>
+      <c r="AT193">
+        <v>0.45</v>
+      </c>
+      <c r="AU193">
+        <v>1.6</v>
+      </c>
+      <c r="AV193">
+        <v>1.15</v>
+      </c>
+      <c r="AW193">
+        <v>2.75</v>
+      </c>
+      <c r="AX193">
+        <v>1.51</v>
+      </c>
+      <c r="AY193">
+        <v>8.5</v>
+      </c>
+      <c r="AZ193">
+        <v>3.07</v>
+      </c>
+      <c r="BA193">
+        <v>1.2</v>
+      </c>
+      <c r="BB193">
+        <v>1.41</v>
+      </c>
+      <c r="BC193">
+        <v>1.73</v>
+      </c>
+      <c r="BD193">
+        <v>2.17</v>
+      </c>
+      <c r="BE193">
+        <v>2.79</v>
+      </c>
+      <c r="BF193">
+        <v>9</v>
+      </c>
+      <c r="BG193">
+        <v>6</v>
+      </c>
+      <c r="BH193">
+        <v>20</v>
+      </c>
+      <c r="BI193">
+        <v>6</v>
+      </c>
+      <c r="BJ193">
+        <v>29</v>
+      </c>
+      <c r="BK193">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2808858</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44982.72916666666</v>
+      </c>
+      <c r="F194">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>78</v>
+      </c>
+      <c r="H194" t="s">
+        <v>65</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>84</v>
+      </c>
+      <c r="P194" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q194">
+        <v>6</v>
+      </c>
+      <c r="R194">
+        <v>5</v>
+      </c>
+      <c r="S194">
+        <v>11</v>
+      </c>
+      <c r="T194">
+        <v>7</v>
+      </c>
+      <c r="U194">
+        <v>2.4</v>
+      </c>
+      <c r="V194">
+        <v>1.91</v>
+      </c>
+      <c r="W194">
+        <v>1.33</v>
+      </c>
+      <c r="X194">
+        <v>3.25</v>
+      </c>
+      <c r="Y194">
+        <v>2.5</v>
+      </c>
+      <c r="Z194">
+        <v>1.5</v>
+      </c>
+      <c r="AA194">
+        <v>6.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.11</v>
+      </c>
+      <c r="AC194">
+        <v>8</v>
+      </c>
+      <c r="AD194">
+        <v>4.9</v>
+      </c>
+      <c r="AE194">
+        <v>1.37</v>
+      </c>
+      <c r="AF194">
+        <v>1.02</v>
+      </c>
+      <c r="AG194">
+        <v>15</v>
+      </c>
+      <c r="AH194">
+        <v>1.22</v>
+      </c>
+      <c r="AI194">
+        <v>4.2</v>
+      </c>
+      <c r="AJ194">
+        <v>1.65</v>
+      </c>
+      <c r="AK194">
+        <v>2.06</v>
+      </c>
+      <c r="AL194">
+        <v>1.95</v>
+      </c>
+      <c r="AM194">
+        <v>1.8</v>
+      </c>
+      <c r="AN194">
+        <v>3.1</v>
+      </c>
+      <c r="AO194">
+        <v>1.14</v>
+      </c>
+      <c r="AP194">
+        <v>1.07</v>
+      </c>
+      <c r="AQ194">
+        <v>1.4</v>
+      </c>
+      <c r="AR194">
+        <v>2.5</v>
+      </c>
+      <c r="AS194">
+        <v>1.27</v>
+      </c>
+      <c r="AT194">
+        <v>2.55</v>
+      </c>
+      <c r="AU194">
+        <v>1.9</v>
+      </c>
+      <c r="AV194">
+        <v>1.79</v>
+      </c>
+      <c r="AW194">
+        <v>3.69</v>
+      </c>
+      <c r="AX194">
+        <v>5.1</v>
+      </c>
+      <c r="AY194">
+        <v>11</v>
+      </c>
+      <c r="AZ194">
+        <v>1.23</v>
+      </c>
+      <c r="BA194">
+        <v>1.13</v>
+      </c>
+      <c r="BB194">
+        <v>1.29</v>
+      </c>
+      <c r="BC194">
+        <v>1.5</v>
+      </c>
+      <c r="BD194">
+        <v>1.93</v>
+      </c>
+      <c r="BE194">
+        <v>2.43</v>
+      </c>
+      <c r="BF194">
+        <v>5</v>
+      </c>
+      <c r="BG194">
+        <v>7</v>
+      </c>
+      <c r="BH194">
+        <v>5</v>
+      </c>
+      <c r="BI194">
+        <v>5</v>
+      </c>
+      <c r="BJ194">
+        <v>10</v>
+      </c>
+      <c r="BK194">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,12 @@
     <t>['61', '72', '78']</t>
   </si>
   <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -710,9 +716,6 @@
   </si>
   <si>
     <t>['45+4', '71']</t>
-  </si>
-  <si>
-    <t>['53']</t>
   </si>
   <si>
     <t>['90+9']</t>
@@ -859,9 +862,6 @@
     <t>['30']</t>
   </si>
   <si>
-    <t>['4']</t>
-  </si>
-  <si>
     <t>['51']</t>
   </si>
   <si>
@@ -881,6 +881,12 @@
   </si>
   <si>
     <t>['38', '90+5']</t>
+  </si>
+  <si>
+    <t>['28', '47', '57']</t>
+  </si>
+  <si>
+    <t>['26', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK194"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1764,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT3">
         <v>1.09</v>
@@ -2146,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT5">
         <v>0.45</v>
@@ -2441,7 +2447,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2722,7 +2728,7 @@
         <v>1.55</v>
       </c>
       <c r="AT8">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3205,7 +3211,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3778,7 +3784,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3969,7 +3975,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4351,7 +4357,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4441,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4632,7 +4638,7 @@
         <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4733,7 +4739,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4820,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT19">
         <v>0.82</v>
@@ -4924,7 +4930,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5115,7 +5121,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5584,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT23">
         <v>1.55</v>
@@ -5778,7 +5784,7 @@
         <v>1.36</v>
       </c>
       <c r="AT24">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU24">
         <v>0.85</v>
@@ -6452,7 +6458,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6539,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT28">
         <v>1</v>
@@ -6643,7 +6649,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6834,7 +6840,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7025,7 +7031,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7115,7 +7121,7 @@
         <v>2.4</v>
       </c>
       <c r="AT31">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU31">
         <v>2.67</v>
@@ -7407,7 +7413,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7598,7 +7604,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7685,7 +7691,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT34">
         <v>2.18</v>
@@ -7980,7 +7986,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8070,7 +8076,7 @@
         <v>1.27</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU36">
         <v>0.71</v>
@@ -8171,7 +8177,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8553,7 +8559,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8935,7 +8941,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9317,7 +9323,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9890,7 +9896,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10272,7 +10278,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10741,10 +10747,10 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT50">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU50">
         <v>1.9</v>
@@ -10845,7 +10851,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10932,7 +10938,7 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT51">
         <v>1.55</v>
@@ -11036,7 +11042,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11126,7 +11132,7 @@
         <v>1.83</v>
       </c>
       <c r="AT52">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU52">
         <v>1.09</v>
@@ -11227,7 +11233,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11317,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU53">
         <v>1.74</v>
@@ -11418,7 +11424,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11505,7 +11511,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT54">
         <v>2.45</v>
@@ -11890,7 +11896,7 @@
         <v>1.55</v>
       </c>
       <c r="AT56">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU56">
         <v>1.62</v>
@@ -11991,7 +11997,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12182,7 +12188,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12373,7 +12379,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12755,7 +12761,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13519,7 +13525,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13609,7 +13615,7 @@
         <v>2.4</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU65">
         <v>2.47</v>
@@ -13797,7 +13803,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT66">
         <v>2.45</v>
@@ -14092,7 +14098,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14561,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT70">
         <v>0.45</v>
@@ -14665,7 +14671,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14752,7 +14758,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT71">
         <v>1.1</v>
@@ -14946,7 +14952,7 @@
         <v>1.73</v>
       </c>
       <c r="AT72">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU72">
         <v>1.32</v>
@@ -15047,7 +15053,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15238,7 +15244,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15429,7 +15435,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15620,7 +15626,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15811,7 +15817,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16089,7 +16095,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT78">
         <v>1.1</v>
@@ -16193,7 +16199,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16384,7 +16390,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16665,7 +16671,7 @@
         <v>2.2</v>
       </c>
       <c r="AT81">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU81">
         <v>2.3</v>
@@ -16766,7 +16772,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16957,7 +16963,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17044,7 +17050,7 @@
         <v>2.5</v>
       </c>
       <c r="AS83">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT83">
         <v>2.55</v>
@@ -17148,7 +17154,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17339,7 +17345,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17530,7 +17536,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17912,7 +17918,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18103,7 +18109,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18193,7 +18199,7 @@
         <v>1.1</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU89">
         <v>1.68</v>
@@ -18294,7 +18300,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18384,7 +18390,7 @@
         <v>2.09</v>
       </c>
       <c r="AT90">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU90">
         <v>1.35</v>
@@ -18572,7 +18578,7 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT91">
         <v>0.82</v>
@@ -18763,7 +18769,7 @@
         <v>0.2</v>
       </c>
       <c r="AS92">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT92">
         <v>0.45</v>
@@ -19148,7 +19154,7 @@
         <v>2.82</v>
       </c>
       <c r="AT94">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU94">
         <v>3.07</v>
@@ -19631,7 +19637,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20013,7 +20019,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20204,7 +20210,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20395,7 +20401,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20864,7 +20870,7 @@
         <v>0.2</v>
       </c>
       <c r="AS103">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT103">
         <v>0.7</v>
@@ -21246,10 +21252,10 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT105">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU105">
         <v>1.25</v>
@@ -21541,7 +21547,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21732,7 +21738,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22114,7 +22120,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22305,7 +22311,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22687,7 +22693,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22774,7 +22780,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT113">
         <v>1.09</v>
@@ -22878,7 +22884,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23069,7 +23075,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23159,7 +23165,7 @@
         <v>1.36</v>
       </c>
       <c r="AT115">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU115">
         <v>1.28</v>
@@ -23350,7 +23356,7 @@
         <v>2.82</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU116">
         <v>3.02</v>
@@ -23451,7 +23457,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23642,7 +23648,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23920,7 +23926,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT119">
         <v>0.45</v>
@@ -24024,7 +24030,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24302,7 +24308,7 @@
         <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT121">
         <v>1.1</v>
@@ -24788,7 +24794,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25361,7 +25367,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -26507,7 +26513,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26594,10 +26600,10 @@
         <v>1.71</v>
       </c>
       <c r="AS133">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT133">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU133">
         <v>1.67</v>
@@ -26979,7 +26985,7 @@
         <v>1.73</v>
       </c>
       <c r="AT135">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU135">
         <v>1.36</v>
@@ -27462,7 +27468,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27549,7 +27555,7 @@
         <v>0.14</v>
       </c>
       <c r="AS138">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT138">
         <v>0.7</v>
@@ -27743,7 +27749,7 @@
         <v>2.2</v>
       </c>
       <c r="AT139">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU139">
         <v>2.39</v>
@@ -27844,7 +27850,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28035,7 +28041,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28226,7 +28232,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28313,7 +28319,7 @@
         <v>0.63</v>
       </c>
       <c r="AS142">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT142">
         <v>0.73</v>
@@ -29181,7 +29187,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29268,7 +29274,7 @@
         <v>2.63</v>
       </c>
       <c r="AS147">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT147">
         <v>2.45</v>
@@ -29372,7 +29378,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29563,7 +29569,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29945,7 +29951,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30035,7 +30041,7 @@
         <v>1.36</v>
       </c>
       <c r="AT151">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU151">
         <v>1.19</v>
@@ -30417,7 +30423,7 @@
         <v>1.73</v>
       </c>
       <c r="AT153">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU153">
         <v>1.4</v>
@@ -30518,7 +30524,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30605,7 +30611,7 @@
         <v>2.38</v>
       </c>
       <c r="AS154">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT154">
         <v>2.55</v>
@@ -30709,7 +30715,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30900,7 +30906,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31091,7 +31097,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31563,7 +31569,7 @@
         <v>2.09</v>
       </c>
       <c r="AT159">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU159">
         <v>1.43</v>
@@ -31751,10 +31757,10 @@
         <v>0.88</v>
       </c>
       <c r="AS160">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU160">
         <v>1.6</v>
@@ -31855,7 +31861,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32046,7 +32052,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32428,7 +32434,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32518,7 +32524,7 @@
         <v>0.91</v>
       </c>
       <c r="AT164">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU164">
         <v>1.22</v>
@@ -33192,7 +33198,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33470,7 +33476,7 @@
         <v>1.22</v>
       </c>
       <c r="AS169">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT169">
         <v>1.09</v>
@@ -33574,7 +33580,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33956,7 +33962,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34043,7 +34049,7 @@
         <v>1.22</v>
       </c>
       <c r="AS172">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT172">
         <v>1.55</v>
@@ -34147,7 +34153,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="Q173">
         <v>11</v>
@@ -34237,7 +34243,7 @@
         <v>1.1</v>
       </c>
       <c r="AT173">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU173">
         <v>1.08</v>
@@ -34428,7 +34434,7 @@
         <v>1.27</v>
       </c>
       <c r="AT174">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU174">
         <v>1.92</v>
@@ -35001,7 +35007,7 @@
         <v>1.73</v>
       </c>
       <c r="AT177">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU177">
         <v>1.37</v>
@@ -35571,7 +35577,7 @@
         <v>1.1</v>
       </c>
       <c r="AS180">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT180">
         <v>1</v>
@@ -35866,7 +35872,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36526,7 +36532,7 @@
         <v>0.8</v>
       </c>
       <c r="AS185">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AT185">
         <v>0.73</v>
@@ -37484,7 +37490,7 @@
         <v>2.82</v>
       </c>
       <c r="AT190">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU190">
         <v>2.74</v>
@@ -37967,7 +37973,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38300,6 +38306,579 @@
       </c>
       <c r="BK194">
         <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2808854</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44983.52083333334</v>
+      </c>
+      <c r="F195">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>66</v>
+      </c>
+      <c r="H195" t="s">
+        <v>72</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>207</v>
+      </c>
+      <c r="P195" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q195">
+        <v>4</v>
+      </c>
+      <c r="R195">
+        <v>8</v>
+      </c>
+      <c r="S195">
+        <v>12</v>
+      </c>
+      <c r="T195">
+        <v>2.88</v>
+      </c>
+      <c r="U195">
+        <v>2.05</v>
+      </c>
+      <c r="V195">
+        <v>4.33</v>
+      </c>
+      <c r="W195">
+        <v>1.44</v>
+      </c>
+      <c r="X195">
+        <v>2.63</v>
+      </c>
+      <c r="Y195">
+        <v>3.4</v>
+      </c>
+      <c r="Z195">
+        <v>1.3</v>
+      </c>
+      <c r="AA195">
+        <v>10</v>
+      </c>
+      <c r="AB195">
+        <v>1.06</v>
+      </c>
+      <c r="AC195">
+        <v>2.5</v>
+      </c>
+      <c r="AD195">
+        <v>3</v>
+      </c>
+      <c r="AE195">
+        <v>2.8</v>
+      </c>
+      <c r="AF195">
+        <v>1.07</v>
+      </c>
+      <c r="AG195">
+        <v>9</v>
+      </c>
+      <c r="AH195">
+        <v>1.42</v>
+      </c>
+      <c r="AI195">
+        <v>2.85</v>
+      </c>
+      <c r="AJ195">
+        <v>2.23</v>
+      </c>
+      <c r="AK195">
+        <v>1.61</v>
+      </c>
+      <c r="AL195">
+        <v>1.95</v>
+      </c>
+      <c r="AM195">
+        <v>1.8</v>
+      </c>
+      <c r="AN195">
+        <v>1.3</v>
+      </c>
+      <c r="AO195">
+        <v>1.28</v>
+      </c>
+      <c r="AP195">
+        <v>1.72</v>
+      </c>
+      <c r="AQ195">
+        <v>1.6</v>
+      </c>
+      <c r="AR195">
+        <v>1.36</v>
+      </c>
+      <c r="AS195">
+        <v>1.73</v>
+      </c>
+      <c r="AT195">
+        <v>1.25</v>
+      </c>
+      <c r="AU195">
+        <v>1.31</v>
+      </c>
+      <c r="AV195">
+        <v>1.33</v>
+      </c>
+      <c r="AW195">
+        <v>2.64</v>
+      </c>
+      <c r="AX195">
+        <v>1.82</v>
+      </c>
+      <c r="AY195">
+        <v>8</v>
+      </c>
+      <c r="AZ195">
+        <v>2.46</v>
+      </c>
+      <c r="BA195">
+        <v>1.14</v>
+      </c>
+      <c r="BB195">
+        <v>1.28</v>
+      </c>
+      <c r="BC195">
+        <v>1.51</v>
+      </c>
+      <c r="BD195">
+        <v>1.88</v>
+      </c>
+      <c r="BE195">
+        <v>2.45</v>
+      </c>
+      <c r="BF195">
+        <v>4</v>
+      </c>
+      <c r="BG195">
+        <v>7</v>
+      </c>
+      <c r="BH195">
+        <v>8</v>
+      </c>
+      <c r="BI195">
+        <v>5</v>
+      </c>
+      <c r="BJ195">
+        <v>12</v>
+      </c>
+      <c r="BK195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2808855</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44983.625</v>
+      </c>
+      <c r="F196">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>82</v>
+      </c>
+      <c r="H196" t="s">
+        <v>77</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>3</v>
+      </c>
+      <c r="N196">
+        <v>4</v>
+      </c>
+      <c r="O196" t="s">
+        <v>130</v>
+      </c>
+      <c r="P196" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q196">
+        <v>9</v>
+      </c>
+      <c r="R196">
+        <v>10</v>
+      </c>
+      <c r="S196">
+        <v>19</v>
+      </c>
+      <c r="T196">
+        <v>3.4</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>3.5</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>2.5</v>
+      </c>
+      <c r="Y196">
+        <v>3.4</v>
+      </c>
+      <c r="Z196">
+        <v>1.3</v>
+      </c>
+      <c r="AA196">
+        <v>10</v>
+      </c>
+      <c r="AB196">
+        <v>1.06</v>
+      </c>
+      <c r="AC196">
+        <v>2.9</v>
+      </c>
+      <c r="AD196">
+        <v>3.1</v>
+      </c>
+      <c r="AE196">
+        <v>2.38</v>
+      </c>
+      <c r="AF196">
+        <v>1.07</v>
+      </c>
+      <c r="AG196">
+        <v>7</v>
+      </c>
+      <c r="AH196">
+        <v>1.38</v>
+      </c>
+      <c r="AI196">
+        <v>2.8</v>
+      </c>
+      <c r="AJ196">
+        <v>2.2</v>
+      </c>
+      <c r="AK196">
+        <v>1.61</v>
+      </c>
+      <c r="AL196">
+        <v>1.95</v>
+      </c>
+      <c r="AM196">
+        <v>1.8</v>
+      </c>
+      <c r="AN196">
+        <v>1.5</v>
+      </c>
+      <c r="AO196">
+        <v>1.34</v>
+      </c>
+      <c r="AP196">
+        <v>1.41</v>
+      </c>
+      <c r="AQ196">
+        <v>0.45</v>
+      </c>
+      <c r="AR196">
+        <v>0.7</v>
+      </c>
+      <c r="AS196">
+        <v>0.42</v>
+      </c>
+      <c r="AT196">
+        <v>0.91</v>
+      </c>
+      <c r="AU196">
+        <v>1.63</v>
+      </c>
+      <c r="AV196">
+        <v>1.07</v>
+      </c>
+      <c r="AW196">
+        <v>2.7</v>
+      </c>
+      <c r="AX196">
+        <v>2.19</v>
+      </c>
+      <c r="AY196">
+        <v>8</v>
+      </c>
+      <c r="AZ196">
+        <v>1.98</v>
+      </c>
+      <c r="BA196">
+        <v>1.12</v>
+      </c>
+      <c r="BB196">
+        <v>1.31</v>
+      </c>
+      <c r="BC196">
+        <v>1.57</v>
+      </c>
+      <c r="BD196">
+        <v>1.98</v>
+      </c>
+      <c r="BE196">
+        <v>2.4</v>
+      </c>
+      <c r="BF196">
+        <v>6</v>
+      </c>
+      <c r="BG196">
+        <v>6</v>
+      </c>
+      <c r="BH196">
+        <v>10</v>
+      </c>
+      <c r="BI196">
+        <v>9</v>
+      </c>
+      <c r="BJ196">
+        <v>16</v>
+      </c>
+      <c r="BK196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2808850</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44983.72916666666</v>
+      </c>
+      <c r="F197">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>68</v>
+      </c>
+      <c r="H197" t="s">
+        <v>73</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="K197">
+        <v>3</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>208</v>
+      </c>
+      <c r="P197" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q197">
+        <v>3</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>3</v>
+      </c>
+      <c r="T197">
+        <v>1.57</v>
+      </c>
+      <c r="U197">
+        <v>2.75</v>
+      </c>
+      <c r="V197">
+        <v>11</v>
+      </c>
+      <c r="W197">
+        <v>1.25</v>
+      </c>
+      <c r="X197">
+        <v>3.75</v>
+      </c>
+      <c r="Y197">
+        <v>2.2</v>
+      </c>
+      <c r="Z197">
+        <v>1.62</v>
+      </c>
+      <c r="AA197">
+        <v>5</v>
+      </c>
+      <c r="AB197">
+        <v>1.17</v>
+      </c>
+      <c r="AC197">
+        <v>1.14</v>
+      </c>
+      <c r="AD197">
+        <v>7.5</v>
+      </c>
+      <c r="AE197">
+        <v>13</v>
+      </c>
+      <c r="AF197">
+        <v>1.01</v>
+      </c>
+      <c r="AG197">
+        <v>11</v>
+      </c>
+      <c r="AH197">
+        <v>1.15</v>
+      </c>
+      <c r="AI197">
+        <v>5.6</v>
+      </c>
+      <c r="AJ197">
+        <v>1.4</v>
+      </c>
+      <c r="AK197">
+        <v>2.65</v>
+      </c>
+      <c r="AL197">
+        <v>2.2</v>
+      </c>
+      <c r="AM197">
+        <v>1.62</v>
+      </c>
+      <c r="AN197">
+        <v>1.05</v>
+      </c>
+      <c r="AO197">
+        <v>1.11</v>
+      </c>
+      <c r="AP197">
+        <v>4.5</v>
+      </c>
+      <c r="AQ197">
+        <v>2.7</v>
+      </c>
+      <c r="AR197">
+        <v>1</v>
+      </c>
+      <c r="AS197">
+        <v>2.45</v>
+      </c>
+      <c r="AT197">
+        <v>1.18</v>
+      </c>
+      <c r="AU197">
+        <v>2.01</v>
+      </c>
+      <c r="AV197">
+        <v>1.48</v>
+      </c>
+      <c r="AW197">
+        <v>3.49</v>
+      </c>
+      <c r="AX197">
+        <v>1.18</v>
+      </c>
+      <c r="AY197">
+        <v>12</v>
+      </c>
+      <c r="AZ197">
+        <v>6.4</v>
+      </c>
+      <c r="BA197">
+        <v>1.16</v>
+      </c>
+      <c r="BB197">
+        <v>1.33</v>
+      </c>
+      <c r="BC197">
+        <v>1.6</v>
+      </c>
+      <c r="BD197">
+        <v>2.01</v>
+      </c>
+      <c r="BE197">
+        <v>2.59</v>
+      </c>
+      <c r="BF197">
+        <v>5</v>
+      </c>
+      <c r="BG197">
+        <v>5</v>
+      </c>
+      <c r="BH197">
+        <v>8</v>
+      </c>
+      <c r="BI197">
+        <v>5</v>
+      </c>
+      <c r="BJ197">
+        <v>13</v>
+      </c>
+      <c r="BK197">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,12 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['40', '51']</t>
+  </si>
+  <si>
+    <t>['31', '41']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -1248,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2447,7 +2453,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3211,7 +3217,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3301,7 +3307,7 @@
         <v>1.73</v>
       </c>
       <c r="AT11">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3680,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT13">
         <v>0.73</v>
@@ -3784,7 +3790,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3975,7 +3981,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4253,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4357,7 +4363,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4739,7 +4745,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4930,7 +4936,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5121,7 +5127,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -6458,7 +6464,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6548,7 +6554,7 @@
         <v>0.42</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU28">
         <v>1.63</v>
@@ -6649,7 +6655,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6840,7 +6846,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7031,7 +7037,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7118,7 +7124,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT31">
         <v>1.25</v>
@@ -7413,7 +7419,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7503,7 +7509,7 @@
         <v>1.83</v>
       </c>
       <c r="AT33">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU33">
         <v>0.93</v>
@@ -7604,7 +7610,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7882,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT35">
         <v>1.55</v>
@@ -7986,7 +7992,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8177,7 +8183,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8559,7 +8565,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8941,7 +8947,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9323,7 +9329,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9896,7 +9902,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10174,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT47">
         <v>0.45</v>
@@ -10278,7 +10284,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10556,7 +10562,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT49">
         <v>0.82</v>
@@ -10851,7 +10857,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11042,7 +11048,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11233,7 +11239,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11424,7 +11430,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11514,7 +11520,7 @@
         <v>1.73</v>
       </c>
       <c r="AT54">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU54">
         <v>0.92</v>
@@ -11705,7 +11711,7 @@
         <v>1.27</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU55">
         <v>1.66</v>
@@ -11997,7 +12003,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12379,7 +12385,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12761,7 +12767,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13525,7 +13531,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13612,7 +13618,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT65">
         <v>1.18</v>
@@ -13806,7 +13812,7 @@
         <v>2.45</v>
       </c>
       <c r="AT66">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU66">
         <v>2.03</v>
@@ -14098,7 +14104,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14188,7 +14194,7 @@
         <v>1.1</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU68">
         <v>1.8</v>
@@ -14376,7 +14382,7 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT69">
         <v>2.55</v>
@@ -14671,7 +14677,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15053,7 +15059,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15244,7 +15250,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15334,7 +15340,7 @@
         <v>1.18</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU74">
         <v>1.65</v>
@@ -15435,7 +15441,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15626,7 +15632,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15817,7 +15823,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16199,7 +16205,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16390,7 +16396,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16772,7 +16778,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16963,7 +16969,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17154,7 +17160,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17345,7 +17351,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17435,7 +17441,7 @@
         <v>1.1</v>
       </c>
       <c r="AT85">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU85">
         <v>1.02</v>
@@ -17536,7 +17542,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17623,7 +17629,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT86">
         <v>1.55</v>
@@ -17918,7 +17924,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18109,7 +18115,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18300,7 +18306,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18387,7 +18393,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT90">
         <v>0.91</v>
@@ -19536,7 +19542,7 @@
         <v>1.55</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU96">
         <v>1.53</v>
@@ -19637,7 +19643,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20019,7 +20025,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20109,7 +20115,7 @@
         <v>1.18</v>
       </c>
       <c r="AT99">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -20210,7 +20216,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20297,7 +20303,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT100">
         <v>0.73</v>
@@ -20401,7 +20407,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21061,7 +21067,7 @@
         <v>1.4</v>
       </c>
       <c r="AS104">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT104">
         <v>1.1</v>
@@ -21547,7 +21553,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21738,7 +21744,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22120,7 +22126,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22311,7 +22317,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22589,7 +22595,7 @@
         <v>0.67</v>
       </c>
       <c r="AS112">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT112">
         <v>0.45</v>
@@ -22693,7 +22699,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22884,7 +22890,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22974,7 +22980,7 @@
         <v>1.55</v>
       </c>
       <c r="AT114">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU114">
         <v>1.69</v>
@@ -23075,7 +23081,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23457,7 +23463,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23648,7 +23654,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23738,7 +23744,7 @@
         <v>0.91</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU118">
         <v>1.28</v>
@@ -24030,7 +24036,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24690,7 +24696,7 @@
         <v>0.17</v>
       </c>
       <c r="AS123">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT123">
         <v>0.7</v>
@@ -24794,7 +24800,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25367,7 +25373,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25457,7 +25463,7 @@
         <v>0.91</v>
       </c>
       <c r="AT127">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU127">
         <v>1.34</v>
@@ -26030,7 +26036,7 @@
         <v>1.83</v>
       </c>
       <c r="AT130">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU130">
         <v>1.18</v>
@@ -26218,7 +26224,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT131">
         <v>0.73</v>
@@ -26513,7 +26519,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27468,7 +27474,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27850,7 +27856,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28041,7 +28047,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28232,7 +28238,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -29083,7 +29089,7 @@
         <v>1.38</v>
       </c>
       <c r="AS146">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT146">
         <v>1.09</v>
@@ -29187,7 +29193,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29277,7 +29283,7 @@
         <v>0.42</v>
       </c>
       <c r="AT147">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU147">
         <v>1.66</v>
@@ -29378,7 +29384,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29569,7 +29575,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29656,7 +29662,7 @@
         <v>1.88</v>
       </c>
       <c r="AS149">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT149">
         <v>2.18</v>
@@ -29850,7 +29856,7 @@
         <v>1</v>
       </c>
       <c r="AT150">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU150">
         <v>1.68</v>
@@ -29951,7 +29957,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30524,7 +30530,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30715,7 +30721,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30906,7 +30912,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31097,7 +31103,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31378,7 +31384,7 @@
         <v>1.73</v>
       </c>
       <c r="AT158">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU158">
         <v>1.32</v>
@@ -31566,7 +31572,7 @@
         <v>1.56</v>
       </c>
       <c r="AS159">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT159">
         <v>1.25</v>
@@ -31861,7 +31867,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32052,7 +32058,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32330,10 +32336,10 @@
         <v>2.67</v>
       </c>
       <c r="AS163">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT163">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU163">
         <v>2.38</v>
@@ -32434,7 +32440,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -33198,7 +33204,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33580,7 +33586,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33962,7 +33968,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34813,7 +34819,7 @@
         <v>1</v>
       </c>
       <c r="AS176">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT176">
         <v>0.82</v>
@@ -34917,7 +34923,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35108,7 +35114,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35195,7 +35201,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT178">
         <v>2.18</v>
@@ -35299,7 +35305,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35389,7 +35395,7 @@
         <v>1</v>
       </c>
       <c r="AT179">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU179">
         <v>1.57</v>
@@ -35580,7 +35586,7 @@
         <v>1.73</v>
       </c>
       <c r="AT180">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU180">
         <v>1.36</v>
@@ -35872,7 +35878,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36063,7 +36069,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36636,7 +36642,7 @@
         <v>168</v>
       </c>
       <c r="P186" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37209,7 +37215,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37973,7 +37979,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38164,7 +38170,7 @@
         <v>84</v>
       </c>
       <c r="P194" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38546,7 +38552,7 @@
         <v>130</v>
       </c>
       <c r="P196" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38737,7 +38743,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -38879,6 +38885,388 @@
       </c>
       <c r="BK197">
         <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2808853</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44984.66666666666</v>
+      </c>
+      <c r="F198">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>76</v>
+      </c>
+      <c r="H198" t="s">
+        <v>67</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>209</v>
+      </c>
+      <c r="P198" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q198">
+        <v>14</v>
+      </c>
+      <c r="R198">
+        <v>5</v>
+      </c>
+      <c r="S198">
+        <v>19</v>
+      </c>
+      <c r="T198">
+        <v>1.62</v>
+      </c>
+      <c r="U198">
+        <v>2.85</v>
+      </c>
+      <c r="V198">
+        <v>9</v>
+      </c>
+      <c r="W198">
+        <v>1.24</v>
+      </c>
+      <c r="X198">
+        <v>3.7</v>
+      </c>
+      <c r="Y198">
+        <v>2.22</v>
+      </c>
+      <c r="Z198">
+        <v>1.6</v>
+      </c>
+      <c r="AA198">
+        <v>4.95</v>
+      </c>
+      <c r="AB198">
+        <v>1.14</v>
+      </c>
+      <c r="AC198">
+        <v>1.22</v>
+      </c>
+      <c r="AD198">
+        <v>6.5</v>
+      </c>
+      <c r="AE198">
+        <v>9</v>
+      </c>
+      <c r="AF198">
+        <v>1.01</v>
+      </c>
+      <c r="AG198">
+        <v>19</v>
+      </c>
+      <c r="AH198">
+        <v>1.16</v>
+      </c>
+      <c r="AI198">
+        <v>5</v>
+      </c>
+      <c r="AJ198">
+        <v>1.54</v>
+      </c>
+      <c r="AK198">
+        <v>2.38</v>
+      </c>
+      <c r="AL198">
+        <v>2.15</v>
+      </c>
+      <c r="AM198">
+        <v>1.68</v>
+      </c>
+      <c r="AN198">
+        <v>1.01</v>
+      </c>
+      <c r="AO198">
+        <v>1.08</v>
+      </c>
+      <c r="AP198">
+        <v>4.33</v>
+      </c>
+      <c r="AQ198">
+        <v>2.4</v>
+      </c>
+      <c r="AR198">
+        <v>1</v>
+      </c>
+      <c r="AS198">
+        <v>2.45</v>
+      </c>
+      <c r="AT198">
+        <v>0.92</v>
+      </c>
+      <c r="AU198">
+        <v>2.34</v>
+      </c>
+      <c r="AV198">
+        <v>1.41</v>
+      </c>
+      <c r="AW198">
+        <v>3.75</v>
+      </c>
+      <c r="AX198">
+        <v>1.19</v>
+      </c>
+      <c r="AY198">
+        <v>11</v>
+      </c>
+      <c r="AZ198">
+        <v>5.65</v>
+      </c>
+      <c r="BA198">
+        <v>1.15</v>
+      </c>
+      <c r="BB198">
+        <v>1.32</v>
+      </c>
+      <c r="BC198">
+        <v>1.59</v>
+      </c>
+      <c r="BD198">
+        <v>1.99</v>
+      </c>
+      <c r="BE198">
+        <v>2.55</v>
+      </c>
+      <c r="BF198">
+        <v>9</v>
+      </c>
+      <c r="BG198">
+        <v>0</v>
+      </c>
+      <c r="BH198">
+        <v>12</v>
+      </c>
+      <c r="BI198">
+        <v>5</v>
+      </c>
+      <c r="BJ198">
+        <v>21</v>
+      </c>
+      <c r="BK198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2808856</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44984.76041666666</v>
+      </c>
+      <c r="F199">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>79</v>
+      </c>
+      <c r="H199" t="s">
+        <v>70</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>210</v>
+      </c>
+      <c r="P199" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q199">
+        <v>3</v>
+      </c>
+      <c r="R199">
+        <v>5</v>
+      </c>
+      <c r="S199">
+        <v>8</v>
+      </c>
+      <c r="T199">
+        <v>4.33</v>
+      </c>
+      <c r="U199">
+        <v>2.2</v>
+      </c>
+      <c r="V199">
+        <v>2.6</v>
+      </c>
+      <c r="W199">
+        <v>1.4</v>
+      </c>
+      <c r="X199">
+        <v>2.75</v>
+      </c>
+      <c r="Y199">
+        <v>3</v>
+      </c>
+      <c r="Z199">
+        <v>1.36</v>
+      </c>
+      <c r="AA199">
+        <v>8</v>
+      </c>
+      <c r="AB199">
+        <v>1.08</v>
+      </c>
+      <c r="AC199">
+        <v>3.6</v>
+      </c>
+      <c r="AD199">
+        <v>3.4</v>
+      </c>
+      <c r="AE199">
+        <v>1.95</v>
+      </c>
+      <c r="AF199">
+        <v>1.06</v>
+      </c>
+      <c r="AG199">
+        <v>8</v>
+      </c>
+      <c r="AH199">
+        <v>1.33</v>
+      </c>
+      <c r="AI199">
+        <v>3.25</v>
+      </c>
+      <c r="AJ199">
+        <v>1.93</v>
+      </c>
+      <c r="AK199">
+        <v>1.93</v>
+      </c>
+      <c r="AL199">
+        <v>1.8</v>
+      </c>
+      <c r="AM199">
+        <v>1.95</v>
+      </c>
+      <c r="AN199">
+        <v>1.86</v>
+      </c>
+      <c r="AO199">
+        <v>1.3</v>
+      </c>
+      <c r="AP199">
+        <v>1.27</v>
+      </c>
+      <c r="AQ199">
+        <v>2.09</v>
+      </c>
+      <c r="AR199">
+        <v>2.45</v>
+      </c>
+      <c r="AS199">
+        <v>2.17</v>
+      </c>
+      <c r="AT199">
+        <v>2.25</v>
+      </c>
+      <c r="AU199">
+        <v>1.48</v>
+      </c>
+      <c r="AV199">
+        <v>1.9</v>
+      </c>
+      <c r="AW199">
+        <v>3.38</v>
+      </c>
+      <c r="AX199">
+        <v>2.44</v>
+      </c>
+      <c r="AY199">
+        <v>8</v>
+      </c>
+      <c r="AZ199">
+        <v>1.75</v>
+      </c>
+      <c r="BA199">
+        <v>1.21</v>
+      </c>
+      <c r="BB199">
+        <v>1.42</v>
+      </c>
+      <c r="BC199">
+        <v>1.73</v>
+      </c>
+      <c r="BD199">
+        <v>2.22</v>
+      </c>
+      <c r="BE199">
+        <v>2.95</v>
+      </c>
+      <c r="BF199">
+        <v>3</v>
+      </c>
+      <c r="BG199">
+        <v>5</v>
+      </c>
+      <c r="BH199">
+        <v>7</v>
+      </c>
+      <c r="BI199">
+        <v>10</v>
+      </c>
+      <c r="BJ199">
+        <v>10</v>
+      </c>
+      <c r="BK199">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['31', '41']</t>
   </si>
   <si>
+    <t>['36', '90+3']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -1254,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT2">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1970,7 +1973,7 @@
         <v>1.1</v>
       </c>
       <c r="AT4">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2453,7 +2456,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3217,7 +3220,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3790,7 +3793,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3877,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT14">
         <v>0.45</v>
@@ -3981,7 +3984,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4363,7 +4366,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4745,7 +4748,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4936,7 +4939,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5127,7 +5130,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5217,7 +5220,7 @@
         <v>0.91</v>
       </c>
       <c r="AT21">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU21">
         <v>1</v>
@@ -6363,7 +6366,7 @@
         <v>1.18</v>
       </c>
       <c r="AT27">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>1.83</v>
@@ -6464,7 +6467,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6655,7 +6658,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6846,7 +6849,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6933,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
         <v>2.55</v>
@@ -7037,7 +7040,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7419,7 +7422,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7610,7 +7613,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7992,7 +7995,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8183,7 +8186,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8270,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT37">
         <v>0.7</v>
@@ -8461,7 +8464,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT38">
         <v>1.09</v>
@@ -8565,7 +8568,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8947,7 +8950,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9228,7 +9231,7 @@
         <v>1.36</v>
       </c>
       <c r="AT42">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU42">
         <v>0.97</v>
@@ -9329,7 +9332,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9610,7 +9613,7 @@
         <v>1.55</v>
       </c>
       <c r="AT44">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>1.84</v>
@@ -9798,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT45">
         <v>0.7</v>
@@ -9902,7 +9905,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10284,7 +10287,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10857,7 +10860,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11048,7 +11051,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11239,7 +11242,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11430,7 +11433,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12003,7 +12006,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12385,7 +12388,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12663,7 +12666,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT60">
         <v>1.55</v>
@@ -12767,7 +12770,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13048,7 +13051,7 @@
         <v>1.36</v>
       </c>
       <c r="AT62">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU62">
         <v>0.99</v>
@@ -13236,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT63">
         <v>0.45</v>
@@ -13531,7 +13534,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14104,7 +14107,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14677,7 +14680,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14767,7 +14770,7 @@
         <v>0.42</v>
       </c>
       <c r="AT71">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU71">
         <v>1.69</v>
@@ -15059,7 +15062,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15250,7 +15253,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15441,7 +15444,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15632,7 +15635,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15823,7 +15826,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15910,7 +15913,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT77">
         <v>0.73</v>
@@ -16205,7 +16208,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16292,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT79">
         <v>0.45</v>
@@ -16396,7 +16399,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16778,7 +16781,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16868,7 +16871,7 @@
         <v>1.83</v>
       </c>
       <c r="AT82">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU82">
         <v>1.08</v>
@@ -16969,7 +16972,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17160,7 +17163,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17351,7 +17354,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17542,7 +17545,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17823,7 +17826,7 @@
         <v>1</v>
       </c>
       <c r="AT87">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -17924,7 +17927,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18115,7 +18118,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18306,7 +18309,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -19157,7 +19160,7 @@
         <v>1.8</v>
       </c>
       <c r="AS94">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT94">
         <v>1.25</v>
@@ -19643,7 +19646,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19730,7 +19733,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT97">
         <v>1.09</v>
@@ -20025,7 +20028,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20216,7 +20219,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20306,7 +20309,7 @@
         <v>2.17</v>
       </c>
       <c r="AT100">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU100">
         <v>1.56</v>
@@ -20407,7 +20410,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20688,7 +20691,7 @@
         <v>1.27</v>
       </c>
       <c r="AT102">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU102">
         <v>1.89</v>
@@ -21452,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="AT106">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU106">
         <v>1.72</v>
@@ -21553,7 +21556,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21744,7 +21747,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22126,7 +22129,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22317,7 +22320,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22404,7 +22407,7 @@
         <v>1.83</v>
       </c>
       <c r="AS111">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT111">
         <v>2.18</v>
@@ -22699,7 +22702,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22890,7 +22893,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23081,7 +23084,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23359,7 +23362,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT116">
         <v>1.18</v>
@@ -23463,7 +23466,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23654,7 +23657,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24036,7 +24039,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24317,7 +24320,7 @@
         <v>2.45</v>
       </c>
       <c r="AT121">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU121">
         <v>2.01</v>
@@ -24800,7 +24803,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24890,7 +24893,7 @@
         <v>1.1</v>
       </c>
       <c r="AT124">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU124">
         <v>1.82</v>
@@ -25373,7 +25376,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25651,7 +25654,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT128">
         <v>0.82</v>
@@ -26519,7 +26522,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26988,7 +26991,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT135">
         <v>1.18</v>
@@ -27474,7 +27477,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27856,7 +27859,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27946,7 +27949,7 @@
         <v>1.1</v>
       </c>
       <c r="AT140">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU140">
         <v>1.86</v>
@@ -28047,7 +28050,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28134,7 +28137,7 @@
         <v>1.25</v>
       </c>
       <c r="AS141">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT141">
         <v>1.55</v>
@@ -28238,7 +28241,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28328,7 +28331,7 @@
         <v>2.45</v>
       </c>
       <c r="AT142">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU142">
         <v>2.08</v>
@@ -29193,7 +29196,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29384,7 +29387,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29575,7 +29578,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29957,7 +29960,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30426,7 +30429,7 @@
         <v>1.63</v>
       </c>
       <c r="AS153">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT153">
         <v>1.25</v>
@@ -30530,7 +30533,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30721,7 +30724,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30912,7 +30915,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31103,7 +31106,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31190,7 +31193,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT157">
         <v>0.82</v>
@@ -31867,7 +31870,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32058,7 +32061,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32440,7 +32443,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32718,7 +32721,7 @@
         <v>2</v>
       </c>
       <c r="AS165">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT165">
         <v>1.55</v>
@@ -33204,7 +33207,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33294,7 +33297,7 @@
         <v>2.2</v>
       </c>
       <c r="AT168">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU168">
         <v>2.25</v>
@@ -33586,7 +33589,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33676,7 +33679,7 @@
         <v>1.18</v>
       </c>
       <c r="AT170">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU170">
         <v>1.61</v>
@@ -33968,7 +33971,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34923,7 +34926,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35114,7 +35117,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35305,7 +35308,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35774,7 +35777,7 @@
         <v>1.78</v>
       </c>
       <c r="AS181">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT181">
         <v>1.55</v>
@@ -35878,7 +35881,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36069,7 +36072,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36642,7 +36645,7 @@
         <v>168</v>
       </c>
       <c r="P186" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36732,7 +36735,7 @@
         <v>0.91</v>
       </c>
       <c r="AT186">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU186">
         <v>1.23</v>
@@ -36923,7 +36926,7 @@
         <v>2.2</v>
       </c>
       <c r="AT187">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU187">
         <v>2.21</v>
@@ -37215,7 +37218,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37493,7 +37496,7 @@
         <v>0.78</v>
       </c>
       <c r="AS190">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT190">
         <v>0.91</v>
@@ -37979,7 +37982,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38170,7 +38173,7 @@
         <v>84</v>
       </c>
       <c r="P194" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38552,7 +38555,7 @@
         <v>130</v>
       </c>
       <c r="P196" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38743,7 +38746,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39267,6 +39270,388 @@
       </c>
       <c r="BK199">
         <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2808873</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44988.66666666666</v>
+      </c>
+      <c r="F200">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>77</v>
+      </c>
+      <c r="H200" t="s">
+        <v>81</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200" t="s">
+        <v>84</v>
+      </c>
+      <c r="P200" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q200">
+        <v>6</v>
+      </c>
+      <c r="R200">
+        <v>1</v>
+      </c>
+      <c r="S200">
+        <v>7</v>
+      </c>
+      <c r="T200">
+        <v>3</v>
+      </c>
+      <c r="U200">
+        <v>1.93</v>
+      </c>
+      <c r="V200">
+        <v>3.7</v>
+      </c>
+      <c r="W200">
+        <v>1.42</v>
+      </c>
+      <c r="X200">
+        <v>2.55</v>
+      </c>
+      <c r="Y200">
+        <v>3</v>
+      </c>
+      <c r="Z200">
+        <v>1.32</v>
+      </c>
+      <c r="AA200">
+        <v>8.25</v>
+      </c>
+      <c r="AB200">
+        <v>1.06</v>
+      </c>
+      <c r="AC200">
+        <v>2.34</v>
+      </c>
+      <c r="AD200">
+        <v>3.22</v>
+      </c>
+      <c r="AE200">
+        <v>3.15</v>
+      </c>
+      <c r="AF200">
+        <v>1.05</v>
+      </c>
+      <c r="AG200">
+        <v>9.5</v>
+      </c>
+      <c r="AH200">
+        <v>1.35</v>
+      </c>
+      <c r="AI200">
+        <v>2.9</v>
+      </c>
+      <c r="AJ200">
+        <v>2.25</v>
+      </c>
+      <c r="AK200">
+        <v>1.63</v>
+      </c>
+      <c r="AL200">
+        <v>1.8</v>
+      </c>
+      <c r="AM200">
+        <v>1.86</v>
+      </c>
+      <c r="AN200">
+        <v>1.34</v>
+      </c>
+      <c r="AO200">
+        <v>1.32</v>
+      </c>
+      <c r="AP200">
+        <v>1.64</v>
+      </c>
+      <c r="AQ200">
+        <v>1.73</v>
+      </c>
+      <c r="AR200">
+        <v>1.1</v>
+      </c>
+      <c r="AS200">
+        <v>1.67</v>
+      </c>
+      <c r="AT200">
+        <v>1.09</v>
+      </c>
+      <c r="AU200">
+        <v>1.46</v>
+      </c>
+      <c r="AV200">
+        <v>1.28</v>
+      </c>
+      <c r="AW200">
+        <v>2.74</v>
+      </c>
+      <c r="AX200">
+        <v>1.51</v>
+      </c>
+      <c r="AY200">
+        <v>9</v>
+      </c>
+      <c r="AZ200">
+        <v>3.18</v>
+      </c>
+      <c r="BA200">
+        <v>1.19</v>
+      </c>
+      <c r="BB200">
+        <v>1.39</v>
+      </c>
+      <c r="BC200">
+        <v>1.69</v>
+      </c>
+      <c r="BD200">
+        <v>2.11</v>
+      </c>
+      <c r="BE200">
+        <v>2.71</v>
+      </c>
+      <c r="BF200">
+        <v>4</v>
+      </c>
+      <c r="BG200">
+        <v>2</v>
+      </c>
+      <c r="BH200">
+        <v>11</v>
+      </c>
+      <c r="BI200">
+        <v>6</v>
+      </c>
+      <c r="BJ200">
+        <v>15</v>
+      </c>
+      <c r="BK200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2808865</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44988.76041666666</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>65</v>
+      </c>
+      <c r="H201" t="s">
+        <v>74</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>211</v>
+      </c>
+      <c r="P201" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q201">
+        <v>7</v>
+      </c>
+      <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
+        <v>9</v>
+      </c>
+      <c r="T201">
+        <v>1.64</v>
+      </c>
+      <c r="U201">
+        <v>2.68</v>
+      </c>
+      <c r="V201">
+        <v>9.6</v>
+      </c>
+      <c r="W201">
+        <v>1.27</v>
+      </c>
+      <c r="X201">
+        <v>3.3</v>
+      </c>
+      <c r="Y201">
+        <v>2.35</v>
+      </c>
+      <c r="Z201">
+        <v>1.5</v>
+      </c>
+      <c r="AA201">
+        <v>5.5</v>
+      </c>
+      <c r="AB201">
+        <v>1.12</v>
+      </c>
+      <c r="AC201">
+        <v>1.25</v>
+      </c>
+      <c r="AD201">
+        <v>5.95</v>
+      </c>
+      <c r="AE201">
+        <v>11.5</v>
+      </c>
+      <c r="AF201">
+        <v>1.02</v>
+      </c>
+      <c r="AG201">
+        <v>16</v>
+      </c>
+      <c r="AH201">
+        <v>1.19</v>
+      </c>
+      <c r="AI201">
+        <v>4.35</v>
+      </c>
+      <c r="AJ201">
+        <v>1.65</v>
+      </c>
+      <c r="AK201">
+        <v>2.2</v>
+      </c>
+      <c r="AL201">
+        <v>2.25</v>
+      </c>
+      <c r="AM201">
+        <v>1.54</v>
+      </c>
+      <c r="AN201">
+        <v>1.05</v>
+      </c>
+      <c r="AO201">
+        <v>1.13</v>
+      </c>
+      <c r="AP201">
+        <v>3.95</v>
+      </c>
+      <c r="AQ201">
+        <v>2.82</v>
+      </c>
+      <c r="AR201">
+        <v>0.73</v>
+      </c>
+      <c r="AS201">
+        <v>2.83</v>
+      </c>
+      <c r="AT201">
+        <v>0.67</v>
+      </c>
+      <c r="AU201">
+        <v>2.72</v>
+      </c>
+      <c r="AV201">
+        <v>1.4</v>
+      </c>
+      <c r="AW201">
+        <v>4.12</v>
+      </c>
+      <c r="AX201">
+        <v>1.15</v>
+      </c>
+      <c r="AY201">
+        <v>12.75</v>
+      </c>
+      <c r="AZ201">
+        <v>7.4</v>
+      </c>
+      <c r="BA201">
+        <v>1.19</v>
+      </c>
+      <c r="BB201">
+        <v>1.39</v>
+      </c>
+      <c r="BC201">
+        <v>1.7</v>
+      </c>
+      <c r="BD201">
+        <v>2.11</v>
+      </c>
+      <c r="BE201">
+        <v>2.71</v>
+      </c>
+      <c r="BF201">
+        <v>8</v>
+      </c>
+      <c r="BG201">
+        <v>0</v>
+      </c>
+      <c r="BH201">
+        <v>7</v>
+      </c>
+      <c r="BI201">
+        <v>7</v>
+      </c>
+      <c r="BJ201">
+        <v>15</v>
+      </c>
+      <c r="BK201">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,12 @@
     <t>['36', '90+3']</t>
   </si>
   <si>
+    <t>['23', '82']</t>
+  </si>
+  <si>
+    <t>['36', '79']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -896,6 +902,18 @@
   </si>
   <si>
     <t>['26', '45+2']</t>
+  </si>
+  <si>
+    <t>['15', '41', '83']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['15', '43', '90+6']</t>
+  </si>
+  <si>
+    <t>['22', '30', '44']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1782,7 +1800,7 @@
         <v>1.73</v>
       </c>
       <c r="AT3">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1970,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT4">
         <v>0.67</v>
@@ -2164,7 +2182,7 @@
         <v>2.45</v>
       </c>
       <c r="AT5">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2352,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT6">
         <v>1.55</v>
@@ -2456,7 +2474,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2543,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT7">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2734,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT8">
         <v>0.91</v>
@@ -2925,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3116,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT10">
         <v>0.7</v>
@@ -3220,7 +3238,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3692,7 +3710,7 @@
         <v>2.45</v>
       </c>
       <c r="AT13">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3793,7 +3811,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3984,7 +4002,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4074,7 +4092,7 @@
         <v>1.27</v>
       </c>
       <c r="AT15">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4366,7 +4384,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4748,7 +4766,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4939,7 +4957,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5026,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>1.34</v>
@@ -5130,7 +5148,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5217,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT21">
         <v>1.09</v>
@@ -5408,10 +5426,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>1.63</v>
@@ -5602,7 +5620,7 @@
         <v>2.45</v>
       </c>
       <c r="AT23">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU23">
         <v>2.3</v>
@@ -5981,10 +5999,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT25">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU25">
         <v>1.99</v>
@@ -6172,10 +6190,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT26">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU26">
         <v>2.15</v>
@@ -6363,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>0.67</v>
@@ -6467,7 +6485,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6658,7 +6676,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6849,7 +6867,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7040,7 +7058,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7422,7 +7440,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7613,7 +7631,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7703,7 +7721,7 @@
         <v>1.73</v>
       </c>
       <c r="AT34">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU34">
         <v>0.91</v>
@@ -7995,7 +8013,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8186,7 +8204,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8467,7 +8485,7 @@
         <v>2.83</v>
       </c>
       <c r="AT38">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>2.68</v>
@@ -8568,7 +8586,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8655,10 +8673,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU39">
         <v>1.2</v>
@@ -8846,10 +8864,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT40">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU40">
         <v>2.32</v>
@@ -8950,7 +8968,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9037,10 +9055,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT41">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU41">
         <v>1.81</v>
@@ -9332,7 +9350,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9419,10 +9437,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT43">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9610,7 +9628,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT44">
         <v>0.67</v>
@@ -9905,7 +9923,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9992,10 +10010,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU46">
         <v>1.7</v>
@@ -10287,7 +10305,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10860,7 +10878,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11051,7 +11069,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11242,7 +11260,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11433,7 +11451,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11902,7 +11920,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT56">
         <v>1.25</v>
@@ -12006,7 +12024,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12093,10 +12111,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.46</v>
@@ -12284,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT58">
         <v>0.7</v>
@@ -12388,7 +12406,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12475,10 +12493,10 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT59">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU59">
         <v>1.06</v>
@@ -12669,7 +12687,7 @@
         <v>1.67</v>
       </c>
       <c r="AT60">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU60">
         <v>1.33</v>
@@ -12770,7 +12788,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12860,7 +12878,7 @@
         <v>1.83</v>
       </c>
       <c r="AT61">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU61">
         <v>0.97</v>
@@ -13242,7 +13260,7 @@
         <v>2.83</v>
       </c>
       <c r="AT63">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU63">
         <v>2.89</v>
@@ -13430,10 +13448,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT64">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU64">
         <v>2.15</v>
@@ -13534,7 +13552,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14107,7 +14125,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14194,7 +14212,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT68">
         <v>0.92</v>
@@ -14680,7 +14698,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15062,7 +15080,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15253,7 +15271,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15340,7 +15358,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT74">
         <v>0.92</v>
@@ -15444,7 +15462,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15531,10 +15549,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT75">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU75">
         <v>1.23</v>
@@ -15635,7 +15653,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15722,10 +15740,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT76">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU76">
         <v>1.66</v>
@@ -15826,7 +15844,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15916,7 +15934,7 @@
         <v>2.83</v>
       </c>
       <c r="AT77">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU77">
         <v>2.96</v>
@@ -16107,7 +16125,7 @@
         <v>0.42</v>
       </c>
       <c r="AT78">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU78">
         <v>1.5</v>
@@ -16208,7 +16226,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16298,7 +16316,7 @@
         <v>1.67</v>
       </c>
       <c r="AT79">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU79">
         <v>1.23</v>
@@ -16399,7 +16417,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16489,7 +16507,7 @@
         <v>1.36</v>
       </c>
       <c r="AT80">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU80">
         <v>1.17</v>
@@ -16677,7 +16695,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT81">
         <v>1.25</v>
@@ -16781,7 +16799,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16972,7 +16990,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17163,7 +17181,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17354,7 +17372,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17441,7 +17459,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT85">
         <v>2.25</v>
@@ -17545,7 +17563,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17927,7 +17945,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18118,7 +18136,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18205,7 +18223,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT89">
         <v>1.18</v>
@@ -18309,7 +18327,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18781,7 +18799,7 @@
         <v>0.42</v>
       </c>
       <c r="AT92">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU92">
         <v>1.72</v>
@@ -18969,10 +18987,10 @@
         <v>2</v>
       </c>
       <c r="AS93">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT93">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU93">
         <v>1.28</v>
@@ -19354,7 +19372,7 @@
         <v>1.83</v>
       </c>
       <c r="AT95">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU95">
         <v>1.16</v>
@@ -19542,7 +19560,7 @@
         <v>2</v>
       </c>
       <c r="AS96">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT96">
         <v>0.92</v>
@@ -19646,7 +19664,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19736,7 +19754,7 @@
         <v>1.67</v>
       </c>
       <c r="AT97">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -19927,7 +19945,7 @@
         <v>1.36</v>
       </c>
       <c r="AT98">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU98">
         <v>1.28</v>
@@ -20028,7 +20046,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20115,7 +20133,7 @@
         <v>2.4</v>
       </c>
       <c r="AS99">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT99">
         <v>2.25</v>
@@ -20219,7 +20237,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20410,7 +20428,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20497,7 +20515,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT101">
         <v>0.82</v>
@@ -21073,7 +21091,7 @@
         <v>2.45</v>
       </c>
       <c r="AT104">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU104">
         <v>2.44</v>
@@ -21556,7 +21574,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21643,7 +21661,7 @@
         <v>2</v>
       </c>
       <c r="AS107">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT107">
         <v>1.55</v>
@@ -21747,7 +21765,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21834,7 +21852,7 @@
         <v>2.6</v>
       </c>
       <c r="AS108">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT108">
         <v>2.55</v>
@@ -22025,7 +22043,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>0.45</v>
@@ -22129,7 +22147,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22219,7 +22237,7 @@
         <v>1.83</v>
       </c>
       <c r="AT110">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU110">
         <v>1.17</v>
@@ -22320,7 +22338,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22410,7 +22428,7 @@
         <v>1.67</v>
       </c>
       <c r="AT111">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU111">
         <v>1.47</v>
@@ -22601,7 +22619,7 @@
         <v>2.17</v>
       </c>
       <c r="AT112">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU112">
         <v>1.56</v>
@@ -22702,7 +22720,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22792,7 +22810,7 @@
         <v>0.42</v>
       </c>
       <c r="AT113">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU113">
         <v>1.64</v>
@@ -22893,7 +22911,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -22980,7 +22998,7 @@
         <v>2.5</v>
       </c>
       <c r="AS114">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT114">
         <v>2.25</v>
@@ -23084,7 +23102,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23466,7 +23484,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23556,7 +23574,7 @@
         <v>1.73</v>
       </c>
       <c r="AT117">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU117">
         <v>1.26</v>
@@ -23657,7 +23675,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23744,7 +23762,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT118">
         <v>0.92</v>
@@ -23938,7 +23956,7 @@
         <v>1.73</v>
       </c>
       <c r="AT119">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU119">
         <v>1.24</v>
@@ -24039,7 +24057,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24126,7 +24144,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT120">
         <v>1.55</v>
@@ -24508,7 +24526,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT122">
         <v>0.45</v>
@@ -24803,7 +24821,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24890,7 +24908,7 @@
         <v>0.29</v>
       </c>
       <c r="AS124">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT124">
         <v>0.67</v>
@@ -25084,7 +25102,7 @@
         <v>1.27</v>
       </c>
       <c r="AT125">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU125">
         <v>2.07</v>
@@ -25272,7 +25290,7 @@
         <v>2.67</v>
       </c>
       <c r="AS126">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT126">
         <v>2.55</v>
@@ -25376,7 +25394,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25463,7 +25481,7 @@
         <v>2.57</v>
       </c>
       <c r="AS127">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT127">
         <v>2.25</v>
@@ -25848,7 +25866,7 @@
         <v>1.73</v>
       </c>
       <c r="AT129">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU129">
         <v>1.27</v>
@@ -26230,7 +26248,7 @@
         <v>2.17</v>
       </c>
       <c r="AT131">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU131">
         <v>1.54</v>
@@ -26421,7 +26439,7 @@
         <v>1.36</v>
       </c>
       <c r="AT132">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU132">
         <v>1.31</v>
@@ -26522,7 +26540,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26803,7 +26821,7 @@
         <v>1</v>
       </c>
       <c r="AT134">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU134">
         <v>1.78</v>
@@ -27182,7 +27200,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT136">
         <v>0.45</v>
@@ -27376,7 +27394,7 @@
         <v>1.27</v>
       </c>
       <c r="AT137">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU137">
         <v>1.96</v>
@@ -27477,7 +27495,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27755,7 +27773,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT139">
         <v>0.91</v>
@@ -27859,7 +27877,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27946,7 +27964,7 @@
         <v>1.29</v>
       </c>
       <c r="AS140">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT140">
         <v>1.09</v>
@@ -28050,7 +28068,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28140,7 +28158,7 @@
         <v>2.83</v>
       </c>
       <c r="AT141">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU141">
         <v>2.89</v>
@@ -28241,7 +28259,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28519,7 +28537,7 @@
         <v>2.29</v>
       </c>
       <c r="AS143">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT143">
         <v>1.55</v>
@@ -28710,10 +28728,10 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT144">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU144">
         <v>1.62</v>
@@ -29095,7 +29113,7 @@
         <v>2.45</v>
       </c>
       <c r="AT146">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU146">
         <v>2.33</v>
@@ -29196,7 +29214,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29387,7 +29405,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29474,7 +29492,7 @@
         <v>2.29</v>
       </c>
       <c r="AS148">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT148">
         <v>2.55</v>
@@ -29578,7 +29596,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29668,7 +29686,7 @@
         <v>2.17</v>
       </c>
       <c r="AT149">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU149">
         <v>1.5</v>
@@ -29960,7 +29978,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30241,7 +30259,7 @@
         <v>1.73</v>
       </c>
       <c r="AT152">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU152">
         <v>1.26</v>
@@ -30533,7 +30551,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30724,7 +30742,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30814,7 +30832,7 @@
         <v>1.27</v>
       </c>
       <c r="AT155">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU155">
         <v>1.96</v>
@@ -30915,7 +30933,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31106,7 +31124,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31870,7 +31888,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32061,7 +32079,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32151,7 +32169,7 @@
         <v>1</v>
       </c>
       <c r="AT162">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU162">
         <v>1.6</v>
@@ -32443,7 +32461,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32530,7 +32548,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT164">
         <v>0.91</v>
@@ -32912,10 +32930,10 @@
         <v>0.88</v>
       </c>
       <c r="AS166">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT166">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU166">
         <v>1.02</v>
@@ -33103,10 +33121,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS167">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT167">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU167">
         <v>1.84</v>
@@ -33207,7 +33225,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33294,7 +33312,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS168">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT168">
         <v>0.67</v>
@@ -33488,7 +33506,7 @@
         <v>2.45</v>
       </c>
       <c r="AT169">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU169">
         <v>2.11</v>
@@ -33589,7 +33607,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33676,7 +33694,7 @@
         <v>1.25</v>
       </c>
       <c r="AS170">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
         <v>1.09</v>
@@ -33867,7 +33885,7 @@
         <v>0.5</v>
       </c>
       <c r="AS171">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT171">
         <v>0.7</v>
@@ -33971,7 +33989,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34061,7 +34079,7 @@
         <v>1.73</v>
       </c>
       <c r="AT172">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU172">
         <v>1.43</v>
@@ -34249,7 +34267,7 @@
         <v>0.88</v>
       </c>
       <c r="AS173">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT173">
         <v>0.91</v>
@@ -34926,7 +34944,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35117,7 +35135,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35207,7 +35225,7 @@
         <v>2.45</v>
       </c>
       <c r="AT178">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU178">
         <v>2.37</v>
@@ -35308,7 +35326,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35881,7 +35899,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -35968,10 +35986,10 @@
         <v>1.1</v>
       </c>
       <c r="AS182">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT182">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU182">
         <v>1.66</v>
@@ -36072,7 +36090,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36159,7 +36177,7 @@
         <v>0.44</v>
       </c>
       <c r="AS183">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT183">
         <v>0.7</v>
@@ -36350,10 +36368,10 @@
         <v>0.5</v>
       </c>
       <c r="AS184">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT184">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU184">
         <v>1.63</v>
@@ -36544,7 +36562,7 @@
         <v>2.45</v>
       </c>
       <c r="AT185">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU185">
         <v>2.06</v>
@@ -36645,7 +36663,7 @@
         <v>168</v>
       </c>
       <c r="P186" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36732,7 +36750,7 @@
         <v>0.5</v>
       </c>
       <c r="AS186">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT186">
         <v>0.67</v>
@@ -36923,7 +36941,7 @@
         <v>1.22</v>
       </c>
       <c r="AS187">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT187">
         <v>1.09</v>
@@ -37117,7 +37135,7 @@
         <v>1.36</v>
       </c>
       <c r="AT188">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU188">
         <v>1.34</v>
@@ -37218,7 +37236,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37305,10 +37323,10 @@
         <v>1.4</v>
       </c>
       <c r="AS189">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT189">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU189">
         <v>1.77</v>
@@ -37982,7 +38000,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38173,7 +38191,7 @@
         <v>84</v>
       </c>
       <c r="P194" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38555,7 +38573,7 @@
         <v>130</v>
       </c>
       <c r="P196" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38746,7 +38764,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39652,6 +39670,1152 @@
       </c>
       <c r="BK201">
         <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2808860</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44989.52083333334</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>67</v>
+      </c>
+      <c r="H202" t="s">
+        <v>78</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>3</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="O202" t="s">
+        <v>84</v>
+      </c>
+      <c r="P202" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q202">
+        <v>8</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
+        <v>8</v>
+      </c>
+      <c r="T202">
+        <v>3.16</v>
+      </c>
+      <c r="U202">
+        <v>1.88</v>
+      </c>
+      <c r="V202">
+        <v>3.35</v>
+      </c>
+      <c r="W202">
+        <v>1.46</v>
+      </c>
+      <c r="X202">
+        <v>2.5</v>
+      </c>
+      <c r="Y202">
+        <v>3.1</v>
+      </c>
+      <c r="Z202">
+        <v>1.32</v>
+      </c>
+      <c r="AA202">
+        <v>8.5</v>
+      </c>
+      <c r="AB202">
+        <v>1.06</v>
+      </c>
+      <c r="AC202">
+        <v>2.75</v>
+      </c>
+      <c r="AD202">
+        <v>3.2</v>
+      </c>
+      <c r="AE202">
+        <v>2.65</v>
+      </c>
+      <c r="AF202">
+        <v>1.08</v>
+      </c>
+      <c r="AG202">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH202">
+        <v>1.38</v>
+      </c>
+      <c r="AI202">
+        <v>3.07</v>
+      </c>
+      <c r="AJ202">
+        <v>2.09</v>
+      </c>
+      <c r="AK202">
+        <v>1.64</v>
+      </c>
+      <c r="AL202">
+        <v>1.87</v>
+      </c>
+      <c r="AM202">
+        <v>1.82</v>
+      </c>
+      <c r="AN202">
+        <v>1.42</v>
+      </c>
+      <c r="AO202">
+        <v>1.33</v>
+      </c>
+      <c r="AP202">
+        <v>1.49</v>
+      </c>
+      <c r="AQ202">
+        <v>1.1</v>
+      </c>
+      <c r="AR202">
+        <v>1.09</v>
+      </c>
+      <c r="AS202">
+        <v>1</v>
+      </c>
+      <c r="AT202">
+        <v>1.25</v>
+      </c>
+      <c r="AU202">
+        <v>1.34</v>
+      </c>
+      <c r="AV202">
+        <v>1.47</v>
+      </c>
+      <c r="AW202">
+        <v>2.81</v>
+      </c>
+      <c r="AX202">
+        <v>1.75</v>
+      </c>
+      <c r="AY202">
+        <v>8</v>
+      </c>
+      <c r="AZ202">
+        <v>2.42</v>
+      </c>
+      <c r="BA202">
+        <v>1.16</v>
+      </c>
+      <c r="BB202">
+        <v>1.32</v>
+      </c>
+      <c r="BC202">
+        <v>1.61</v>
+      </c>
+      <c r="BD202">
+        <v>2.02</v>
+      </c>
+      <c r="BE202">
+        <v>2.62</v>
+      </c>
+      <c r="BF202">
+        <v>3</v>
+      </c>
+      <c r="BG202">
+        <v>4</v>
+      </c>
+      <c r="BH202">
+        <v>5</v>
+      </c>
+      <c r="BI202">
+        <v>2</v>
+      </c>
+      <c r="BJ202">
+        <v>8</v>
+      </c>
+      <c r="BK202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2808862</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44989.625</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>71</v>
+      </c>
+      <c r="H203" t="s">
+        <v>76</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>84</v>
+      </c>
+      <c r="P203" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q203">
+        <v>3</v>
+      </c>
+      <c r="R203">
+        <v>7</v>
+      </c>
+      <c r="S203">
+        <v>10</v>
+      </c>
+      <c r="T203">
+        <v>6.85</v>
+      </c>
+      <c r="U203">
+        <v>2.44</v>
+      </c>
+      <c r="V203">
+        <v>1.88</v>
+      </c>
+      <c r="W203">
+        <v>1.33</v>
+      </c>
+      <c r="X203">
+        <v>3.2</v>
+      </c>
+      <c r="Y203">
+        <v>2.54</v>
+      </c>
+      <c r="Z203">
+        <v>1.49</v>
+      </c>
+      <c r="AA203">
+        <v>6.1</v>
+      </c>
+      <c r="AB203">
+        <v>1.11</v>
+      </c>
+      <c r="AC203">
+        <v>7.75</v>
+      </c>
+      <c r="AD203">
+        <v>5</v>
+      </c>
+      <c r="AE203">
+        <v>1.37</v>
+      </c>
+      <c r="AF203">
+        <v>1.02</v>
+      </c>
+      <c r="AG203">
+        <v>15</v>
+      </c>
+      <c r="AH203">
+        <v>1.21</v>
+      </c>
+      <c r="AI203">
+        <v>3.82</v>
+      </c>
+      <c r="AJ203">
+        <v>1.63</v>
+      </c>
+      <c r="AK203">
+        <v>2.1</v>
+      </c>
+      <c r="AL203">
+        <v>1.99</v>
+      </c>
+      <c r="AM203">
+        <v>1.78</v>
+      </c>
+      <c r="AN203">
+        <v>3.02</v>
+      </c>
+      <c r="AO203">
+        <v>1.18</v>
+      </c>
+      <c r="AP203">
+        <v>1.08</v>
+      </c>
+      <c r="AQ203">
+        <v>1.55</v>
+      </c>
+      <c r="AR203">
+        <v>1.55</v>
+      </c>
+      <c r="AS203">
+        <v>1.42</v>
+      </c>
+      <c r="AT203">
+        <v>1.67</v>
+      </c>
+      <c r="AU203">
+        <v>1.58</v>
+      </c>
+      <c r="AV203">
+        <v>1.61</v>
+      </c>
+      <c r="AW203">
+        <v>3.19</v>
+      </c>
+      <c r="AX203">
+        <v>4.9</v>
+      </c>
+      <c r="AY203">
+        <v>10.5</v>
+      </c>
+      <c r="AZ203">
+        <v>1.27</v>
+      </c>
+      <c r="BA203">
+        <v>1.21</v>
+      </c>
+      <c r="BB203">
+        <v>1.43</v>
+      </c>
+      <c r="BC203">
+        <v>1.75</v>
+      </c>
+      <c r="BD203">
+        <v>2.2</v>
+      </c>
+      <c r="BE203">
+        <v>2.84</v>
+      </c>
+      <c r="BF203">
+        <v>5</v>
+      </c>
+      <c r="BG203">
+        <v>8</v>
+      </c>
+      <c r="BH203">
+        <v>2</v>
+      </c>
+      <c r="BI203">
+        <v>10</v>
+      </c>
+      <c r="BJ203">
+        <v>7</v>
+      </c>
+      <c r="BK203">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2808863</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44989.72916666666</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>72</v>
+      </c>
+      <c r="H204" t="s">
+        <v>68</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>2</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>3</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204" t="s">
+        <v>207</v>
+      </c>
+      <c r="P204" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q204">
+        <v>4</v>
+      </c>
+      <c r="R204">
+        <v>8</v>
+      </c>
+      <c r="S204">
+        <v>12</v>
+      </c>
+      <c r="T204">
+        <v>8</v>
+      </c>
+      <c r="U204">
+        <v>2.37</v>
+      </c>
+      <c r="V204">
+        <v>1.75</v>
+      </c>
+      <c r="W204">
+        <v>1.33</v>
+      </c>
+      <c r="X204">
+        <v>3</v>
+      </c>
+      <c r="Y204">
+        <v>2.4</v>
+      </c>
+      <c r="Z204">
+        <v>1.5</v>
+      </c>
+      <c r="AA204">
+        <v>5.5</v>
+      </c>
+      <c r="AB204">
+        <v>1.13</v>
+      </c>
+      <c r="AC204">
+        <v>9.5</v>
+      </c>
+      <c r="AD204">
+        <v>5.5</v>
+      </c>
+      <c r="AE204">
+        <v>1.3</v>
+      </c>
+      <c r="AF204">
+        <v>1.02</v>
+      </c>
+      <c r="AG204">
+        <v>15</v>
+      </c>
+      <c r="AH204">
+        <v>1.2</v>
+      </c>
+      <c r="AI204">
+        <v>4</v>
+      </c>
+      <c r="AJ204">
+        <v>1.61</v>
+      </c>
+      <c r="AK204">
+        <v>2.13</v>
+      </c>
+      <c r="AL204">
+        <v>2.1</v>
+      </c>
+      <c r="AM204">
+        <v>1.65</v>
+      </c>
+      <c r="AN204">
+        <v>3.4</v>
+      </c>
+      <c r="AO204">
+        <v>1.17</v>
+      </c>
+      <c r="AP204">
+        <v>1.05</v>
+      </c>
+      <c r="AQ204">
+        <v>1.1</v>
+      </c>
+      <c r="AR204">
+        <v>2.18</v>
+      </c>
+      <c r="AS204">
+        <v>1</v>
+      </c>
+      <c r="AT204">
+        <v>2.25</v>
+      </c>
+      <c r="AU204">
+        <v>1.73</v>
+      </c>
+      <c r="AV204">
+        <v>2.02</v>
+      </c>
+      <c r="AW204">
+        <v>3.75</v>
+      </c>
+      <c r="AX204">
+        <v>6.75</v>
+      </c>
+      <c r="AY204">
+        <v>12.25</v>
+      </c>
+      <c r="AZ204">
+        <v>1.17</v>
+      </c>
+      <c r="BA204">
+        <v>1.21</v>
+      </c>
+      <c r="BB204">
+        <v>1.43</v>
+      </c>
+      <c r="BC204">
+        <v>1.75</v>
+      </c>
+      <c r="BD204">
+        <v>2.2</v>
+      </c>
+      <c r="BE204">
+        <v>2.84</v>
+      </c>
+      <c r="BF204">
+        <v>5</v>
+      </c>
+      <c r="BG204">
+        <v>6</v>
+      </c>
+      <c r="BH204">
+        <v>4</v>
+      </c>
+      <c r="BI204">
+        <v>5</v>
+      </c>
+      <c r="BJ204">
+        <v>9</v>
+      </c>
+      <c r="BK204">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2808861</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44990.52083333334</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>73</v>
+      </c>
+      <c r="H205" t="s">
+        <v>80</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>212</v>
+      </c>
+      <c r="P205" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q205">
+        <v>12</v>
+      </c>
+      <c r="R205">
+        <v>8</v>
+      </c>
+      <c r="S205">
+        <v>20</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>2.05</v>
+      </c>
+      <c r="V205">
+        <v>4.33</v>
+      </c>
+      <c r="W205">
+        <v>1.44</v>
+      </c>
+      <c r="X205">
+        <v>2.6</v>
+      </c>
+      <c r="Y205">
+        <v>3</v>
+      </c>
+      <c r="Z205">
+        <v>1.34</v>
+      </c>
+      <c r="AA205">
+        <v>8</v>
+      </c>
+      <c r="AB205">
+        <v>1.07</v>
+      </c>
+      <c r="AC205">
+        <v>2.01</v>
+      </c>
+      <c r="AD205">
+        <v>3.42</v>
+      </c>
+      <c r="AE205">
+        <v>3.62</v>
+      </c>
+      <c r="AF205">
+        <v>1.06</v>
+      </c>
+      <c r="AG205">
+        <v>9.5</v>
+      </c>
+      <c r="AH205">
+        <v>1.36</v>
+      </c>
+      <c r="AI205">
+        <v>3.2</v>
+      </c>
+      <c r="AJ205">
+        <v>1.93</v>
+      </c>
+      <c r="AK205">
+        <v>1.75</v>
+      </c>
+      <c r="AL205">
+        <v>1.88</v>
+      </c>
+      <c r="AM205">
+        <v>1.8</v>
+      </c>
+      <c r="AN205">
+        <v>1.24</v>
+      </c>
+      <c r="AO205">
+        <v>1.3</v>
+      </c>
+      <c r="AP205">
+        <v>1.83</v>
+      </c>
+      <c r="AQ205">
+        <v>1.18</v>
+      </c>
+      <c r="AR205">
+        <v>0.45</v>
+      </c>
+      <c r="AS205">
+        <v>1.33</v>
+      </c>
+      <c r="AT205">
+        <v>0.42</v>
+      </c>
+      <c r="AU205">
+        <v>1.66</v>
+      </c>
+      <c r="AV205">
+        <v>1.2</v>
+      </c>
+      <c r="AW205">
+        <v>2.86</v>
+      </c>
+      <c r="AX205">
+        <v>1.7</v>
+      </c>
+      <c r="AY205">
+        <v>8.1</v>
+      </c>
+      <c r="AZ205">
+        <v>2.71</v>
+      </c>
+      <c r="BA205">
+        <v>1.16</v>
+      </c>
+      <c r="BB205">
+        <v>1.32</v>
+      </c>
+      <c r="BC205">
+        <v>1.61</v>
+      </c>
+      <c r="BD205">
+        <v>2.02</v>
+      </c>
+      <c r="BE205">
+        <v>2.66</v>
+      </c>
+      <c r="BF205">
+        <v>6</v>
+      </c>
+      <c r="BG205">
+        <v>7</v>
+      </c>
+      <c r="BH205">
+        <v>1</v>
+      </c>
+      <c r="BI205">
+        <v>8</v>
+      </c>
+      <c r="BJ205">
+        <v>7</v>
+      </c>
+      <c r="BK205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2808872</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44990.625</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>69</v>
+      </c>
+      <c r="H206" t="s">
+        <v>79</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>3</v>
+      </c>
+      <c r="K206">
+        <v>3</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="N206">
+        <v>4</v>
+      </c>
+      <c r="O206" t="s">
+        <v>108</v>
+      </c>
+      <c r="P206" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q206">
+        <v>7</v>
+      </c>
+      <c r="R206">
+        <v>6</v>
+      </c>
+      <c r="S206">
+        <v>13</v>
+      </c>
+      <c r="T206">
+        <v>3.75</v>
+      </c>
+      <c r="U206">
+        <v>1.91</v>
+      </c>
+      <c r="V206">
+        <v>3.2</v>
+      </c>
+      <c r="W206">
+        <v>1.52</v>
+      </c>
+      <c r="X206">
+        <v>2.46</v>
+      </c>
+      <c r="Y206">
+        <v>3.44</v>
+      </c>
+      <c r="Z206">
+        <v>1.29</v>
+      </c>
+      <c r="AA206">
+        <v>9.4</v>
+      </c>
+      <c r="AB206">
+        <v>1.04</v>
+      </c>
+      <c r="AC206">
+        <v>2.9</v>
+      </c>
+      <c r="AD206">
+        <v>3.05</v>
+      </c>
+      <c r="AE206">
+        <v>2.48</v>
+      </c>
+      <c r="AF206">
+        <v>1.09</v>
+      </c>
+      <c r="AG206">
+        <v>6</v>
+      </c>
+      <c r="AH206">
+        <v>1.44</v>
+      </c>
+      <c r="AI206">
+        <v>2.6</v>
+      </c>
+      <c r="AJ206">
+        <v>2.43</v>
+      </c>
+      <c r="AK206">
+        <v>1.52</v>
+      </c>
+      <c r="AL206">
+        <v>2</v>
+      </c>
+      <c r="AM206">
+        <v>1.73</v>
+      </c>
+      <c r="AN206">
+        <v>1.44</v>
+      </c>
+      <c r="AO206">
+        <v>1.32</v>
+      </c>
+      <c r="AP206">
+        <v>1.38</v>
+      </c>
+      <c r="AQ206">
+        <v>0.91</v>
+      </c>
+      <c r="AR206">
+        <v>1.1</v>
+      </c>
+      <c r="AS206">
+        <v>0.83</v>
+      </c>
+      <c r="AT206">
+        <v>1.27</v>
+      </c>
+      <c r="AU206">
+        <v>1.29</v>
+      </c>
+      <c r="AV206">
+        <v>1.35</v>
+      </c>
+      <c r="AW206">
+        <v>2.64</v>
+      </c>
+      <c r="AX206">
+        <v>2.09</v>
+      </c>
+      <c r="AY206">
+        <v>7.7</v>
+      </c>
+      <c r="AZ206">
+        <v>2.09</v>
+      </c>
+      <c r="BA206">
+        <v>1.23</v>
+      </c>
+      <c r="BB206">
+        <v>1.46</v>
+      </c>
+      <c r="BC206">
+        <v>1.83</v>
+      </c>
+      <c r="BD206">
+        <v>2.32</v>
+      </c>
+      <c r="BE206">
+        <v>3.08</v>
+      </c>
+      <c r="BF206">
+        <v>6</v>
+      </c>
+      <c r="BG206">
+        <v>5</v>
+      </c>
+      <c r="BH206">
+        <v>12</v>
+      </c>
+      <c r="BI206">
+        <v>7</v>
+      </c>
+      <c r="BJ206">
+        <v>18</v>
+      </c>
+      <c r="BK206">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2808866</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44990.72916666666</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>70</v>
+      </c>
+      <c r="H207" t="s">
+        <v>66</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>213</v>
+      </c>
+      <c r="P207" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q207">
+        <v>9</v>
+      </c>
+      <c r="R207">
+        <v>4</v>
+      </c>
+      <c r="S207">
+        <v>13</v>
+      </c>
+      <c r="T207">
+        <v>1.87</v>
+      </c>
+      <c r="U207">
+        <v>2.3</v>
+      </c>
+      <c r="V207">
+        <v>6.75</v>
+      </c>
+      <c r="W207">
+        <v>1.35</v>
+      </c>
+      <c r="X207">
+        <v>2.95</v>
+      </c>
+      <c r="Y207">
+        <v>2.55</v>
+      </c>
+      <c r="Z207">
+        <v>1.46</v>
+      </c>
+      <c r="AA207">
+        <v>6.25</v>
+      </c>
+      <c r="AB207">
+        <v>1.1</v>
+      </c>
+      <c r="AC207">
+        <v>1.33</v>
+      </c>
+      <c r="AD207">
+        <v>4.5</v>
+      </c>
+      <c r="AE207">
+        <v>9</v>
+      </c>
+      <c r="AF207">
+        <v>1.01</v>
+      </c>
+      <c r="AG207">
+        <v>9.9</v>
+      </c>
+      <c r="AH207">
+        <v>1.24</v>
+      </c>
+      <c r="AI207">
+        <v>3.55</v>
+      </c>
+      <c r="AJ207">
+        <v>1.8</v>
+      </c>
+      <c r="AK207">
+        <v>1.94</v>
+      </c>
+      <c r="AL207">
+        <v>2.07</v>
+      </c>
+      <c r="AM207">
+        <v>1.72</v>
+      </c>
+      <c r="AN207">
+        <v>1.08</v>
+      </c>
+      <c r="AO207">
+        <v>1.19</v>
+      </c>
+      <c r="AP207">
+        <v>2.9</v>
+      </c>
+      <c r="AQ207">
+        <v>2.2</v>
+      </c>
+      <c r="AR207">
+        <v>0.73</v>
+      </c>
+      <c r="AS207">
+        <v>2.27</v>
+      </c>
+      <c r="AT207">
+        <v>0.67</v>
+      </c>
+      <c r="AU207">
+        <v>2.11</v>
+      </c>
+      <c r="AV207">
+        <v>1.24</v>
+      </c>
+      <c r="AW207">
+        <v>3.35</v>
+      </c>
+      <c r="AX207">
+        <v>1.27</v>
+      </c>
+      <c r="AY207">
+        <v>10.5</v>
+      </c>
+      <c r="AZ207">
+        <v>5.05</v>
+      </c>
+      <c r="BA207">
+        <v>1.21</v>
+      </c>
+      <c r="BB207">
+        <v>1.41</v>
+      </c>
+      <c r="BC207">
+        <v>1.73</v>
+      </c>
+      <c r="BD207">
+        <v>2.17</v>
+      </c>
+      <c r="BE207">
+        <v>2.79</v>
+      </c>
+      <c r="BF207">
+        <v>12</v>
+      </c>
+      <c r="BG207">
+        <v>5</v>
+      </c>
+      <c r="BH207">
+        <v>3</v>
+      </c>
+      <c r="BI207">
+        <v>1</v>
+      </c>
+      <c r="BJ207">
+        <v>15</v>
+      </c>
+      <c r="BK207">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,9 @@
     <t>['36', '79']</t>
   </si>
   <si>
+    <t>['67', '76']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -914,6 +917,9 @@
   </si>
   <si>
     <t>['22', '30', '44']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2474,7 +2480,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3137,7 +3143,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3238,7 +3244,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3516,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT12">
         <v>2.55</v>
@@ -3811,7 +3817,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4002,7 +4008,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4384,7 +4390,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4766,7 +4772,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4957,7 +4963,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5148,7 +5154,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5808,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
         <v>0.91</v>
@@ -6485,7 +6491,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6676,7 +6682,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6867,7 +6873,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7058,7 +7064,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7440,7 +7446,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7631,7 +7637,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8013,7 +8019,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8204,7 +8210,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8294,7 +8300,7 @@
         <v>2.83</v>
       </c>
       <c r="AT37">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU37">
         <v>2.43</v>
@@ -8586,7 +8592,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8968,7 +8974,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9246,7 +9252,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
         <v>1.09</v>
@@ -9350,7 +9356,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9822,7 +9828,7 @@
         <v>1.67</v>
       </c>
       <c r="AT45">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU45">
         <v>1.23</v>
@@ -9923,7 +9929,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10305,7 +10311,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10878,7 +10884,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11069,7 +11075,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11260,7 +11266,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11451,7 +11457,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12024,7 +12030,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12305,7 +12311,7 @@
         <v>0.83</v>
       </c>
       <c r="AT58">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU58">
         <v>1.23</v>
@@ -12406,7 +12412,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12788,7 +12794,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13066,7 +13072,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
         <v>0.67</v>
@@ -13552,7 +13558,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -14125,7 +14131,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14698,7 +14704,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15080,7 +15086,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15271,7 +15277,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15462,7 +15468,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15653,7 +15659,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15844,7 +15850,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16226,7 +16232,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16417,7 +16423,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16504,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
         <v>1.25</v>
@@ -16799,7 +16805,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16990,7 +16996,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17181,7 +17187,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17271,7 +17277,7 @@
         <v>1.73</v>
       </c>
       <c r="AT84">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU84">
         <v>1.27</v>
@@ -17372,7 +17378,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17563,7 +17569,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17945,7 +17951,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18136,7 +18142,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18327,7 +18333,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -19664,7 +19670,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -19942,7 +19948,7 @@
         <v>0.6</v>
       </c>
       <c r="AS98">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT98">
         <v>0.67</v>
@@ -20046,7 +20052,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20237,7 +20243,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20428,7 +20434,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20900,7 +20906,7 @@
         <v>2.45</v>
       </c>
       <c r="AT103">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU103">
         <v>1.94</v>
@@ -21574,7 +21580,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21765,7 +21771,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22147,7 +22153,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22338,7 +22344,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22720,7 +22726,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22911,7 +22917,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23102,7 +23108,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23189,7 +23195,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
         <v>1.25</v>
@@ -23484,7 +23490,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23675,7 +23681,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24057,7 +24063,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24720,7 +24726,7 @@
         <v>2.45</v>
       </c>
       <c r="AT123">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU123">
         <v>2.42</v>
@@ -24821,7 +24827,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25394,7 +25400,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -26436,7 +26442,7 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT132">
         <v>2.25</v>
@@ -26540,7 +26546,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27495,7 +27501,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27585,7 +27591,7 @@
         <v>1.73</v>
       </c>
       <c r="AT138">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU138">
         <v>1.35</v>
@@ -27877,7 +27883,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28068,7 +28074,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28259,7 +28265,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -29214,7 +29220,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29405,7 +29411,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29596,7 +29602,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29978,7 +29984,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30065,7 +30071,7 @@
         <v>0.57</v>
       </c>
       <c r="AS151">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT151">
         <v>1.18</v>
@@ -30551,7 +30557,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30742,7 +30748,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30933,7 +30939,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31020,7 +31026,7 @@
         <v>0.63</v>
       </c>
       <c r="AS156">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT156">
         <v>0.45</v>
@@ -31124,7 +31130,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31888,7 +31894,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32079,7 +32085,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32461,7 +32467,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -33225,7 +33231,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33607,7 +33613,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33888,7 +33894,7 @@
         <v>1.42</v>
       </c>
       <c r="AT171">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU171">
         <v>1.61</v>
@@ -33989,7 +33995,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34944,7 +34950,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35135,7 +35141,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35326,7 +35332,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35899,7 +35905,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36090,7 +36096,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36180,7 +36186,7 @@
         <v>1</v>
       </c>
       <c r="AT183">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU183">
         <v>1.35</v>
@@ -36663,7 +36669,7 @@
         <v>168</v>
       </c>
       <c r="P186" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37132,7 +37138,7 @@
         <v>1.11</v>
       </c>
       <c r="AS188">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT188">
         <v>1.27</v>
@@ -37236,7 +37242,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38000,7 +38006,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38191,7 +38197,7 @@
         <v>84</v>
       </c>
       <c r="P194" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38573,7 +38579,7 @@
         <v>130</v>
       </c>
       <c r="P196" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38764,7 +38770,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39719,7 +39725,7 @@
         <v>84</v>
       </c>
       <c r="P202" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -39910,7 +39916,7 @@
         <v>84</v>
       </c>
       <c r="P203" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40101,7 +40107,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40483,7 +40489,7 @@
         <v>108</v>
       </c>
       <c r="P206" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -40816,6 +40822,197 @@
       </c>
       <c r="BK207">
         <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2808864</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44991.71875</v>
+      </c>
+      <c r="F208">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>75</v>
+      </c>
+      <c r="H208" t="s">
+        <v>82</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>214</v>
+      </c>
+      <c r="P208" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q208">
+        <v>4</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>6</v>
+      </c>
+      <c r="T208">
+        <v>2.7</v>
+      </c>
+      <c r="U208">
+        <v>1.93</v>
+      </c>
+      <c r="V208">
+        <v>4.2</v>
+      </c>
+      <c r="W208">
+        <v>1.52</v>
+      </c>
+      <c r="X208">
+        <v>2.35</v>
+      </c>
+      <c r="Y208">
+        <v>3.5</v>
+      </c>
+      <c r="Z208">
+        <v>1.26</v>
+      </c>
+      <c r="AA208">
+        <v>10</v>
+      </c>
+      <c r="AB208">
+        <v>1.05</v>
+      </c>
+      <c r="AC208">
+        <v>2.05</v>
+      </c>
+      <c r="AD208">
+        <v>3.1</v>
+      </c>
+      <c r="AE208">
+        <v>3.7</v>
+      </c>
+      <c r="AF208">
+        <v>1.1</v>
+      </c>
+      <c r="AG208">
+        <v>6.5</v>
+      </c>
+      <c r="AH208">
+        <v>1.44</v>
+      </c>
+      <c r="AI208">
+        <v>2.62</v>
+      </c>
+      <c r="AJ208">
+        <v>2.34</v>
+      </c>
+      <c r="AK208">
+        <v>1.56</v>
+      </c>
+      <c r="AL208">
+        <v>2.1</v>
+      </c>
+      <c r="AM208">
+        <v>1.65</v>
+      </c>
+      <c r="AN208">
+        <v>1.26</v>
+      </c>
+      <c r="AO208">
+        <v>1.32</v>
+      </c>
+      <c r="AP208">
+        <v>1.73</v>
+      </c>
+      <c r="AQ208">
+        <v>1.36</v>
+      </c>
+      <c r="AR208">
+        <v>0.7</v>
+      </c>
+      <c r="AS208">
+        <v>1.5</v>
+      </c>
+      <c r="AT208">
+        <v>0.64</v>
+      </c>
+      <c r="AU208">
+        <v>1.3</v>
+      </c>
+      <c r="AV208">
+        <v>1.05</v>
+      </c>
+      <c r="AW208">
+        <v>2.35</v>
+      </c>
+      <c r="AX208">
+        <v>1.56</v>
+      </c>
+      <c r="AY208">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ208">
+        <v>3.08</v>
+      </c>
+      <c r="BA208">
+        <v>1.21</v>
+      </c>
+      <c r="BB208">
+        <v>1.42</v>
+      </c>
+      <c r="BC208">
+        <v>1.76</v>
+      </c>
+      <c r="BD208">
+        <v>2.22</v>
+      </c>
+      <c r="BE208">
+        <v>2.93</v>
+      </c>
+      <c r="BF208">
+        <v>5</v>
+      </c>
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>3</v>
+      </c>
+      <c r="BI208">
+        <v>7</v>
+      </c>
+      <c r="BJ208">
+        <v>8</v>
+      </c>
+      <c r="BK208">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,9 @@
     <t>['67', '76']</t>
   </si>
   <si>
+    <t>['9', '31', '73']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -920,6 +923,9 @@
   </si>
   <si>
     <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['27', '67']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2185,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT5">
         <v>0.42</v>
@@ -2480,7 +2486,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3244,7 +3250,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3817,7 +3823,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4008,7 +4014,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4289,7 +4295,7 @@
         <v>2.17</v>
       </c>
       <c r="AT16">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4390,7 +4396,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4772,7 +4778,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4963,7 +4969,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5154,7 +5160,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5623,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT23">
         <v>1.67</v>
@@ -6491,7 +6497,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6581,7 +6587,7 @@
         <v>0.42</v>
       </c>
       <c r="AT28">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU28">
         <v>1.63</v>
@@ -6682,7 +6688,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6873,7 +6879,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7064,7 +7070,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7446,7 +7452,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7637,7 +7643,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -8019,7 +8025,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8210,7 +8216,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8592,7 +8598,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8974,7 +8980,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9356,7 +9362,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9929,7 +9935,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10311,7 +10317,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10780,7 +10786,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT50">
         <v>1.25</v>
@@ -10884,7 +10890,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -11075,7 +11081,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11266,7 +11272,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11457,7 +11463,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11738,7 +11744,7 @@
         <v>1.27</v>
       </c>
       <c r="AT55">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU55">
         <v>1.66</v>
@@ -12030,7 +12036,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12412,7 +12418,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12794,7 +12800,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13558,7 +13564,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13836,7 +13842,7 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT66">
         <v>2.25</v>
@@ -14131,7 +14137,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14221,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="AT68">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU68">
         <v>1.8</v>
@@ -14704,7 +14710,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15086,7 +15092,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15277,7 +15283,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15367,7 +15373,7 @@
         <v>1.33</v>
       </c>
       <c r="AT74">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU74">
         <v>1.65</v>
@@ -15468,7 +15474,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15659,7 +15665,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15850,7 +15856,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16232,7 +16238,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16423,7 +16429,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16805,7 +16811,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16996,7 +17002,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17083,7 +17089,7 @@
         <v>2.5</v>
       </c>
       <c r="AS83">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT83">
         <v>2.55</v>
@@ -17187,7 +17193,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17378,7 +17384,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17569,7 +17575,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17951,7 +17957,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18142,7 +18148,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18333,7 +18339,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -19569,7 +19575,7 @@
         <v>1.42</v>
       </c>
       <c r="AT96">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU96">
         <v>1.53</v>
@@ -19670,7 +19676,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20052,7 +20058,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20243,7 +20249,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20434,7 +20440,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20903,7 +20909,7 @@
         <v>0.2</v>
       </c>
       <c r="AS103">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT103">
         <v>0.64</v>
@@ -21580,7 +21586,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21771,7 +21777,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22153,7 +22159,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22344,7 +22350,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22726,7 +22732,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22917,7 +22923,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23108,7 +23114,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23490,7 +23496,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23681,7 +23687,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23771,7 +23777,7 @@
         <v>0.83</v>
       </c>
       <c r="AT118">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU118">
         <v>1.28</v>
@@ -24063,7 +24069,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24341,7 +24347,7 @@
         <v>1.5</v>
       </c>
       <c r="AS121">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT121">
         <v>1.09</v>
@@ -24827,7 +24833,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25400,7 +25406,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -26063,7 +26069,7 @@
         <v>1.83</v>
       </c>
       <c r="AT130">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU130">
         <v>1.18</v>
@@ -26546,7 +26552,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27501,7 +27507,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27883,7 +27889,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28074,7 +28080,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28265,7 +28271,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28352,7 +28358,7 @@
         <v>0.63</v>
       </c>
       <c r="AS142">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT142">
         <v>0.67</v>
@@ -29220,7 +29226,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29411,7 +29417,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29602,7 +29608,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29883,7 +29889,7 @@
         <v>1</v>
       </c>
       <c r="AT150">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU150">
         <v>1.68</v>
@@ -29984,7 +29990,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30557,7 +30563,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30748,7 +30754,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30939,7 +30945,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31130,7 +31136,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31411,7 +31417,7 @@
         <v>1.73</v>
       </c>
       <c r="AT158">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU158">
         <v>1.32</v>
@@ -31894,7 +31900,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32085,7 +32091,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32467,7 +32473,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -33231,7 +33237,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33509,7 +33515,7 @@
         <v>1.22</v>
       </c>
       <c r="AS169">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT169">
         <v>1.25</v>
@@ -33613,7 +33619,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33995,7 +34001,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34950,7 +34956,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35141,7 +35147,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35332,7 +35338,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35613,7 +35619,7 @@
         <v>1.73</v>
       </c>
       <c r="AT180">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU180">
         <v>1.36</v>
@@ -35905,7 +35911,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36096,7 +36102,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36565,7 +36571,7 @@
         <v>0.8</v>
       </c>
       <c r="AS185">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT185">
         <v>0.67</v>
@@ -36669,7 +36675,7 @@
         <v>168</v>
       </c>
       <c r="P186" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37242,7 +37248,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -38006,7 +38012,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38197,7 +38203,7 @@
         <v>84</v>
       </c>
       <c r="P194" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38579,7 +38585,7 @@
         <v>130</v>
       </c>
       <c r="P196" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38770,7 +38776,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -38857,7 +38863,7 @@
         <v>1</v>
       </c>
       <c r="AS197">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT197">
         <v>1.18</v>
@@ -39051,7 +39057,7 @@
         <v>2.45</v>
       </c>
       <c r="AT198">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU198">
         <v>2.34</v>
@@ -39725,7 +39731,7 @@
         <v>84</v>
       </c>
       <c r="P202" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -39916,7 +39922,7 @@
         <v>84</v>
       </c>
       <c r="P203" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40107,7 +40113,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40489,7 +40495,7 @@
         <v>108</v>
       </c>
       <c r="P206" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -40871,7 +40877,7 @@
         <v>214</v>
       </c>
       <c r="P208" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41013,6 +41019,197 @@
       </c>
       <c r="BK208">
         <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2808874</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44995.71875</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>68</v>
+      </c>
+      <c r="H209" t="s">
+        <v>67</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>3</v>
+      </c>
+      <c r="L209">
+        <v>3</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>5</v>
+      </c>
+      <c r="O209" t="s">
+        <v>215</v>
+      </c>
+      <c r="P209" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q209">
+        <v>6</v>
+      </c>
+      <c r="R209">
+        <v>3</v>
+      </c>
+      <c r="S209">
+        <v>9</v>
+      </c>
+      <c r="T209">
+        <v>1.58</v>
+      </c>
+      <c r="U209">
+        <v>2.65</v>
+      </c>
+      <c r="V209">
+        <v>9.25</v>
+      </c>
+      <c r="W209">
+        <v>1.28</v>
+      </c>
+      <c r="X209">
+        <v>3.4</v>
+      </c>
+      <c r="Y209">
+        <v>2.25</v>
+      </c>
+      <c r="Z209">
+        <v>1.55</v>
+      </c>
+      <c r="AA209">
+        <v>5</v>
+      </c>
+      <c r="AB209">
+        <v>1.14</v>
+      </c>
+      <c r="AC209">
+        <v>1.17</v>
+      </c>
+      <c r="AD209">
+        <v>6</v>
+      </c>
+      <c r="AE209">
+        <v>15</v>
+      </c>
+      <c r="AF209">
+        <v>1.02</v>
+      </c>
+      <c r="AG209">
+        <v>17</v>
+      </c>
+      <c r="AH209">
+        <v>1.18</v>
+      </c>
+      <c r="AI209">
+        <v>4.75</v>
+      </c>
+      <c r="AJ209">
+        <v>1.57</v>
+      </c>
+      <c r="AK209">
+        <v>2.3</v>
+      </c>
+      <c r="AL209">
+        <v>2.3</v>
+      </c>
+      <c r="AM209">
+        <v>1.53</v>
+      </c>
+      <c r="AN209">
+        <v>1.03</v>
+      </c>
+      <c r="AO209">
+        <v>1.11</v>
+      </c>
+      <c r="AP209">
+        <v>4.4</v>
+      </c>
+      <c r="AQ209">
+        <v>2.45</v>
+      </c>
+      <c r="AR209">
+        <v>0.92</v>
+      </c>
+      <c r="AS209">
+        <v>2.5</v>
+      </c>
+      <c r="AT209">
+        <v>0.85</v>
+      </c>
+      <c r="AU209">
+        <v>1.97</v>
+      </c>
+      <c r="AV209">
+        <v>1.34</v>
+      </c>
+      <c r="AW209">
+        <v>3.31</v>
+      </c>
+      <c r="AX209">
+        <v>1.14</v>
+      </c>
+      <c r="AY209">
+        <v>12</v>
+      </c>
+      <c r="AZ209">
+        <v>7</v>
+      </c>
+      <c r="BA209">
+        <v>1.14</v>
+      </c>
+      <c r="BB209">
+        <v>1.28</v>
+      </c>
+      <c r="BC209">
+        <v>1.54</v>
+      </c>
+      <c r="BD209">
+        <v>1.98</v>
+      </c>
+      <c r="BE209">
+        <v>2.45</v>
+      </c>
+      <c r="BF209">
+        <v>6</v>
+      </c>
+      <c r="BG209">
+        <v>4</v>
+      </c>
+      <c r="BH209">
+        <v>7</v>
+      </c>
+      <c r="BI209">
+        <v>7</v>
+      </c>
+      <c r="BJ209">
+        <v>13</v>
+      </c>
+      <c r="BK209">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,12 @@
     <t>['9', '31', '73']</t>
   </si>
   <si>
+    <t>['31', '73']</t>
+  </si>
+  <si>
+    <t>['15', '45+3']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -926,6 +932,15 @@
   </si>
   <si>
     <t>['27', '67']</t>
+  </si>
+  <si>
+    <t>['50', '77']</t>
+  </si>
+  <si>
+    <t>['43', '49', '65', '75']</t>
+  </si>
+  <si>
+    <t>['45+3', '50', '57']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1636,7 @@
         <v>2.83</v>
       </c>
       <c r="AT2">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1809,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT3">
         <v>1.25</v>
@@ -2486,7 +2501,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2955,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT9">
         <v>1.27</v>
@@ -3250,7 +3265,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3340,7 +3355,7 @@
         <v>1.73</v>
       </c>
       <c r="AT11">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3531,7 +3546,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3823,7 +3838,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -3913,7 +3928,7 @@
         <v>1.67</v>
       </c>
       <c r="AT14">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4014,7 +4029,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4101,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT15">
         <v>2.25</v>
@@ -4292,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>0.85</v>
@@ -4396,7 +4411,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4483,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT17">
         <v>1.25</v>
@@ -4677,7 +4692,7 @@
         <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4778,7 +4793,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4865,10 +4880,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT19">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4969,7 +4984,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5160,7 +5175,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5250,7 +5265,7 @@
         <v>0.83</v>
       </c>
       <c r="AT21">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU21">
         <v>1</v>
@@ -5438,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
         <v>1.25</v>
@@ -6497,7 +6512,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6584,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT28">
         <v>0.85</v>
@@ -6688,7 +6703,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6775,10 +6790,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT29">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU29">
         <v>1.52</v>
@@ -6879,7 +6894,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6969,7 +6984,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU30">
         <v>1.9</v>
@@ -7070,7 +7085,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7351,7 +7366,7 @@
         <v>1.73</v>
       </c>
       <c r="AT32">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7452,7 +7467,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7542,7 +7557,7 @@
         <v>1.83</v>
       </c>
       <c r="AT33">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU33">
         <v>0.93</v>
@@ -7643,7 +7658,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7730,7 +7745,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT34">
         <v>2.25</v>
@@ -7921,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT35">
         <v>1.55</v>
@@ -8025,7 +8040,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8112,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT36">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU36">
         <v>0.71</v>
@@ -8216,7 +8231,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8598,7 +8613,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8980,7 +8995,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9261,7 +9276,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU42">
         <v>0.97</v>
@@ -9362,7 +9377,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9935,7 +9950,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10022,7 +10037,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT46">
         <v>0.67</v>
@@ -10213,10 +10228,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU47">
         <v>1.62</v>
@@ -10317,7 +10332,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10407,7 +10422,7 @@
         <v>1.73</v>
       </c>
       <c r="AT48">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10598,7 +10613,7 @@
         <v>2.45</v>
       </c>
       <c r="AT49">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU49">
         <v>2.74</v>
@@ -10890,7 +10905,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10977,7 +10992,7 @@
         <v>2</v>
       </c>
       <c r="AS51">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT51">
         <v>1.55</v>
@@ -11081,7 +11096,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11272,7 +11287,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11359,10 +11374,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT53">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU53">
         <v>1.74</v>
@@ -11463,7 +11478,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11550,10 +11565,10 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT54">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU54">
         <v>0.92</v>
@@ -11741,7 +11756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT55">
         <v>0.85</v>
@@ -12036,7 +12051,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12418,7 +12433,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12800,7 +12815,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13564,7 +13579,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13654,7 +13669,7 @@
         <v>2.45</v>
       </c>
       <c r="AT65">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU65">
         <v>2.47</v>
@@ -13845,7 +13860,7 @@
         <v>2.5</v>
       </c>
       <c r="AT66">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU66">
         <v>2.03</v>
@@ -14033,10 +14048,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT67">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU67">
         <v>1.91</v>
@@ -14137,7 +14152,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14224,7 +14239,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT68">
         <v>0.85</v>
@@ -14415,10 +14430,10 @@
         <v>3</v>
       </c>
       <c r="AS69">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT69">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU69">
         <v>1.52</v>
@@ -14606,10 +14621,10 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT70">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU70">
         <v>1.23</v>
@@ -14710,7 +14725,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14797,10 +14812,10 @@
         <v>1.33</v>
       </c>
       <c r="AS71">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT71">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU71">
         <v>1.69</v>
@@ -15092,7 +15107,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15179,7 +15194,7 @@
         <v>2.33</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT73">
         <v>1.55</v>
@@ -15283,7 +15298,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15474,7 +15489,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15665,7 +15680,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15856,7 +15871,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16134,7 +16149,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT78">
         <v>1.27</v>
@@ -16238,7 +16253,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16429,7 +16444,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16811,7 +16826,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17002,7 +17017,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17092,7 +17107,7 @@
         <v>2.5</v>
       </c>
       <c r="AT83">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU83">
         <v>2</v>
@@ -17193,7 +17208,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17384,7 +17399,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17474,7 +17489,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU85">
         <v>1.02</v>
@@ -17575,7 +17590,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17853,10 +17868,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT87">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU87">
         <v>1.74</v>
@@ -17957,7 +17972,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18044,10 +18059,10 @@
         <v>0</v>
       </c>
       <c r="AS88">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT88">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU88">
         <v>1.95</v>
@@ -18148,7 +18163,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18235,10 +18250,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT89">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU89">
         <v>1.68</v>
@@ -18339,7 +18354,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18426,7 +18441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>0.91</v>
@@ -18617,10 +18632,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT91">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU91">
         <v>1.13</v>
@@ -18808,7 +18823,7 @@
         <v>0.2</v>
       </c>
       <c r="AS92">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT92">
         <v>0.42</v>
@@ -19676,7 +19691,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20058,7 +20073,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20148,7 +20163,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU99">
         <v>1.68</v>
@@ -20249,7 +20264,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20336,7 +20351,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT100">
         <v>0.67</v>
@@ -20440,7 +20455,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20530,7 +20545,7 @@
         <v>1.33</v>
       </c>
       <c r="AT101">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU101">
         <v>1.57</v>
@@ -20718,10 +20733,10 @@
         <v>1.2</v>
       </c>
       <c r="AS102">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT102">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU102">
         <v>1.89</v>
@@ -21291,7 +21306,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT105">
         <v>0.91</v>
@@ -21482,7 +21497,7 @@
         <v>0.17</v>
       </c>
       <c r="AS106">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT106">
         <v>0.67</v>
@@ -21586,7 +21601,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21777,7 +21792,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21867,7 +21882,7 @@
         <v>1</v>
       </c>
       <c r="AT108">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU108">
         <v>1</v>
@@ -22055,10 +22070,10 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT109">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -22159,7 +22174,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22350,7 +22365,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22628,7 +22643,7 @@
         <v>0.67</v>
       </c>
       <c r="AS112">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT112">
         <v>0.42</v>
@@ -22732,7 +22747,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22819,7 +22834,7 @@
         <v>1.33</v>
       </c>
       <c r="AS113">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT113">
         <v>1.25</v>
@@ -22923,7 +22938,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23013,7 +23028,7 @@
         <v>1.42</v>
       </c>
       <c r="AT114">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU114">
         <v>1.69</v>
@@ -23114,7 +23129,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23395,7 +23410,7 @@
         <v>2.83</v>
       </c>
       <c r="AT116">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU116">
         <v>3.02</v>
@@ -23496,7 +23511,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23687,7 +23702,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23965,7 +23980,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT119">
         <v>0.42</v>
@@ -24069,7 +24084,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24350,7 +24365,7 @@
         <v>2.5</v>
       </c>
       <c r="AT121">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU121">
         <v>2.01</v>
@@ -24541,7 +24556,7 @@
         <v>1.33</v>
       </c>
       <c r="AT122">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU122">
         <v>1.64</v>
@@ -24833,7 +24848,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24920,7 +24935,7 @@
         <v>0.29</v>
       </c>
       <c r="AS124">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT124">
         <v>0.67</v>
@@ -25111,7 +25126,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT125">
         <v>1.27</v>
@@ -25305,7 +25320,7 @@
         <v>2.27</v>
       </c>
       <c r="AT126">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU126">
         <v>2.49</v>
@@ -25406,7 +25421,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25496,7 +25511,7 @@
         <v>0.83</v>
       </c>
       <c r="AT127">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU127">
         <v>1.34</v>
@@ -25687,7 +25702,7 @@
         <v>2.83</v>
       </c>
       <c r="AT128">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU128">
         <v>2.82</v>
@@ -26257,7 +26272,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT131">
         <v>0.67</v>
@@ -26552,7 +26567,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26639,7 +26654,7 @@
         <v>1.71</v>
       </c>
       <c r="AS133">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT133">
         <v>1.25</v>
@@ -26830,7 +26845,7 @@
         <v>1.43</v>
       </c>
       <c r="AS134">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT134">
         <v>1.67</v>
@@ -27024,7 +27039,7 @@
         <v>1.67</v>
       </c>
       <c r="AT135">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU135">
         <v>1.36</v>
@@ -27215,7 +27230,7 @@
         <v>1.42</v>
       </c>
       <c r="AT136">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU136">
         <v>1.5</v>
@@ -27403,7 +27418,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT137">
         <v>0.42</v>
@@ -27507,7 +27522,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27594,7 +27609,7 @@
         <v>0.14</v>
       </c>
       <c r="AS138">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT138">
         <v>0.64</v>
@@ -27889,7 +27904,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27976,10 +27991,10 @@
         <v>1.29</v>
       </c>
       <c r="AS140">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT140">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU140">
         <v>1.86</v>
@@ -28080,7 +28095,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28271,7 +28286,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28934,7 +28949,7 @@
         <v>1.83</v>
       </c>
       <c r="AT145">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU145">
         <v>1.28</v>
@@ -29226,7 +29241,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29313,10 +29328,10 @@
         <v>2.63</v>
       </c>
       <c r="AS147">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT147">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU147">
         <v>1.66</v>
@@ -29417,7 +29432,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29507,7 +29522,7 @@
         <v>0.83</v>
       </c>
       <c r="AT148">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU148">
         <v>1.25</v>
@@ -29608,7 +29623,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29695,7 +29710,7 @@
         <v>1.88</v>
       </c>
       <c r="AS149">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT149">
         <v>2.25</v>
@@ -29886,7 +29901,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT150">
         <v>0.85</v>
@@ -29990,7 +30005,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30080,7 +30095,7 @@
         <v>1.5</v>
       </c>
       <c r="AT151">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU151">
         <v>1.19</v>
@@ -30563,7 +30578,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30650,10 +30665,10 @@
         <v>2.38</v>
       </c>
       <c r="AS154">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT154">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU154">
         <v>1.62</v>
@@ -30754,7 +30769,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30841,7 +30856,7 @@
         <v>0.89</v>
       </c>
       <c r="AS155">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT155">
         <v>0.67</v>
@@ -30945,7 +30960,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31035,7 +31050,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU156">
         <v>1.23</v>
@@ -31136,7 +31151,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31226,7 +31241,7 @@
         <v>1.67</v>
       </c>
       <c r="AT157">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU157">
         <v>1.38</v>
@@ -31605,7 +31620,7 @@
         <v>1.56</v>
       </c>
       <c r="AS159">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT159">
         <v>1.25</v>
@@ -31796,10 +31811,10 @@
         <v>0.88</v>
       </c>
       <c r="AS160">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT160">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU160">
         <v>1.6</v>
@@ -31900,7 +31915,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -31990,7 +32005,7 @@
         <v>1.83</v>
       </c>
       <c r="AT161">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU161">
         <v>1.42</v>
@@ -32091,7 +32106,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32178,7 +32193,7 @@
         <v>2</v>
       </c>
       <c r="AS162">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT162">
         <v>2.25</v>
@@ -32372,7 +32387,7 @@
         <v>2.45</v>
       </c>
       <c r="AT163">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU163">
         <v>2.38</v>
@@ -32473,7 +32488,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -33133,7 +33148,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS167">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT167">
         <v>0.42</v>
@@ -33237,7 +33252,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33619,7 +33634,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -33709,7 +33724,7 @@
         <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU170">
         <v>1.61</v>
@@ -34001,7 +34016,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34088,7 +34103,7 @@
         <v>1.22</v>
       </c>
       <c r="AS172">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT172">
         <v>1.67</v>
@@ -34470,7 +34485,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT174">
         <v>1.25</v>
@@ -34664,7 +34679,7 @@
         <v>1.83</v>
       </c>
       <c r="AT175">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU175">
         <v>1.33</v>
@@ -34852,10 +34867,10 @@
         <v>1</v>
       </c>
       <c r="AS176">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT176">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU176">
         <v>1.5</v>
@@ -34956,7 +34971,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35046,7 +35061,7 @@
         <v>1.73</v>
       </c>
       <c r="AT177">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU177">
         <v>1.37</v>
@@ -35147,7 +35162,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35338,7 +35353,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35425,10 +35440,10 @@
         <v>2.4</v>
       </c>
       <c r="AS179">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT179">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU179">
         <v>1.57</v>
@@ -35616,7 +35631,7 @@
         <v>1.1</v>
       </c>
       <c r="AS180">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT180">
         <v>0.85</v>
@@ -35911,7 +35926,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36102,7 +36117,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36675,7 +36690,7 @@
         <v>168</v>
       </c>
       <c r="P186" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36956,7 +36971,7 @@
         <v>2.27</v>
       </c>
       <c r="AT187">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU187">
         <v>2.21</v>
@@ -37248,7 +37263,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37335,7 +37350,7 @@
         <v>1.4</v>
       </c>
       <c r="AS189">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT189">
         <v>1.67</v>
@@ -37720,7 +37735,7 @@
         <v>1.73</v>
       </c>
       <c r="AT191">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU191">
         <v>1.44</v>
@@ -38012,7 +38027,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38099,10 +38114,10 @@
         <v>0.5</v>
       </c>
       <c r="AS193">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT193">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU193">
         <v>1.6</v>
@@ -38203,7 +38218,7 @@
         <v>84</v>
       </c>
       <c r="P194" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38290,10 +38305,10 @@
         <v>2.5</v>
       </c>
       <c r="AS194">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT194">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU194">
         <v>1.9</v>
@@ -38481,7 +38496,7 @@
         <v>1.36</v>
       </c>
       <c r="AS195">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT195">
         <v>1.25</v>
@@ -38585,7 +38600,7 @@
         <v>130</v>
       </c>
       <c r="P196" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38672,7 +38687,7 @@
         <v>0.7</v>
       </c>
       <c r="AS196">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT196">
         <v>0.91</v>
@@ -38776,7 +38791,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -38866,7 +38881,7 @@
         <v>2.5</v>
       </c>
       <c r="AT197">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU197">
         <v>2.01</v>
@@ -39245,10 +39260,10 @@
         <v>2.45</v>
       </c>
       <c r="AS199">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT199">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU199">
         <v>1.48</v>
@@ -39439,7 +39454,7 @@
         <v>1.67</v>
       </c>
       <c r="AT200">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU200">
         <v>1.46</v>
@@ -39731,7 +39746,7 @@
         <v>84</v>
       </c>
       <c r="P202" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -39922,7 +39937,7 @@
         <v>84</v>
       </c>
       <c r="P203" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40113,7 +40128,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40200,7 +40215,7 @@
         <v>2.18</v>
       </c>
       <c r="AS204">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT204">
         <v>2.25</v>
@@ -40495,7 +40510,7 @@
         <v>108</v>
       </c>
       <c r="P206" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -40877,7 +40892,7 @@
         <v>214</v>
       </c>
       <c r="P208" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41068,7 +41083,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41210,6 +41225,1152 @@
       </c>
       <c r="BK209">
         <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2808876</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44996.52083333334</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>72</v>
+      </c>
+      <c r="H210" t="s">
+        <v>71</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>216</v>
+      </c>
+      <c r="P210" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q210">
+        <v>3</v>
+      </c>
+      <c r="R210">
+        <v>7</v>
+      </c>
+      <c r="S210">
+        <v>10</v>
+      </c>
+      <c r="T210">
+        <v>2.85</v>
+      </c>
+      <c r="U210">
+        <v>1.98</v>
+      </c>
+      <c r="V210">
+        <v>3.75</v>
+      </c>
+      <c r="W210">
+        <v>1.47</v>
+      </c>
+      <c r="X210">
+        <v>2.5</v>
+      </c>
+      <c r="Y210">
+        <v>3.2</v>
+      </c>
+      <c r="Z210">
+        <v>1.3</v>
+      </c>
+      <c r="AA210">
+        <v>8.75</v>
+      </c>
+      <c r="AB210">
+        <v>1.06</v>
+      </c>
+      <c r="AC210">
+        <v>2.22</v>
+      </c>
+      <c r="AD210">
+        <v>3.35</v>
+      </c>
+      <c r="AE210">
+        <v>3.35</v>
+      </c>
+      <c r="AF210">
+        <v>1.08</v>
+      </c>
+      <c r="AG210">
+        <v>9</v>
+      </c>
+      <c r="AH210">
+        <v>1.42</v>
+      </c>
+      <c r="AI210">
+        <v>2.9</v>
+      </c>
+      <c r="AJ210">
+        <v>2.15</v>
+      </c>
+      <c r="AK210">
+        <v>1.62</v>
+      </c>
+      <c r="AL210">
+        <v>1.95</v>
+      </c>
+      <c r="AM210">
+        <v>1.73</v>
+      </c>
+      <c r="AN210">
+        <v>1.33</v>
+      </c>
+      <c r="AO210">
+        <v>1.32</v>
+      </c>
+      <c r="AP210">
+        <v>1.63</v>
+      </c>
+      <c r="AQ210">
+        <v>1</v>
+      </c>
+      <c r="AR210">
+        <v>0.82</v>
+      </c>
+      <c r="AS210">
+        <v>1.17</v>
+      </c>
+      <c r="AT210">
+        <v>0.75</v>
+      </c>
+      <c r="AU210">
+        <v>1.68</v>
+      </c>
+      <c r="AV210">
+        <v>1.27</v>
+      </c>
+      <c r="AW210">
+        <v>2.95</v>
+      </c>
+      <c r="AX210">
+        <v>1.91</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>2.1</v>
+      </c>
+      <c r="BA210">
+        <v>1.16</v>
+      </c>
+      <c r="BB210">
+        <v>1.33</v>
+      </c>
+      <c r="BC210">
+        <v>1.62</v>
+      </c>
+      <c r="BD210">
+        <v>2.04</v>
+      </c>
+      <c r="BE210">
+        <v>2.69</v>
+      </c>
+      <c r="BF210">
+        <v>9</v>
+      </c>
+      <c r="BG210">
+        <v>3</v>
+      </c>
+      <c r="BH210">
+        <v>1</v>
+      </c>
+      <c r="BI210">
+        <v>14</v>
+      </c>
+      <c r="BJ210">
+        <v>10</v>
+      </c>
+      <c r="BK210">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2808878</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44996.52083333334</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>82</v>
+      </c>
+      <c r="H211" t="s">
+        <v>69</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>1</v>
+      </c>
+      <c r="O211" t="s">
+        <v>185</v>
+      </c>
+      <c r="P211" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q211">
+        <v>9</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>11</v>
+      </c>
+      <c r="T211">
+        <v>2.87</v>
+      </c>
+      <c r="U211">
+        <v>1.98</v>
+      </c>
+      <c r="V211">
+        <v>3.7</v>
+      </c>
+      <c r="W211">
+        <v>1.46</v>
+      </c>
+      <c r="X211">
+        <v>2.5</v>
+      </c>
+      <c r="Y211">
+        <v>3.2</v>
+      </c>
+      <c r="Z211">
+        <v>1.31</v>
+      </c>
+      <c r="AA211">
+        <v>8.75</v>
+      </c>
+      <c r="AB211">
+        <v>1.06</v>
+      </c>
+      <c r="AC211">
+        <v>2.42</v>
+      </c>
+      <c r="AD211">
+        <v>3.35</v>
+      </c>
+      <c r="AE211">
+        <v>2.95</v>
+      </c>
+      <c r="AF211">
+        <v>1.08</v>
+      </c>
+      <c r="AG211">
+        <v>8.5</v>
+      </c>
+      <c r="AH211">
+        <v>1.44</v>
+      </c>
+      <c r="AI211">
+        <v>2.8</v>
+      </c>
+      <c r="AJ211">
+        <v>2.2</v>
+      </c>
+      <c r="AK211">
+        <v>1.6</v>
+      </c>
+      <c r="AL211">
+        <v>1.98</v>
+      </c>
+      <c r="AM211">
+        <v>1.73</v>
+      </c>
+      <c r="AN211">
+        <v>1.34</v>
+      </c>
+      <c r="AO211">
+        <v>1.32</v>
+      </c>
+      <c r="AP211">
+        <v>1.61</v>
+      </c>
+      <c r="AQ211">
+        <v>0.42</v>
+      </c>
+      <c r="AR211">
+        <v>0.45</v>
+      </c>
+      <c r="AS211">
+        <v>0.62</v>
+      </c>
+      <c r="AT211">
+        <v>0.42</v>
+      </c>
+      <c r="AU211">
+        <v>1.66</v>
+      </c>
+      <c r="AV211">
+        <v>1.17</v>
+      </c>
+      <c r="AW211">
+        <v>2.83</v>
+      </c>
+      <c r="AX211">
+        <v>1.69</v>
+      </c>
+      <c r="AY211">
+        <v>8.5</v>
+      </c>
+      <c r="AZ211">
+        <v>2.62</v>
+      </c>
+      <c r="BA211">
+        <v>1.12</v>
+      </c>
+      <c r="BB211">
+        <v>1.27</v>
+      </c>
+      <c r="BC211">
+        <v>1.52</v>
+      </c>
+      <c r="BD211">
+        <v>1.93</v>
+      </c>
+      <c r="BE211">
+        <v>2.42</v>
+      </c>
+      <c r="BF211">
+        <v>5</v>
+      </c>
+      <c r="BG211">
+        <v>5</v>
+      </c>
+      <c r="BH211">
+        <v>3</v>
+      </c>
+      <c r="BI211">
+        <v>5</v>
+      </c>
+      <c r="BJ211">
+        <v>8</v>
+      </c>
+      <c r="BK211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2808882</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44996.625</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>79</v>
+      </c>
+      <c r="H212" t="s">
+        <v>81</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>84</v>
+      </c>
+      <c r="P212" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q212">
+        <v>12</v>
+      </c>
+      <c r="R212">
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <v>12</v>
+      </c>
+      <c r="T212">
+        <v>2.73</v>
+      </c>
+      <c r="U212">
+        <v>2.03</v>
+      </c>
+      <c r="V212">
+        <v>4.52</v>
+      </c>
+      <c r="W212">
+        <v>1.44</v>
+      </c>
+      <c r="X212">
+        <v>2.55</v>
+      </c>
+      <c r="Y212">
+        <v>3.1</v>
+      </c>
+      <c r="Z212">
+        <v>1.32</v>
+      </c>
+      <c r="AA212">
+        <v>8.25</v>
+      </c>
+      <c r="AB212">
+        <v>1.06</v>
+      </c>
+      <c r="AC212">
+        <v>2.37</v>
+      </c>
+      <c r="AD212">
+        <v>2.43</v>
+      </c>
+      <c r="AE212">
+        <v>3.65</v>
+      </c>
+      <c r="AF212">
+        <v>1.08</v>
+      </c>
+      <c r="AG212">
+        <v>8.5</v>
+      </c>
+      <c r="AH212">
+        <v>1.42</v>
+      </c>
+      <c r="AI212">
+        <v>2.9</v>
+      </c>
+      <c r="AJ212">
+        <v>2.25</v>
+      </c>
+      <c r="AK212">
+        <v>1.57</v>
+      </c>
+      <c r="AL212">
+        <v>1.95</v>
+      </c>
+      <c r="AM212">
+        <v>1.73</v>
+      </c>
+      <c r="AN212">
+        <v>1.26</v>
+      </c>
+      <c r="AO212">
+        <v>1.31</v>
+      </c>
+      <c r="AP212">
+        <v>1.77</v>
+      </c>
+      <c r="AQ212">
+        <v>2.17</v>
+      </c>
+      <c r="AR212">
+        <v>1.09</v>
+      </c>
+      <c r="AS212">
+        <v>2</v>
+      </c>
+      <c r="AT212">
+        <v>1.25</v>
+      </c>
+      <c r="AU212">
+        <v>1.44</v>
+      </c>
+      <c r="AV212">
+        <v>1.24</v>
+      </c>
+      <c r="AW212">
+        <v>2.68</v>
+      </c>
+      <c r="AX212">
+        <v>1.59</v>
+      </c>
+      <c r="AY212">
+        <v>8.5</v>
+      </c>
+      <c r="AZ212">
+        <v>2.89</v>
+      </c>
+      <c r="BA212">
+        <v>1.24</v>
+      </c>
+      <c r="BB212">
+        <v>1.47</v>
+      </c>
+      <c r="BC212">
+        <v>1.83</v>
+      </c>
+      <c r="BD212">
+        <v>2.32</v>
+      </c>
+      <c r="BE212">
+        <v>3.04</v>
+      </c>
+      <c r="BF212">
+        <v>9</v>
+      </c>
+      <c r="BG212">
+        <v>5</v>
+      </c>
+      <c r="BH212">
+        <v>18</v>
+      </c>
+      <c r="BI212">
+        <v>5</v>
+      </c>
+      <c r="BJ212">
+        <v>27</v>
+      </c>
+      <c r="BK212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2808881</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44996.72916666666</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>78</v>
+      </c>
+      <c r="H213" t="s">
+        <v>70</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>4</v>
+      </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213" t="s">
+        <v>84</v>
+      </c>
+      <c r="P213" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q213">
+        <v>3</v>
+      </c>
+      <c r="R213">
+        <v>3</v>
+      </c>
+      <c r="S213">
+        <v>6</v>
+      </c>
+      <c r="T213">
+        <v>4.33</v>
+      </c>
+      <c r="U213">
+        <v>2.15</v>
+      </c>
+      <c r="V213">
+        <v>2.6</v>
+      </c>
+      <c r="W213">
+        <v>1.39</v>
+      </c>
+      <c r="X213">
+        <v>2.8</v>
+      </c>
+      <c r="Y213">
+        <v>2.9</v>
+      </c>
+      <c r="Z213">
+        <v>1.37</v>
+      </c>
+      <c r="AA213">
+        <v>7.35</v>
+      </c>
+      <c r="AB213">
+        <v>1.06</v>
+      </c>
+      <c r="AC213">
+        <v>3.9</v>
+      </c>
+      <c r="AD213">
+        <v>3.4</v>
+      </c>
+      <c r="AE213">
+        <v>1.95</v>
+      </c>
+      <c r="AF213">
+        <v>1.05</v>
+      </c>
+      <c r="AG213">
+        <v>11</v>
+      </c>
+      <c r="AH213">
+        <v>1.33</v>
+      </c>
+      <c r="AI213">
+        <v>3.4</v>
+      </c>
+      <c r="AJ213">
+        <v>1.95</v>
+      </c>
+      <c r="AK213">
+        <v>1.75</v>
+      </c>
+      <c r="AL213">
+        <v>1.83</v>
+      </c>
+      <c r="AM213">
+        <v>1.85</v>
+      </c>
+      <c r="AN213">
+        <v>1.9</v>
+      </c>
+      <c r="AO213">
+        <v>1.25</v>
+      </c>
+      <c r="AP213">
+        <v>1.26</v>
+      </c>
+      <c r="AQ213">
+        <v>1.27</v>
+      </c>
+      <c r="AR213">
+        <v>2.25</v>
+      </c>
+      <c r="AS213">
+        <v>1.17</v>
+      </c>
+      <c r="AT213">
+        <v>2.31</v>
+      </c>
+      <c r="AU213">
+        <v>1.84</v>
+      </c>
+      <c r="AV213">
+        <v>1.88</v>
+      </c>
+      <c r="AW213">
+        <v>3.72</v>
+      </c>
+      <c r="AX213">
+        <v>2.76</v>
+      </c>
+      <c r="AY213">
+        <v>8.5</v>
+      </c>
+      <c r="AZ213">
+        <v>1.64</v>
+      </c>
+      <c r="BA213">
+        <v>1.14</v>
+      </c>
+      <c r="BB213">
+        <v>1.29</v>
+      </c>
+      <c r="BC213">
+        <v>1.55</v>
+      </c>
+      <c r="BD213">
+        <v>2</v>
+      </c>
+      <c r="BE213">
+        <v>2.5</v>
+      </c>
+      <c r="BF213">
+        <v>2</v>
+      </c>
+      <c r="BG213">
+        <v>8</v>
+      </c>
+      <c r="BH213">
+        <v>11</v>
+      </c>
+      <c r="BI213">
+        <v>4</v>
+      </c>
+      <c r="BJ213">
+        <v>13</v>
+      </c>
+      <c r="BK213">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2808875</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44997.52083333334</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>66</v>
+      </c>
+      <c r="H214" t="s">
+        <v>73</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>3</v>
+      </c>
+      <c r="O214" t="s">
+        <v>217</v>
+      </c>
+      <c r="P214" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q214">
+        <v>3</v>
+      </c>
+      <c r="R214">
+        <v>11</v>
+      </c>
+      <c r="S214">
+        <v>14</v>
+      </c>
+      <c r="T214">
+        <v>3.1</v>
+      </c>
+      <c r="U214">
+        <v>2.05</v>
+      </c>
+      <c r="V214">
+        <v>3.75</v>
+      </c>
+      <c r="W214">
+        <v>1.45</v>
+      </c>
+      <c r="X214">
+        <v>2.55</v>
+      </c>
+      <c r="Y214">
+        <v>3.15</v>
+      </c>
+      <c r="Z214">
+        <v>1.32</v>
+      </c>
+      <c r="AA214">
+        <v>8.35</v>
+      </c>
+      <c r="AB214">
+        <v>1.05</v>
+      </c>
+      <c r="AC214">
+        <v>2.37</v>
+      </c>
+      <c r="AD214">
+        <v>3</v>
+      </c>
+      <c r="AE214">
+        <v>2.68</v>
+      </c>
+      <c r="AF214">
+        <v>1.08</v>
+      </c>
+      <c r="AG214">
+        <v>9</v>
+      </c>
+      <c r="AH214">
+        <v>1.4</v>
+      </c>
+      <c r="AI214">
+        <v>3</v>
+      </c>
+      <c r="AJ214">
+        <v>2.12</v>
+      </c>
+      <c r="AK214">
+        <v>1.64</v>
+      </c>
+      <c r="AL214">
+        <v>1.85</v>
+      </c>
+      <c r="AM214">
+        <v>1.92</v>
+      </c>
+      <c r="AN214">
+        <v>1.4</v>
+      </c>
+      <c r="AO214">
+        <v>1.34</v>
+      </c>
+      <c r="AP214">
+        <v>1.58</v>
+      </c>
+      <c r="AQ214">
+        <v>1.73</v>
+      </c>
+      <c r="AR214">
+        <v>1.18</v>
+      </c>
+      <c r="AS214">
+        <v>1.83</v>
+      </c>
+      <c r="AT214">
+        <v>1.08</v>
+      </c>
+      <c r="AU214">
+        <v>1.31</v>
+      </c>
+      <c r="AV214">
+        <v>1.47</v>
+      </c>
+      <c r="AW214">
+        <v>2.78</v>
+      </c>
+      <c r="AX214">
+        <v>2.23</v>
+      </c>
+      <c r="AY214">
+        <v>7.9</v>
+      </c>
+      <c r="AZ214">
+        <v>1.95</v>
+      </c>
+      <c r="BA214">
+        <v>1.16</v>
+      </c>
+      <c r="BB214">
+        <v>1.32</v>
+      </c>
+      <c r="BC214">
+        <v>1.61</v>
+      </c>
+      <c r="BD214">
+        <v>2.02</v>
+      </c>
+      <c r="BE214">
+        <v>2.66</v>
+      </c>
+      <c r="BF214">
+        <v>6</v>
+      </c>
+      <c r="BG214">
+        <v>7</v>
+      </c>
+      <c r="BH214">
+        <v>4</v>
+      </c>
+      <c r="BI214">
+        <v>5</v>
+      </c>
+      <c r="BJ214">
+        <v>10</v>
+      </c>
+      <c r="BK214">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2808879</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44997.625</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>80</v>
+      </c>
+      <c r="H215" t="s">
+        <v>65</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>3</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>84</v>
+      </c>
+      <c r="P215" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>10</v>
+      </c>
+      <c r="S215">
+        <v>12</v>
+      </c>
+      <c r="T215">
+        <v>8.5</v>
+      </c>
+      <c r="U215">
+        <v>2.7</v>
+      </c>
+      <c r="V215">
+        <v>1.7</v>
+      </c>
+      <c r="W215">
+        <v>1.28</v>
+      </c>
+      <c r="X215">
+        <v>3.4</v>
+      </c>
+      <c r="Y215">
+        <v>2.37</v>
+      </c>
+      <c r="Z215">
+        <v>1.53</v>
+      </c>
+      <c r="AA215">
+        <v>5.4</v>
+      </c>
+      <c r="AB215">
+        <v>1.12</v>
+      </c>
+      <c r="AC215">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD215">
+        <v>5.35</v>
+      </c>
+      <c r="AE215">
+        <v>1.23</v>
+      </c>
+      <c r="AF215">
+        <v>1.02</v>
+      </c>
+      <c r="AG215">
+        <v>17</v>
+      </c>
+      <c r="AH215">
+        <v>1.2</v>
+      </c>
+      <c r="AI215">
+        <v>4.5</v>
+      </c>
+      <c r="AJ215">
+        <v>1.66</v>
+      </c>
+      <c r="AK215">
+        <v>2.25</v>
+      </c>
+      <c r="AL215">
+        <v>2.15</v>
+      </c>
+      <c r="AM215">
+        <v>1.68</v>
+      </c>
+      <c r="AN215">
+        <v>3.3</v>
+      </c>
+      <c r="AO215">
+        <v>1.15</v>
+      </c>
+      <c r="AP215">
+        <v>1.04</v>
+      </c>
+      <c r="AQ215">
+        <v>1</v>
+      </c>
+      <c r="AR215">
+        <v>2.55</v>
+      </c>
+      <c r="AS215">
+        <v>0.92</v>
+      </c>
+      <c r="AT215">
+        <v>2.58</v>
+      </c>
+      <c r="AU215">
+        <v>1.73</v>
+      </c>
+      <c r="AV215">
+        <v>1.78</v>
+      </c>
+      <c r="AW215">
+        <v>3.51</v>
+      </c>
+      <c r="AX215">
+        <v>5.1</v>
+      </c>
+      <c r="AY215">
+        <v>11</v>
+      </c>
+      <c r="AZ215">
+        <v>1.26</v>
+      </c>
+      <c r="BA215">
+        <v>1.17</v>
+      </c>
+      <c r="BB215">
+        <v>1.33</v>
+      </c>
+      <c r="BC215">
+        <v>1.61</v>
+      </c>
+      <c r="BD215">
+        <v>2.02</v>
+      </c>
+      <c r="BE215">
+        <v>2.61</v>
+      </c>
+      <c r="BF215">
+        <v>3</v>
+      </c>
+      <c r="BG215">
+        <v>11</v>
+      </c>
+      <c r="BH215">
+        <v>2</v>
+      </c>
+      <c r="BI215">
+        <v>5</v>
+      </c>
+      <c r="BJ215">
+        <v>5</v>
+      </c>
+      <c r="BK215">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,12 @@
     <t>['15', '45+3']</t>
   </si>
   <si>
+    <t>['17', '43', '90+3']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['9', '18', '83']</t>
   </si>
   <si>
@@ -722,9 +728,6 @@
   </si>
   <si>
     <t>['41', '44']</t>
-  </si>
-  <si>
-    <t>['36']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -1302,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK215"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2400,7 +2403,7 @@
         <v>0.83</v>
       </c>
       <c r="AT6">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2501,7 +2504,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2782,7 +2785,7 @@
         <v>1.42</v>
       </c>
       <c r="AT8">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3265,7 +3268,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3352,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT11">
         <v>2.31</v>
@@ -3734,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT13">
         <v>0.67</v>
@@ -3838,7 +3841,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>8</v>
@@ -4029,7 +4032,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4411,7 +4414,7 @@
         <v>92</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4793,7 +4796,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4984,7 +4987,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5175,7 +5178,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5838,7 +5841,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU24">
         <v>0.85</v>
@@ -6512,7 +6515,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6703,7 +6706,7 @@
         <v>84</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6894,7 +6897,7 @@
         <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -7085,7 +7088,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7172,7 +7175,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT31">
         <v>1.25</v>
@@ -7363,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT32">
         <v>0.42</v>
@@ -7467,7 +7470,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7658,7 +7661,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7939,7 +7942,7 @@
         <v>2</v>
       </c>
       <c r="AT35">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU35">
         <v>1.46</v>
@@ -8040,7 +8043,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8231,7 +8234,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>13</v>
@@ -8613,7 +8616,7 @@
         <v>84</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8995,7 +8998,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>6</v>
@@ -9377,7 +9380,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9950,7 +9953,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -10332,7 +10335,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -10419,7 +10422,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT48">
         <v>2.58</v>
@@ -10610,7 +10613,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT49">
         <v>0.75</v>
@@ -10905,7 +10908,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -10995,7 +10998,7 @@
         <v>0.62</v>
       </c>
       <c r="AT51">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU51">
         <v>1.45</v>
@@ -11096,7 +11099,7 @@
         <v>115</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11186,7 +11189,7 @@
         <v>1.83</v>
       </c>
       <c r="AT52">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU52">
         <v>1.09</v>
@@ -11287,7 +11290,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11478,7 +11481,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12051,7 +12054,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12433,7 +12436,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12815,7 +12818,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -13579,7 +13582,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13666,7 +13669,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT65">
         <v>1.08</v>
@@ -14152,7 +14155,7 @@
         <v>92</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14725,7 +14728,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15003,10 +15006,10 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT72">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU72">
         <v>1.32</v>
@@ -15107,7 +15110,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15197,7 +15200,7 @@
         <v>0.92</v>
       </c>
       <c r="AT73">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU73">
         <v>1.71</v>
@@ -15298,7 +15301,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -15489,7 +15492,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15680,7 +15683,7 @@
         <v>84</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15871,7 +15874,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -16253,7 +16256,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q79">
         <v>8</v>
@@ -16444,7 +16447,7 @@
         <v>84</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16826,7 +16829,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -17017,7 +17020,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17208,7 +17211,7 @@
         <v>137</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17295,7 +17298,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT84">
         <v>0.64</v>
@@ -17399,7 +17402,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17590,7 +17593,7 @@
         <v>138</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>7</v>
@@ -17677,10 +17680,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT86">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU86">
         <v>2.37</v>
@@ -17972,7 +17975,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18163,7 +18166,7 @@
         <v>140</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18354,7 +18357,7 @@
         <v>141</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18444,7 +18447,7 @@
         <v>2</v>
       </c>
       <c r="AT90">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU90">
         <v>1.35</v>
@@ -19691,7 +19694,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20073,7 +20076,7 @@
         <v>84</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20264,7 +20267,7 @@
         <v>149</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20455,7 +20458,7 @@
         <v>115</v>
       </c>
       <c r="P101" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -21115,7 +21118,7 @@
         <v>1.4</v>
       </c>
       <c r="AS104">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT104">
         <v>1.27</v>
@@ -21309,7 +21312,7 @@
         <v>1.83</v>
       </c>
       <c r="AT105">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU105">
         <v>1.25</v>
@@ -21601,7 +21604,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21691,7 +21694,7 @@
         <v>2.27</v>
       </c>
       <c r="AT107">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU107">
         <v>2.45</v>
@@ -21792,7 +21795,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -22174,7 +22177,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22365,7 +22368,7 @@
         <v>152</v>
       </c>
       <c r="P111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>5</v>
@@ -22747,7 +22750,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22938,7 +22941,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23129,7 +23132,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23511,7 +23514,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23598,7 +23601,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT117">
         <v>1.67</v>
@@ -23702,7 +23705,7 @@
         <v>158</v>
       </c>
       <c r="P118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24084,7 +24087,7 @@
         <v>160</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24174,7 +24177,7 @@
         <v>1.42</v>
       </c>
       <c r="AT120">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU120">
         <v>1.6</v>
@@ -24744,7 +24747,7 @@
         <v>0.17</v>
       </c>
       <c r="AS123">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT123">
         <v>0.64</v>
@@ -24848,7 +24851,7 @@
         <v>84</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -25421,7 +25424,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25890,7 +25893,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT129">
         <v>1.25</v>
@@ -26567,7 +26570,7 @@
         <v>168</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -27522,7 +27525,7 @@
         <v>84</v>
       </c>
       <c r="P138" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27803,7 +27806,7 @@
         <v>2.27</v>
       </c>
       <c r="AT139">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU139">
         <v>2.39</v>
@@ -27904,7 +27907,7 @@
         <v>173</v>
       </c>
       <c r="P140" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -28095,7 +28098,7 @@
         <v>174</v>
       </c>
       <c r="P141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28286,7 +28289,7 @@
         <v>175</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28567,7 +28570,7 @@
         <v>1</v>
       </c>
       <c r="AT143">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU143">
         <v>0.98</v>
@@ -29137,7 +29140,7 @@
         <v>1.38</v>
       </c>
       <c r="AS146">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT146">
         <v>1.25</v>
@@ -29241,7 +29244,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29432,7 +29435,7 @@
         <v>84</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -29623,7 +29626,7 @@
         <v>84</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -30005,7 +30008,7 @@
         <v>172</v>
       </c>
       <c r="P151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30283,7 +30286,7 @@
         <v>0.88</v>
       </c>
       <c r="AS152">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT152">
         <v>0.67</v>
@@ -30578,7 +30581,7 @@
         <v>84</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30769,7 +30772,7 @@
         <v>182</v>
       </c>
       <c r="P155" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30960,7 +30963,7 @@
         <v>183</v>
       </c>
       <c r="P156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31151,7 +31154,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>7</v>
@@ -31429,7 +31432,7 @@
         <v>1.22</v>
       </c>
       <c r="AS158">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT158">
         <v>0.85</v>
@@ -31915,7 +31918,7 @@
         <v>84</v>
       </c>
       <c r="P161" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32106,7 +32109,7 @@
         <v>84</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -32384,7 +32387,7 @@
         <v>2.67</v>
       </c>
       <c r="AS163">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT163">
         <v>2.31</v>
@@ -32488,7 +32491,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q164">
         <v>7</v>
@@ -32578,7 +32581,7 @@
         <v>0.83</v>
       </c>
       <c r="AT164">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU164">
         <v>1.22</v>
@@ -32769,7 +32772,7 @@
         <v>2.83</v>
       </c>
       <c r="AT165">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU165">
         <v>2.81</v>
@@ -33252,7 +33255,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33634,7 +33637,7 @@
         <v>194</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q170">
         <v>13</v>
@@ -34016,7 +34019,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34297,7 +34300,7 @@
         <v>1</v>
       </c>
       <c r="AT173">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU173">
         <v>1.08</v>
@@ -34971,7 +34974,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35058,7 +35061,7 @@
         <v>0.78</v>
       </c>
       <c r="AS177">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT177">
         <v>1.08</v>
@@ -35162,7 +35165,7 @@
         <v>197</v>
       </c>
       <c r="P178" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q178">
         <v>8</v>
@@ -35249,7 +35252,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT178">
         <v>2.25</v>
@@ -35353,7 +35356,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35825,7 +35828,7 @@
         <v>1.67</v>
       </c>
       <c r="AT181">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU181">
         <v>1.45</v>
@@ -35926,7 +35929,7 @@
         <v>169</v>
       </c>
       <c r="P182" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36117,7 +36120,7 @@
         <v>95</v>
       </c>
       <c r="P183" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q183">
         <v>5</v>
@@ -36690,7 +36693,7 @@
         <v>168</v>
       </c>
       <c r="P186" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37263,7 +37266,7 @@
         <v>203</v>
       </c>
       <c r="P189" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -37544,7 +37547,7 @@
         <v>2.83</v>
       </c>
       <c r="AT190">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU190">
         <v>2.74</v>
@@ -37732,7 +37735,7 @@
         <v>0.9</v>
       </c>
       <c r="AS191">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT191">
         <v>0.75</v>
@@ -37926,7 +37929,7 @@
         <v>1.83</v>
       </c>
       <c r="AT192">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU192">
         <v>1.34</v>
@@ -38027,7 +38030,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38218,7 +38221,7 @@
         <v>84</v>
       </c>
       <c r="P194" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38600,7 +38603,7 @@
         <v>130</v>
       </c>
       <c r="P196" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -38690,7 +38693,7 @@
         <v>0.62</v>
       </c>
       <c r="AT196">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU196">
         <v>1.63</v>
@@ -38791,7 +38794,7 @@
         <v>208</v>
       </c>
       <c r="P197" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q197">
         <v>3</v>
@@ -39069,7 +39072,7 @@
         <v>1</v>
       </c>
       <c r="AS198">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT198">
         <v>0.85</v>
@@ -39746,7 +39749,7 @@
         <v>84</v>
       </c>
       <c r="P202" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -39937,7 +39940,7 @@
         <v>84</v>
       </c>
       <c r="P203" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40128,7 +40131,7 @@
         <v>207</v>
       </c>
       <c r="P204" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -40510,7 +40513,7 @@
         <v>108</v>
       </c>
       <c r="P206" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q206">
         <v>7</v>
@@ -40892,7 +40895,7 @@
         <v>214</v>
       </c>
       <c r="P208" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -41083,7 +41086,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41656,7 +41659,7 @@
         <v>84</v>
       </c>
       <c r="P212" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q212">
         <v>12</v>
@@ -41847,7 +41850,7 @@
         <v>84</v>
       </c>
       <c r="P213" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q213">
         <v>3</v>
@@ -42229,7 +42232,7 @@
         <v>84</v>
       </c>
       <c r="P215" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42371,6 +42374,388 @@
       </c>
       <c r="BK215">
         <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2808880</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44997.72916666666</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>76</v>
+      </c>
+      <c r="H216" t="s">
+        <v>77</v>
+      </c>
+      <c r="I216">
+        <v>2</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>3</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>218</v>
+      </c>
+      <c r="P216" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q216">
+        <v>4</v>
+      </c>
+      <c r="R216">
+        <v>1</v>
+      </c>
+      <c r="S216">
+        <v>5</v>
+      </c>
+      <c r="T216">
+        <v>1.66</v>
+      </c>
+      <c r="U216">
+        <v>2.7</v>
+      </c>
+      <c r="V216">
+        <v>9.5</v>
+      </c>
+      <c r="W216">
+        <v>1.28</v>
+      </c>
+      <c r="X216">
+        <v>3.4</v>
+      </c>
+      <c r="Y216">
+        <v>2.37</v>
+      </c>
+      <c r="Z216">
+        <v>1.53</v>
+      </c>
+      <c r="AA216">
+        <v>5.4</v>
+      </c>
+      <c r="AB216">
+        <v>1.12</v>
+      </c>
+      <c r="AC216">
+        <v>1.2</v>
+      </c>
+      <c r="AD216">
+        <v>5.6</v>
+      </c>
+      <c r="AE216">
+        <v>10</v>
+      </c>
+      <c r="AF216">
+        <v>1.02</v>
+      </c>
+      <c r="AG216">
+        <v>17</v>
+      </c>
+      <c r="AH216">
+        <v>1.2</v>
+      </c>
+      <c r="AI216">
+        <v>4.5</v>
+      </c>
+      <c r="AJ216">
+        <v>1.63</v>
+      </c>
+      <c r="AK216">
+        <v>2.3</v>
+      </c>
+      <c r="AL216">
+        <v>2.25</v>
+      </c>
+      <c r="AM216">
+        <v>1.65</v>
+      </c>
+      <c r="AN216">
+        <v>1.01</v>
+      </c>
+      <c r="AO216">
+        <v>1.09</v>
+      </c>
+      <c r="AP216">
+        <v>4</v>
+      </c>
+      <c r="AQ216">
+        <v>2.45</v>
+      </c>
+      <c r="AR216">
+        <v>0.91</v>
+      </c>
+      <c r="AS216">
+        <v>2.5</v>
+      </c>
+      <c r="AT216">
+        <v>0.83</v>
+      </c>
+      <c r="AU216">
+        <v>2.37</v>
+      </c>
+      <c r="AV216">
+        <v>1.13</v>
+      </c>
+      <c r="AW216">
+        <v>3.5</v>
+      </c>
+      <c r="AX216">
+        <v>1.21</v>
+      </c>
+      <c r="AY216">
+        <v>11.5</v>
+      </c>
+      <c r="AZ216">
+        <v>6</v>
+      </c>
+      <c r="BA216">
+        <v>1.22</v>
+      </c>
+      <c r="BB216">
+        <v>1.43</v>
+      </c>
+      <c r="BC216">
+        <v>1.76</v>
+      </c>
+      <c r="BD216">
+        <v>2.2</v>
+      </c>
+      <c r="BE216">
+        <v>2.88</v>
+      </c>
+      <c r="BF216">
+        <v>6</v>
+      </c>
+      <c r="BG216">
+        <v>0</v>
+      </c>
+      <c r="BH216">
+        <v>10</v>
+      </c>
+      <c r="BI216">
+        <v>2</v>
+      </c>
+      <c r="BJ216">
+        <v>16</v>
+      </c>
+      <c r="BK216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2808877</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44998.71875</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>74</v>
+      </c>
+      <c r="H217" t="s">
+        <v>75</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>219</v>
+      </c>
+      <c r="P217" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q217">
+        <v>3</v>
+      </c>
+      <c r="R217">
+        <v>5</v>
+      </c>
+      <c r="S217">
+        <v>8</v>
+      </c>
+      <c r="T217">
+        <v>2.88</v>
+      </c>
+      <c r="U217">
+        <v>1.95</v>
+      </c>
+      <c r="V217">
+        <v>4.33</v>
+      </c>
+      <c r="W217">
+        <v>1.53</v>
+      </c>
+      <c r="X217">
+        <v>2.38</v>
+      </c>
+      <c r="Y217">
+        <v>3.5</v>
+      </c>
+      <c r="Z217">
+        <v>1.29</v>
+      </c>
+      <c r="AA217">
+        <v>11</v>
+      </c>
+      <c r="AB217">
+        <v>1.05</v>
+      </c>
+      <c r="AC217">
+        <v>2.25</v>
+      </c>
+      <c r="AD217">
+        <v>3.2</v>
+      </c>
+      <c r="AE217">
+        <v>3.3</v>
+      </c>
+      <c r="AF217">
+        <v>1.09</v>
+      </c>
+      <c r="AG217">
+        <v>8</v>
+      </c>
+      <c r="AH217">
+        <v>1.5</v>
+      </c>
+      <c r="AI217">
+        <v>2.5</v>
+      </c>
+      <c r="AJ217">
+        <v>2.4</v>
+      </c>
+      <c r="AK217">
+        <v>1.55</v>
+      </c>
+      <c r="AL217">
+        <v>2.05</v>
+      </c>
+      <c r="AM217">
+        <v>1.7</v>
+      </c>
+      <c r="AN217">
+        <v>1.22</v>
+      </c>
+      <c r="AO217">
+        <v>1.37</v>
+      </c>
+      <c r="AP217">
+        <v>1.7</v>
+      </c>
+      <c r="AQ217">
+        <v>1.73</v>
+      </c>
+      <c r="AR217">
+        <v>1.55</v>
+      </c>
+      <c r="AS217">
+        <v>1.83</v>
+      </c>
+      <c r="AT217">
+        <v>1.42</v>
+      </c>
+      <c r="AU217">
+        <v>1.51</v>
+      </c>
+      <c r="AV217">
+        <v>1.18</v>
+      </c>
+      <c r="AW217">
+        <v>2.69</v>
+      </c>
+      <c r="AX217">
+        <v>1.8</v>
+      </c>
+      <c r="AY217">
+        <v>7.9</v>
+      </c>
+      <c r="AZ217">
+        <v>2.52</v>
+      </c>
+      <c r="BA217">
+        <v>1.21</v>
+      </c>
+      <c r="BB217">
+        <v>1.41</v>
+      </c>
+      <c r="BC217">
+        <v>1.76</v>
+      </c>
+      <c r="BD217">
+        <v>2.22</v>
+      </c>
+      <c r="BE217">
+        <v>2.93</v>
+      </c>
+      <c r="BF217">
+        <v>4</v>
+      </c>
+      <c r="BG217">
+        <v>4</v>
+      </c>
+      <c r="BH217">
+        <v>13</v>
+      </c>
+      <c r="BI217">
+        <v>9</v>
+      </c>
+      <c r="BJ217">
+        <v>17</v>
+      </c>
+      <c r="BK217">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT2" t="n">
         <v>1.25</v>
@@ -1106,7 +1106,7 @@
         <v>1.83</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT6" t="n">
         <v>1.42</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT8" t="n">
         <v>0.83</v>
@@ -2324,7 +2324,7 @@
         <v>1.17</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0.92</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT18" t="n">
         <v>1.08</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU20" t="n">
         <v>1.34</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT21" t="n">
         <v>1.25</v>
@@ -4963,7 +4963,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU22" t="n">
         <v>1.63</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU26" t="n">
         <v>2.15</v>
@@ -6790,7 +6790,7 @@
         <v>2.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU31" t="n">
         <v>2.67</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT33" t="n">
         <v>2.31</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8208,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU38" t="n">
         <v>2.68</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT39" t="n">
         <v>1.67</v>
@@ -8617,7 +8617,7 @@
         <v>2.27</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU40" t="n">
         <v>2.32</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT43" t="n">
         <v>0.42</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT44" t="n">
         <v>0.67</v>
@@ -9632,7 +9632,7 @@
         <v>1.67</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9835,7 +9835,7 @@
         <v>1.17</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU46" t="n">
         <v>1.7</v>
@@ -10647,7 +10647,7 @@
         <v>2.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU50" t="n">
         <v>1.9</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT52" t="n">
         <v>0.83</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU56" t="n">
         <v>1.62</v>
@@ -12068,7 +12068,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -12268,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU58" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT59" t="n">
         <v>2.25</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU61" t="n">
         <v>0.97</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT63" t="n">
         <v>0.42</v>
@@ -13489,7 +13489,7 @@
         <v>2.27</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU64" t="n">
         <v>2.15</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT75" t="n">
         <v>1.67</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT76" t="n">
         <v>2.25</v>
@@ -16125,10 +16125,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU77" t="n">
         <v>2.96</v>
@@ -16331,7 +16331,7 @@
         <v>0.62</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU78" t="n">
         <v>1.5</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU80" t="n">
         <v>1.17</v>
@@ -16940,7 +16940,7 @@
         <v>2.27</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU81" t="n">
         <v>2.3</v>
@@ -17140,7 +17140,7 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT82" t="n">
         <v>0.67</v>
@@ -17549,7 +17549,7 @@
         <v>1.83</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT85" t="n">
         <v>2.31</v>
@@ -19373,7 +19373,7 @@
         <v>2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT93" t="n">
         <v>2.25</v>
@@ -19576,10 +19576,10 @@
         <v>1.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU94" t="n">
         <v>3.07</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT95" t="n">
         <v>1.67</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT96" t="n">
         <v>0.85</v>
@@ -20188,7 +20188,7 @@
         <v>1.67</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU97" t="n">
         <v>1.43</v>
@@ -20391,7 +20391,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU98" t="n">
         <v>1.28</v>
@@ -21406,7 +21406,7 @@
         <v>2.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU103" t="n">
         <v>1.94</v>
@@ -21609,7 +21609,7 @@
         <v>2.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU104" t="n">
         <v>2.44</v>
@@ -22418,7 +22418,7 @@
         <v>2.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT108" t="n">
         <v>2.58</v>
@@ -22824,10 +22824,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU110" t="n">
         <v>1.17</v>
@@ -23436,7 +23436,7 @@
         <v>0.62</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU113" t="n">
         <v>1.64</v>
@@ -23636,7 +23636,7 @@
         <v>2.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT114" t="n">
         <v>2.31</v>
@@ -23842,7 +23842,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU115" t="n">
         <v>1.28</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT116" t="n">
         <v>1.08</v>
@@ -24448,7 +24448,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT118" t="n">
         <v>0.85</v>
@@ -24854,7 +24854,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT120" t="n">
         <v>1.42</v>
@@ -25466,7 +25466,7 @@
         <v>2.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU123" t="n">
         <v>2.42</v>
@@ -25872,7 +25872,7 @@
         <v>1.17</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU125" t="n">
         <v>2.07</v>
@@ -26275,7 +26275,7 @@
         <v>2.57</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT127" t="n">
         <v>2.31</v>
@@ -26478,7 +26478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT128" t="n">
         <v>0.75</v>
@@ -26684,7 +26684,7 @@
         <v>1.83</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.27</v>
@@ -26884,7 +26884,7 @@
         <v>1.57</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT130" t="n">
         <v>0.85</v>
@@ -27090,7 +27090,7 @@
         <v>2</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU131" t="n">
         <v>1.54</v>
@@ -27496,7 +27496,7 @@
         <v>0.62</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU133" t="n">
         <v>1.67</v>
@@ -28102,7 +28102,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT136" t="n">
         <v>0.42</v>
@@ -28511,7 +28511,7 @@
         <v>1.83</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU138" t="n">
         <v>1.35</v>
@@ -29117,7 +29117,7 @@
         <v>1.25</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT141" t="n">
         <v>1.67</v>
@@ -29523,7 +29523,7 @@
         <v>2.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT143" t="n">
         <v>1.42</v>
@@ -29729,7 +29729,7 @@
         <v>1.33</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU144" t="n">
         <v>1.62</v>
@@ -29929,7 +29929,7 @@
         <v>1.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT145" t="n">
         <v>0.75</v>
@@ -30135,7 +30135,7 @@
         <v>2.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU146" t="n">
         <v>2.33</v>
@@ -30538,7 +30538,7 @@
         <v>2.29</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT148" t="n">
         <v>2.58</v>
@@ -31353,7 +31353,7 @@
         <v>1.83</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU152" t="n">
         <v>1.26</v>
@@ -31556,7 +31556,7 @@
         <v>1.67</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU153" t="n">
         <v>1.4</v>
@@ -31962,7 +31962,7 @@
         <v>1.17</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU155" t="n">
         <v>1.96</v>
@@ -32774,7 +32774,7 @@
         <v>2</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU159" t="n">
         <v>1.43</v>
@@ -33177,7 +33177,7 @@
         <v>2.44</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT161" t="n">
         <v>2.58</v>
@@ -33786,7 +33786,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT164" t="n">
         <v>0.83</v>
@@ -33989,7 +33989,7 @@
         <v>2</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT165" t="n">
         <v>1.42</v>
@@ -34192,10 +34192,10 @@
         <v>0.88</v>
       </c>
       <c r="AS166" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU166" t="n">
         <v>1.02</v>
@@ -34804,7 +34804,7 @@
         <v>2.5</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU169" t="n">
         <v>2.11</v>
@@ -35207,10 +35207,10 @@
         <v>0.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU171" t="n">
         <v>1.61</v>
@@ -35613,7 +35613,7 @@
         <v>0.88</v>
       </c>
       <c r="AS173" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT173" t="n">
         <v>0.83</v>
@@ -35819,7 +35819,7 @@
         <v>1.17</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU174" t="n">
         <v>1.92</v>
@@ -36019,7 +36019,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT175" t="n">
         <v>0.42</v>
@@ -37443,7 +37443,7 @@
         <v>1.33</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU182" t="n">
         <v>1.66</v>
@@ -37643,10 +37643,10 @@
         <v>0.44</v>
       </c>
       <c r="AS183" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU183" t="n">
         <v>1.35</v>
@@ -37846,7 +37846,7 @@
         <v>0.5</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT184" t="n">
         <v>0.42</v>
@@ -38052,7 +38052,7 @@
         <v>2.5</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU185" t="n">
         <v>2.06</v>
@@ -38252,7 +38252,7 @@
         <v>0.5</v>
       </c>
       <c r="AS186" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT186" t="n">
         <v>0.67</v>
@@ -38661,7 +38661,7 @@
         <v>1.5</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU188" t="n">
         <v>1.34</v>
@@ -39064,7 +39064,7 @@
         <v>0.78</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT190" t="n">
         <v>0.83</v>
@@ -39470,7 +39470,7 @@
         <v>1.7</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT192" t="n">
         <v>1.42</v>
@@ -40082,7 +40082,7 @@
         <v>1.83</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU195" t="n">
         <v>1.31</v>
@@ -41297,7 +41297,7 @@
         <v>0.73</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT201" t="n">
         <v>0.67</v>
@@ -41500,10 +41500,10 @@
         <v>1.09</v>
       </c>
       <c r="AS202" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU202" t="n">
         <v>1.34</v>
@@ -41703,7 +41703,7 @@
         <v>1.55</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT203" t="n">
         <v>1.67</v>
@@ -42312,10 +42312,10 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU206" t="n">
         <v>1.29</v>
@@ -42518,7 +42518,7 @@
         <v>2.27</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AU207" t="n">
         <v>2.11</v>
@@ -42721,7 +42721,7 @@
         <v>1.5</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AU208" t="n">
         <v>1.3</v>
@@ -44599,6 +44599,1021 @@
         <v>17</v>
       </c>
       <c r="BK217" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2808886</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45002.71875</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['51', '73']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>2</v>
+      </c>
+      <c r="R218" t="n">
+        <v>7</v>
+      </c>
+      <c r="S218" t="n">
+        <v>9</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2808885</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45003.52083333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>4</v>
+      </c>
+      <c r="R219" t="n">
+        <v>6</v>
+      </c>
+      <c r="S219" t="n">
+        <v>10</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2808888</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>6</v>
+      </c>
+      <c r="R220" t="n">
+        <v>7</v>
+      </c>
+      <c r="S220" t="n">
+        <v>13</v>
+      </c>
+      <c r="T220" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2</v>
+      </c>
+      <c r="V220" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2808889</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F221" t="n">
+        <v>25</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>3</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>3</v>
+      </c>
+      <c r="L221" t="n">
+        <v>5</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>6</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['13', '28', '36', '69', '89']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>7</v>
+      </c>
+      <c r="R221" t="n">
+        <v>3</v>
+      </c>
+      <c r="S221" t="n">
+        <v>10</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V221" t="n">
+        <v>11</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X221" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2808891</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45003.72916666666</v>
+      </c>
+      <c r="F222" t="n">
+        <v>25</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['31', '71']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>3</v>
+      </c>
+      <c r="R222" t="n">
+        <v>7</v>
+      </c>
+      <c r="S222" t="n">
+        <v>10</v>
+      </c>
+      <c r="T222" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V222" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK222" t="n">
         <v>13</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.85</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT3" t="n">
         <v>1.38</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT4" t="n">
         <v>0.85</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT5" t="n">
         <v>0.38</v>
@@ -1715,7 +1715,7 @@
         <v>0.77</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.31</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT9" t="n">
         <v>1.17</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.62</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT13" t="n">
         <v>0.85</v>
@@ -3339,7 +3339,7 @@
         <v>1.54</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT15" t="n">
         <v>2.15</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT16" t="n">
         <v>0.85</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT17" t="n">
         <v>1.38</v>
@@ -4151,7 +4151,7 @@
         <v>1.77</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.62</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT20" t="n">
         <v>0.85</v>
@@ -4760,7 +4760,7 @@
         <v>0.77</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU21" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT22" t="n">
         <v>1.38</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT23" t="n">
         <v>1.67</v>
@@ -5369,7 +5369,7 @@
         <v>1.62</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU24" t="n">
         <v>0.85</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU29" t="n">
         <v>1.52</v>
@@ -6587,7 +6587,7 @@
         <v>1.54</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT31" t="n">
         <v>1.38</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -7196,7 +7196,7 @@
         <v>1.77</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU33" t="n">
         <v>0.93</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT34" t="n">
         <v>2.15</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>0.71</v>
@@ -8008,7 +8008,7 @@
         <v>2.85</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT39" t="n">
         <v>1.67</v>
@@ -9023,7 +9023,7 @@
         <v>1.62</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU42" t="n">
         <v>0.97</v>
@@ -9632,7 +9632,7 @@
         <v>1.54</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT46" t="n">
         <v>0.85</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU47" t="n">
         <v>1.62</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU49" t="n">
         <v>2.74</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT50" t="n">
         <v>1.38</v>
@@ -10850,7 +10850,7 @@
         <v>0.62</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11053,7 +11053,7 @@
         <v>1.77</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU52" t="n">
         <v>1.09</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.74</v>
@@ -11456,10 +11456,10 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU54" t="n">
         <v>0.92</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT55" t="n">
         <v>0.85</v>
@@ -12271,7 +12271,7 @@
         <v>0.77</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU58" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT59" t="n">
         <v>2.15</v>
@@ -13689,10 +13689,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>2.47</v>
@@ -13892,10 +13892,10 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU66" t="n">
         <v>2.03</v>
@@ -14095,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT68" t="n">
         <v>0.85</v>
@@ -14501,10 +14501,10 @@
         <v>3</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU69" t="n">
         <v>1.52</v>
@@ -14704,10 +14704,10 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -14910,7 +14910,7 @@
         <v>0.62</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU71" t="n">
         <v>1.69</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU72" t="n">
         <v>1.32</v>
@@ -15313,10 +15313,10 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU73" t="n">
         <v>1.71</v>
@@ -17343,10 +17343,10 @@
         <v>2.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU83" t="n">
         <v>2</v>
@@ -17546,10 +17546,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -17749,10 +17749,10 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU85" t="n">
         <v>1.02</v>
@@ -17952,10 +17952,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU86" t="n">
         <v>2.37</v>
@@ -18155,10 +18155,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -18358,10 +18358,10 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU88" t="n">
         <v>1.95</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>1.68</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU90" t="n">
         <v>1.35</v>
@@ -18967,10 +18967,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -20594,7 +20594,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU99" t="n">
         <v>1.68</v>
@@ -20794,7 +20794,7 @@
         <v>0.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT100" t="n">
         <v>0.85</v>
@@ -21000,7 +21000,7 @@
         <v>1.33</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -21200,10 +21200,10 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21403,10 +21403,10 @@
         <v>0.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU103" t="n">
         <v>1.94</v>
@@ -21606,7 +21606,7 @@
         <v>1.4</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT104" t="n">
         <v>1.17</v>
@@ -21809,10 +21809,10 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU105" t="n">
         <v>1.25</v>
@@ -22012,7 +22012,7 @@
         <v>0.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT106" t="n">
         <v>0.85</v>
@@ -22218,7 +22218,7 @@
         <v>2.17</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU107" t="n">
         <v>2.45</v>
@@ -22418,10 +22418,10 @@
         <v>2.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU108" t="n">
         <v>1</v>
@@ -22621,10 +22621,10 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -23230,7 +23230,7 @@
         <v>0.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT112" t="n">
         <v>0.38</v>
@@ -23639,7 +23639,7 @@
         <v>1.31</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU114" t="n">
         <v>1.69</v>
@@ -24045,7 +24045,7 @@
         <v>2.85</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU116" t="n">
         <v>3.02</v>
@@ -24245,7 +24245,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT117" t="n">
         <v>1.67</v>
@@ -24651,7 +24651,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT119" t="n">
         <v>0.38</v>
@@ -24857,7 +24857,7 @@
         <v>1.31</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU120" t="n">
         <v>1.6</v>
@@ -25057,10 +25057,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25263,7 +25263,7 @@
         <v>1.33</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -25463,10 +25463,10 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU123" t="n">
         <v>2.42</v>
@@ -25666,7 +25666,7 @@
         <v>0.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT124" t="n">
         <v>0.85</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT125" t="n">
         <v>1.17</v>
@@ -26075,7 +26075,7 @@
         <v>2.17</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU126" t="n">
         <v>2.49</v>
@@ -26278,7 +26278,7 @@
         <v>0.77</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU127" t="n">
         <v>1.34</v>
@@ -26481,7 +26481,7 @@
         <v>2.85</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU128" t="n">
         <v>2.82</v>
@@ -26681,7 +26681,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT129" t="n">
         <v>1.38</v>
@@ -27087,7 +27087,7 @@
         <v>0.86</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT131" t="n">
         <v>0.85</v>
@@ -27696,7 +27696,7 @@
         <v>1.43</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT134" t="n">
         <v>1.67</v>
@@ -27902,7 +27902,7 @@
         <v>1.54</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.36</v>
@@ -28105,7 +28105,7 @@
         <v>1.31</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU136" t="n">
         <v>1.5</v>
@@ -28305,7 +28305,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT137" t="n">
         <v>0.38</v>
@@ -28508,10 +28508,10 @@
         <v>0.14</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU138" t="n">
         <v>1.35</v>
@@ -28714,7 +28714,7 @@
         <v>2.17</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU139" t="n">
         <v>2.39</v>
@@ -28914,10 +28914,10 @@
         <v>1.29</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -29320,7 +29320,7 @@
         <v>0.63</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT142" t="n">
         <v>0.85</v>
@@ -29523,10 +29523,10 @@
         <v>2.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU143" t="n">
         <v>0.98</v>
@@ -29932,7 +29932,7 @@
         <v>1.77</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU145" t="n">
         <v>1.28</v>
@@ -30132,7 +30132,7 @@
         <v>1.38</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT146" t="n">
         <v>1.38</v>
@@ -30338,7 +30338,7 @@
         <v>0.62</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU147" t="n">
         <v>1.66</v>
@@ -30541,7 +30541,7 @@
         <v>0.77</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU148" t="n">
         <v>1.25</v>
@@ -30741,7 +30741,7 @@
         <v>1.88</v>
       </c>
       <c r="AS149" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT149" t="n">
         <v>2.15</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT150" t="n">
         <v>0.85</v>
@@ -31150,7 +31150,7 @@
         <v>1.62</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU151" t="n">
         <v>1.19</v>
@@ -31350,7 +31350,7 @@
         <v>0.88</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT152" t="n">
         <v>0.85</v>
@@ -31759,7 +31759,7 @@
         <v>0.62</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU154" t="n">
         <v>1.62</v>
@@ -31959,7 +31959,7 @@
         <v>0.89</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT155" t="n">
         <v>0.85</v>
@@ -32165,7 +32165,7 @@
         <v>1.62</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU156" t="n">
         <v>1.23</v>
@@ -32368,7 +32368,7 @@
         <v>1.54</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU157" t="n">
         <v>1.38</v>
@@ -32568,7 +32568,7 @@
         <v>1.22</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT158" t="n">
         <v>0.85</v>
@@ -32771,7 +32771,7 @@
         <v>1.56</v>
       </c>
       <c r="AS159" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT159" t="n">
         <v>1.38</v>
@@ -32977,7 +32977,7 @@
         <v>0.62</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU160" t="n">
         <v>1.6</v>
@@ -33180,7 +33180,7 @@
         <v>1.77</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU161" t="n">
         <v>1.42</v>
@@ -33380,7 +33380,7 @@
         <v>2</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT162" t="n">
         <v>2.15</v>
@@ -33583,10 +33583,10 @@
         <v>2.67</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU163" t="n">
         <v>2.38</v>
@@ -33789,7 +33789,7 @@
         <v>0.77</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU164" t="n">
         <v>1.22</v>
@@ -33992,7 +33992,7 @@
         <v>2.85</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU165" t="n">
         <v>2.81</v>
@@ -34192,7 +34192,7 @@
         <v>0.88</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT166" t="n">
         <v>1.17</v>
@@ -34395,7 +34395,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT167" t="n">
         <v>0.38</v>
@@ -34801,7 +34801,7 @@
         <v>1.22</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT169" t="n">
         <v>1.38</v>
@@ -35007,7 +35007,7 @@
         <v>1.33</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU170" t="n">
         <v>1.61</v>
@@ -35210,7 +35210,7 @@
         <v>1.31</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU171" t="n">
         <v>1.61</v>
@@ -35410,7 +35410,7 @@
         <v>1.22</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT172" t="n">
         <v>1.67</v>
@@ -35613,10 +35613,10 @@
         <v>0.88</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU173" t="n">
         <v>1.08</v>
@@ -35816,7 +35816,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT174" t="n">
         <v>1.38</v>
@@ -36022,7 +36022,7 @@
         <v>1.77</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU175" t="n">
         <v>1.33</v>
@@ -36222,10 +36222,10 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU176" t="n">
         <v>1.5</v>
@@ -36425,10 +36425,10 @@
         <v>0.78</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU177" t="n">
         <v>1.37</v>
@@ -36628,7 +36628,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT178" t="n">
         <v>2.15</v>
@@ -36831,10 +36831,10 @@
         <v>2.4</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT179" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU179" t="n">
         <v>1.57</v>
@@ -37034,7 +37034,7 @@
         <v>1.1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT180" t="n">
         <v>0.85</v>
@@ -37240,7 +37240,7 @@
         <v>1.54</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU181" t="n">
         <v>1.45</v>
@@ -37643,10 +37643,10 @@
         <v>0.44</v>
       </c>
       <c r="AS183" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU183" t="n">
         <v>1.35</v>
@@ -38049,7 +38049,7 @@
         <v>0.8</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT185" t="n">
         <v>0.85</v>
@@ -38458,7 +38458,7 @@
         <v>2.17</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU187" t="n">
         <v>2.21</v>
@@ -38861,7 +38861,7 @@
         <v>1.4</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT189" t="n">
         <v>1.67</v>
@@ -39067,7 +39067,7 @@
         <v>2.85</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU190" t="n">
         <v>2.74</v>
@@ -39267,10 +39267,10 @@
         <v>0.9</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU191" t="n">
         <v>1.44</v>
@@ -39473,7 +39473,7 @@
         <v>1.77</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU192" t="n">
         <v>1.34</v>
@@ -39673,10 +39673,10 @@
         <v>0.5</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU193" t="n">
         <v>1.6</v>
@@ -39876,10 +39876,10 @@
         <v>2.5</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU194" t="n">
         <v>1.9</v>
@@ -40079,7 +40079,7 @@
         <v>1.36</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT195" t="n">
         <v>1.38</v>
@@ -40285,7 +40285,7 @@
         <v>0.62</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU196" t="n">
         <v>1.63</v>
@@ -40485,10 +40485,10 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>2.01</v>
@@ -40688,7 +40688,7 @@
         <v>1</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT198" t="n">
         <v>0.85</v>
@@ -40891,10 +40891,10 @@
         <v>2.45</v>
       </c>
       <c r="AS199" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU199" t="n">
         <v>1.48</v>
@@ -41097,7 +41097,7 @@
         <v>1.54</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU200" t="n">
         <v>1.46</v>
@@ -41500,7 +41500,7 @@
         <v>1.09</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT202" t="n">
         <v>1.38</v>
@@ -41906,7 +41906,7 @@
         <v>2.18</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT204" t="n">
         <v>2.15</v>
@@ -42721,7 +42721,7 @@
         <v>1.62</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU208" t="n">
         <v>1.3</v>
@@ -42921,7 +42921,7 @@
         <v>0.92</v>
       </c>
       <c r="AS209" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT209" t="n">
         <v>0.85</v>
@@ -43124,10 +43124,10 @@
         <v>0.82</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU210" t="n">
         <v>1.68</v>
@@ -43330,7 +43330,7 @@
         <v>0.62</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU211" t="n">
         <v>1.66</v>
@@ -43530,10 +43530,10 @@
         <v>1.09</v>
       </c>
       <c r="AS212" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AU212" t="n">
         <v>1.44</v>
@@ -43733,10 +43733,10 @@
         <v>2.25</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT213" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU213" t="n">
         <v>1.84</v>
@@ -43936,10 +43936,10 @@
         <v>1.18</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU214" t="n">
         <v>1.31</v>
@@ -44139,10 +44139,10 @@
         <v>2.55</v>
       </c>
       <c r="AS215" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU215" t="n">
         <v>1.73</v>
@@ -44342,10 +44342,10 @@
         <v>0.91</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU216" t="n">
         <v>2.37</v>
@@ -44545,10 +44545,10 @@
         <v>1.55</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU217" t="n">
         <v>1.51</v>
@@ -45157,7 +45157,7 @@
         <v>1.77</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU220" t="n">
         <v>1.32</v>
@@ -45560,7 +45560,7 @@
         <v>1.25</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT222" t="n">
         <v>1.38</v>
@@ -46224,6 +46224,1833 @@
       </c>
       <c r="BK225" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2808892</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45016.67708333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>26</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>5</v>
+      </c>
+      <c r="R226" t="n">
+        <v>5</v>
+      </c>
+      <c r="S226" t="n">
+        <v>10</v>
+      </c>
+      <c r="T226" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2808895</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45017.47916666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>3</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>4</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['37', '81', '87']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>10</v>
+      </c>
+      <c r="R227" t="n">
+        <v>3</v>
+      </c>
+      <c r="S227" t="n">
+        <v>13</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2</v>
+      </c>
+      <c r="V227" t="n">
+        <v>4</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2808894</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45017.58333333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>5</v>
+      </c>
+      <c r="R228" t="n">
+        <v>4</v>
+      </c>
+      <c r="S228" t="n">
+        <v>9</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V228" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2808896</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45017.6875</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>3</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>3</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['14', '22', '52']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>6</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2</v>
+      </c>
+      <c r="S229" t="n">
+        <v>8</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V229" t="n">
+        <v>13</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X229" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2808898</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45018.47916666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2</v>
+      </c>
+      <c r="L230" t="n">
+        <v>4</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2</v>
+      </c>
+      <c r="N230" t="n">
+        <v>6</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['3', '22', '50', '90+6']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['59', '87']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>3</v>
+      </c>
+      <c r="R230" t="n">
+        <v>9</v>
+      </c>
+      <c r="S230" t="n">
+        <v>12</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2808899</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45018.47916666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>26</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['16', '59']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>7</v>
+      </c>
+      <c r="R231" t="n">
+        <v>5</v>
+      </c>
+      <c r="S231" t="n">
+        <v>12</v>
+      </c>
+      <c r="T231" t="n">
+        <v>5</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X231" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2808897</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45018.58333333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>26</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>3</v>
+      </c>
+      <c r="R232" t="n">
+        <v>6</v>
+      </c>
+      <c r="S232" t="n">
+        <v>9</v>
+      </c>
+      <c r="T232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2808893</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45018.6875</v>
+      </c>
+      <c r="F233" t="n">
+        <v>26</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>10</v>
+      </c>
+      <c r="R233" t="n">
+        <v>3</v>
+      </c>
+      <c r="S233" t="n">
+        <v>13</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V233" t="n">
+        <v>15</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X233" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2808900</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45019.67708333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>26</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>7</v>
+      </c>
+      <c r="R234" t="n">
+        <v>1</v>
+      </c>
+      <c r="S234" t="n">
+        <v>8</v>
+      </c>
+      <c r="T234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V234" t="n">
+        <v>5</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK234"/>
+  <dimension ref="A1:BK235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>2.17</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT10" t="n">
         <v>0.6899999999999999</v>
@@ -5166,7 +5166,7 @@
         <v>2.54</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU23" t="n">
         <v>2.3</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT27" t="n">
         <v>0.85</v>
@@ -8414,7 +8414,7 @@
         <v>1.08</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU39" t="n">
         <v>1.2</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT41" t="n">
         <v>2.15</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT57" t="n">
         <v>0.85</v>
@@ -12677,7 +12677,7 @@
         <v>1.54</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU60" t="n">
         <v>1.33</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT74" t="n">
         <v>0.85</v>
@@ -15722,7 +15722,7 @@
         <v>0.77</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -19782,7 +19782,7 @@
         <v>1.77</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU95" t="n">
         <v>1.16</v>
@@ -20591,7 +20591,7 @@
         <v>2.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT99" t="n">
         <v>2.36</v>
@@ -20997,7 +20997,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT101" t="n">
         <v>0.6899999999999999</v>
@@ -24248,7 +24248,7 @@
         <v>1.69</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT122" t="n">
         <v>0.38</v>
@@ -27699,7 +27699,7 @@
         <v>1.08</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU134" t="n">
         <v>1.78</v>
@@ -29120,7 +29120,7 @@
         <v>2.85</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU141" t="n">
         <v>2.89</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT144" t="n">
         <v>1.17</v>
@@ -35004,7 +35004,7 @@
         <v>1.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT170" t="n">
         <v>1.38</v>
@@ -35413,7 +35413,7 @@
         <v>1.69</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU172" t="n">
         <v>1.43</v>
@@ -37440,7 +37440,7 @@
         <v>1.1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT182" t="n">
         <v>1.38</v>
@@ -38864,7 +38864,7 @@
         <v>1.08</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU189" t="n">
         <v>1.77</v>
@@ -41706,7 +41706,7 @@
         <v>1.31</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AU203" t="n">
         <v>1.58</v>
@@ -42109,7 +42109,7 @@
         <v>0.45</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT205" t="n">
         <v>0.38</v>
@@ -48051,6 +48051,209 @@
       </c>
       <c r="BK234" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2808884</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45021.67708333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>25</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>1</v>
+      </c>
+      <c r="R235" t="n">
+        <v>3</v>
+      </c>
+      <c r="S235" t="n">
+        <v>4</v>
+      </c>
+      <c r="T235" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X235" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK235"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT2" t="n">
         <v>1.38</v>
@@ -1106,7 +1106,7 @@
         <v>1.69</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.08</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.54</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT6" t="n">
         <v>1.31</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT8" t="n">
         <v>0.77</v>
@@ -2324,7 +2324,7 @@
         <v>1.08</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.54</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT14" t="n">
         <v>0.38</v>
@@ -3542,7 +3542,7 @@
         <v>1.31</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT19" t="n">
         <v>0.6899999999999999</v>
@@ -4557,7 +4557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU20" t="n">
         <v>1.34</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT21" t="n">
         <v>1.38</v>
@@ -4963,7 +4963,7 @@
         <v>1.08</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.63</v>
@@ -5572,7 +5572,7 @@
         <v>2.17</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU25" t="n">
         <v>1.99</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU26" t="n">
         <v>2.15</v>
@@ -5978,7 +5978,7 @@
         <v>1.31</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.83</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT28" t="n">
         <v>0.85</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT30" t="n">
         <v>2.62</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT33" t="n">
         <v>2.36</v>
@@ -7399,7 +7399,7 @@
         <v>1.69</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU34" t="n">
         <v>0.91</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT37" t="n">
         <v>0.6899999999999999</v>
@@ -8208,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>2.68</v>
@@ -8617,7 +8617,7 @@
         <v>2.17</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU40" t="n">
         <v>2.32</v>
@@ -8820,7 +8820,7 @@
         <v>1.31</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.81</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU43" t="n">
         <v>1.24</v>
@@ -9426,10 +9426,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.84</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT45" t="n">
         <v>0.6899999999999999</v>
@@ -9835,7 +9835,7 @@
         <v>1.08</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU46" t="n">
         <v>1.7</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT51" t="n">
         <v>1.31</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT52" t="n">
         <v>0.77</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT56" t="n">
         <v>1.38</v>
@@ -12068,7 +12068,7 @@
         <v>1.31</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU57" t="n">
         <v>1.46</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT58" t="n">
         <v>0.6899999999999999</v>
@@ -12474,7 +12474,7 @@
         <v>1.08</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU59" t="n">
         <v>1.06</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT60" t="n">
         <v>1.62</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU61" t="n">
         <v>0.97</v>
@@ -13083,7 +13083,7 @@
         <v>1.62</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>0.99</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU63" t="n">
         <v>2.89</v>
@@ -13489,7 +13489,7 @@
         <v>2.17</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU64" t="n">
         <v>2.15</v>
@@ -14907,7 +14907,7 @@
         <v>1.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT71" t="n">
         <v>1.38</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT75" t="n">
         <v>1.62</v>
@@ -15922,10 +15922,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16125,10 +16125,10 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU77" t="n">
         <v>2.96</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU78" t="n">
         <v>1.5</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU79" t="n">
         <v>1.23</v>
@@ -16737,7 +16737,7 @@
         <v>1.62</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.17</v>
@@ -17140,10 +17140,10 @@
         <v>0.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.08</v>
@@ -19170,10 +19170,10 @@
         <v>0.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU92" t="n">
         <v>1.72</v>
@@ -19373,10 +19373,10 @@
         <v>2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT93" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU93" t="n">
         <v>1.28</v>
@@ -19576,7 +19576,7 @@
         <v>1.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT94" t="n">
         <v>1.38</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT95" t="n">
         <v>1.62</v>
@@ -19982,7 +19982,7 @@
         <v>2</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT96" t="n">
         <v>0.85</v>
@@ -20185,10 +20185,10 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.43</v>
@@ -20391,7 +20391,7 @@
         <v>1.62</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU98" t="n">
         <v>1.28</v>
@@ -20797,7 +20797,7 @@
         <v>1.93</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.56</v>
@@ -21609,7 +21609,7 @@
         <v>2.54</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU104" t="n">
         <v>2.44</v>
@@ -22015,7 +22015,7 @@
         <v>1.08</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.72</v>
@@ -22824,10 +22824,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU110" t="n">
         <v>1.17</v>
@@ -23027,10 +23027,10 @@
         <v>1.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU111" t="n">
         <v>1.47</v>
@@ -23233,7 +23233,7 @@
         <v>1.93</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU112" t="n">
         <v>1.56</v>
@@ -23433,10 +23433,10 @@
         <v>1.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.64</v>
@@ -23636,7 +23636,7 @@
         <v>2.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT114" t="n">
         <v>2.36</v>
@@ -24042,7 +24042,7 @@
         <v>0.8</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -24448,7 +24448,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT118" t="n">
         <v>0.85</v>
@@ -24654,7 +24654,7 @@
         <v>1.69</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU119" t="n">
         <v>1.24</v>
@@ -24854,7 +24854,7 @@
         <v>2.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT120" t="n">
         <v>1.31</v>
@@ -25669,7 +25669,7 @@
         <v>1.08</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.82</v>
@@ -25872,7 +25872,7 @@
         <v>1.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU125" t="n">
         <v>2.07</v>
@@ -26275,7 +26275,7 @@
         <v>2.57</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT127" t="n">
         <v>2.36</v>
@@ -26478,7 +26478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT128" t="n">
         <v>0.6899999999999999</v>
@@ -26684,7 +26684,7 @@
         <v>1.69</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.27</v>
@@ -26884,7 +26884,7 @@
         <v>1.57</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT130" t="n">
         <v>0.85</v>
@@ -27090,7 +27090,7 @@
         <v>1.93</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU131" t="n">
         <v>1.54</v>
@@ -27293,7 +27293,7 @@
         <v>1.62</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU132" t="n">
         <v>1.31</v>
@@ -27493,7 +27493,7 @@
         <v>1.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT133" t="n">
         <v>1.38</v>
@@ -27899,7 +27899,7 @@
         <v>0.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28102,7 +28102,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT136" t="n">
         <v>0.38</v>
@@ -28308,7 +28308,7 @@
         <v>1.31</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU137" t="n">
         <v>1.96</v>
@@ -29117,7 +29117,7 @@
         <v>1.25</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT141" t="n">
         <v>1.62</v>
@@ -29323,7 +29323,7 @@
         <v>2.54</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -29729,7 +29729,7 @@
         <v>1.31</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU144" t="n">
         <v>1.62</v>
@@ -29929,7 +29929,7 @@
         <v>1.29</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT145" t="n">
         <v>0.6899999999999999</v>
@@ -30135,7 +30135,7 @@
         <v>2.54</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU146" t="n">
         <v>2.33</v>
@@ -30335,7 +30335,7 @@
         <v>2.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT147" t="n">
         <v>2.36</v>
@@ -30538,7 +30538,7 @@
         <v>2.29</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT148" t="n">
         <v>2.62</v>
@@ -30744,7 +30744,7 @@
         <v>1.93</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU149" t="n">
         <v>1.5</v>
@@ -31353,7 +31353,7 @@
         <v>1.69</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU152" t="n">
         <v>1.26</v>
@@ -31553,7 +31553,7 @@
         <v>1.63</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT153" t="n">
         <v>1.38</v>
@@ -31756,7 +31756,7 @@
         <v>2.38</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT154" t="n">
         <v>2.62</v>
@@ -31962,7 +31962,7 @@
         <v>1.31</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU155" t="n">
         <v>1.96</v>
@@ -32365,7 +32365,7 @@
         <v>1.13</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT157" t="n">
         <v>0.6899999999999999</v>
@@ -32974,7 +32974,7 @@
         <v>0.88</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT160" t="n">
         <v>1</v>
@@ -33177,7 +33177,7 @@
         <v>2.44</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT161" t="n">
         <v>2.62</v>
@@ -33383,7 +33383,7 @@
         <v>1.08</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU162" t="n">
         <v>1.6</v>
@@ -33786,7 +33786,7 @@
         <v>0.86</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT164" t="n">
         <v>0.77</v>
@@ -33989,7 +33989,7 @@
         <v>2</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT165" t="n">
         <v>1.31</v>
@@ -34195,7 +34195,7 @@
         <v>1.08</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU166" t="n">
         <v>1.02</v>
@@ -34398,7 +34398,7 @@
         <v>1.08</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU167" t="n">
         <v>1.84</v>
@@ -34601,7 +34601,7 @@
         <v>2.17</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU168" t="n">
         <v>2.25</v>
@@ -34804,7 +34804,7 @@
         <v>2.54</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU169" t="n">
         <v>2.11</v>
@@ -35207,7 +35207,7 @@
         <v>0.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT171" t="n">
         <v>0.6899999999999999</v>
@@ -36019,7 +36019,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT175" t="n">
         <v>0.38</v>
@@ -36631,7 +36631,7 @@
         <v>2.54</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU178" t="n">
         <v>2.37</v>
@@ -37237,7 +37237,7 @@
         <v>1.78</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT181" t="n">
         <v>1.31</v>
@@ -37443,7 +37443,7 @@
         <v>1.31</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU182" t="n">
         <v>1.66</v>
@@ -37846,10 +37846,10 @@
         <v>0.5</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU184" t="n">
         <v>1.63</v>
@@ -38052,7 +38052,7 @@
         <v>2.54</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU185" t="n">
         <v>2.06</v>
@@ -38252,10 +38252,10 @@
         <v>0.5</v>
       </c>
       <c r="AS186" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.23</v>
@@ -38661,7 +38661,7 @@
         <v>1.62</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU188" t="n">
         <v>1.34</v>
@@ -39064,7 +39064,7 @@
         <v>0.78</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT190" t="n">
         <v>0.77</v>
@@ -39470,7 +39470,7 @@
         <v>1.7</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT192" t="n">
         <v>1.31</v>
@@ -40282,7 +40282,7 @@
         <v>0.7</v>
       </c>
       <c r="AS196" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT196" t="n">
         <v>0.77</v>
@@ -41094,7 +41094,7 @@
         <v>1.1</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT200" t="n">
         <v>1.38</v>
@@ -41297,10 +41297,10 @@
         <v>0.73</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU201" t="n">
         <v>2.72</v>
@@ -41503,7 +41503,7 @@
         <v>1.08</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU202" t="n">
         <v>1.34</v>
@@ -41703,7 +41703,7 @@
         <v>1.55</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT203" t="n">
         <v>1.62</v>
@@ -41909,7 +41909,7 @@
         <v>1.08</v>
       </c>
       <c r="AT204" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU204" t="n">
         <v>1.73</v>
@@ -42112,7 +42112,7 @@
         <v>1.31</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU205" t="n">
         <v>1.66</v>
@@ -42312,10 +42312,10 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU206" t="n">
         <v>1.29</v>
@@ -42518,7 +42518,7 @@
         <v>2.17</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU207" t="n">
         <v>2.11</v>
@@ -43327,7 +43327,7 @@
         <v>0.45</v>
       </c>
       <c r="AS211" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT211" t="n">
         <v>0.38</v>
@@ -44748,10 +44748,10 @@
         <v>0.67</v>
       </c>
       <c r="AS218" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU218" t="n">
         <v>1.34</v>
@@ -44951,10 +44951,10 @@
         <v>1.25</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU219" t="n">
         <v>1.53</v>
@@ -45154,7 +45154,7 @@
         <v>0.64</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AT220" t="n">
         <v>0.6899999999999999</v>
@@ -45357,10 +45357,10 @@
         <v>1.27</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU221" t="n">
         <v>2.68</v>
@@ -45766,7 +45766,7 @@
         <v>1.62</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU223" t="n">
         <v>1.29</v>
@@ -45969,7 +45969,7 @@
         <v>2.17</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU224" t="n">
         <v>2.15</v>
@@ -46169,10 +46169,10 @@
         <v>0.67</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT225" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU225" t="n">
         <v>1.48</v>
@@ -48253,6 +48253,1224 @@
         <v>7</v>
       </c>
       <c r="BK235" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2808901</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45023.47916666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>27</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>2</v>
+      </c>
+      <c r="R236" t="n">
+        <v>4</v>
+      </c>
+      <c r="S236" t="n">
+        <v>6</v>
+      </c>
+      <c r="T236" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U236" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V236" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2808908</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45023.58333333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>27</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['45', '54']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>4</v>
+      </c>
+      <c r="R237" t="n">
+        <v>5</v>
+      </c>
+      <c r="S237" t="n">
+        <v>9</v>
+      </c>
+      <c r="T237" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2</v>
+      </c>
+      <c r="V237" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2808905</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45023.6875</v>
+      </c>
+      <c r="F238" t="n">
+        <v>27</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="n">
+        <v>3</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['19', '86']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>7</v>
+      </c>
+      <c r="R238" t="n">
+        <v>7</v>
+      </c>
+      <c r="S238" t="n">
+        <v>14</v>
+      </c>
+      <c r="T238" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U238" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2808907</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>27</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>7</v>
+      </c>
+      <c r="R239" t="n">
+        <v>11</v>
+      </c>
+      <c r="S239" t="n">
+        <v>18</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V239" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2808903</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45024.58333333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>27</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2</v>
+      </c>
+      <c r="M240" t="n">
+        <v>2</v>
+      </c>
+      <c r="N240" t="n">
+        <v>4</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['82', '90+7']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['19', '74']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>8</v>
+      </c>
+      <c r="R240" t="n">
+        <v>4</v>
+      </c>
+      <c r="S240" t="n">
+        <v>12</v>
+      </c>
+      <c r="T240" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2808906</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45024.58333333334</v>
+      </c>
+      <c r="F241" t="n">
+        <v>27</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>2</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>3</v>
+      </c>
+      <c r="N241" t="n">
+        <v>4</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['41', '70', '87']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>10</v>
+      </c>
+      <c r="R241" t="n">
+        <v>4</v>
+      </c>
+      <c r="S241" t="n">
+        <v>14</v>
+      </c>
+      <c r="T241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U241" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK241" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>2.62</v>
@@ -3745,7 +3745,7 @@
         <v>1.93</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>2.54</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU23" t="n">
         <v>2.3</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.77</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT25" t="n">
         <v>0.36</v>
@@ -6181,7 +6181,7 @@
         <v>0.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU28" t="n">
         <v>1.63</v>
@@ -8414,7 +8414,7 @@
         <v>1.08</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU39" t="n">
         <v>1.2</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT40" t="n">
         <v>1.08</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.38</v>
@@ -11662,7 +11662,7 @@
         <v>1.31</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU55" t="n">
         <v>1.66</v>
@@ -12677,7 +12677,7 @@
         <v>1.64</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU60" t="n">
         <v>1.33</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -14301,7 +14301,7 @@
         <v>1.08</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU68" t="n">
         <v>1.8</v>
@@ -15519,7 +15519,7 @@
         <v>1.31</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU74" t="n">
         <v>1.65</v>
@@ -15722,7 +15722,7 @@
         <v>0.71</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU75" t="n">
         <v>1.23</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT81" t="n">
         <v>1.38</v>
@@ -19782,7 +19782,7 @@
         <v>1.86</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU95" t="n">
         <v>1.16</v>
@@ -19985,7 +19985,7 @@
         <v>1.29</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU96" t="n">
         <v>1.53</v>
@@ -20388,7 +20388,7 @@
         <v>0.6</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT98" t="n">
         <v>0.86</v>
@@ -22215,7 +22215,7 @@
         <v>2</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT107" t="n">
         <v>1.31</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
         <v>1.38</v>
@@ -24248,7 +24248,7 @@
         <v>1.69</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU117" t="n">
         <v>1.26</v>
@@ -24451,7 +24451,7 @@
         <v>0.71</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU118" t="n">
         <v>1.28</v>
@@ -26072,7 +26072,7 @@
         <v>2.67</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT126" t="n">
         <v>2.62</v>
@@ -26887,7 +26887,7 @@
         <v>1.86</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU130" t="n">
         <v>1.18</v>
@@ -27290,7 +27290,7 @@
         <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT132" t="n">
         <v>2.21</v>
@@ -27699,7 +27699,7 @@
         <v>1.08</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU134" t="n">
         <v>1.78</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT139" t="n">
         <v>0.77</v>
@@ -29120,7 +29120,7 @@
         <v>2.64</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU141" t="n">
         <v>2.89</v>
@@ -30947,7 +30947,7 @@
         <v>1.08</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU150" t="n">
         <v>1.68</v>
@@ -31147,7 +31147,7 @@
         <v>0.57</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -32162,7 +32162,7 @@
         <v>0.63</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT156" t="n">
         <v>0.38</v>
@@ -32571,7 +32571,7 @@
         <v>1.69</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU158" t="n">
         <v>1.32</v>
@@ -34598,7 +34598,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT168" t="n">
         <v>1</v>
@@ -35413,7 +35413,7 @@
         <v>1.69</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU172" t="n">
         <v>1.43</v>
@@ -37037,7 +37037,7 @@
         <v>1.69</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU180" t="n">
         <v>1.36</v>
@@ -38455,7 +38455,7 @@
         <v>1.22</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT187" t="n">
         <v>1.38</v>
@@ -38658,7 +38658,7 @@
         <v>1.11</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT188" t="n">
         <v>1.08</v>
@@ -38864,7 +38864,7 @@
         <v>1.08</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU189" t="n">
         <v>1.77</v>
@@ -40691,7 +40691,7 @@
         <v>2.54</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU198" t="n">
         <v>2.34</v>
@@ -41706,7 +41706,7 @@
         <v>1.29</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU203" t="n">
         <v>1.58</v>
@@ -42515,7 +42515,7 @@
         <v>0.73</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT207" t="n">
         <v>0.86</v>
@@ -42718,7 +42718,7 @@
         <v>0.7</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT208" t="n">
         <v>0.6899999999999999</v>
@@ -42924,7 +42924,7 @@
         <v>2.54</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU209" t="n">
         <v>1.97</v>
@@ -45763,7 +45763,7 @@
         <v>0.42</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT223" t="n">
         <v>0.36</v>
@@ -45966,7 +45966,7 @@
         <v>2.25</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT224" t="n">
         <v>2.21</v>
@@ -48202,7 +48202,7 @@
         <v>1.31</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU235" t="n">
         <v>1.61</v>
@@ -49472,6 +49472,412 @@
       </c>
       <c r="BK241" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2808904</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45024.6875</v>
+      </c>
+      <c r="F242" t="n">
+        <v>27</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>4</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>5</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['17', '70', '82', '90+4']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>7</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2</v>
+      </c>
+      <c r="S242" t="n">
+        <v>9</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V242" t="n">
+        <v>8</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X242" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2808902</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45025.58333333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>27</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>2</v>
+      </c>
+      <c r="J243" t="n">
+        <v>2</v>
+      </c>
+      <c r="K243" t="n">
+        <v>4</v>
+      </c>
+      <c r="L243" t="n">
+        <v>3</v>
+      </c>
+      <c r="M243" t="n">
+        <v>4</v>
+      </c>
+      <c r="N243" t="n">
+        <v>7</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['7', '45+1', '62']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['1', '39', '48', '85']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>1</v>
+      </c>
+      <c r="R243" t="n">
+        <v>18</v>
+      </c>
+      <c r="S243" t="n">
+        <v>19</v>
+      </c>
+      <c r="T243" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X243" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT10" t="n">
         <v>0.6899999999999999</v>
@@ -3948,7 +3948,7 @@
         <v>1.08</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>2.54</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU31" t="n">
         <v>2.67</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT41" t="n">
         <v>2.21</v>
@@ -10647,7 +10647,7 @@
         <v>2.54</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU50" t="n">
         <v>1.9</v>
@@ -11865,7 +11865,7 @@
         <v>1.29</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU56" t="n">
         <v>1.62</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT57" t="n">
         <v>0.86</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT74" t="n">
         <v>0.79</v>
@@ -16940,7 +16940,7 @@
         <v>2.23</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU81" t="n">
         <v>2.3</v>
@@ -19579,7 +19579,7 @@
         <v>2.64</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU94" t="n">
         <v>3.07</v>
@@ -20591,7 +20591,7 @@
         <v>2.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT99" t="n">
         <v>2.36</v>
@@ -20997,7 +20997,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT101" t="n">
         <v>0.6899999999999999</v>
@@ -23842,7 +23842,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU115" t="n">
         <v>1.28</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT122" t="n">
         <v>0.38</v>
@@ -27496,7 +27496,7 @@
         <v>0.57</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU133" t="n">
         <v>1.67</v>
@@ -29726,7 +29726,7 @@
         <v>1</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT144" t="n">
         <v>1.08</v>
@@ -31556,7 +31556,7 @@
         <v>1.64</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU153" t="n">
         <v>1.4</v>
@@ -32774,7 +32774,7 @@
         <v>1.93</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU159" t="n">
         <v>1.43</v>
@@ -35004,7 +35004,7 @@
         <v>1.25</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT170" t="n">
         <v>1.38</v>
@@ -35819,7 +35819,7 @@
         <v>1.31</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU174" t="n">
         <v>1.92</v>
@@ -37440,7 +37440,7 @@
         <v>1.1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT182" t="n">
         <v>1.5</v>
@@ -40082,7 +40082,7 @@
         <v>1.69</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU195" t="n">
         <v>1.31</v>
@@ -42109,7 +42109,7 @@
         <v>0.45</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT205" t="n">
         <v>0.36</v>
@@ -45563,7 +45563,7 @@
         <v>1.08</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU222" t="n">
         <v>1.32</v>
@@ -48199,7 +48199,7 @@
         <v>1.67</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT235" t="n">
         <v>1.71</v>
@@ -49878,6 +49878,209 @@
       </c>
       <c r="BK243" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2808909</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45026.67708333334</v>
+      </c>
+      <c r="F244" t="n">
+        <v>27</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>14</v>
+      </c>
+      <c r="R244" t="n">
+        <v>5</v>
+      </c>
+      <c r="S244" t="n">
+        <v>19</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V244" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK244"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT3" t="n">
         <v>1.5</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT5" t="n">
         <v>0.36</v>
@@ -1715,7 +1715,7 @@
         <v>0.71</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT7" t="n">
         <v>1.71</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.29</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT11" t="n">
         <v>2.36</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT13" t="n">
         <v>0.86</v>
@@ -3339,7 +3339,7 @@
         <v>1.64</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT17" t="n">
         <v>1.36</v>
@@ -4151,7 +4151,7 @@
         <v>1.86</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.57</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
         <v>0.86</v>
@@ -4760,7 +4760,7 @@
         <v>0.71</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU21" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT22" t="n">
         <v>1.5</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT23" t="n">
         <v>1.71</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT25" t="n">
         <v>0.36</v>
@@ -5775,7 +5775,7 @@
         <v>1.29</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>2.15</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU29" t="n">
         <v>1.52</v>
@@ -6587,7 +6587,7 @@
         <v>1.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU30" t="n">
         <v>1.9</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT31" t="n">
         <v>1.36</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT34" t="n">
         <v>2.21</v>
@@ -7602,7 +7602,7 @@
         <v>1.93</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU35" t="n">
         <v>1.46</v>
@@ -7805,7 +7805,7 @@
         <v>1.31</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU36" t="n">
         <v>0.71</v>
@@ -8008,7 +8008,7 @@
         <v>2.64</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU37" t="n">
         <v>2.43</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.71</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>2.32</v>
@@ -9023,7 +9023,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU42" t="n">
         <v>0.97</v>
@@ -9632,7 +9632,7 @@
         <v>1.64</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT46" t="n">
         <v>0.86</v>
@@ -10038,7 +10038,7 @@
         <v>1.93</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU47" t="n">
         <v>1.62</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU49" t="n">
         <v>2.74</v>
@@ -10644,7 +10644,7 @@
         <v>3</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT50" t="n">
         <v>1.36</v>
@@ -10850,7 +10850,7 @@
         <v>0.57</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU51" t="n">
         <v>1.45</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU53" t="n">
         <v>1.74</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT54" t="n">
         <v>2.36</v>
@@ -12271,7 +12271,7 @@
         <v>0.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU58" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
         <v>2.21</v>
@@ -12880,7 +12880,7 @@
         <v>1.86</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU61" t="n">
         <v>0.97</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -13689,10 +13689,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU65" t="n">
         <v>2.47</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT66" t="n">
         <v>2.36</v>
@@ -14098,7 +14098,7 @@
         <v>1.31</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT68" t="n">
         <v>0.79</v>
@@ -14504,7 +14504,7 @@
         <v>1.93</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU69" t="n">
         <v>1.52</v>
@@ -14704,10 +14704,10 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -14910,7 +14910,7 @@
         <v>0.57</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU71" t="n">
         <v>1.69</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT72" t="n">
         <v>0.77</v>
@@ -15313,10 +15313,10 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU73" t="n">
         <v>1.71</v>
@@ -16331,7 +16331,7 @@
         <v>0.57</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.5</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT81" t="n">
         <v>1.36</v>
@@ -17343,10 +17343,10 @@
         <v>2.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU83" t="n">
         <v>2</v>
@@ -17546,10 +17546,10 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -17749,7 +17749,7 @@
         <v>2.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>2.36</v>
@@ -17952,10 +17952,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU86" t="n">
         <v>2.37</v>
@@ -18155,10 +18155,10 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU87" t="n">
         <v>1.74</v>
@@ -18361,7 +18361,7 @@
         <v>1.31</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU88" t="n">
         <v>1.95</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU89" t="n">
         <v>1.68</v>
@@ -18967,10 +18967,10 @@
         <v>1.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU91" t="n">
         <v>1.13</v>
@@ -21000,7 +21000,7 @@
         <v>1.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU101" t="n">
         <v>1.57</v>
@@ -21203,7 +21203,7 @@
         <v>1.31</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21403,10 +21403,10 @@
         <v>0.2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU103" t="n">
         <v>1.94</v>
@@ -21606,10 +21606,10 @@
         <v>1.4</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>2.44</v>
@@ -21809,7 +21809,7 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT105" t="n">
         <v>0.77</v>
@@ -22012,7 +22012,7 @@
         <v>0.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT106" t="n">
         <v>1</v>
@@ -22215,10 +22215,10 @@
         <v>2</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU107" t="n">
         <v>2.45</v>
@@ -22418,10 +22418,10 @@
         <v>2.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU108" t="n">
         <v>1</v>
@@ -22621,10 +22621,10 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU109" t="n">
         <v>1.86</v>
@@ -24045,7 +24045,7 @@
         <v>2.64</v>
       </c>
       <c r="AT116" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU116" t="n">
         <v>3.02</v>
@@ -24245,7 +24245,7 @@
         <v>1.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT117" t="n">
         <v>1.71</v>
@@ -24651,7 +24651,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT119" t="n">
         <v>0.36</v>
@@ -24857,7 +24857,7 @@
         <v>1.29</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU120" t="n">
         <v>1.6</v>
@@ -25057,10 +25057,10 @@
         <v>1.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25263,7 +25263,7 @@
         <v>1.29</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU122" t="n">
         <v>1.64</v>
@@ -25463,10 +25463,10 @@
         <v>0.17</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU123" t="n">
         <v>2.42</v>
@@ -25666,7 +25666,7 @@
         <v>0.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>1.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>2.07</v>
@@ -26072,10 +26072,10 @@
         <v>2.67</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU126" t="n">
         <v>2.49</v>
@@ -26481,7 +26481,7 @@
         <v>2.64</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU128" t="n">
         <v>2.82</v>
@@ -26681,7 +26681,7 @@
         <v>1.57</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT129" t="n">
         <v>1.5</v>
@@ -27696,7 +27696,7 @@
         <v>1.43</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT134" t="n">
         <v>1.71</v>
@@ -27902,7 +27902,7 @@
         <v>1.64</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU135" t="n">
         <v>1.36</v>
@@ -28105,7 +28105,7 @@
         <v>1.29</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU136" t="n">
         <v>1.5</v>
@@ -28508,10 +28508,10 @@
         <v>0.14</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU138" t="n">
         <v>1.35</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT139" t="n">
         <v>0.77</v>
@@ -28914,10 +28914,10 @@
         <v>1.29</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU140" t="n">
         <v>1.86</v>
@@ -29320,7 +29320,7 @@
         <v>0.63</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT142" t="n">
         <v>1</v>
@@ -29523,10 +29523,10 @@
         <v>2.29</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU143" t="n">
         <v>0.98</v>
@@ -29729,7 +29729,7 @@
         <v>1.29</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.62</v>
@@ -29932,7 +29932,7 @@
         <v>1.86</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU145" t="n">
         <v>1.28</v>
@@ -30132,7 +30132,7 @@
         <v>1.38</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT146" t="n">
         <v>1.5</v>
@@ -30541,7 +30541,7 @@
         <v>0.71</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU148" t="n">
         <v>1.25</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT150" t="n">
         <v>0.79</v>
@@ -31150,7 +31150,7 @@
         <v>1.5</v>
       </c>
       <c r="AT151" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU151" t="n">
         <v>1.19</v>
@@ -31350,7 +31350,7 @@
         <v>0.88</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT152" t="n">
         <v>0.86</v>
@@ -31759,7 +31759,7 @@
         <v>0.57</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU154" t="n">
         <v>1.62</v>
@@ -32165,7 +32165,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU156" t="n">
         <v>1.23</v>
@@ -32368,7 +32368,7 @@
         <v>1.64</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU157" t="n">
         <v>1.38</v>
@@ -32568,7 +32568,7 @@
         <v>1.22</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT158" t="n">
         <v>0.79</v>
@@ -32977,7 +32977,7 @@
         <v>0.57</v>
       </c>
       <c r="AT160" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU160" t="n">
         <v>1.6</v>
@@ -33180,7 +33180,7 @@
         <v>1.86</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU161" t="n">
         <v>1.42</v>
@@ -33380,7 +33380,7 @@
         <v>2</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT162" t="n">
         <v>2.21</v>
@@ -33583,7 +33583,7 @@
         <v>2.67</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT163" t="n">
         <v>2.36</v>
@@ -33992,7 +33992,7 @@
         <v>2.64</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU165" t="n">
         <v>2.81</v>
@@ -34192,10 +34192,10 @@
         <v>0.88</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.02</v>
@@ -34395,7 +34395,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT167" t="n">
         <v>0.36</v>
@@ -34598,7 +34598,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT168" t="n">
         <v>1</v>
@@ -34801,7 +34801,7 @@
         <v>1.22</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT169" t="n">
         <v>1.5</v>
@@ -35007,7 +35007,7 @@
         <v>1.29</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU170" t="n">
         <v>1.61</v>
@@ -35210,7 +35210,7 @@
         <v>1.29</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU171" t="n">
         <v>1.61</v>
@@ -35410,7 +35410,7 @@
         <v>1.22</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT172" t="n">
         <v>1.71</v>
@@ -35613,7 +35613,7 @@
         <v>0.88</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT173" t="n">
         <v>0.77</v>
@@ -36022,7 +36022,7 @@
         <v>1.86</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU175" t="n">
         <v>1.33</v>
@@ -36225,7 +36225,7 @@
         <v>1.93</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU176" t="n">
         <v>1.5</v>
@@ -36425,10 +36425,10 @@
         <v>0.78</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT177" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU177" t="n">
         <v>1.37</v>
@@ -36628,7 +36628,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT178" t="n">
         <v>2.21</v>
@@ -36831,7 +36831,7 @@
         <v>2.4</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT179" t="n">
         <v>2.36</v>
@@ -37034,7 +37034,7 @@
         <v>1.1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT180" t="n">
         <v>0.79</v>
@@ -37240,7 +37240,7 @@
         <v>1.64</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU181" t="n">
         <v>1.45</v>
@@ -37643,10 +37643,10 @@
         <v>0.44</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU183" t="n">
         <v>1.35</v>
@@ -38049,7 +38049,7 @@
         <v>0.8</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT185" t="n">
         <v>0.86</v>
@@ -38455,10 +38455,10 @@
         <v>1.22</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU187" t="n">
         <v>2.21</v>
@@ -38661,7 +38661,7 @@
         <v>1.5</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU188" t="n">
         <v>1.34</v>
@@ -38861,7 +38861,7 @@
         <v>1.4</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT189" t="n">
         <v>1.71</v>
@@ -39267,10 +39267,10 @@
         <v>0.9</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU191" t="n">
         <v>1.44</v>
@@ -39473,7 +39473,7 @@
         <v>1.86</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU192" t="n">
         <v>1.34</v>
@@ -39673,10 +39673,10 @@
         <v>0.5</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU193" t="n">
         <v>1.6</v>
@@ -39879,7 +39879,7 @@
         <v>1.31</v>
       </c>
       <c r="AT194" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU194" t="n">
         <v>1.9</v>
@@ -40079,7 +40079,7 @@
         <v>1.36</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT195" t="n">
         <v>1.36</v>
@@ -40485,10 +40485,10 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU197" t="n">
         <v>2.01</v>
@@ -40688,7 +40688,7 @@
         <v>1</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT198" t="n">
         <v>0.79</v>
@@ -41097,7 +41097,7 @@
         <v>1.64</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU200" t="n">
         <v>1.46</v>
@@ -41500,7 +41500,7 @@
         <v>1.09</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT202" t="n">
         <v>1.5</v>
@@ -41906,7 +41906,7 @@
         <v>2.18</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT204" t="n">
         <v>2.21</v>
@@ -42315,7 +42315,7 @@
         <v>0.71</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU206" t="n">
         <v>1.29</v>
@@ -42515,7 +42515,7 @@
         <v>0.73</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT207" t="n">
         <v>0.86</v>
@@ -42721,7 +42721,7 @@
         <v>1.5</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU208" t="n">
         <v>1.3</v>
@@ -42921,7 +42921,7 @@
         <v>0.92</v>
       </c>
       <c r="AS209" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT209" t="n">
         <v>0.79</v>
@@ -43124,10 +43124,10 @@
         <v>0.82</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU210" t="n">
         <v>1.68</v>
@@ -43330,7 +43330,7 @@
         <v>0.57</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU211" t="n">
         <v>1.66</v>
@@ -43533,7 +43533,7 @@
         <v>1.93</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU212" t="n">
         <v>1.44</v>
@@ -43936,10 +43936,10 @@
         <v>1.18</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT214" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU214" t="n">
         <v>1.31</v>
@@ -44139,10 +44139,10 @@
         <v>2.55</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT215" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU215" t="n">
         <v>1.73</v>
@@ -44342,7 +44342,7 @@
         <v>0.91</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT216" t="n">
         <v>0.77</v>
@@ -44545,10 +44545,10 @@
         <v>1.55</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU217" t="n">
         <v>1.51</v>
@@ -45157,7 +45157,7 @@
         <v>1.86</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU220" t="n">
         <v>1.32</v>
@@ -45360,7 +45360,7 @@
         <v>2.64</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU221" t="n">
         <v>2.68</v>
@@ -45560,7 +45560,7 @@
         <v>1.25</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT222" t="n">
         <v>1.36</v>
@@ -45966,7 +45966,7 @@
         <v>2.25</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT224" t="n">
         <v>2.21</v>
@@ -46372,10 +46372,10 @@
         <v>1.08</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT226" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU226" t="n">
         <v>1.3</v>
@@ -46578,7 +46578,7 @@
         <v>1.31</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU227" t="n">
         <v>1.79</v>
@@ -46781,7 +46781,7 @@
         <v>1.93</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU228" t="n">
         <v>1.56</v>
@@ -46981,10 +46981,10 @@
         <v>0.42</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AU229" t="n">
         <v>2.32</v>
@@ -47184,7 +47184,7 @@
         <v>0.83</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT230" t="n">
         <v>0.77</v>
@@ -47387,7 +47387,7 @@
         <v>2.31</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT231" t="n">
         <v>2.36</v>
@@ -47590,10 +47590,10 @@
         <v>2.58</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT232" t="n">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AU232" t="n">
         <v>1.3</v>
@@ -47793,10 +47793,10 @@
         <v>0.75</v>
       </c>
       <c r="AS233" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AU233" t="n">
         <v>1.95</v>
@@ -47996,10 +47996,10 @@
         <v>1.25</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AU234" t="n">
         <v>1.53</v>
@@ -48811,7 +48811,7 @@
         <v>1.64</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU238" t="n">
         <v>1.5</v>
@@ -49620,7 +49620,7 @@
         <v>0.85</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT242" t="n">
         <v>0.79</v>
@@ -50081,6 +50081,1630 @@
       </c>
       <c r="BK244" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2808911</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45030.67708333334</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Famalicão</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Vitória Guimarães</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>3</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['10', '70']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>3</v>
+      </c>
+      <c r="R245" t="n">
+        <v>10</v>
+      </c>
+      <c r="S245" t="n">
+        <v>13</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2808910</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45031.47916666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>GD Estoril Praia</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>10</v>
+      </c>
+      <c r="R246" t="n">
+        <v>5</v>
+      </c>
+      <c r="S246" t="n">
+        <v>15</v>
+      </c>
+      <c r="T246" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2</v>
+      </c>
+      <c r="V246" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2808912</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45031.47916666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>28</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>CS Marítimo</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Paços de Ferreira</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>2</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2</v>
+      </c>
+      <c r="L247" t="n">
+        <v>3</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
+        <v>4</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['29', '42', '69']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>2</v>
+      </c>
+      <c r="R247" t="n">
+        <v>5</v>
+      </c>
+      <c r="S247" t="n">
+        <v>7</v>
+      </c>
+      <c r="T247" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2</v>
+      </c>
+      <c r="V247" t="n">
+        <v>4</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2808918</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45031.58333333334</v>
+      </c>
+      <c r="F248" t="n">
+        <v>28</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>GD Chaves</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>3</v>
+      </c>
+      <c r="R248" t="n">
+        <v>19</v>
+      </c>
+      <c r="S248" t="n">
+        <v>22</v>
+      </c>
+      <c r="T248" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V248" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X248" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2808917</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45031.6875</v>
+      </c>
+      <c r="F249" t="n">
+        <v>28</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="n">
+        <v>3</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['34', '80']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>4</v>
+      </c>
+      <c r="R249" t="n">
+        <v>4</v>
+      </c>
+      <c r="S249" t="n">
+        <v>8</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U249" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V249" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X249" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2808914</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45032.47916666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>28</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Rio Ave FC</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>5</v>
+      </c>
+      <c r="R250" t="n">
+        <v>8</v>
+      </c>
+      <c r="S250" t="n">
+        <v>13</v>
+      </c>
+      <c r="T250" t="n">
+        <v>3</v>
+      </c>
+      <c r="U250" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V250" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2808913</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45032.58333333334</v>
+      </c>
+      <c r="F251" t="n">
+        <v>28</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Sporting Braga</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>10</v>
+      </c>
+      <c r="R251" t="n">
+        <v>5</v>
+      </c>
+      <c r="S251" t="n">
+        <v>15</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V251" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X251" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2808915</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45032.6875</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>7</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" t="n">
+        <v>7</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V252" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X252" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Portugal Liga NOS_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK252"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.29</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT15" t="n">
         <v>2.21</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU24" t="n">
         <v>0.85</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT36" t="n">
         <v>0.93</v>
@@ -11053,7 +11053,7 @@
         <v>1.86</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU52" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT55" t="n">
         <v>0.79</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT67" t="n">
         <v>0.86</v>
@@ -15113,7 +15113,7 @@
         <v>1.79</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU72" t="n">
         <v>1.32</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT88" t="n">
         <v>0.36</v>
@@ -18767,7 +18767,7 @@
         <v>1.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU90" t="n">
         <v>1.35</v>
@@ -21200,7 +21200,7 @@
         <v>1.2</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT102" t="n">
         <v>1.36</v>
@@ -21812,7 +21812,7 @@
         <v>1.64</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU105" t="n">
         <v>1.25</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -28305,7 +28305,7 @@
         <v>0.63</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT137" t="n">
         <v>0.36</v>
@@ -28714,7 +28714,7 @@
         <v>2.29</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU139" t="n">
         <v>2.39</v>
@@ -31959,7 +31959,7 @@
         <v>0.89</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT155" t="n">
         <v>0.86</v>
@@ -33789,7 +33789,7 @@
         <v>0.71</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU164" t="n">
         <v>1.22</v>
@@ -35616,7 +35616,7 @@
         <v>1</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU173" t="n">
         <v>1.08</v>
@@ -35816,7 +35816,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT174" t="n">
         <v>1.36</v>
@@ -39067,7 +39067,7 @@
         <v>2.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU190" t="n">
         <v>2.74</v>
@@ -39876,7 +39876,7 @@
         <v>2.5</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT194" t="n">
         <v>2.43</v>
@@ -40285,7 +40285,7 @@
         <v>0.57</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU196" t="n">
         <v>1.63</v>
@@ -43733,7 +43733,7 @@
         <v>2.25</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT213" t="n">
         <v>2.36</v>
@@ -44345,7 +44345,7 @@
         <v>2.43</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU216" t="n">
         <v>2.37</v>
@@ -46575,7 +46575,7 @@
         <v>1.42</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT227" t="n">
         <v>1.29</v>
@@ -47187,7 +47187,7 @@
         <v>1.21</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU230" t="n">
         <v>1.65</v>
@@ -51705,6 +51705,209 @@
       </c>
       <c r="BK252" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2808916</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Portugal Liga NOS</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45033.67708333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>28</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>FC Vizela</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Boavista FC</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>7</v>
+      </c>
+      <c r="R253" t="n">
+        <v>3</v>
+      </c>
+      <c r="S253" t="n">
+        <v>10</v>
+      </c>
+      <c r="T253" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V253" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
